--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\제안서\롯데 면세점\참여자 명단\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DD8627-8F07-4C4D-AE4E-EB5886AB8778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63135D19-6F7E-451C-99E2-38F4ECC08537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
   <sheets>
     <sheet name="참석인원명부_업체발송용" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">참석인원명부_업체발송용!$A$3:$J$743</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">참석인원명부_업체발송용!$A$1:$W$743</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">참석인원명부_업체발송용!$A$3:$J$744</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">참석인원명부_업체발송용!$A$1:$W$744</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5211" uniqueCount="2364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="2365">
   <si>
     <t>● 25년 전사 워크숍 참석인원 명부</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7267,6 +7267,10 @@
   </si>
   <si>
     <t>차수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하영환</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7437,7 +7441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7488,6 +7492,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7813,28 +7826,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
-  <dimension ref="A1:W743"/>
+  <dimension ref="A1:W745"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A613" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D628" sqref="D628"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.4140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.4140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.9140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.9140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="3"/>
+    <col min="9" max="9" width="15.296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.796875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="36" customHeight="1">
@@ -7843,7 +7856,7 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="22.25" customHeight="1">
+    <row r="2" spans="1:23" ht="22.2" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -7864,35 +7877,35 @@
         <v>876</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>2363</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="21" t="s">
         <v>2360</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -7926,27 +7939,27 @@
         <v>875</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.25" customHeight="1">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:23" ht="16.2" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="L4" s="12">
         <v>1</v>
       </c>
@@ -7985,7 +7998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15">
+    <row r="5" spans="1:23" ht="15.6">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -8055,7 +8068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15">
+    <row r="6" spans="1:23" ht="15.6">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -8125,7 +8138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15">
+    <row r="7" spans="1:23" ht="15.6">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -8195,7 +8208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15">
+    <row r="8" spans="1:23" ht="15.6">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -8238,7 +8251,7 @@
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="1"/>
@@ -8265,7 +8278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15">
+    <row r="9" spans="1:23" ht="15.6">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -8308,7 +8321,7 @@
       </c>
       <c r="Q9" s="12">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R9" s="12">
         <f t="shared" si="1"/>
@@ -8316,7 +8329,7 @@
       </c>
       <c r="S9" s="12">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T9" s="12">
         <f t="shared" si="4"/>
@@ -8335,7 +8348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15">
+    <row r="10" spans="1:23" ht="15.6">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -8405,7 +8418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15">
+    <row r="11" spans="1:23" ht="15.6">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -8448,7 +8461,7 @@
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="1"/>
@@ -8456,7 +8469,7 @@
       </c>
       <c r="S11" s="12">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T11" s="12">
         <f t="shared" si="4"/>
@@ -8464,18 +8477,18 @@
       </c>
       <c r="U11" s="12">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V11" s="12">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W11" s="12">
         <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.6">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -8545,7 +8558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15">
+    <row r="13" spans="1:23" ht="15.6">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -8615,7 +8628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15">
+    <row r="14" spans="1:23" ht="15.6">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -8652,7 +8665,7 @@
       </c>
       <c r="Q14" s="12">
         <f>SUM(Q4:Q13)</f>
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="R14" s="12">
         <f t="shared" ref="R14:W14" si="7">SUM(R4:R13)</f>
@@ -8668,18 +8681,18 @@
       </c>
       <c r="U14" s="12">
         <f t="shared" si="7"/>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="V14" s="12">
         <f t="shared" si="7"/>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W14" s="12">
         <f t="shared" si="7"/>
-        <v>433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.6">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -8712,7 +8725,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15">
+    <row r="16" spans="1:23" ht="15.6">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -8745,7 +8758,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15">
+    <row r="17" spans="1:23" ht="15.6">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -8778,7 +8791,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15">
+    <row r="18" spans="1:23" ht="15.6">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -8811,7 +8824,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="19" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -8857,7 +8870,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" ht="15">
+    <row r="20" spans="1:23" ht="15.6">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -8890,7 +8903,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="10" customFormat="1" ht="15">
+    <row r="21" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A21" s="9">
         <v>17</v>
       </c>
@@ -8936,7 +8949,7 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" ht="15">
+    <row r="22" spans="1:23" ht="15.6">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -8969,7 +8982,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="23" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -9015,7 +9028,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" ht="15">
+    <row r="24" spans="1:23" ht="15.6">
       <c r="A24" s="9">
         <v>20</v>
       </c>
@@ -9048,7 +9061,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15">
+    <row r="25" spans="1:23" ht="15.6">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -9081,7 +9094,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15">
+    <row r="26" spans="1:23" ht="15.6">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -9114,7 +9127,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15">
+    <row r="27" spans="1:23" ht="15.6">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -9147,7 +9160,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15">
+    <row r="28" spans="1:23" ht="15.6">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -9180,7 +9193,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="30">
+    <row r="29" spans="1:23" ht="31.2">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -9213,7 +9226,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="30">
+    <row r="30" spans="1:23" ht="31.2">
       <c r="A30" s="9">
         <v>26</v>
       </c>
@@ -9246,7 +9259,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15">
+    <row r="31" spans="1:23" ht="15.6">
       <c r="A31" s="9">
         <v>27</v>
       </c>
@@ -9279,7 +9292,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15">
+    <row r="32" spans="1:23" ht="15.6">
       <c r="A32" s="9">
         <v>28</v>
       </c>
@@ -9312,7 +9325,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15">
+    <row r="33" spans="1:23" ht="15.6">
       <c r="A33" s="9">
         <v>29</v>
       </c>
@@ -9345,7 +9358,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15">
+    <row r="34" spans="1:23" ht="15.6">
       <c r="A34" s="9">
         <v>30</v>
       </c>
@@ -9378,7 +9391,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15">
+    <row r="35" spans="1:23" ht="15.6">
       <c r="A35" s="9">
         <v>31</v>
       </c>
@@ -9411,7 +9424,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15">
+    <row r="36" spans="1:23" ht="31.2">
       <c r="A36" s="9">
         <v>32</v>
       </c>
@@ -9444,7 +9457,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15">
+    <row r="37" spans="1:23" ht="31.2">
       <c r="A37" s="9">
         <v>33</v>
       </c>
@@ -9477,7 +9490,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15">
+    <row r="38" spans="1:23" ht="31.2">
       <c r="A38" s="9">
         <v>34</v>
       </c>
@@ -9510,7 +9523,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15">
+    <row r="39" spans="1:23" ht="31.2">
       <c r="A39" s="9">
         <v>35</v>
       </c>
@@ -9543,7 +9556,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="40" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A40" s="9">
         <v>36</v>
       </c>
@@ -9589,7 +9602,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="1:23" ht="15">
+    <row r="41" spans="1:23" ht="15.6">
       <c r="A41" s="9">
         <v>37</v>
       </c>
@@ -9622,7 +9635,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="10" customFormat="1" ht="15">
+    <row r="42" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -9668,7 +9681,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:23" ht="15">
+    <row r="43" spans="1:23" ht="15.6">
       <c r="A43" s="9">
         <v>39</v>
       </c>
@@ -9701,7 +9714,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15">
+    <row r="44" spans="1:23" ht="15.6">
       <c r="A44" s="9">
         <v>40</v>
       </c>
@@ -9734,7 +9747,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15">
+    <row r="45" spans="1:23" ht="15.6">
       <c r="A45" s="9">
         <v>41</v>
       </c>
@@ -9767,7 +9780,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="30">
+    <row r="46" spans="1:23" ht="31.2">
       <c r="A46" s="9">
         <v>42</v>
       </c>
@@ -9800,7 +9813,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="30">
+    <row r="47" spans="1:23" ht="31.2">
       <c r="A47" s="9">
         <v>43</v>
       </c>
@@ -9833,7 +9846,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="30">
+    <row r="48" spans="1:23" ht="31.2">
       <c r="A48" s="9">
         <v>44</v>
       </c>
@@ -9866,7 +9879,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15">
+    <row r="49" spans="1:12" ht="31.2">
       <c r="A49" s="9">
         <v>45</v>
       </c>
@@ -9899,7 +9912,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15">
+    <row r="50" spans="1:12" ht="31.2">
       <c r="A50" s="9">
         <v>46</v>
       </c>
@@ -9932,7 +9945,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15">
+    <row r="51" spans="1:12" ht="15.6">
       <c r="A51" s="9">
         <v>47</v>
       </c>
@@ -9965,7 +9978,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15">
+    <row r="52" spans="1:12" ht="15.6">
       <c r="A52" s="9">
         <v>48</v>
       </c>
@@ -9998,7 +10011,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15">
+    <row r="53" spans="1:12" ht="15.6">
       <c r="A53" s="9">
         <v>49</v>
       </c>
@@ -10031,7 +10044,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15">
+    <row r="54" spans="1:12" ht="31.2">
       <c r="A54" s="9">
         <v>50</v>
       </c>
@@ -10064,7 +10077,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15">
+    <row r="55" spans="1:12" ht="15.6">
       <c r="A55" s="9">
         <v>51</v>
       </c>
@@ -10097,7 +10110,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15">
+    <row r="56" spans="1:12" ht="15.6">
       <c r="A56" s="9">
         <v>52</v>
       </c>
@@ -10130,7 +10143,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15">
+    <row r="57" spans="1:12" ht="15.6">
       <c r="A57" s="9">
         <v>53</v>
       </c>
@@ -10163,7 +10176,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15">
+    <row r="58" spans="1:12" ht="15.6">
       <c r="A58" s="9">
         <v>54</v>
       </c>
@@ -10196,7 +10209,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15">
+    <row r="59" spans="1:12" ht="15.6">
       <c r="A59" s="9">
         <v>55</v>
       </c>
@@ -10229,7 +10242,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15">
+    <row r="60" spans="1:12" ht="15.6">
       <c r="A60" s="9">
         <v>56</v>
       </c>
@@ -10262,7 +10275,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15">
+    <row r="61" spans="1:12" ht="31.2">
       <c r="A61" s="9">
         <v>57</v>
       </c>
@@ -10296,7 +10309,7 @@
       </c>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="15">
+    <row r="62" spans="1:12" ht="15.6">
       <c r="A62" s="9">
         <v>58</v>
       </c>
@@ -10329,7 +10342,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15">
+    <row r="63" spans="1:12" ht="15.6">
       <c r="A63" s="9">
         <v>59</v>
       </c>
@@ -10362,7 +10375,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15">
+    <row r="64" spans="1:12" ht="15.6">
       <c r="A64" s="9">
         <v>60</v>
       </c>
@@ -10395,7 +10408,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15">
+    <row r="65" spans="1:10" ht="15.6">
       <c r="A65" s="9">
         <v>61</v>
       </c>
@@ -10428,7 +10441,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15">
+    <row r="66" spans="1:10" ht="15.6">
       <c r="A66" s="9">
         <v>62</v>
       </c>
@@ -10461,7 +10474,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15">
+    <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="9">
         <v>63</v>
       </c>
@@ -10494,7 +10507,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15">
+    <row r="68" spans="1:10" ht="15.6">
       <c r="A68" s="9">
         <v>64</v>
       </c>
@@ -10527,7 +10540,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15">
+    <row r="69" spans="1:10" ht="15.6">
       <c r="A69" s="9">
         <v>65</v>
       </c>
@@ -10560,7 +10573,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30">
+    <row r="70" spans="1:10" ht="31.2">
       <c r="A70" s="9">
         <v>66</v>
       </c>
@@ -10593,7 +10606,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30">
+    <row r="71" spans="1:10" ht="31.2">
       <c r="A71" s="9">
         <v>67</v>
       </c>
@@ -10626,7 +10639,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15">
+    <row r="72" spans="1:10" ht="15.6">
       <c r="A72" s="9">
         <v>68</v>
       </c>
@@ -10659,7 +10672,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15">
+    <row r="73" spans="1:10" ht="15.6">
       <c r="A73" s="9">
         <v>69</v>
       </c>
@@ -10692,7 +10705,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30">
+    <row r="74" spans="1:10" ht="31.2">
       <c r="A74" s="9">
         <v>70</v>
       </c>
@@ -10725,7 +10738,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15">
+    <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="9">
         <v>71</v>
       </c>
@@ -10758,7 +10771,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15">
+    <row r="76" spans="1:10" ht="15.6">
       <c r="A76" s="9">
         <v>72</v>
       </c>
@@ -10791,7 +10804,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15">
+    <row r="77" spans="1:10" ht="15.6">
       <c r="A77" s="9">
         <v>73</v>
       </c>
@@ -10824,7 +10837,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15">
+    <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="9">
         <v>74</v>
       </c>
@@ -10857,7 +10870,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15">
+    <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="9">
         <v>75</v>
       </c>
@@ -10890,7 +10903,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15">
+    <row r="80" spans="1:10" ht="15.6">
       <c r="A80" s="9">
         <v>76</v>
       </c>
@@ -10923,7 +10936,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15">
+    <row r="81" spans="1:23" ht="15.6">
       <c r="A81" s="9">
         <v>77</v>
       </c>
@@ -10956,7 +10969,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15">
+    <row r="82" spans="1:23" ht="15.6">
       <c r="A82" s="9">
         <v>78</v>
       </c>
@@ -10989,7 +11002,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15">
+    <row r="83" spans="1:23" ht="15.6">
       <c r="A83" s="9">
         <v>79</v>
       </c>
@@ -11022,7 +11035,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15">
+    <row r="84" spans="1:23" ht="15.6">
       <c r="A84" s="9">
         <v>80</v>
       </c>
@@ -11055,7 +11068,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15">
+    <row r="85" spans="1:23" ht="15.6">
       <c r="A85" s="9">
         <v>81</v>
       </c>
@@ -11088,7 +11101,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="86" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A86" s="9">
         <v>82</v>
       </c>
@@ -11134,7 +11147,7 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
     </row>
-    <row r="87" spans="1:23" ht="15">
+    <row r="87" spans="1:23" ht="15.6">
       <c r="A87" s="9">
         <v>84</v>
       </c>
@@ -11167,7 +11180,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15">
+    <row r="88" spans="1:23" ht="15.6">
       <c r="A88" s="9">
         <v>85</v>
       </c>
@@ -11200,7 +11213,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15">
+    <row r="89" spans="1:23" ht="15.6">
       <c r="A89" s="9">
         <v>86</v>
       </c>
@@ -11233,7 +11246,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15">
+    <row r="90" spans="1:23" ht="15.6">
       <c r="A90" s="9">
         <v>87</v>
       </c>
@@ -11266,7 +11279,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="91" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A91" s="9">
         <v>88</v>
       </c>
@@ -11312,7 +11325,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
     </row>
-    <row r="92" spans="1:23" ht="15">
+    <row r="92" spans="1:23" ht="15.6">
       <c r="A92" s="9">
         <v>89</v>
       </c>
@@ -11345,7 +11358,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="93" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A93" s="9">
         <v>90</v>
       </c>
@@ -11391,7 +11404,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
     </row>
-    <row r="94" spans="1:23" ht="30">
+    <row r="94" spans="1:23" ht="31.2">
       <c r="A94" s="9">
         <v>91</v>
       </c>
@@ -11424,7 +11437,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="7" customFormat="1" ht="30">
+    <row r="95" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A95" s="9">
         <v>92</v>
       </c>
@@ -11470,7 +11483,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
     </row>
-    <row r="96" spans="1:23" ht="30">
+    <row r="96" spans="1:23" ht="31.2">
       <c r="A96" s="9">
         <v>93</v>
       </c>
@@ -11503,7 +11516,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="30">
+    <row r="97" spans="1:23" ht="31.2">
       <c r="A97" s="9">
         <v>94</v>
       </c>
@@ -11536,7 +11549,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15">
+    <row r="98" spans="1:23" ht="15.6">
       <c r="A98" s="9">
         <v>95</v>
       </c>
@@ -11569,7 +11582,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15">
+    <row r="99" spans="1:23" ht="15.6">
       <c r="A99" s="9">
         <v>96</v>
       </c>
@@ -11602,7 +11615,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="100" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A100" s="9">
         <v>97</v>
       </c>
@@ -11648,7 +11661,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
     </row>
-    <row r="101" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="101" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A101" s="9">
         <v>98</v>
       </c>
@@ -11694,7 +11707,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:23" ht="15">
+    <row r="102" spans="1:23" ht="15.6">
       <c r="A102" s="9">
         <v>99</v>
       </c>
@@ -11727,7 +11740,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15">
+    <row r="103" spans="1:23" ht="15.6">
       <c r="A103" s="9">
         <v>100</v>
       </c>
@@ -11760,7 +11773,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15">
+    <row r="104" spans="1:23" ht="31.2">
       <c r="A104" s="9">
         <v>101</v>
       </c>
@@ -11793,7 +11806,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="10" customFormat="1" ht="15">
+    <row r="105" spans="1:23" s="10" customFormat="1" ht="31.2">
       <c r="A105" s="9">
         <v>102</v>
       </c>
@@ -11839,7 +11852,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
     </row>
-    <row r="106" spans="1:23" ht="15">
+    <row r="106" spans="1:23" ht="31.2">
       <c r="A106" s="9">
         <v>103</v>
       </c>
@@ -11872,7 +11885,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15">
+    <row r="107" spans="1:23" ht="31.2">
       <c r="A107" s="9">
         <v>104</v>
       </c>
@@ -11905,7 +11918,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="11" customFormat="1" ht="15">
+    <row r="108" spans="1:23" s="11" customFormat="1" ht="31.2">
       <c r="A108" s="9">
         <v>105</v>
       </c>
@@ -11951,7 +11964,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
     </row>
-    <row r="109" spans="1:23" ht="15">
+    <row r="109" spans="1:23" ht="31.2">
       <c r="A109" s="9">
         <v>106</v>
       </c>
@@ -11984,7 +11997,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15">
+    <row r="110" spans="1:23" ht="15.6">
       <c r="A110" s="9">
         <v>107</v>
       </c>
@@ -12017,7 +12030,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15">
+    <row r="111" spans="1:23" ht="15.6">
       <c r="A111" s="9">
         <v>108</v>
       </c>
@@ -12050,7 +12063,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15">
+    <row r="112" spans="1:23" ht="15.6">
       <c r="A112" s="9">
         <v>109</v>
       </c>
@@ -12083,7 +12096,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15">
+    <row r="113" spans="1:23" ht="15.6">
       <c r="A113" s="9">
         <v>110</v>
       </c>
@@ -12116,7 +12129,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15">
+    <row r="114" spans="1:23" ht="15.6">
       <c r="A114" s="9">
         <v>111</v>
       </c>
@@ -12149,7 +12162,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15">
+    <row r="115" spans="1:23" ht="15.6">
       <c r="A115" s="9">
         <v>112</v>
       </c>
@@ -12182,7 +12195,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="116" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A116" s="9">
         <v>113</v>
       </c>
@@ -12228,7 +12241,7 @@
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
     </row>
-    <row r="117" spans="1:23" s="7" customFormat="1" ht="30">
+    <row r="117" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A117" s="9">
         <v>114</v>
       </c>
@@ -12274,7 +12287,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
     </row>
-    <row r="118" spans="1:23" ht="30">
+    <row r="118" spans="1:23" ht="31.2">
       <c r="A118" s="9">
         <v>115</v>
       </c>
@@ -12307,7 +12320,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="10" customFormat="1" ht="15">
+    <row r="119" spans="1:23" s="10" customFormat="1" ht="31.2">
       <c r="A119" s="9">
         <v>116</v>
       </c>
@@ -12353,7 +12366,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
     </row>
-    <row r="120" spans="1:23" ht="15">
+    <row r="120" spans="1:23" ht="15.6">
       <c r="A120" s="9">
         <v>117</v>
       </c>
@@ -12386,7 +12399,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15">
+    <row r="121" spans="1:23" ht="15.6">
       <c r="A121" s="9">
         <v>118</v>
       </c>
@@ -12419,7 +12432,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15">
+    <row r="122" spans="1:23" ht="15.6">
       <c r="A122" s="9">
         <v>119</v>
       </c>
@@ -12452,7 +12465,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15">
+    <row r="123" spans="1:23" ht="15.6">
       <c r="A123" s="9">
         <v>120</v>
       </c>
@@ -12485,7 +12498,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15">
+    <row r="124" spans="1:23" ht="15.6">
       <c r="A124" s="9">
         <v>121</v>
       </c>
@@ -12518,7 +12531,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15">
+    <row r="125" spans="1:23" ht="15.6">
       <c r="A125" s="9">
         <v>122</v>
       </c>
@@ -12551,7 +12564,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15">
+    <row r="126" spans="1:23" ht="15.6">
       <c r="A126" s="9">
         <v>123</v>
       </c>
@@ -12584,7 +12597,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15">
+    <row r="127" spans="1:23" ht="15.6">
       <c r="A127" s="9">
         <v>124</v>
       </c>
@@ -12617,7 +12630,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15">
+    <row r="128" spans="1:23" ht="15.6">
       <c r="A128" s="9">
         <v>125</v>
       </c>
@@ -12650,7 +12663,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15">
+    <row r="129" spans="1:10" ht="15.6">
       <c r="A129" s="9">
         <v>126</v>
       </c>
@@ -12683,7 +12696,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15">
+    <row r="130" spans="1:10" ht="15.6">
       <c r="A130" s="9">
         <v>127</v>
       </c>
@@ -12716,7 +12729,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15">
+    <row r="131" spans="1:10" ht="15.6">
       <c r="A131" s="9">
         <v>128</v>
       </c>
@@ -12749,7 +12762,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15">
+    <row r="132" spans="1:10" ht="15.6">
       <c r="A132" s="9">
         <v>129</v>
       </c>
@@ -12782,7 +12795,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15">
+    <row r="133" spans="1:10" ht="15.6">
       <c r="A133" s="9">
         <v>130</v>
       </c>
@@ -12815,7 +12828,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15">
+    <row r="134" spans="1:10" ht="15.6">
       <c r="A134" s="9">
         <v>131</v>
       </c>
@@ -12848,7 +12861,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="30">
+    <row r="135" spans="1:10" ht="31.2">
       <c r="A135" s="9">
         <v>132</v>
       </c>
@@ -12881,7 +12894,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="30">
+    <row r="136" spans="1:10" ht="31.2">
       <c r="A136" s="9">
         <v>133</v>
       </c>
@@ -12914,7 +12927,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15">
+    <row r="137" spans="1:10" ht="15.6">
       <c r="A137" s="9">
         <v>134</v>
       </c>
@@ -12947,7 +12960,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="30">
+    <row r="138" spans="1:10" ht="31.2">
       <c r="A138" s="9">
         <v>135</v>
       </c>
@@ -12980,7 +12993,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15">
+    <row r="139" spans="1:10" ht="15.6">
       <c r="A139" s="9">
         <v>136</v>
       </c>
@@ -13013,7 +13026,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="30">
+    <row r="140" spans="1:10" ht="31.2">
       <c r="A140" s="9">
         <v>137</v>
       </c>
@@ -13046,7 +13059,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15">
+    <row r="141" spans="1:10" ht="15.6">
       <c r="A141" s="9">
         <v>138</v>
       </c>
@@ -13079,7 +13092,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15">
+    <row r="142" spans="1:10" ht="15.6">
       <c r="A142" s="9">
         <v>139</v>
       </c>
@@ -13112,7 +13125,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15">
+    <row r="143" spans="1:10" ht="15.6">
       <c r="A143" s="9">
         <v>140</v>
       </c>
@@ -13145,7 +13158,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15">
+    <row r="144" spans="1:10" ht="15.6">
       <c r="A144" s="9">
         <v>141</v>
       </c>
@@ -13178,7 +13191,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15">
+    <row r="145" spans="1:23" ht="15.6">
       <c r="A145" s="9">
         <v>155</v>
       </c>
@@ -13211,7 +13224,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15">
+    <row r="146" spans="1:23" ht="15.6">
       <c r="A146" s="9">
         <v>83</v>
       </c>
@@ -13244,7 +13257,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15">
+    <row r="147" spans="1:23" ht="15.6">
       <c r="A147" s="9">
         <v>142</v>
       </c>
@@ -13277,7 +13290,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15">
+    <row r="148" spans="1:23" ht="15.6">
       <c r="A148" s="9">
         <v>143</v>
       </c>
@@ -13310,7 +13323,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="149" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A149" s="9">
         <v>144</v>
       </c>
@@ -13356,7 +13369,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
     </row>
-    <row r="150" spans="1:23" ht="15">
+    <row r="150" spans="1:23" ht="15.6">
       <c r="A150" s="9">
         <v>145</v>
       </c>
@@ -13389,7 +13402,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15">
+    <row r="151" spans="1:23" ht="15.6">
       <c r="A151" s="9">
         <v>146</v>
       </c>
@@ -13422,7 +13435,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="15">
+    <row r="152" spans="1:23" ht="15.6">
       <c r="A152" s="9">
         <v>147</v>
       </c>
@@ -13455,7 +13468,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15">
+    <row r="153" spans="1:23" ht="15.6">
       <c r="A153" s="9">
         <v>148</v>
       </c>
@@ -13488,7 +13501,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="154" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A154" s="9">
         <v>149</v>
       </c>
@@ -13534,7 +13547,7 @@
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
     </row>
-    <row r="155" spans="1:23" ht="15">
+    <row r="155" spans="1:23" ht="15.6">
       <c r="A155" s="9">
         <v>150</v>
       </c>
@@ -13567,7 +13580,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="15">
+    <row r="156" spans="1:23" ht="15.6">
       <c r="A156" s="9">
         <v>151</v>
       </c>
@@ -13600,7 +13613,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15">
+    <row r="157" spans="1:23" ht="15.6">
       <c r="A157" s="9">
         <v>152</v>
       </c>
@@ -13633,7 +13646,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15">
+    <row r="158" spans="1:23" ht="15.6">
       <c r="A158" s="9">
         <v>153</v>
       </c>
@@ -13666,7 +13679,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="15">
+    <row r="159" spans="1:23" ht="15.6">
       <c r="A159" s="9">
         <v>154</v>
       </c>
@@ -13699,7 +13712,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15">
+    <row r="160" spans="1:23" ht="15.6">
       <c r="A160" s="9">
         <v>156</v>
       </c>
@@ -13732,7 +13745,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15">
+    <row r="161" spans="1:10" ht="15.6">
       <c r="A161" s="9">
         <v>157</v>
       </c>
@@ -13765,7 +13778,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15">
+    <row r="162" spans="1:10" ht="15.6">
       <c r="A162" s="9">
         <v>158</v>
       </c>
@@ -13798,7 +13811,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15">
+    <row r="163" spans="1:10" ht="15.6">
       <c r="A163" s="9">
         <v>159</v>
       </c>
@@ -13831,7 +13844,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15">
+    <row r="164" spans="1:10" ht="15.6">
       <c r="A164" s="9">
         <v>160</v>
       </c>
@@ -13864,7 +13877,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15">
+    <row r="165" spans="1:10" ht="15.6">
       <c r="A165" s="9">
         <v>161</v>
       </c>
@@ -13897,7 +13910,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15">
+    <row r="166" spans="1:10" ht="15.6">
       <c r="A166" s="9">
         <v>162</v>
       </c>
@@ -13930,7 +13943,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15">
+    <row r="167" spans="1:10" ht="15.6">
       <c r="A167" s="9">
         <v>163</v>
       </c>
@@ -13963,7 +13976,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15">
+    <row r="168" spans="1:10" ht="15.6">
       <c r="A168" s="9">
         <v>164</v>
       </c>
@@ -13996,7 +14009,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15">
+    <row r="169" spans="1:10" ht="15.6">
       <c r="A169" s="9">
         <v>165</v>
       </c>
@@ -14029,7 +14042,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15">
+    <row r="170" spans="1:10" ht="15.6">
       <c r="A170" s="9">
         <v>166</v>
       </c>
@@ -14062,7 +14075,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15">
+    <row r="171" spans="1:10" ht="15.6">
       <c r="A171" s="9">
         <v>167</v>
       </c>
@@ -14095,7 +14108,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15">
+    <row r="172" spans="1:10" ht="15.6">
       <c r="A172" s="9">
         <v>168</v>
       </c>
@@ -14128,7 +14141,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15">
+    <row r="173" spans="1:10" ht="15.6">
       <c r="A173" s="9">
         <v>169</v>
       </c>
@@ -14161,7 +14174,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="30">
+    <row r="174" spans="1:10" ht="31.2">
       <c r="A174" s="9">
         <v>170</v>
       </c>
@@ -14194,7 +14207,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="30">
+    <row r="175" spans="1:10" ht="31.2">
       <c r="A175" s="9">
         <v>171</v>
       </c>
@@ -14227,7 +14240,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15">
+    <row r="176" spans="1:10" ht="15.6">
       <c r="A176" s="9">
         <v>172</v>
       </c>
@@ -14260,7 +14273,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="177" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="177" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A177" s="9">
         <v>173</v>
       </c>
@@ -14306,7 +14319,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="3"/>
     </row>
-    <row r="178" spans="1:23" ht="15">
+    <row r="178" spans="1:23" ht="15.6">
       <c r="A178" s="9">
         <v>174</v>
       </c>
@@ -14339,7 +14352,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="15">
+    <row r="179" spans="1:23" ht="15.6">
       <c r="A179" s="9">
         <v>175</v>
       </c>
@@ -14372,7 +14385,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15">
+    <row r="180" spans="1:23" ht="15.6">
       <c r="A180" s="9">
         <v>176</v>
       </c>
@@ -14405,7 +14418,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="181" spans="1:23" s="11" customFormat="1" ht="15">
+    <row r="181" spans="1:23" s="11" customFormat="1" ht="31.2">
       <c r="A181" s="9">
         <v>177</v>
       </c>
@@ -14451,7 +14464,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
     </row>
-    <row r="182" spans="1:23" ht="15">
+    <row r="182" spans="1:23" ht="31.2">
       <c r="A182" s="9">
         <v>178</v>
       </c>
@@ -14484,7 +14497,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="183" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="183" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A183" s="9">
         <v>179</v>
       </c>
@@ -14530,7 +14543,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
     </row>
-    <row r="184" spans="1:23" ht="15">
+    <row r="184" spans="1:23" ht="31.2">
       <c r="A184" s="9">
         <v>180</v>
       </c>
@@ -14563,7 +14576,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="15">
+    <row r="185" spans="1:23" ht="31.2">
       <c r="A185" s="9">
         <v>181</v>
       </c>
@@ -14596,7 +14609,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15">
+    <row r="186" spans="1:23" ht="15.6">
       <c r="A186" s="9">
         <v>182</v>
       </c>
@@ -14629,7 +14642,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="15">
+    <row r="187" spans="1:23" ht="15.6">
       <c r="A187" s="9">
         <v>183</v>
       </c>
@@ -14662,7 +14675,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="15">
+    <row r="188" spans="1:23" ht="15.6">
       <c r="A188" s="9">
         <v>184</v>
       </c>
@@ -14695,7 +14708,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="15">
+    <row r="189" spans="1:23" ht="15.6">
       <c r="A189" s="9">
         <v>185</v>
       </c>
@@ -14728,7 +14741,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="190" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="190" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A190" s="9">
         <v>186</v>
       </c>
@@ -14774,7 +14787,7 @@
       <c r="V190" s="3"/>
       <c r="W190" s="3"/>
     </row>
-    <row r="191" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="191" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A191" s="9">
         <v>187</v>
       </c>
@@ -14820,7 +14833,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
     </row>
-    <row r="192" spans="1:23" ht="15">
+    <row r="192" spans="1:23" ht="15.6">
       <c r="A192" s="9">
         <v>188</v>
       </c>
@@ -14853,7 +14866,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="30">
+    <row r="193" spans="1:10" ht="31.2">
       <c r="A193" s="9">
         <v>189</v>
       </c>
@@ -14886,7 +14899,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="30">
+    <row r="194" spans="1:10" ht="31.2">
       <c r="A194" s="9">
         <v>190</v>
       </c>
@@ -14919,7 +14932,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="30">
+    <row r="195" spans="1:10" ht="31.2">
       <c r="A195" s="9">
         <v>191</v>
       </c>
@@ -14952,7 +14965,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15">
+    <row r="196" spans="1:10" ht="15.6">
       <c r="A196" s="9">
         <v>192</v>
       </c>
@@ -14985,7 +14998,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15">
+    <row r="197" spans="1:10" ht="15.6">
       <c r="A197" s="9">
         <v>193</v>
       </c>
@@ -15018,7 +15031,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15">
+    <row r="198" spans="1:10" ht="15.6">
       <c r="A198" s="9">
         <v>194</v>
       </c>
@@ -15051,7 +15064,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15">
+    <row r="199" spans="1:10" ht="15.6">
       <c r="A199" s="9">
         <v>195</v>
       </c>
@@ -15084,7 +15097,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15">
+    <row r="200" spans="1:10" ht="15.6">
       <c r="A200" s="9">
         <v>196</v>
       </c>
@@ -15117,7 +15130,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15">
+    <row r="201" spans="1:10" ht="15.6">
       <c r="A201" s="9">
         <v>197</v>
       </c>
@@ -15150,7 +15163,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15">
+    <row r="202" spans="1:10" ht="15.6">
       <c r="A202" s="9">
         <v>198</v>
       </c>
@@ -15183,7 +15196,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15">
+    <row r="203" spans="1:10" ht="15.6">
       <c r="A203" s="9">
         <v>199</v>
       </c>
@@ -15216,7 +15229,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15">
+    <row r="204" spans="1:10" ht="15.6">
       <c r="A204" s="9">
         <v>200</v>
       </c>
@@ -15249,7 +15262,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15">
+    <row r="205" spans="1:10" ht="15.6">
       <c r="A205" s="9">
         <v>201</v>
       </c>
@@ -15282,7 +15295,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15">
+    <row r="206" spans="1:10" ht="15.6">
       <c r="A206" s="9">
         <v>202</v>
       </c>
@@ -15315,7 +15328,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15">
+    <row r="207" spans="1:10" ht="15.6">
       <c r="A207" s="9">
         <v>203</v>
       </c>
@@ -15348,7 +15361,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15">
+    <row r="208" spans="1:10" ht="15.6">
       <c r="A208" s="9">
         <v>204</v>
       </c>
@@ -15381,7 +15394,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15">
+    <row r="209" spans="1:12" ht="15.6">
       <c r="A209" s="9">
         <v>205</v>
       </c>
@@ -15414,7 +15427,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15">
+    <row r="210" spans="1:12" ht="15.6">
       <c r="A210" s="9">
         <v>206</v>
       </c>
@@ -15447,7 +15460,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15">
+    <row r="211" spans="1:12" ht="15.6">
       <c r="A211" s="9">
         <v>207</v>
       </c>
@@ -15480,7 +15493,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="30">
+    <row r="212" spans="1:12" ht="31.2">
       <c r="A212" s="9">
         <v>208</v>
       </c>
@@ -15513,7 +15526,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15">
+    <row r="213" spans="1:12" ht="15.6">
       <c r="A213" s="9">
         <v>209</v>
       </c>
@@ -15546,7 +15559,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15">
+    <row r="214" spans="1:12" ht="15.6">
       <c r="A214" s="9">
         <v>210</v>
       </c>
@@ -15580,7 +15593,7 @@
       </c>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12" ht="15">
+    <row r="215" spans="1:12" ht="15.6">
       <c r="A215" s="9">
         <v>211</v>
       </c>
@@ -15613,7 +15626,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15">
+    <row r="216" spans="1:12" ht="15.6">
       <c r="A216" s="9">
         <v>212</v>
       </c>
@@ -15646,7 +15659,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15">
+    <row r="217" spans="1:12" ht="15.6">
       <c r="A217" s="9">
         <v>213</v>
       </c>
@@ -15679,7 +15692,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="30">
+    <row r="218" spans="1:12" ht="31.2">
       <c r="A218" s="9">
         <v>214</v>
       </c>
@@ -15712,7 +15725,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15">
+    <row r="219" spans="1:12" ht="15.6">
       <c r="A219" s="9">
         <v>215</v>
       </c>
@@ -15745,7 +15758,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15">
+    <row r="220" spans="1:12" ht="15.6">
       <c r="A220" s="9">
         <v>216</v>
       </c>
@@ -15778,7 +15791,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15">
+    <row r="221" spans="1:12" ht="15.6">
       <c r="A221" s="9">
         <v>217</v>
       </c>
@@ -15811,7 +15824,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15">
+    <row r="222" spans="1:12" ht="15.6">
       <c r="A222" s="9">
         <v>218</v>
       </c>
@@ -15844,7 +15857,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15">
+    <row r="223" spans="1:12" ht="15.6">
       <c r="A223" s="9">
         <v>219</v>
       </c>
@@ -15877,7 +15890,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15">
+    <row r="224" spans="1:12" ht="15.6">
       <c r="A224" s="9">
         <v>220</v>
       </c>
@@ -15910,7 +15923,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="15">
+    <row r="225" spans="1:23" ht="15.6">
       <c r="A225" s="9">
         <v>221</v>
       </c>
@@ -15943,7 +15956,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="15">
+    <row r="226" spans="1:23" ht="15.6">
       <c r="A226" s="9">
         <v>222</v>
       </c>
@@ -15976,7 +15989,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="15">
+    <row r="227" spans="1:23" ht="15.6">
       <c r="A227" s="9">
         <v>223</v>
       </c>
@@ -16009,7 +16022,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15">
+    <row r="228" spans="1:23" ht="15.6">
       <c r="A228" s="9">
         <v>224</v>
       </c>
@@ -16042,7 +16055,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="15">
+    <row r="229" spans="1:23" ht="15.6">
       <c r="A229" s="9">
         <v>225</v>
       </c>
@@ -16075,7 +16088,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="15">
+    <row r="230" spans="1:23" ht="15.6">
       <c r="A230" s="9">
         <v>226</v>
       </c>
@@ -16108,7 +16121,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="15">
+    <row r="231" spans="1:23" ht="15.6">
       <c r="A231" s="9">
         <v>227</v>
       </c>
@@ -16141,7 +16154,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="15">
+    <row r="232" spans="1:23" ht="15.6">
       <c r="A232" s="9">
         <v>228</v>
       </c>
@@ -16174,7 +16187,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="233" spans="1:23" s="10" customFormat="1" ht="15">
+    <row r="233" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A233" s="9">
         <v>229</v>
       </c>
@@ -16220,7 +16233,7 @@
       <c r="V233" s="3"/>
       <c r="W233" s="3"/>
     </row>
-    <row r="234" spans="1:23" ht="15">
+    <row r="234" spans="1:23" ht="15.6">
       <c r="A234" s="9">
         <v>230</v>
       </c>
@@ -16253,7 +16266,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="15">
+    <row r="235" spans="1:23" ht="15.6">
       <c r="A235" s="9">
         <v>231</v>
       </c>
@@ -16286,7 +16299,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="15">
+    <row r="236" spans="1:23" ht="15.6">
       <c r="A236" s="9">
         <v>232</v>
       </c>
@@ -16319,7 +16332,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="15">
+    <row r="237" spans="1:23" ht="15.6">
       <c r="A237" s="9">
         <v>233</v>
       </c>
@@ -16352,7 +16365,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="15">
+    <row r="238" spans="1:23" ht="15.6">
       <c r="A238" s="9">
         <v>234</v>
       </c>
@@ -16385,7 +16398,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="15">
+    <row r="239" spans="1:23" ht="15.6">
       <c r="A239" s="9">
         <v>235</v>
       </c>
@@ -16418,7 +16431,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="15">
+    <row r="240" spans="1:23" ht="15.6">
       <c r="A240" s="9">
         <v>236</v>
       </c>
@@ -16451,7 +16464,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="15">
+    <row r="241" spans="1:23" ht="15.6">
       <c r="A241" s="9">
         <v>237</v>
       </c>
@@ -16484,7 +16497,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="15">
+    <row r="242" spans="1:23" ht="15.6">
       <c r="A242" s="9">
         <v>238</v>
       </c>
@@ -16517,7 +16530,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="15">
+    <row r="243" spans="1:23" ht="15.6">
       <c r="A243" s="9">
         <v>239</v>
       </c>
@@ -16550,7 +16563,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="15">
+    <row r="244" spans="1:23" ht="15.6">
       <c r="A244" s="9">
         <v>240</v>
       </c>
@@ -16583,7 +16596,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="15">
+    <row r="245" spans="1:23" ht="15.6">
       <c r="A245" s="9">
         <v>241</v>
       </c>
@@ -16616,7 +16629,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="30">
+    <row r="246" spans="1:23" ht="31.2">
       <c r="A246" s="9">
         <v>242</v>
       </c>
@@ -16649,7 +16662,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="30">
+    <row r="247" spans="1:23" ht="31.2">
       <c r="A247" s="9">
         <v>243</v>
       </c>
@@ -16682,7 +16695,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="30">
+    <row r="248" spans="1:23" ht="31.2">
       <c r="A248" s="9">
         <v>244</v>
       </c>
@@ -16715,7 +16728,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="30">
+    <row r="249" spans="1:23" ht="31.2">
       <c r="A249" s="9">
         <v>245</v>
       </c>
@@ -16748,7 +16761,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="30">
+    <row r="250" spans="1:23" ht="31.2">
       <c r="A250" s="9">
         <v>246</v>
       </c>
@@ -16781,12 +16794,12 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="251" spans="1:23" s="7" customFormat="1" ht="30">
+    <row r="251" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A251" s="9">
         <v>247</v>
       </c>
       <c r="B251" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>1142</v>
@@ -16811,7 +16824,7 @@
       </c>
       <c r="J251" s="13" t="str">
         <f t="shared" si="10"/>
-        <v>9/8(월)~9/9(화)</v>
+        <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -16827,7 +16840,7 @@
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
     </row>
-    <row r="252" spans="1:23" s="11" customFormat="1" ht="15">
+    <row r="252" spans="1:23" s="11" customFormat="1" ht="15.6">
       <c r="A252" s="9">
         <v>248</v>
       </c>
@@ -16873,7 +16886,7 @@
       <c r="V252" s="3"/>
       <c r="W252" s="3"/>
     </row>
-    <row r="253" spans="1:23" ht="15">
+    <row r="253" spans="1:23" ht="15.6">
       <c r="A253" s="9">
         <v>249</v>
       </c>
@@ -16906,7 +16919,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="15">
+    <row r="254" spans="1:23" ht="15.6">
       <c r="A254" s="9">
         <v>250</v>
       </c>
@@ -16939,7 +16952,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="255" spans="1:23" s="11" customFormat="1" ht="15">
+    <row r="255" spans="1:23" s="11" customFormat="1" ht="15.6">
       <c r="A255" s="9">
         <v>251</v>
       </c>
@@ -16985,7 +16998,7 @@
       <c r="V255" s="3"/>
       <c r="W255" s="3"/>
     </row>
-    <row r="256" spans="1:23" ht="15">
+    <row r="256" spans="1:23" ht="15.6">
       <c r="A256" s="9">
         <v>252</v>
       </c>
@@ -17018,7 +17031,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="15">
+    <row r="257" spans="1:23" ht="15.6">
       <c r="A257" s="9">
         <v>253</v>
       </c>
@@ -17051,7 +17064,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="15">
+    <row r="258" spans="1:23" ht="15.6">
       <c r="A258" s="9">
         <v>254</v>
       </c>
@@ -17084,7 +17097,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="15">
+    <row r="259" spans="1:23" ht="31.2">
       <c r="A259" s="9">
         <v>255</v>
       </c>
@@ -17117,7 +17130,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="15">
+    <row r="260" spans="1:23" ht="31.2">
       <c r="A260" s="9">
         <v>256</v>
       </c>
@@ -17150,7 +17163,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="15">
+    <row r="261" spans="1:23" ht="31.2">
       <c r="A261" s="9">
         <v>257</v>
       </c>
@@ -17183,7 +17196,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="15">
+    <row r="262" spans="1:23" ht="15.6">
       <c r="A262" s="9">
         <v>258</v>
       </c>
@@ -17216,7 +17229,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="15">
+    <row r="263" spans="1:23" ht="15.6">
       <c r="A263" s="9">
         <v>259</v>
       </c>
@@ -17249,7 +17262,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="264" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="264" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A264" s="9">
         <v>260</v>
       </c>
@@ -17295,7 +17308,7 @@
       <c r="V264" s="3"/>
       <c r="W264" s="3"/>
     </row>
-    <row r="265" spans="1:23" ht="15">
+    <row r="265" spans="1:23" ht="15.6">
       <c r="A265" s="9">
         <v>261</v>
       </c>
@@ -17328,7 +17341,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="15">
+    <row r="266" spans="1:23" ht="15.6">
       <c r="A266" s="9">
         <v>262</v>
       </c>
@@ -17361,7 +17374,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="15">
+    <row r="267" spans="1:23" ht="15.6">
       <c r="A267" s="9">
         <v>263</v>
       </c>
@@ -17394,7 +17407,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="15">
+    <row r="268" spans="1:23" ht="15.6">
       <c r="A268" s="9">
         <v>264</v>
       </c>
@@ -17427,7 +17440,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="30">
+    <row r="269" spans="1:23" ht="31.2">
       <c r="A269" s="9">
         <v>265</v>
       </c>
@@ -17460,7 +17473,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="30">
+    <row r="270" spans="1:23" ht="31.2">
       <c r="A270" s="9">
         <v>266</v>
       </c>
@@ -17493,7 +17506,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="30">
+    <row r="271" spans="1:23" ht="31.2">
       <c r="A271" s="9">
         <v>267</v>
       </c>
@@ -17526,7 +17539,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="15">
+    <row r="272" spans="1:23" ht="31.2">
       <c r="A272" s="9">
         <v>268</v>
       </c>
@@ -17559,7 +17572,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="15">
+    <row r="273" spans="1:23" ht="15.6">
       <c r="A273" s="9">
         <v>269</v>
       </c>
@@ -17592,7 +17605,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="15">
+    <row r="274" spans="1:23" ht="15.6">
       <c r="A274" s="9">
         <v>270</v>
       </c>
@@ -17625,7 +17638,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="15">
+    <row r="275" spans="1:23" ht="15.6">
       <c r="A275" s="9">
         <v>271</v>
       </c>
@@ -17658,7 +17671,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="15">
+    <row r="276" spans="1:23" ht="15.6">
       <c r="A276" s="9">
         <v>272</v>
       </c>
@@ -17691,7 +17704,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="277" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="277" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A277" s="9">
         <v>273</v>
       </c>
@@ -17737,7 +17750,7 @@
       <c r="V277" s="3"/>
       <c r="W277" s="3"/>
     </row>
-    <row r="278" spans="1:23" ht="15">
+    <row r="278" spans="1:23" ht="15.6">
       <c r="A278" s="9">
         <v>274</v>
       </c>
@@ -17770,7 +17783,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="15">
+    <row r="279" spans="1:23" ht="31.2">
       <c r="A279" s="9">
         <v>275</v>
       </c>
@@ -17803,7 +17816,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="15">
+    <row r="280" spans="1:23" ht="15.6">
       <c r="A280" s="9">
         <v>276</v>
       </c>
@@ -17836,7 +17849,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="15">
+    <row r="281" spans="1:23" ht="15.6">
       <c r="A281" s="9">
         <v>277</v>
       </c>
@@ -17869,7 +17882,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="15">
+    <row r="282" spans="1:23" ht="15.6">
       <c r="A282" s="9">
         <v>278</v>
       </c>
@@ -17902,7 +17915,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="15">
+    <row r="283" spans="1:23" ht="15.6">
       <c r="A283" s="9">
         <v>279</v>
       </c>
@@ -17935,7 +17948,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="15">
+    <row r="284" spans="1:23" ht="15.6">
       <c r="A284" s="9">
         <v>280</v>
       </c>
@@ -17968,7 +17981,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="15">
+    <row r="285" spans="1:23" ht="15.6">
       <c r="A285" s="9">
         <v>281</v>
       </c>
@@ -18001,7 +18014,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="15">
+    <row r="286" spans="1:23" ht="15.6">
       <c r="A286" s="9">
         <v>282</v>
       </c>
@@ -18034,7 +18047,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="15">
+    <row r="287" spans="1:23" ht="31.2">
       <c r="A287" s="9">
         <v>283</v>
       </c>
@@ -18067,7 +18080,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="15">
+    <row r="288" spans="1:23" ht="15.6">
       <c r="A288" s="9">
         <v>284</v>
       </c>
@@ -18100,7 +18113,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15">
+    <row r="289" spans="1:10" ht="15.6">
       <c r="A289" s="9">
         <v>285</v>
       </c>
@@ -18133,7 +18146,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="30">
+    <row r="290" spans="1:10" ht="31.2">
       <c r="A290" s="9">
         <v>286</v>
       </c>
@@ -18166,7 +18179,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="30">
+    <row r="291" spans="1:10" ht="31.2">
       <c r="A291" s="9">
         <v>287</v>
       </c>
@@ -18199,7 +18212,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15">
+    <row r="292" spans="1:10" ht="15.6">
       <c r="A292" s="9">
         <v>288</v>
       </c>
@@ -18232,7 +18245,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15">
+    <row r="293" spans="1:10" ht="15.6">
       <c r="A293" s="9">
         <v>289</v>
       </c>
@@ -18265,7 +18278,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15">
+    <row r="294" spans="1:10" ht="15.6">
       <c r="A294" s="9">
         <v>290</v>
       </c>
@@ -18298,7 +18311,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="15">
+    <row r="295" spans="1:10" ht="15.6">
       <c r="A295" s="9">
         <v>291</v>
       </c>
@@ -18331,7 +18344,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="30">
+    <row r="296" spans="1:10" ht="31.2">
       <c r="A296" s="9">
         <v>292</v>
       </c>
@@ -18364,7 +18377,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15">
+    <row r="297" spans="1:10" ht="15.6">
       <c r="A297" s="9">
         <v>293</v>
       </c>
@@ -18397,7 +18410,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15">
+    <row r="298" spans="1:10" ht="15.6">
       <c r="A298" s="9">
         <v>294</v>
       </c>
@@ -18430,7 +18443,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="15">
+    <row r="299" spans="1:10" ht="15.6">
       <c r="A299" s="9">
         <v>295</v>
       </c>
@@ -18463,7 +18476,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15">
+    <row r="300" spans="1:10" ht="15.6">
       <c r="A300" s="9">
         <v>296</v>
       </c>
@@ -18496,7 +18509,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="15">
+    <row r="301" spans="1:10" ht="15.6">
       <c r="A301" s="9">
         <v>297</v>
       </c>
@@ -18529,7 +18542,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15">
+    <row r="302" spans="1:10" ht="15.6">
       <c r="A302" s="9">
         <v>298</v>
       </c>
@@ -18562,7 +18575,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15">
+    <row r="303" spans="1:10" ht="15.6">
       <c r="A303" s="9">
         <v>299</v>
       </c>
@@ -18595,7 +18608,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15">
+    <row r="304" spans="1:10" ht="15.6">
       <c r="A304" s="9">
         <v>300</v>
       </c>
@@ -18628,7 +18641,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="305" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="305" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A305" s="9">
         <v>301</v>
       </c>
@@ -18674,7 +18687,7 @@
       <c r="V305" s="3"/>
       <c r="W305" s="3"/>
     </row>
-    <row r="306" spans="1:23" ht="15">
+    <row r="306" spans="1:23" ht="15.6">
       <c r="A306" s="9">
         <v>302</v>
       </c>
@@ -18707,7 +18720,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="15">
+    <row r="307" spans="1:23" ht="15.6">
       <c r="A307" s="9">
         <v>303</v>
       </c>
@@ -18740,7 +18753,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="15">
+    <row r="308" spans="1:23" ht="15.6">
       <c r="A308" s="9">
         <v>304</v>
       </c>
@@ -18773,7 +18786,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="15">
+    <row r="309" spans="1:23" ht="15.6">
       <c r="A309" s="9">
         <v>305</v>
       </c>
@@ -18806,7 +18819,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="310" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="310" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A310" s="9">
         <v>306</v>
       </c>
@@ -18852,7 +18865,7 @@
       <c r="V310" s="3"/>
       <c r="W310" s="3"/>
     </row>
-    <row r="311" spans="1:23" ht="15">
+    <row r="311" spans="1:23" ht="15.6">
       <c r="A311" s="9">
         <v>307</v>
       </c>
@@ -18885,7 +18898,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="15">
+    <row r="312" spans="1:23" ht="15.6">
       <c r="A312" s="9">
         <v>308</v>
       </c>
@@ -18918,7 +18931,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="15">
+    <row r="313" spans="1:23" ht="15.6">
       <c r="A313" s="9">
         <v>309</v>
       </c>
@@ -18951,7 +18964,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="15">
+    <row r="314" spans="1:23" ht="15.6">
       <c r="A314" s="9">
         <v>310</v>
       </c>
@@ -18984,7 +18997,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="15">
+    <row r="315" spans="1:23" ht="15.6">
       <c r="A315" s="9">
         <v>311</v>
       </c>
@@ -19017,7 +19030,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="316" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="316" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A316" s="9">
         <v>312</v>
       </c>
@@ -19063,7 +19076,7 @@
       <c r="V316" s="3"/>
       <c r="W316" s="3"/>
     </row>
-    <row r="317" spans="1:23" ht="15">
+    <row r="317" spans="1:23" ht="15.6">
       <c r="A317" s="9">
         <v>313</v>
       </c>
@@ -19096,7 +19109,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="15">
+    <row r="318" spans="1:23" ht="15.6">
       <c r="A318" s="9">
         <v>314</v>
       </c>
@@ -19129,7 +19142,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="15">
+    <row r="319" spans="1:23" ht="15.6">
       <c r="A319" s="9">
         <v>315</v>
       </c>
@@ -19162,7 +19175,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="30">
+    <row r="320" spans="1:23" ht="31.2">
       <c r="A320" s="9">
         <v>316</v>
       </c>
@@ -19195,7 +19208,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="15">
+    <row r="321" spans="1:23" ht="15.6">
       <c r="A321" s="9">
         <v>317</v>
       </c>
@@ -19228,7 +19241,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="322" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="322" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A322" s="9">
         <v>318</v>
       </c>
@@ -19274,7 +19287,7 @@
       <c r="V322" s="3"/>
       <c r="W322" s="3"/>
     </row>
-    <row r="323" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="323" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A323" s="9">
         <v>319</v>
       </c>
@@ -19320,7 +19333,7 @@
       <c r="V323" s="3"/>
       <c r="W323" s="3"/>
     </row>
-    <row r="324" spans="1:23" ht="15">
+    <row r="324" spans="1:23" ht="15.6">
       <c r="A324" s="9">
         <v>320</v>
       </c>
@@ -19353,7 +19366,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="15">
+    <row r="325" spans="1:23" ht="15.6">
       <c r="A325" s="9">
         <v>321</v>
       </c>
@@ -19386,7 +19399,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="15">
+    <row r="326" spans="1:23" ht="15.6">
       <c r="A326" s="9">
         <v>322</v>
       </c>
@@ -19419,7 +19432,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="15">
+    <row r="327" spans="1:23" ht="15.6">
       <c r="A327" s="9">
         <v>323</v>
       </c>
@@ -19452,7 +19465,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="15">
+    <row r="328" spans="1:23" ht="31.2">
       <c r="A328" s="9">
         <v>324</v>
       </c>
@@ -19485,7 +19498,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="15">
+    <row r="329" spans="1:23" ht="31.2">
       <c r="A329" s="9">
         <v>325</v>
       </c>
@@ -19518,7 +19531,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="15">
+    <row r="330" spans="1:23" ht="31.2">
       <c r="A330" s="9">
         <v>326</v>
       </c>
@@ -19551,7 +19564,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="15">
+    <row r="331" spans="1:23" ht="31.2">
       <c r="A331" s="9">
         <v>327</v>
       </c>
@@ -19584,7 +19597,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="15">
+    <row r="332" spans="1:23" ht="31.2">
       <c r="A332" s="9">
         <v>328</v>
       </c>
@@ -19617,7 +19630,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="15">
+    <row r="333" spans="1:23" ht="15.6">
       <c r="A333" s="9">
         <v>329</v>
       </c>
@@ -19650,7 +19663,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="334" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="334" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A334" s="9">
         <v>330</v>
       </c>
@@ -19696,7 +19709,7 @@
       <c r="V334" s="3"/>
       <c r="W334" s="3"/>
     </row>
-    <row r="335" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="335" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A335" s="9">
         <v>331</v>
       </c>
@@ -19742,7 +19755,7 @@
       <c r="V335" s="3"/>
       <c r="W335" s="3"/>
     </row>
-    <row r="336" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="336" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A336" s="9">
         <v>332</v>
       </c>
@@ -19788,7 +19801,7 @@
       <c r="V336" s="3"/>
       <c r="W336" s="3"/>
     </row>
-    <row r="337" spans="1:10" ht="15">
+    <row r="337" spans="1:10" ht="15.6">
       <c r="A337" s="9">
         <v>333</v>
       </c>
@@ -19821,7 +19834,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="15">
+    <row r="338" spans="1:10" ht="15.6">
       <c r="A338" s="9">
         <v>334</v>
       </c>
@@ -19854,7 +19867,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="30">
+    <row r="339" spans="1:10" ht="31.2">
       <c r="A339" s="9">
         <v>335</v>
       </c>
@@ -19887,7 +19900,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="30">
+    <row r="340" spans="1:10" ht="31.2">
       <c r="A340" s="9">
         <v>336</v>
       </c>
@@ -19920,7 +19933,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="30">
+    <row r="341" spans="1:10" ht="31.2">
       <c r="A341" s="9">
         <v>337</v>
       </c>
@@ -19953,7 +19966,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="15">
+    <row r="342" spans="1:10" ht="31.2">
       <c r="A342" s="9">
         <v>338</v>
       </c>
@@ -19986,7 +19999,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="15">
+    <row r="343" spans="1:10" ht="15.6">
       <c r="A343" s="9">
         <v>339</v>
       </c>
@@ -20019,7 +20032,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="15">
+    <row r="344" spans="1:10" ht="15.6">
       <c r="A344" s="9">
         <v>340</v>
       </c>
@@ -20052,7 +20065,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="15">
+    <row r="345" spans="1:10" ht="15.6">
       <c r="A345" s="9">
         <v>341</v>
       </c>
@@ -20085,7 +20098,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="15">
+    <row r="346" spans="1:10" ht="15.6">
       <c r="A346" s="9">
         <v>342</v>
       </c>
@@ -20118,7 +20131,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="15">
+    <row r="347" spans="1:10" ht="15.6">
       <c r="A347" s="9">
         <v>343</v>
       </c>
@@ -20151,7 +20164,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="15">
+    <row r="348" spans="1:10" ht="15.6">
       <c r="A348" s="9">
         <v>344</v>
       </c>
@@ -20184,7 +20197,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="15">
+    <row r="349" spans="1:10" ht="15.6">
       <c r="A349" s="9">
         <v>345</v>
       </c>
@@ -20217,7 +20230,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="15">
+    <row r="350" spans="1:10" ht="15.6">
       <c r="A350" s="9">
         <v>346</v>
       </c>
@@ -20250,7 +20263,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="15">
+    <row r="351" spans="1:10" ht="15.6">
       <c r="A351" s="9">
         <v>347</v>
       </c>
@@ -20283,7 +20296,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="15">
+    <row r="352" spans="1:10" ht="15.6">
       <c r="A352" s="9">
         <v>348</v>
       </c>
@@ -20316,7 +20329,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="15">
+    <row r="353" spans="1:23" ht="15.6">
       <c r="A353" s="9">
         <v>349</v>
       </c>
@@ -20349,7 +20362,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="15">
+    <row r="354" spans="1:23" ht="15.6">
       <c r="A354" s="9">
         <v>350</v>
       </c>
@@ -20382,7 +20395,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="15">
+    <row r="355" spans="1:23" ht="15.6">
       <c r="A355" s="9">
         <v>351</v>
       </c>
@@ -20415,7 +20428,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="15">
+    <row r="356" spans="1:23" ht="15.6">
       <c r="A356" s="9">
         <v>352</v>
       </c>
@@ -20448,7 +20461,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="15">
+    <row r="357" spans="1:23" ht="15.6">
       <c r="A357" s="9">
         <v>353</v>
       </c>
@@ -20481,7 +20494,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="15">
+    <row r="358" spans="1:23" ht="15.6">
       <c r="A358" s="9">
         <v>354</v>
       </c>
@@ -20514,7 +20527,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="15">
+    <row r="359" spans="1:23" ht="15.6">
       <c r="A359" s="9">
         <v>355</v>
       </c>
@@ -20547,7 +20560,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="15">
+    <row r="360" spans="1:23" ht="15.6">
       <c r="A360" s="9">
         <v>356</v>
       </c>
@@ -20580,7 +20593,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="15">
+    <row r="361" spans="1:23" ht="15.6">
       <c r="A361" s="9">
         <v>357</v>
       </c>
@@ -20613,7 +20626,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="15">
+    <row r="362" spans="1:23" ht="15.6">
       <c r="A362" s="9">
         <v>358</v>
       </c>
@@ -20646,7 +20659,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="15">
+    <row r="363" spans="1:23" ht="15.6">
       <c r="A363" s="9">
         <v>359</v>
       </c>
@@ -20679,7 +20692,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="15">
+    <row r="364" spans="1:23" ht="15.6">
       <c r="A364" s="9">
         <v>360</v>
       </c>
@@ -20712,7 +20725,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="365" spans="1:23" s="10" customFormat="1" ht="15">
+    <row r="365" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A365" s="9">
         <v>361</v>
       </c>
@@ -20758,7 +20771,7 @@
       <c r="V365" s="3"/>
       <c r="W365" s="3"/>
     </row>
-    <row r="366" spans="1:23" ht="15">
+    <row r="366" spans="1:23" ht="15.6">
       <c r="A366" s="9">
         <v>362</v>
       </c>
@@ -20791,7 +20804,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="15">
+    <row r="367" spans="1:23" ht="15.6">
       <c r="A367" s="9">
         <v>363</v>
       </c>
@@ -20824,7 +20837,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="15">
+    <row r="368" spans="1:23" ht="15.6">
       <c r="A368" s="9">
         <v>364</v>
       </c>
@@ -20857,7 +20870,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="15">
+    <row r="369" spans="1:10" ht="15.6">
       <c r="A369" s="9">
         <v>365</v>
       </c>
@@ -20890,7 +20903,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="30">
+    <row r="370" spans="1:10" ht="31.2">
       <c r="A370" s="9">
         <v>366</v>
       </c>
@@ -20923,7 +20936,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="15">
+    <row r="371" spans="1:10" ht="31.2">
       <c r="A371" s="9">
         <v>367</v>
       </c>
@@ -20956,7 +20969,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="15">
+    <row r="372" spans="1:10" ht="15.6">
       <c r="A372" s="9">
         <v>368</v>
       </c>
@@ -20989,7 +21002,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="15">
+    <row r="373" spans="1:10" ht="15.6">
       <c r="A373" s="9">
         <v>369</v>
       </c>
@@ -21022,7 +21035,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="15">
+    <row r="374" spans="1:10" ht="15.6">
       <c r="A374" s="9">
         <v>370</v>
       </c>
@@ -21055,7 +21068,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="15">
+    <row r="375" spans="1:10" ht="15.6">
       <c r="A375" s="9">
         <v>371</v>
       </c>
@@ -21088,7 +21101,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="15">
+    <row r="376" spans="1:10" ht="15.6">
       <c r="A376" s="9">
         <v>372</v>
       </c>
@@ -21121,7 +21134,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="15">
+    <row r="377" spans="1:10" ht="15.6">
       <c r="A377" s="9">
         <v>373</v>
       </c>
@@ -21154,7 +21167,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="15">
+    <row r="378" spans="1:10" ht="15.6">
       <c r="A378" s="9">
         <v>374</v>
       </c>
@@ -21187,7 +21200,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="15">
+    <row r="379" spans="1:10" ht="15.6">
       <c r="A379" s="9">
         <v>375</v>
       </c>
@@ -21220,7 +21233,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="15">
+    <row r="380" spans="1:10" ht="15.6">
       <c r="A380" s="9">
         <v>376</v>
       </c>
@@ -21253,7 +21266,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="15">
+    <row r="381" spans="1:10" ht="15.6">
       <c r="A381" s="9">
         <v>377</v>
       </c>
@@ -21286,7 +21299,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="15">
+    <row r="382" spans="1:10" ht="15.6">
       <c r="A382" s="9">
         <v>378</v>
       </c>
@@ -21319,7 +21332,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="15">
+    <row r="383" spans="1:10" ht="15.6">
       <c r="A383" s="9">
         <v>379</v>
       </c>
@@ -21352,7 +21365,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="15">
+    <row r="384" spans="1:10" ht="15.6">
       <c r="A384" s="9">
         <v>380</v>
       </c>
@@ -21385,7 +21398,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="15">
+    <row r="385" spans="1:23" ht="15.6">
       <c r="A385" s="9">
         <v>381</v>
       </c>
@@ -21418,7 +21431,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="15">
+    <row r="386" spans="1:23" ht="15.6">
       <c r="A386" s="9">
         <v>382</v>
       </c>
@@ -21451,7 +21464,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="387" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="387" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A387" s="9">
         <v>383</v>
       </c>
@@ -21497,7 +21510,7 @@
       <c r="V387" s="3"/>
       <c r="W387" s="3"/>
     </row>
-    <row r="388" spans="1:23" ht="15">
+    <row r="388" spans="1:23" ht="15.6">
       <c r="A388" s="9">
         <v>384</v>
       </c>
@@ -21530,7 +21543,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="389" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="389" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A389" s="9">
         <v>385</v>
       </c>
@@ -21576,7 +21589,7 @@
       <c r="V389" s="3"/>
       <c r="W389" s="3"/>
     </row>
-    <row r="390" spans="1:23" ht="15">
+    <row r="390" spans="1:23" ht="15.6">
       <c r="A390" s="9">
         <v>386</v>
       </c>
@@ -21609,7 +21622,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="15">
+    <row r="391" spans="1:23" ht="15.6">
       <c r="A391" s="9">
         <v>387</v>
       </c>
@@ -21642,7 +21655,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="392" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="392" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A392" s="9">
         <v>388</v>
       </c>
@@ -21688,7 +21701,7 @@
       <c r="V392" s="3"/>
       <c r="W392" s="3"/>
     </row>
-    <row r="393" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="393" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A393" s="9">
         <v>389</v>
       </c>
@@ -21734,7 +21747,7 @@
       <c r="V393" s="3"/>
       <c r="W393" s="3"/>
     </row>
-    <row r="394" spans="1:23" ht="15">
+    <row r="394" spans="1:23" ht="15.6">
       <c r="A394" s="9">
         <v>390</v>
       </c>
@@ -21767,7 +21780,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="395" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="395" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A395" s="9">
         <v>391</v>
       </c>
@@ -21813,7 +21826,7 @@
       <c r="V395" s="3"/>
       <c r="W395" s="3"/>
     </row>
-    <row r="396" spans="1:23" ht="30">
+    <row r="396" spans="1:23" ht="31.2">
       <c r="A396" s="9">
         <v>392</v>
       </c>
@@ -21846,7 +21859,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="30">
+    <row r="397" spans="1:23" ht="31.2">
       <c r="A397" s="9">
         <v>393</v>
       </c>
@@ -21879,7 +21892,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="30">
+    <row r="398" spans="1:23" ht="31.2">
       <c r="A398" s="9">
         <v>394</v>
       </c>
@@ -21912,7 +21925,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="399" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="399" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A399" s="9">
         <v>395</v>
       </c>
@@ -21958,7 +21971,7 @@
       <c r="V399" s="3"/>
       <c r="W399" s="3"/>
     </row>
-    <row r="400" spans="1:23" ht="15">
+    <row r="400" spans="1:23" ht="15.6">
       <c r="A400" s="9">
         <v>396</v>
       </c>
@@ -21991,7 +22004,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="15">
+    <row r="401" spans="1:23" ht="15.6">
       <c r="A401" s="9">
         <v>397</v>
       </c>
@@ -22024,7 +22037,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="15">
+    <row r="402" spans="1:23" ht="15.6">
       <c r="A402" s="9">
         <v>398</v>
       </c>
@@ -22057,7 +22070,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="15">
+    <row r="403" spans="1:23" ht="15.6">
       <c r="A403" s="9">
         <v>399</v>
       </c>
@@ -22090,7 +22103,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="15">
+    <row r="404" spans="1:23" ht="31.2">
       <c r="A404" s="9">
         <v>400</v>
       </c>
@@ -22123,7 +22136,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="15">
+    <row r="405" spans="1:23" ht="31.2">
       <c r="A405" s="9">
         <v>401</v>
       </c>
@@ -22156,7 +22169,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="15">
+    <row r="406" spans="1:23" ht="31.2">
       <c r="A406" s="9">
         <v>402</v>
       </c>
@@ -22189,7 +22202,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="15">
+    <row r="407" spans="1:23" ht="31.2">
       <c r="A407" s="9">
         <v>403</v>
       </c>
@@ -22222,7 +22235,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="15">
+    <row r="408" spans="1:23" ht="31.2">
       <c r="A408" s="9">
         <v>404</v>
       </c>
@@ -22255,7 +22268,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="15">
+    <row r="409" spans="1:23" ht="15.6">
       <c r="A409" s="9">
         <v>405</v>
       </c>
@@ -22288,7 +22301,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="410" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="410" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A410" s="9">
         <v>406</v>
       </c>
@@ -22334,7 +22347,7 @@
       <c r="V410" s="3"/>
       <c r="W410" s="3"/>
     </row>
-    <row r="411" spans="1:23" ht="15">
+    <row r="411" spans="1:23" ht="15.6">
       <c r="A411" s="9">
         <v>407</v>
       </c>
@@ -22367,7 +22380,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="15">
+    <row r="412" spans="1:23" ht="15.6">
       <c r="A412" s="9">
         <v>408</v>
       </c>
@@ -22400,7 +22413,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="15">
+    <row r="413" spans="1:23" ht="15.6">
       <c r="A413" s="9">
         <v>409</v>
       </c>
@@ -22433,12 +22446,12 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="30">
+    <row r="414" spans="1:23" ht="31.2">
       <c r="A414" s="9">
         <v>410</v>
       </c>
       <c r="B414" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C414" s="13" t="s">
         <v>1963</v>
@@ -22463,10 +22476,10 @@
       </c>
       <c r="J414" s="13" t="str">
         <f t="shared" si="13"/>
-        <v>9/15(월)~9/16(화)</v>
-      </c>
-    </row>
-    <row r="415" spans="1:23" ht="30">
+        <v>9/22(월)~9/23(화)</v>
+      </c>
+    </row>
+    <row r="415" spans="1:23" ht="31.2">
       <c r="A415" s="9">
         <v>411</v>
       </c>
@@ -22499,7 +22512,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="30">
+    <row r="416" spans="1:23" ht="31.2">
       <c r="A416" s="9">
         <v>412</v>
       </c>
@@ -22532,7 +22545,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="15">
+    <row r="417" spans="1:23" ht="31.2">
       <c r="A417" s="9">
         <v>413</v>
       </c>
@@ -22565,7 +22578,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="15">
+    <row r="418" spans="1:23" ht="15.6">
       <c r="A418" s="9">
         <v>414</v>
       </c>
@@ -22598,7 +22611,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="15">
+    <row r="419" spans="1:23" ht="15.6">
       <c r="A419" s="9">
         <v>415</v>
       </c>
@@ -22631,7 +22644,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="15">
+    <row r="420" spans="1:23" ht="15.6">
       <c r="A420" s="9">
         <v>416</v>
       </c>
@@ -22664,7 +22677,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="421" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="421" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A421" s="9">
         <v>417</v>
       </c>
@@ -22710,7 +22723,7 @@
       <c r="V421" s="3"/>
       <c r="W421" s="3"/>
     </row>
-    <row r="422" spans="1:23" ht="15">
+    <row r="422" spans="1:23" ht="15.6">
       <c r="A422" s="9">
         <v>418</v>
       </c>
@@ -22743,7 +22756,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="423" spans="1:23" ht="15">
+    <row r="423" spans="1:23" ht="15.6">
       <c r="A423" s="9">
         <v>419</v>
       </c>
@@ -22776,7 +22789,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="424" spans="1:23" ht="15">
+    <row r="424" spans="1:23" ht="15.6">
       <c r="A424" s="9">
         <v>420</v>
       </c>
@@ -22809,7 +22822,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="15">
+    <row r="425" spans="1:23" ht="15.6">
       <c r="A425" s="9">
         <v>421</v>
       </c>
@@ -22842,7 +22855,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="15">
+    <row r="426" spans="1:23" ht="15.6">
       <c r="A426" s="9">
         <v>422</v>
       </c>
@@ -22875,7 +22888,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="15">
+    <row r="427" spans="1:23" ht="15.6">
       <c r="A427" s="9">
         <v>423</v>
       </c>
@@ -22908,7 +22921,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="15">
+    <row r="428" spans="1:23" ht="15.6">
       <c r="A428" s="9">
         <v>424</v>
       </c>
@@ -22941,7 +22954,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="15">
+    <row r="429" spans="1:23" ht="15.6">
       <c r="A429" s="9">
         <v>425</v>
       </c>
@@ -22974,7 +22987,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="15">
+    <row r="430" spans="1:23" ht="15.6">
       <c r="A430" s="9">
         <v>426</v>
       </c>
@@ -23007,7 +23020,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="15">
+    <row r="431" spans="1:23" ht="15.6">
       <c r="A431" s="9">
         <v>427</v>
       </c>
@@ -23040,7 +23053,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="15">
+    <row r="432" spans="1:23" ht="15.6">
       <c r="A432" s="9">
         <v>428</v>
       </c>
@@ -23073,7 +23086,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="15">
+    <row r="433" spans="1:10" ht="15.6">
       <c r="A433" s="9">
         <v>429</v>
       </c>
@@ -23106,7 +23119,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="15">
+    <row r="434" spans="1:10" ht="15.6">
       <c r="A434" s="9">
         <v>430</v>
       </c>
@@ -23139,7 +23152,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="15">
+    <row r="435" spans="1:10" ht="15.6">
       <c r="A435" s="9">
         <v>431</v>
       </c>
@@ -23172,7 +23185,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="15">
+    <row r="436" spans="1:10" ht="15.6">
       <c r="A436" s="9">
         <v>432</v>
       </c>
@@ -23205,7 +23218,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="15">
+    <row r="437" spans="1:10" ht="15.6">
       <c r="A437" s="9">
         <v>433</v>
       </c>
@@ -23238,7 +23251,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="30">
+    <row r="438" spans="1:10" ht="31.2">
       <c r="A438" s="9">
         <v>434</v>
       </c>
@@ -23271,7 +23284,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="15">
+    <row r="439" spans="1:10" ht="15.6">
       <c r="A439" s="9">
         <v>435</v>
       </c>
@@ -23304,7 +23317,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="15">
+    <row r="440" spans="1:10" ht="15.6">
       <c r="A440" s="9">
         <v>436</v>
       </c>
@@ -23337,7 +23350,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="30">
+    <row r="441" spans="1:10" ht="31.2">
       <c r="A441" s="9">
         <v>437</v>
       </c>
@@ -23370,7 +23383,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="15">
+    <row r="442" spans="1:10" ht="15.6">
       <c r="A442" s="9">
         <v>438</v>
       </c>
@@ -23403,7 +23416,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="15">
+    <row r="443" spans="1:10" ht="15.6">
       <c r="A443" s="9">
         <v>439</v>
       </c>
@@ -23436,7 +23449,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="15">
+    <row r="444" spans="1:10" ht="15.6">
       <c r="A444" s="9">
         <v>440</v>
       </c>
@@ -23469,7 +23482,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="15">
+    <row r="445" spans="1:10" ht="15.6">
       <c r="A445" s="9">
         <v>441</v>
       </c>
@@ -23502,7 +23515,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="15">
+    <row r="446" spans="1:10" ht="15.6">
       <c r="A446" s="9">
         <v>442</v>
       </c>
@@ -23535,7 +23548,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="15">
+    <row r="447" spans="1:10" ht="15.6">
       <c r="A447" s="9">
         <v>443</v>
       </c>
@@ -23568,7 +23581,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="15">
+    <row r="448" spans="1:10" ht="15.6">
       <c r="A448" s="9">
         <v>444</v>
       </c>
@@ -23601,7 +23614,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="30">
+    <row r="449" spans="1:23" ht="31.2">
       <c r="A449" s="9">
         <v>445</v>
       </c>
@@ -23634,7 +23647,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="15">
+    <row r="450" spans="1:23" ht="15.6">
       <c r="A450" s="9">
         <v>446</v>
       </c>
@@ -23667,7 +23680,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="15">
+    <row r="451" spans="1:23" ht="15.6">
       <c r="A451" s="9">
         <v>447</v>
       </c>
@@ -23700,7 +23713,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="15">
+    <row r="452" spans="1:23" ht="15.6">
       <c r="A452" s="9">
         <v>448</v>
       </c>
@@ -23733,7 +23746,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="15">
+    <row r="453" spans="1:23" ht="15.6">
       <c r="A453" s="9">
         <v>449</v>
       </c>
@@ -23766,7 +23779,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="15">
+    <row r="454" spans="1:23" ht="15.6">
       <c r="A454" s="9">
         <v>450</v>
       </c>
@@ -23799,7 +23812,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="15">
+    <row r="455" spans="1:23" ht="15.6">
       <c r="A455" s="9">
         <v>451</v>
       </c>
@@ -23832,7 +23845,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="15">
+    <row r="456" spans="1:23" ht="15.6">
       <c r="A456" s="9">
         <v>452</v>
       </c>
@@ -23865,7 +23878,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="15">
+    <row r="457" spans="1:23" ht="15.6">
       <c r="A457" s="9">
         <v>453</v>
       </c>
@@ -23898,7 +23911,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="15">
+    <row r="458" spans="1:23" ht="15.6">
       <c r="A458" s="9">
         <v>454</v>
       </c>
@@ -23931,7 +23944,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="15">
+    <row r="459" spans="1:23" ht="15.6">
       <c r="A459" s="9">
         <v>455</v>
       </c>
@@ -23964,7 +23977,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="15">
+    <row r="460" spans="1:23" ht="15.6">
       <c r="A460" s="9">
         <v>456</v>
       </c>
@@ -23997,7 +24010,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="461" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="461" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A461" s="9">
         <v>457</v>
       </c>
@@ -24043,7 +24056,7 @@
       <c r="V461" s="3"/>
       <c r="W461" s="3"/>
     </row>
-    <row r="462" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="462" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A462" s="9">
         <v>458</v>
       </c>
@@ -24089,7 +24102,7 @@
       <c r="V462" s="3"/>
       <c r="W462" s="3"/>
     </row>
-    <row r="463" spans="1:23" ht="15">
+    <row r="463" spans="1:23" ht="15.6">
       <c r="A463" s="9">
         <v>459</v>
       </c>
@@ -24122,7 +24135,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="464" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="464" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A464" s="9">
         <v>460</v>
       </c>
@@ -24168,7 +24181,7 @@
       <c r="V464" s="3"/>
       <c r="W464" s="3"/>
     </row>
-    <row r="465" spans="1:23" ht="15">
+    <row r="465" spans="1:23" ht="15.6">
       <c r="A465" s="9">
         <v>461</v>
       </c>
@@ -24201,7 +24214,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="15">
+    <row r="466" spans="1:23" ht="15.6">
       <c r="A466" s="9">
         <v>462</v>
       </c>
@@ -24234,7 +24247,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="467" spans="1:23" ht="15">
+    <row r="467" spans="1:23" ht="15.6">
       <c r="A467" s="9">
         <v>463</v>
       </c>
@@ -24267,7 +24280,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="15">
+    <row r="468" spans="1:23" ht="15.6">
       <c r="A468" s="9">
         <v>464</v>
       </c>
@@ -24300,7 +24313,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="15">
+    <row r="469" spans="1:23" ht="15.6">
       <c r="A469" s="9">
         <v>465</v>
       </c>
@@ -24333,7 +24346,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="15">
+    <row r="470" spans="1:23" ht="15.6">
       <c r="A470" s="9">
         <v>466</v>
       </c>
@@ -24366,7 +24379,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="15">
+    <row r="471" spans="1:23" ht="15.6">
       <c r="A471" s="9">
         <v>467</v>
       </c>
@@ -24399,7 +24412,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="15">
+    <row r="472" spans="1:23" ht="15.6">
       <c r="A472" s="9">
         <v>468</v>
       </c>
@@ -24432,7 +24445,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="473" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="473" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A473" s="9">
         <v>469</v>
       </c>
@@ -24478,7 +24491,7 @@
       <c r="V473" s="3"/>
       <c r="W473" s="3"/>
     </row>
-    <row r="474" spans="1:23" ht="30">
+    <row r="474" spans="1:23" ht="31.2">
       <c r="A474" s="9">
         <v>470</v>
       </c>
@@ -24511,7 +24524,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="475" spans="1:23" s="7" customFormat="1" ht="30">
+    <row r="475" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A475" s="9">
         <v>471</v>
       </c>
@@ -24557,7 +24570,7 @@
       <c r="V475" s="3"/>
       <c r="W475" s="3"/>
     </row>
-    <row r="476" spans="1:23" ht="15">
+    <row r="476" spans="1:23" ht="15.6">
       <c r="A476" s="9">
         <v>472</v>
       </c>
@@ -24590,7 +24603,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="477" spans="1:23" ht="15">
+    <row r="477" spans="1:23" ht="15.6">
       <c r="A477" s="9">
         <v>473</v>
       </c>
@@ -24623,7 +24636,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="478" spans="1:23" ht="15">
+    <row r="478" spans="1:23" ht="15.6">
       <c r="A478" s="9">
         <v>474</v>
       </c>
@@ -24656,7 +24669,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="15">
+    <row r="479" spans="1:23" ht="15.6">
       <c r="A479" s="9">
         <v>475</v>
       </c>
@@ -24689,7 +24702,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="15">
+    <row r="480" spans="1:23" ht="15.6">
       <c r="A480" s="9">
         <v>476</v>
       </c>
@@ -24722,7 +24735,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="30">
+    <row r="481" spans="1:23" ht="31.2">
       <c r="A481" s="9">
         <v>477</v>
       </c>
@@ -24755,7 +24768,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="15">
+    <row r="482" spans="1:23" ht="31.2">
       <c r="A482" s="9">
         <v>478</v>
       </c>
@@ -24788,7 +24801,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="483" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="483" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A483" s="9">
         <v>479</v>
       </c>
@@ -24834,7 +24847,7 @@
       <c r="V483" s="3"/>
       <c r="W483" s="3"/>
     </row>
-    <row r="484" spans="1:23" ht="15">
+    <row r="484" spans="1:23" ht="31.2">
       <c r="A484" s="9">
         <v>480</v>
       </c>
@@ -24867,7 +24880,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="485" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="485" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A485" s="9">
         <v>481</v>
       </c>
@@ -24913,7 +24926,7 @@
       <c r="V485" s="3"/>
       <c r="W485" s="3"/>
     </row>
-    <row r="486" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="486" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A486" s="9">
         <v>482</v>
       </c>
@@ -24959,7 +24972,7 @@
       <c r="V486" s="3"/>
       <c r="W486" s="3"/>
     </row>
-    <row r="487" spans="1:23" ht="15">
+    <row r="487" spans="1:23" ht="15.6">
       <c r="A487" s="9">
         <v>483</v>
       </c>
@@ -24992,7 +25005,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="488" spans="1:23" ht="15">
+    <row r="488" spans="1:23" ht="15.6">
       <c r="A488" s="9">
         <v>484</v>
       </c>
@@ -25025,7 +25038,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="489" spans="1:23" ht="15">
+    <row r="489" spans="1:23" ht="15.6">
       <c r="A489" s="9">
         <v>485</v>
       </c>
@@ -25058,7 +25071,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="15">
+    <row r="490" spans="1:23" ht="15.6">
       <c r="A490" s="9">
         <v>486</v>
       </c>
@@ -25091,7 +25104,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="15">
+    <row r="491" spans="1:23" ht="15.6">
       <c r="A491" s="9">
         <v>487</v>
       </c>
@@ -25124,7 +25137,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="15">
+    <row r="492" spans="1:23" ht="31.2">
       <c r="A492" s="9">
         <v>488</v>
       </c>
@@ -25157,7 +25170,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="30">
+    <row r="493" spans="1:23" ht="31.2">
       <c r="A493" s="9">
         <v>489</v>
       </c>
@@ -25190,7 +25203,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="30">
+    <row r="494" spans="1:23" ht="31.2">
       <c r="A494" s="9">
         <v>490</v>
       </c>
@@ -25223,7 +25236,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="30">
+    <row r="495" spans="1:23" ht="31.2">
       <c r="A495" s="9">
         <v>491</v>
       </c>
@@ -25256,7 +25269,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="15">
+    <row r="496" spans="1:23" ht="15.6">
       <c r="A496" s="9">
         <v>492</v>
       </c>
@@ -25289,7 +25302,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="15">
+    <row r="497" spans="1:10" ht="15.6">
       <c r="A497" s="9">
         <v>493</v>
       </c>
@@ -25322,7 +25335,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="15">
+    <row r="498" spans="1:10" ht="15.6">
       <c r="A498" s="9">
         <v>494</v>
       </c>
@@ -25355,7 +25368,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="15">
+    <row r="499" spans="1:10" ht="15.6">
       <c r="A499" s="9">
         <v>495</v>
       </c>
@@ -25388,7 +25401,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="15">
+    <row r="500" spans="1:10" ht="15.6">
       <c r="A500" s="9">
         <v>496</v>
       </c>
@@ -25421,7 +25434,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="15">
+    <row r="501" spans="1:10" ht="15.6">
       <c r="A501" s="9">
         <v>497</v>
       </c>
@@ -25454,7 +25467,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="15">
+    <row r="502" spans="1:10" ht="15.6">
       <c r="A502" s="9">
         <v>498</v>
       </c>
@@ -25487,7 +25500,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="15">
+    <row r="503" spans="1:10" ht="15.6">
       <c r="A503" s="9">
         <v>499</v>
       </c>
@@ -25520,7 +25533,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="15">
+    <row r="504" spans="1:10" ht="15.6">
       <c r="A504" s="9">
         <v>500</v>
       </c>
@@ -25553,7 +25566,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="15">
+    <row r="505" spans="1:10" ht="15.6">
       <c r="A505" s="9">
         <v>501</v>
       </c>
@@ -25586,7 +25599,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="15">
+    <row r="506" spans="1:10" ht="15.6">
       <c r="A506" s="9">
         <v>502</v>
       </c>
@@ -25619,7 +25632,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="15">
+    <row r="507" spans="1:10" ht="15.6">
       <c r="A507" s="9">
         <v>503</v>
       </c>
@@ -25652,7 +25665,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="15">
+    <row r="508" spans="1:10" ht="15.6">
       <c r="A508" s="9">
         <v>504</v>
       </c>
@@ -25685,7 +25698,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="15">
+    <row r="509" spans="1:10" ht="15.6">
       <c r="A509" s="9">
         <v>505</v>
       </c>
@@ -25718,7 +25731,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="15">
+    <row r="510" spans="1:10" ht="15.6">
       <c r="A510" s="9">
         <v>506</v>
       </c>
@@ -25751,7 +25764,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="15">
+    <row r="511" spans="1:10" ht="15.6">
       <c r="A511" s="9">
         <v>507</v>
       </c>
@@ -25784,7 +25797,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="15">
+    <row r="512" spans="1:10" ht="15.6">
       <c r="A512" s="9">
         <v>508</v>
       </c>
@@ -25817,7 +25830,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="15">
+    <row r="513" spans="1:10" ht="15.6">
       <c r="A513" s="9">
         <v>509</v>
       </c>
@@ -25850,7 +25863,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="15">
+    <row r="514" spans="1:10" ht="15.6">
       <c r="A514" s="9">
         <v>510</v>
       </c>
@@ -25883,7 +25896,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="15">
+    <row r="515" spans="1:10" ht="15.6">
       <c r="A515" s="9">
         <v>511</v>
       </c>
@@ -25916,7 +25929,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="15">
+    <row r="516" spans="1:10" ht="15.6">
       <c r="A516" s="9">
         <v>512</v>
       </c>
@@ -25949,7 +25962,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="15">
+    <row r="517" spans="1:10" ht="15.6">
       <c r="A517" s="9">
         <v>513</v>
       </c>
@@ -25982,7 +25995,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="15">
+    <row r="518" spans="1:10" ht="15.6">
       <c r="A518" s="9">
         <v>514</v>
       </c>
@@ -26015,7 +26028,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="15">
+    <row r="519" spans="1:10" ht="15.6">
       <c r="A519" s="9">
         <v>515</v>
       </c>
@@ -26048,7 +26061,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="15">
+    <row r="520" spans="1:10" ht="15.6">
       <c r="A520" s="9">
         <v>516</v>
       </c>
@@ -26081,7 +26094,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="15">
+    <row r="521" spans="1:10" ht="15.6">
       <c r="A521" s="9">
         <v>517</v>
       </c>
@@ -26114,7 +26127,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="15">
+    <row r="522" spans="1:10" ht="15.6">
       <c r="A522" s="9">
         <v>518</v>
       </c>
@@ -26147,7 +26160,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="15">
+    <row r="523" spans="1:10" ht="15.6">
       <c r="A523" s="9">
         <v>519</v>
       </c>
@@ -26180,7 +26193,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="15">
+    <row r="524" spans="1:10" ht="15.6">
       <c r="A524" s="9">
         <v>520</v>
       </c>
@@ -26213,7 +26226,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="15">
+    <row r="525" spans="1:10" ht="15.6">
       <c r="A525" s="9">
         <v>521</v>
       </c>
@@ -26246,7 +26259,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="15">
+    <row r="526" spans="1:10" ht="15.6">
       <c r="A526" s="9">
         <v>522</v>
       </c>
@@ -26279,7 +26292,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="15">
+    <row r="527" spans="1:10" ht="15.6">
       <c r="A527" s="9">
         <v>523</v>
       </c>
@@ -26312,7 +26325,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="15">
+    <row r="528" spans="1:10" ht="15.6">
       <c r="A528" s="9">
         <v>524</v>
       </c>
@@ -26345,7 +26358,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="529" spans="1:23" ht="15">
+    <row r="529" spans="1:23" ht="15.6">
       <c r="A529" s="9">
         <v>525</v>
       </c>
@@ -26378,7 +26391,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="530" spans="1:23" ht="15">
+    <row r="530" spans="1:23" ht="15.6">
       <c r="A530" s="9">
         <v>526</v>
       </c>
@@ -26411,7 +26424,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="531" spans="1:23" ht="15">
+    <row r="531" spans="1:23" ht="15.6">
       <c r="A531" s="9">
         <v>527</v>
       </c>
@@ -26444,7 +26457,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="532" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="532" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A532" s="9">
         <v>528</v>
       </c>
@@ -26490,7 +26503,7 @@
       <c r="V532" s="3"/>
       <c r="W532" s="3"/>
     </row>
-    <row r="533" spans="1:23" ht="15">
+    <row r="533" spans="1:23" ht="15.6">
       <c r="A533" s="9">
         <v>529</v>
       </c>
@@ -26523,7 +26536,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="534" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="534" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A534" s="9">
         <v>530</v>
       </c>
@@ -26569,7 +26582,7 @@
       <c r="V534" s="3"/>
       <c r="W534" s="3"/>
     </row>
-    <row r="535" spans="1:23" ht="15">
+    <row r="535" spans="1:23" ht="15.6">
       <c r="A535" s="9">
         <v>531</v>
       </c>
@@ -26602,7 +26615,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="536" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="536" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A536" s="9">
         <v>532</v>
       </c>
@@ -26648,7 +26661,7 @@
       <c r="V536" s="3"/>
       <c r="W536" s="3"/>
     </row>
-    <row r="537" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="537" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A537" s="9">
         <v>533</v>
       </c>
@@ -26694,7 +26707,7 @@
       <c r="V537" s="3"/>
       <c r="W537" s="3"/>
     </row>
-    <row r="538" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="538" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A538" s="9">
         <v>534</v>
       </c>
@@ -26740,7 +26753,7 @@
       <c r="V538" s="3"/>
       <c r="W538" s="3"/>
     </row>
-    <row r="539" spans="1:23" ht="15">
+    <row r="539" spans="1:23" ht="15.6">
       <c r="A539" s="9">
         <v>535</v>
       </c>
@@ -26773,7 +26786,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="540" spans="1:23" ht="15">
+    <row r="540" spans="1:23" ht="15.6">
       <c r="A540" s="9">
         <v>536</v>
       </c>
@@ -26806,7 +26819,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="541" spans="1:23" ht="15">
+    <row r="541" spans="1:23" ht="15.6">
       <c r="A541" s="9">
         <v>537</v>
       </c>
@@ -26839,7 +26852,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="542" spans="1:23" ht="15">
+    <row r="542" spans="1:23" ht="15.6">
       <c r="A542" s="9">
         <v>538</v>
       </c>
@@ -26872,7 +26885,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="543" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="543" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A543" s="9">
         <v>539</v>
       </c>
@@ -26918,7 +26931,7 @@
       <c r="V543" s="3"/>
       <c r="W543" s="3"/>
     </row>
-    <row r="544" spans="1:23" ht="30">
+    <row r="544" spans="1:23" ht="31.2">
       <c r="A544" s="9">
         <v>540</v>
       </c>
@@ -26951,7 +26964,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="545" spans="1:23" s="7" customFormat="1" ht="30">
+    <row r="545" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A545" s="9">
         <v>541</v>
       </c>
@@ -26997,7 +27010,7 @@
       <c r="V545" s="3"/>
       <c r="W545" s="3"/>
     </row>
-    <row r="546" spans="1:23" s="7" customFormat="1" ht="30">
+    <row r="546" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A546" s="9">
         <v>542</v>
       </c>
@@ -27043,7 +27056,7 @@
       <c r="V546" s="3"/>
       <c r="W546" s="3"/>
     </row>
-    <row r="547" spans="1:23" ht="15">
+    <row r="547" spans="1:23" ht="15.6">
       <c r="A547" s="9">
         <v>543</v>
       </c>
@@ -27076,7 +27089,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="548" spans="1:23" ht="15">
+    <row r="548" spans="1:23" ht="15.6">
       <c r="A548" s="9">
         <v>544</v>
       </c>
@@ -27109,7 +27122,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="549" spans="1:23" ht="15">
+    <row r="549" spans="1:23" ht="15.6">
       <c r="A549" s="9">
         <v>545</v>
       </c>
@@ -27142,7 +27155,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="550" spans="1:23" ht="15">
+    <row r="550" spans="1:23" ht="15.6">
       <c r="A550" s="9">
         <v>546</v>
       </c>
@@ -27175,7 +27188,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="551" spans="1:23" ht="15">
+    <row r="551" spans="1:23" ht="15.6">
       <c r="A551" s="9">
         <v>547</v>
       </c>
@@ -27208,7 +27221,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="552" spans="1:23" ht="15">
+    <row r="552" spans="1:23" ht="15.6">
       <c r="A552" s="9">
         <v>548</v>
       </c>
@@ -27241,7 +27254,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="553" spans="1:23" ht="15">
+    <row r="553" spans="1:23" ht="15.6">
       <c r="A553" s="9">
         <v>549</v>
       </c>
@@ -27274,7 +27287,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="554" spans="1:23" ht="15">
+    <row r="554" spans="1:23" ht="15.6">
       <c r="A554" s="9">
         <v>550</v>
       </c>
@@ -27307,7 +27320,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="555" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="555" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A555" s="9">
         <v>551</v>
       </c>
@@ -27353,7 +27366,7 @@
       <c r="V555" s="3"/>
       <c r="W555" s="3"/>
     </row>
-    <row r="556" spans="1:23" ht="15">
+    <row r="556" spans="1:23" ht="31.2">
       <c r="A556" s="9">
         <v>552</v>
       </c>
@@ -27386,7 +27399,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="557" spans="1:23" ht="15">
+    <row r="557" spans="1:23" ht="31.2">
       <c r="A557" s="9">
         <v>553</v>
       </c>
@@ -27419,7 +27432,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="558" spans="1:23" ht="15">
+    <row r="558" spans="1:23" ht="31.2">
       <c r="A558" s="9">
         <v>554</v>
       </c>
@@ -27452,7 +27465,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="559" spans="1:23" ht="15">
+    <row r="559" spans="1:23" ht="15.6">
       <c r="A559" s="9">
         <v>555</v>
       </c>
@@ -27485,7 +27498,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="560" spans="1:23" ht="15">
+    <row r="560" spans="1:23" ht="15.6">
       <c r="A560" s="9">
         <v>556</v>
       </c>
@@ -27518,7 +27531,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="15">
+    <row r="561" spans="1:10" ht="15.6">
       <c r="A561" s="9">
         <v>557</v>
       </c>
@@ -27551,7 +27564,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="15">
+    <row r="562" spans="1:10" ht="15.6">
       <c r="A562" s="9">
         <v>558</v>
       </c>
@@ -27584,7 +27597,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="15">
+    <row r="563" spans="1:10" ht="15.6">
       <c r="A563" s="9">
         <v>559</v>
       </c>
@@ -27617,7 +27630,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="15">
+    <row r="564" spans="1:10" ht="15.6">
       <c r="A564" s="9">
         <v>560</v>
       </c>
@@ -27650,7 +27663,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="15">
+    <row r="565" spans="1:10" ht="15.6">
       <c r="A565" s="9">
         <v>561</v>
       </c>
@@ -27683,7 +27696,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="30">
+    <row r="566" spans="1:10" ht="31.2">
       <c r="A566" s="9">
         <v>562</v>
       </c>
@@ -27716,7 +27729,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="30">
+    <row r="567" spans="1:10" ht="31.2">
       <c r="A567" s="9">
         <v>563</v>
       </c>
@@ -27749,7 +27762,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="30">
+    <row r="568" spans="1:10" ht="31.2">
       <c r="A568" s="9">
         <v>564</v>
       </c>
@@ -27782,7 +27795,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="15">
+    <row r="569" spans="1:10" ht="31.2">
       <c r="A569" s="9">
         <v>565</v>
       </c>
@@ -27815,7 +27828,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="15">
+    <row r="570" spans="1:10" ht="15.6">
       <c r="A570" s="9">
         <v>566</v>
       </c>
@@ -27848,7 +27861,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="15">
+    <row r="571" spans="1:10" ht="15.6">
       <c r="A571" s="9">
         <v>567</v>
       </c>
@@ -27881,7 +27894,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="15">
+    <row r="572" spans="1:10" ht="15.6">
       <c r="A572" s="9">
         <v>568</v>
       </c>
@@ -27914,7 +27927,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="15">
+    <row r="573" spans="1:10" ht="15.6">
       <c r="A573" s="9">
         <v>569</v>
       </c>
@@ -27947,7 +27960,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="15">
+    <row r="574" spans="1:10" ht="15.6">
       <c r="A574" s="9">
         <v>570</v>
       </c>
@@ -27980,7 +27993,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="15">
+    <row r="575" spans="1:10" ht="15.6">
       <c r="A575" s="9">
         <v>571</v>
       </c>
@@ -28013,7 +28026,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="15">
+    <row r="576" spans="1:10" ht="15.6">
       <c r="A576" s="9">
         <v>572</v>
       </c>
@@ -28046,7 +28059,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="15">
+    <row r="577" spans="1:10" ht="15.6">
       <c r="A577" s="9">
         <v>573</v>
       </c>
@@ -28079,7 +28092,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="15">
+    <row r="578" spans="1:10" ht="15.6">
       <c r="A578" s="9">
         <v>574</v>
       </c>
@@ -28112,7 +28125,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="15">
+    <row r="579" spans="1:10" ht="15.6">
       <c r="A579" s="9">
         <v>575</v>
       </c>
@@ -28145,7 +28158,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="15">
+    <row r="580" spans="1:10" ht="15.6">
       <c r="A580" s="9">
         <v>576</v>
       </c>
@@ -28178,7 +28191,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="15">
+    <row r="581" spans="1:10" ht="15.6">
       <c r="A581" s="9">
         <v>577</v>
       </c>
@@ -28211,7 +28224,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="15">
+    <row r="582" spans="1:10" ht="15.6">
       <c r="A582" s="9">
         <v>578</v>
       </c>
@@ -28244,7 +28257,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="15">
+    <row r="583" spans="1:10" ht="15.6">
       <c r="A583" s="9">
         <v>579</v>
       </c>
@@ -28277,7 +28290,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="15">
+    <row r="584" spans="1:10" ht="15.6">
       <c r="A584" s="9">
         <v>580</v>
       </c>
@@ -28310,7 +28323,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="15">
+    <row r="585" spans="1:10" ht="15.6">
       <c r="A585" s="9">
         <v>581</v>
       </c>
@@ -28343,7 +28356,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="15">
+    <row r="586" spans="1:10" ht="15.6">
       <c r="A586" s="9">
         <v>582</v>
       </c>
@@ -28376,7 +28389,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="15">
+    <row r="587" spans="1:10" ht="15.6">
       <c r="A587" s="9">
         <v>583</v>
       </c>
@@ -28409,7 +28422,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="15">
+    <row r="588" spans="1:10" ht="15.6">
       <c r="A588" s="9">
         <v>584</v>
       </c>
@@ -28442,7 +28455,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="15">
+    <row r="589" spans="1:10" ht="15.6">
       <c r="A589" s="9">
         <v>585</v>
       </c>
@@ -28475,7 +28488,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="15">
+    <row r="590" spans="1:10" ht="15.6">
       <c r="A590" s="9">
         <v>586</v>
       </c>
@@ -28508,7 +28521,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="15">
+    <row r="591" spans="1:10" ht="15.6">
       <c r="A591" s="9">
         <v>587</v>
       </c>
@@ -28541,7 +28554,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="15">
+    <row r="592" spans="1:10" ht="15.6">
       <c r="A592" s="9">
         <v>588</v>
       </c>
@@ -28574,7 +28587,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="15">
+    <row r="593" spans="1:12" ht="15.6">
       <c r="A593" s="9">
         <v>589</v>
       </c>
@@ -28608,7 +28621,7 @@
       </c>
       <c r="L593" s="2"/>
     </row>
-    <row r="594" spans="1:12" ht="15">
+    <row r="594" spans="1:12" ht="15.6">
       <c r="A594" s="9">
         <v>590</v>
       </c>
@@ -28641,7 +28654,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="595" spans="1:12" ht="15">
+    <row r="595" spans="1:12" ht="15.6">
       <c r="A595" s="9">
         <v>591</v>
       </c>
@@ -28674,7 +28687,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="596" spans="1:12" ht="15">
+    <row r="596" spans="1:12" ht="15.6">
       <c r="A596" s="9">
         <v>592</v>
       </c>
@@ -28707,7 +28720,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="597" spans="1:12" ht="15">
+    <row r="597" spans="1:12" ht="15.6">
       <c r="A597" s="9">
         <v>593</v>
       </c>
@@ -28740,7 +28753,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="598" spans="1:12" ht="15">
+    <row r="598" spans="1:12" ht="15.6">
       <c r="A598" s="9">
         <v>594</v>
       </c>
@@ -28773,7 +28786,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="599" spans="1:12" ht="15">
+    <row r="599" spans="1:12" ht="15.6">
       <c r="A599" s="9">
         <v>595</v>
       </c>
@@ -28806,7 +28819,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="15">
+    <row r="600" spans="1:12" ht="15.6">
       <c r="A600" s="9">
         <v>596</v>
       </c>
@@ -28839,7 +28852,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="601" spans="1:12" ht="15">
+    <row r="601" spans="1:12" ht="15.6">
       <c r="A601" s="9">
         <v>597</v>
       </c>
@@ -28872,7 +28885,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="602" spans="1:12" ht="30">
+    <row r="602" spans="1:12" ht="31.2">
       <c r="A602" s="9">
         <v>598</v>
       </c>
@@ -28905,7 +28918,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="15">
+    <row r="603" spans="1:12" ht="15.6">
       <c r="A603" s="9">
         <v>599</v>
       </c>
@@ -28938,7 +28951,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="604" spans="1:12" ht="15">
+    <row r="604" spans="1:12" ht="15.6">
       <c r="A604" s="9">
         <v>600</v>
       </c>
@@ -28971,7 +28984,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="15">
+    <row r="605" spans="1:12" ht="15.6">
       <c r="A605" s="9">
         <v>601</v>
       </c>
@@ -29004,7 +29017,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="606" spans="1:12" ht="15">
+    <row r="606" spans="1:12" ht="15.6">
       <c r="A606" s="9">
         <v>602</v>
       </c>
@@ -29037,7 +29050,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="607" spans="1:12" ht="15">
+    <row r="607" spans="1:12" ht="15.6">
       <c r="A607" s="9">
         <v>603</v>
       </c>
@@ -29070,7 +29083,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="608" spans="1:12" ht="15">
+    <row r="608" spans="1:12" ht="15.6">
       <c r="A608" s="9">
         <v>604</v>
       </c>
@@ -29103,7 +29116,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="609" spans="1:23" ht="15">
+    <row r="609" spans="1:23" ht="15.6">
       <c r="A609" s="9">
         <v>605</v>
       </c>
@@ -29136,7 +29149,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="610" spans="1:23" ht="15">
+    <row r="610" spans="1:23" ht="15.6">
       <c r="A610" s="9">
         <v>606</v>
       </c>
@@ -29169,7 +29182,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="611" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="611" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A611" s="9">
         <v>607</v>
       </c>
@@ -29215,7 +29228,7 @@
       <c r="V611" s="3"/>
       <c r="W611" s="3"/>
     </row>
-    <row r="612" spans="1:23" ht="15">
+    <row r="612" spans="1:23" ht="15.6">
       <c r="A612" s="9">
         <v>608</v>
       </c>
@@ -29248,7 +29261,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="613" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="613" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A613" s="9">
         <v>609</v>
       </c>
@@ -29294,7 +29307,7 @@
       <c r="V613" s="3"/>
       <c r="W613" s="3"/>
     </row>
-    <row r="614" spans="1:23" ht="15">
+    <row r="614" spans="1:23" ht="15.6">
       <c r="A614" s="9">
         <v>610</v>
       </c>
@@ -29327,7 +29340,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="615" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="615" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A615" s="9">
         <v>611</v>
       </c>
@@ -29373,7 +29386,7 @@
       <c r="V615" s="3"/>
       <c r="W615" s="3"/>
     </row>
-    <row r="616" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="616" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A616" s="9">
         <v>612</v>
       </c>
@@ -29419,7 +29432,7 @@
       <c r="V616" s="3"/>
       <c r="W616" s="3"/>
     </row>
-    <row r="617" spans="1:23" ht="15">
+    <row r="617" spans="1:23" ht="15.6">
       <c r="A617" s="9">
         <v>613</v>
       </c>
@@ -29452,7 +29465,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="618" spans="1:23" ht="15">
+    <row r="618" spans="1:23" ht="15.6">
       <c r="A618" s="9">
         <v>614</v>
       </c>
@@ -29485,7 +29498,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="619" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="619" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A619" s="9">
         <v>615</v>
       </c>
@@ -29531,7 +29544,7 @@
       <c r="V619" s="3"/>
       <c r="W619" s="3"/>
     </row>
-    <row r="620" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="620" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A620" s="9">
         <v>616</v>
       </c>
@@ -29577,7 +29590,7 @@
       <c r="V620" s="3"/>
       <c r="W620" s="3"/>
     </row>
-    <row r="621" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="621" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A621" s="9">
         <v>617</v>
       </c>
@@ -29623,7 +29636,7 @@
       <c r="V621" s="3"/>
       <c r="W621" s="3"/>
     </row>
-    <row r="622" spans="1:23" ht="30">
+    <row r="622" spans="1:23" ht="31.2">
       <c r="A622" s="9">
         <v>618</v>
       </c>
@@ -29656,7 +29669,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="623" spans="1:23" ht="30">
+    <row r="623" spans="1:23" ht="31.2">
       <c r="A623" s="9">
         <v>619</v>
       </c>
@@ -29689,7 +29702,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="624" spans="1:23" ht="30">
+    <row r="624" spans="1:23" ht="31.2">
       <c r="A624" s="9">
         <v>620</v>
       </c>
@@ -29722,7 +29735,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="625" spans="1:23" ht="30">
+    <row r="625" spans="1:23" ht="31.2">
       <c r="A625" s="9">
         <v>621</v>
       </c>
@@ -29755,7 +29768,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="626" spans="1:23" ht="30">
+    <row r="626" spans="1:23" ht="31.2">
       <c r="A626" s="9">
         <v>622</v>
       </c>
@@ -29788,7 +29801,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="627" spans="1:23" ht="30">
+    <row r="627" spans="1:23" ht="31.2">
       <c r="A627" s="9">
         <v>623</v>
       </c>
@@ -29821,12 +29834,12 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="628" spans="1:23" ht="30">
+    <row r="628" spans="1:23" ht="31.2">
       <c r="A628" s="9">
         <v>624</v>
       </c>
       <c r="B628" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C628" s="13" t="s">
         <v>1398</v>
@@ -29851,10 +29864,10 @@
       </c>
       <c r="J628" s="13" t="str">
         <f t="shared" si="16"/>
-        <v>9/29(월)~9/30(화)</v>
-      </c>
-    </row>
-    <row r="629" spans="1:23" ht="15">
+        <v>9/8(월)~9/9(화)</v>
+      </c>
+    </row>
+    <row r="629" spans="1:23" ht="15.6">
       <c r="A629" s="9">
         <v>625</v>
       </c>
@@ -29887,7 +29900,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="630" spans="1:23" ht="15">
+    <row r="630" spans="1:23" ht="15.6">
       <c r="A630" s="9">
         <v>626</v>
       </c>
@@ -29920,7 +29933,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="631" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="631" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A631" s="9">
         <v>627</v>
       </c>
@@ -29966,7 +29979,7 @@
       <c r="V631" s="3"/>
       <c r="W631" s="3"/>
     </row>
-    <row r="632" spans="1:23" ht="15">
+    <row r="632" spans="1:23" ht="15.6">
       <c r="A632" s="9">
         <v>628</v>
       </c>
@@ -29999,7 +30012,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="633" spans="1:23" ht="15">
+    <row r="633" spans="1:23" ht="15.6">
       <c r="A633" s="9">
         <v>629</v>
       </c>
@@ -30032,7 +30045,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="634" spans="1:23" ht="15">
+    <row r="634" spans="1:23" ht="15.6">
       <c r="A634" s="9">
         <v>630</v>
       </c>
@@ -30065,7 +30078,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="635" spans="1:23" ht="30">
+    <row r="635" spans="1:23" ht="31.2">
       <c r="A635" s="9">
         <v>631</v>
       </c>
@@ -30098,7 +30111,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="636" spans="1:23" ht="15">
+    <row r="636" spans="1:23" ht="15.6">
       <c r="A636" s="9">
         <v>632</v>
       </c>
@@ -30131,7 +30144,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="637" spans="1:23" ht="15">
+    <row r="637" spans="1:23" ht="31.2">
       <c r="A637" s="9">
         <v>633</v>
       </c>
@@ -30164,7 +30177,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="638" spans="1:23" ht="15">
+    <row r="638" spans="1:23" ht="31.2">
       <c r="A638" s="9">
         <v>634</v>
       </c>
@@ -30197,7 +30210,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="639" spans="1:23" ht="15">
+    <row r="639" spans="1:23" ht="31.2">
       <c r="A639" s="9">
         <v>635</v>
       </c>
@@ -30230,7 +30243,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="640" spans="1:23" ht="15">
+    <row r="640" spans="1:23" ht="31.2">
       <c r="A640" s="9">
         <v>636</v>
       </c>
@@ -30263,7 +30276,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="15">
+    <row r="641" spans="1:10" ht="15.6">
       <c r="A641" s="9">
         <v>637</v>
       </c>
@@ -30296,7 +30309,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="15">
+    <row r="642" spans="1:10" ht="15.6">
       <c r="A642" s="9">
         <v>638</v>
       </c>
@@ -30329,7 +30342,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="15">
+    <row r="643" spans="1:10" ht="15.6">
       <c r="A643" s="9">
         <v>639</v>
       </c>
@@ -30362,7 +30375,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="15">
+    <row r="644" spans="1:10" ht="15.6">
       <c r="A644" s="9">
         <v>640</v>
       </c>
@@ -30395,7 +30408,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="15">
+    <row r="645" spans="1:10" ht="15.6">
       <c r="A645" s="9">
         <v>641</v>
       </c>
@@ -30428,7 +30441,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="30">
+    <row r="646" spans="1:10" ht="31.2">
       <c r="A646" s="9">
         <v>642</v>
       </c>
@@ -30461,7 +30474,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="30">
+    <row r="647" spans="1:10" ht="31.2">
       <c r="A647" s="9">
         <v>643</v>
       </c>
@@ -30494,7 +30507,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="30">
+    <row r="648" spans="1:10" ht="31.2">
       <c r="A648" s="9">
         <v>644</v>
       </c>
@@ -30527,7 +30540,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="30">
+    <row r="649" spans="1:10" ht="31.2">
       <c r="A649" s="9">
         <v>645</v>
       </c>
@@ -30560,7 +30573,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="15">
+    <row r="650" spans="1:10" ht="15.6">
       <c r="A650" s="9">
         <v>646</v>
       </c>
@@ -30593,7 +30606,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="15">
+    <row r="651" spans="1:10" ht="15.6">
       <c r="A651" s="9">
         <v>647</v>
       </c>
@@ -30626,7 +30639,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="15">
+    <row r="652" spans="1:10" ht="15.6">
       <c r="A652" s="9">
         <v>648</v>
       </c>
@@ -30659,7 +30672,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="15">
+    <row r="653" spans="1:10" ht="15.6">
       <c r="A653" s="9">
         <v>649</v>
       </c>
@@ -30692,7 +30705,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="15">
+    <row r="654" spans="1:10" ht="15.6">
       <c r="A654" s="9">
         <v>650</v>
       </c>
@@ -30725,7 +30738,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="15">
+    <row r="655" spans="1:10" ht="15.6">
       <c r="A655" s="9">
         <v>651</v>
       </c>
@@ -30758,7 +30771,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="656" spans="1:10" ht="15">
+    <row r="656" spans="1:10" ht="15.6">
       <c r="A656" s="9">
         <v>652</v>
       </c>
@@ -30791,7 +30804,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="15">
+    <row r="657" spans="1:10" ht="15.6">
       <c r="A657" s="9">
         <v>653</v>
       </c>
@@ -30824,7 +30837,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="15">
+    <row r="658" spans="1:10" ht="15.6">
       <c r="A658" s="9">
         <v>654</v>
       </c>
@@ -30857,7 +30870,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="15">
+    <row r="659" spans="1:10" ht="15.6">
       <c r="A659" s="9">
         <v>655</v>
       </c>
@@ -30890,7 +30903,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="15">
+    <row r="660" spans="1:10" ht="15.6">
       <c r="A660" s="9">
         <v>656</v>
       </c>
@@ -30923,7 +30936,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="15">
+    <row r="661" spans="1:10" ht="15.6">
       <c r="A661" s="9">
         <v>657</v>
       </c>
@@ -30956,7 +30969,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="15">
+    <row r="662" spans="1:10" ht="15.6">
       <c r="A662" s="9">
         <v>658</v>
       </c>
@@ -30989,7 +31002,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="15">
+    <row r="663" spans="1:10" ht="15.6">
       <c r="A663" s="9">
         <v>659</v>
       </c>
@@ -31022,7 +31035,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="15">
+    <row r="664" spans="1:10" ht="15.6">
       <c r="A664" s="9">
         <v>660</v>
       </c>
@@ -31055,7 +31068,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="15">
+    <row r="665" spans="1:10" ht="15.6">
       <c r="A665" s="9">
         <v>661</v>
       </c>
@@ -31088,7 +31101,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="15">
+    <row r="666" spans="1:10" ht="15.6">
       <c r="A666" s="9">
         <v>662</v>
       </c>
@@ -31121,7 +31134,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="15">
+    <row r="667" spans="1:10" ht="15.6">
       <c r="A667" s="9">
         <v>663</v>
       </c>
@@ -31154,7 +31167,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="15">
+    <row r="668" spans="1:10" ht="15.6">
       <c r="A668" s="9">
         <v>664</v>
       </c>
@@ -31187,7 +31200,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="15">
+    <row r="669" spans="1:10" ht="15.6">
       <c r="A669" s="9">
         <v>665</v>
       </c>
@@ -31220,7 +31233,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="15">
+    <row r="670" spans="1:10" ht="15.6">
       <c r="A670" s="9">
         <v>666</v>
       </c>
@@ -31253,7 +31266,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="15">
+    <row r="671" spans="1:10" ht="15.6">
       <c r="A671" s="9">
         <v>667</v>
       </c>
@@ -31286,7 +31299,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="15">
+    <row r="672" spans="1:10" ht="15.6">
       <c r="A672" s="9">
         <v>668</v>
       </c>
@@ -31319,7 +31332,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="673" spans="1:23" ht="15">
+    <row r="673" spans="1:23" ht="15.6">
       <c r="A673" s="9">
         <v>669</v>
       </c>
@@ -31352,7 +31365,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="674" spans="1:23" ht="15">
+    <row r="674" spans="1:23" ht="15.6">
       <c r="A674" s="9">
         <v>670</v>
       </c>
@@ -31385,7 +31398,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="675" spans="1:23" ht="15">
+    <row r="675" spans="1:23" ht="15.6">
       <c r="A675" s="9">
         <v>671</v>
       </c>
@@ -31418,7 +31431,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="676" spans="1:23" ht="15">
+    <row r="676" spans="1:23" ht="15.6">
       <c r="A676" s="9">
         <v>672</v>
       </c>
@@ -31451,7 +31464,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="677" spans="1:23" s="7" customFormat="1" ht="30">
+    <row r="677" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A677" s="9">
         <v>673</v>
       </c>
@@ -31497,7 +31510,7 @@
       <c r="V677" s="3"/>
       <c r="W677" s="3"/>
     </row>
-    <row r="678" spans="1:23" ht="15">
+    <row r="678" spans="1:23" ht="15.6">
       <c r="A678" s="9">
         <v>674</v>
       </c>
@@ -31530,7 +31543,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="679" spans="1:23" ht="15">
+    <row r="679" spans="1:23" ht="15.6">
       <c r="A679" s="9">
         <v>675</v>
       </c>
@@ -31563,7 +31576,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="680" spans="1:23" ht="15">
+    <row r="680" spans="1:23" ht="15.6">
       <c r="A680" s="9">
         <v>676</v>
       </c>
@@ -31596,7 +31609,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="681" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="681" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A681" s="9">
         <v>677</v>
       </c>
@@ -31642,7 +31655,7 @@
       <c r="V681" s="3"/>
       <c r="W681" s="3"/>
     </row>
-    <row r="682" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="682" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A682" s="9">
         <v>678</v>
       </c>
@@ -31688,7 +31701,7 @@
       <c r="V682" s="3"/>
       <c r="W682" s="3"/>
     </row>
-    <row r="683" spans="1:23" ht="15">
+    <row r="683" spans="1:23" ht="15.6">
       <c r="A683" s="9">
         <v>679</v>
       </c>
@@ -31721,7 +31734,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="684" spans="1:23" ht="15">
+    <row r="684" spans="1:23" ht="15.6">
       <c r="A684" s="9">
         <v>680</v>
       </c>
@@ -31754,7 +31767,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="685" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="685" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A685" s="9">
         <v>681</v>
       </c>
@@ -31800,7 +31813,7 @@
       <c r="V685" s="3"/>
       <c r="W685" s="3"/>
     </row>
-    <row r="686" spans="1:23" ht="15">
+    <row r="686" spans="1:23" ht="15.6">
       <c r="A686" s="9">
         <v>682</v>
       </c>
@@ -31833,7 +31846,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="687" spans="1:23" ht="15">
+    <row r="687" spans="1:23" ht="15.6">
       <c r="A687" s="9">
         <v>683</v>
       </c>
@@ -31866,7 +31879,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="688" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="688" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A688" s="9">
         <v>684</v>
       </c>
@@ -31912,7 +31925,7 @@
       <c r="V688" s="3"/>
       <c r="W688" s="3"/>
     </row>
-    <row r="689" spans="1:23" ht="15">
+    <row r="689" spans="1:23" ht="15.6">
       <c r="A689" s="9">
         <v>685</v>
       </c>
@@ -31945,7 +31958,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="690" spans="1:23" ht="15">
+    <row r="690" spans="1:23" ht="15.6">
       <c r="A690" s="9">
         <v>686</v>
       </c>
@@ -31978,7 +31991,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="691" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="691" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A691" s="9">
         <v>687</v>
       </c>
@@ -32024,7 +32037,7 @@
       <c r="V691" s="3"/>
       <c r="W691" s="3"/>
     </row>
-    <row r="692" spans="1:23" ht="15">
+    <row r="692" spans="1:23" ht="15.6">
       <c r="A692" s="9">
         <v>688</v>
       </c>
@@ -32057,7 +32070,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="693" spans="1:23" ht="15">
+    <row r="693" spans="1:23" ht="15.6">
       <c r="A693" s="9">
         <v>689</v>
       </c>
@@ -32090,7 +32103,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="694" spans="1:23" ht="15">
+    <row r="694" spans="1:23" ht="15.6">
       <c r="A694" s="9">
         <v>690</v>
       </c>
@@ -32123,7 +32136,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="695" spans="1:23" ht="15">
+    <row r="695" spans="1:23" ht="15.6">
       <c r="A695" s="9">
         <v>691</v>
       </c>
@@ -32156,7 +32169,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="696" spans="1:23" ht="15">
+    <row r="696" spans="1:23" ht="15.6">
       <c r="A696" s="9">
         <v>692</v>
       </c>
@@ -32189,7 +32202,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="697" spans="1:23" ht="15">
+    <row r="697" spans="1:23" ht="15.6">
       <c r="A697" s="9">
         <v>693</v>
       </c>
@@ -32222,7 +32235,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="698" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="698" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A698" s="9">
         <v>694</v>
       </c>
@@ -32268,7 +32281,7 @@
       <c r="V698" s="3"/>
       <c r="W698" s="3"/>
     </row>
-    <row r="699" spans="1:23" s="7" customFormat="1" ht="15">
+    <row r="699" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A699" s="9">
         <v>695</v>
       </c>
@@ -32314,7 +32327,7 @@
       <c r="V699" s="3"/>
       <c r="W699" s="3"/>
     </row>
-    <row r="700" spans="1:23" ht="15">
+    <row r="700" spans="1:23" ht="15.6">
       <c r="A700" s="9">
         <v>696</v>
       </c>
@@ -32347,7 +32360,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="701" spans="1:23" ht="15">
+    <row r="701" spans="1:23" ht="15.6">
       <c r="A701" s="9">
         <v>697</v>
       </c>
@@ -32380,7 +32393,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="702" spans="1:23" ht="15">
+    <row r="702" spans="1:23" ht="15.6">
       <c r="A702" s="9">
         <v>698</v>
       </c>
@@ -32413,7 +32426,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="703" spans="1:23" ht="15">
+    <row r="703" spans="1:23" ht="15.6">
       <c r="A703" s="9">
         <v>699</v>
       </c>
@@ -32446,7 +32459,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="704" spans="1:23" ht="30">
+    <row r="704" spans="1:23" ht="31.2">
       <c r="A704" s="9">
         <v>700</v>
       </c>
@@ -32479,7 +32492,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="30">
+    <row r="705" spans="1:10" ht="31.2">
       <c r="A705" s="9">
         <v>701</v>
       </c>
@@ -32512,7 +32525,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="30">
+    <row r="706" spans="1:10" ht="31.2">
       <c r="A706" s="9">
         <v>702</v>
       </c>
@@ -32545,7 +32558,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="707" spans="1:10" ht="30">
+    <row r="707" spans="1:10" ht="31.2">
       <c r="A707" s="9">
         <v>703</v>
       </c>
@@ -32578,7 +32591,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="708" spans="1:10" ht="30">
+    <row r="708" spans="1:10" ht="31.2">
       <c r="A708" s="9">
         <v>704</v>
       </c>
@@ -32607,11 +32620,11 @@
         <v>1621</v>
       </c>
       <c r="J708" s="13" t="str">
-        <f t="shared" ref="J708:J743" si="18">VLOOKUP(B708,$L$4:$M$13,2)</f>
+        <f t="shared" ref="J708:J742" si="18">VLOOKUP(B708,$L$4:$M$13,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="709" spans="1:10" ht="30">
+    <row r="709" spans="1:10" ht="31.2">
       <c r="A709" s="9">
         <v>705</v>
       </c>
@@ -32644,7 +32657,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="15">
+    <row r="710" spans="1:10" ht="15.6">
       <c r="A710" s="9">
         <v>706</v>
       </c>
@@ -32677,7 +32690,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="15">
+    <row r="711" spans="1:10" ht="15.6">
       <c r="A711" s="9">
         <v>707</v>
       </c>
@@ -32710,7 +32723,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="712" spans="1:10" ht="15">
+    <row r="712" spans="1:10" ht="15.6">
       <c r="A712" s="9">
         <v>708</v>
       </c>
@@ -32743,7 +32756,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="713" spans="1:10" ht="15">
+    <row r="713" spans="1:10" ht="15.6">
       <c r="A713" s="9">
         <v>709</v>
       </c>
@@ -32776,7 +32789,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="714" spans="1:10" ht="15">
+    <row r="714" spans="1:10" ht="15.6">
       <c r="A714" s="9">
         <v>710</v>
       </c>
@@ -32809,7 +32822,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="15">
+    <row r="715" spans="1:10" ht="15.6">
       <c r="A715" s="9">
         <v>711</v>
       </c>
@@ -32842,7 +32855,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="15">
+    <row r="716" spans="1:10" ht="15.6">
       <c r="A716" s="9">
         <v>712</v>
       </c>
@@ -32875,7 +32888,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="717" spans="1:10" ht="15">
+    <row r="717" spans="1:10" ht="31.2">
       <c r="A717" s="9">
         <v>713</v>
       </c>
@@ -32908,7 +32921,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="718" spans="1:10" ht="15">
+    <row r="718" spans="1:10" ht="31.2">
       <c r="A718" s="9">
         <v>714</v>
       </c>
@@ -32941,7 +32954,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="719" spans="1:10" ht="15">
+    <row r="719" spans="1:10" ht="31.2">
       <c r="A719" s="9">
         <v>715</v>
       </c>
@@ -32974,7 +32987,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="720" spans="1:10" ht="15">
+    <row r="720" spans="1:10" ht="31.2">
       <c r="A720" s="9">
         <v>716</v>
       </c>
@@ -33007,7 +33020,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="721" spans="1:10" ht="15">
+    <row r="721" spans="1:10" ht="31.2">
       <c r="A721" s="9">
         <v>717</v>
       </c>
@@ -33040,7 +33053,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="722" spans="1:10" ht="15">
+    <row r="722" spans="1:10" ht="15.6">
       <c r="A722" s="9">
         <v>718</v>
       </c>
@@ -33073,7 +33086,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="723" spans="1:10" ht="15">
+    <row r="723" spans="1:10" ht="15.6">
       <c r="A723" s="9">
         <v>719</v>
       </c>
@@ -33106,7 +33119,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="724" spans="1:10" ht="15">
+    <row r="724" spans="1:10" ht="15.6">
       <c r="A724" s="9">
         <v>720</v>
       </c>
@@ -33139,7 +33152,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="725" spans="1:10" ht="15">
+    <row r="725" spans="1:10" ht="15.6">
       <c r="A725" s="9">
         <v>721</v>
       </c>
@@ -33172,7 +33185,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="726" spans="1:10" ht="15">
+    <row r="726" spans="1:10" ht="15.6">
       <c r="A726" s="9">
         <v>722</v>
       </c>
@@ -33205,7 +33218,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="727" spans="1:10" ht="30">
+    <row r="727" spans="1:10" ht="31.2">
       <c r="A727" s="9">
         <v>723</v>
       </c>
@@ -33238,7 +33251,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="728" spans="1:10" ht="30">
+    <row r="728" spans="1:10" ht="31.2">
       <c r="A728" s="9">
         <v>724</v>
       </c>
@@ -33271,7 +33284,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="729" spans="1:10" ht="30">
+    <row r="729" spans="1:10" ht="31.2">
       <c r="A729" s="9">
         <v>725</v>
       </c>
@@ -33304,7 +33317,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="730" spans="1:10" ht="15">
+    <row r="730" spans="1:10" ht="31.2">
       <c r="A730" s="9">
         <v>726</v>
       </c>
@@ -33337,7 +33350,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="731" spans="1:10" ht="15">
+    <row r="731" spans="1:10" ht="31.2">
       <c r="A731" s="9">
         <v>727</v>
       </c>
@@ -33370,7 +33383,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="732" spans="1:10" ht="15">
+    <row r="732" spans="1:10" ht="15.6">
       <c r="A732" s="9">
         <v>728</v>
       </c>
@@ -33403,7 +33416,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="733" spans="1:10" ht="15">
+    <row r="733" spans="1:10" ht="15.6">
       <c r="A733" s="9">
         <v>729</v>
       </c>
@@ -33436,7 +33449,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="734" spans="1:10" ht="15">
+    <row r="734" spans="1:10" ht="15.6">
       <c r="A734" s="9">
         <v>730</v>
       </c>
@@ -33469,7 +33482,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="15">
+    <row r="735" spans="1:10" ht="15.6">
       <c r="A735" s="9">
         <v>731</v>
       </c>
@@ -33502,7 +33515,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="736" spans="1:10" ht="15">
+    <row r="736" spans="1:10" ht="15.6">
       <c r="A736" s="9">
         <v>732</v>
       </c>
@@ -33535,7 +33548,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="15">
+    <row r="737" spans="1:10" ht="15.6">
       <c r="A737" s="9">
         <v>733</v>
       </c>
@@ -33568,7 +33581,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="15">
+    <row r="738" spans="1:10" ht="15.6">
       <c r="A738" s="9">
         <v>734</v>
       </c>
@@ -33601,7 +33614,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="15">
+    <row r="739" spans="1:10" ht="15.6">
       <c r="A739" s="9">
         <v>735</v>
       </c>
@@ -33634,7 +33647,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="740" spans="1:10" ht="15">
+    <row r="740" spans="1:10" ht="15.6">
       <c r="A740" s="9">
         <v>736</v>
       </c>
@@ -33667,7 +33680,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="741" spans="1:10" ht="15">
+    <row r="741" spans="1:10" ht="15.6">
       <c r="A741" s="9">
         <v>737</v>
       </c>
@@ -33700,7 +33713,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="742" spans="1:10" ht="15">
+    <row r="742" spans="1:10" ht="15.6">
       <c r="A742" s="9">
         <v>738</v>
       </c>
@@ -33733,7 +33746,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="743" spans="1:10" ht="15">
+    <row r="743" spans="1:10" ht="15.6">
       <c r="A743" s="9">
         <v>739</v>
       </c>
@@ -33762,14 +33775,47 @@
         <v>2350</v>
       </c>
       <c r="J743" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J743:J744" si="19">VLOOKUP(B743,$L$4:$M$13,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
+    <row r="744" spans="1:10" ht="15.6">
+      <c r="A744" s="9">
+        <v>740</v>
+      </c>
+      <c r="B744" s="9">
+        <v>5</v>
+      </c>
+      <c r="C744" s="13"/>
+      <c r="D744" s="14" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E744" s="14"/>
+      <c r="F744" s="14"/>
+      <c r="G744" s="14"/>
+      <c r="H744" s="15"/>
+      <c r="I744" s="15"/>
+      <c r="J744" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>9/10(수)~9/11(목)</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" ht="15.6">
+      <c r="A745" s="17"/>
+      <c r="B745" s="17"/>
+      <c r="C745" s="5"/>
+      <c r="D745" s="18"/>
+      <c r="E745" s="18"/>
+      <c r="F745" s="18"/>
+      <c r="G745" s="18"/>
+      <c r="H745" s="19"/>
+      <c r="I745" s="19"/>
+      <c r="J745" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:J743" xr:uid="{71741535-6E04-4235-8B4D-0BED6F6CE73C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J743">
-      <sortCondition ref="B3:B743"/>
+  <autoFilter ref="A3:J744" xr:uid="{71741535-6E04-4235-8B4D-0BED6F6CE73C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J744">
+      <sortCondition ref="B3:B744"/>
     </sortState>
   </autoFilter>
   <mergeCells count="10">

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D0B6D49-8C4E-4301-9312-03E0E09542A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E49FEB-DBDB-4041-BF8E-23DB3ED97B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10836" yWindow="396" windowWidth="11712" windowHeight="12336" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -8064,8 +8064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
   <dimension ref="A1:W756"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A429" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B444" sqref="B444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="1"/>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="S8" s="12">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" s="12">
         <f t="shared" si="4"/>
@@ -8449,15 +8449,15 @@
       </c>
       <c r="U8" s="12">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V8" s="12">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" s="12">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.6">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="1"/>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="S11" s="12">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T11" s="12">
         <f t="shared" si="4"/>
@@ -8933,15 +8933,15 @@
       </c>
       <c r="U15" s="12">
         <f t="shared" si="8"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V15" s="12">
         <f t="shared" si="8"/>
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="8"/>
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.6">
@@ -16940,8 +16940,8 @@
       <c r="A249" s="29">
         <v>265</v>
       </c>
-      <c r="B249" s="29" t="s">
-        <v>2412</v>
+      <c r="B249" s="29">
+        <v>4</v>
       </c>
       <c r="C249" s="30" t="s">
         <v>388</v>
@@ -16964,9 +16964,9 @@
       <c r="I249" s="31" t="s">
         <v>1951</v>
       </c>
-      <c r="J249" s="32" t="e">
+      <c r="J249" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
     <row r="250" spans="1:23" ht="15.6">
@@ -23628,8 +23628,8 @@
       <c r="A443" s="29">
         <v>438</v>
       </c>
-      <c r="B443" s="29">
-        <v>7</v>
+      <c r="B443" s="29" t="s">
+        <v>2412</v>
       </c>
       <c r="C443" s="30" t="s">
         <v>388</v>
@@ -23652,9 +23652,9 @@
       <c r="I443" s="31" t="s">
         <v>1113</v>
       </c>
-      <c r="J443" s="32" t="str">
+      <c r="J443" s="32" t="e">
         <f t="shared" si="15"/>
-        <v>9/17(수)~9/18(목)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="444" spans="1:10" ht="15.6">

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E49FEB-DBDB-4041-BF8E-23DB3ED97B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2A8C99-2B0A-4912-8EDF-2DE9731E3701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10836" yWindow="396" windowWidth="11712" windowHeight="12336" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
   <sheets>
     <sheet name="참석인원명부_차수및 성별" sheetId="2" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5528" uniqueCount="2413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5528" uniqueCount="2415">
   <si>
     <t>● 25년 전사 워크숍 참석인원 명부</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7431,6 +7431,12 @@
   <si>
     <t>불참</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01052203383</t>
+  </si>
+  <si>
+    <t>770113-2067325</t>
   </si>
 </sst>
 </file>
@@ -7752,7 +7758,18 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{EF73A90C-FB40-466C-9EC6-3D020A1FBDD1}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8064,8 +8081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
   <dimension ref="A1:W756"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A429" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B444" sqref="B444"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A680" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B695" sqref="B695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8363,7 +8380,7 @@
       </c>
       <c r="Q7" s="12">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" si="1"/>
@@ -8371,7 +8388,7 @@
       </c>
       <c r="S7" s="12">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T7" s="12">
         <f t="shared" si="4"/>
@@ -8379,15 +8396,15 @@
       </c>
       <c r="U7" s="12">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V7" s="12">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W7" s="12">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.6">
@@ -8643,7 +8660,7 @@
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="1"/>
@@ -8651,7 +8668,7 @@
       </c>
       <c r="S11" s="12">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T11" s="12">
         <f t="shared" si="4"/>
@@ -8853,7 +8870,7 @@
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R14" s="12">
         <f t="shared" si="1"/>
@@ -8861,7 +8878,7 @@
       </c>
       <c r="S14" s="12">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T14" s="12">
         <f t="shared" si="4"/>
@@ -8869,15 +8886,15 @@
       </c>
       <c r="U14" s="12">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V14" s="12">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W14" s="12">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.6">
@@ -12273,11 +12290,11 @@
       <c r="G111" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H111" s="31" t="s">
-        <v>1749</v>
-      </c>
-      <c r="I111" s="31" t="s">
-        <v>1750</v>
+      <c r="H111" s="15" t="s">
+        <v>2413</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>2414</v>
       </c>
       <c r="J111" s="32" t="str">
         <f t="shared" si="10"/>
@@ -32349,7 +32366,7 @@
         <v>690</v>
       </c>
       <c r="B695" s="29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C695" s="30" t="s">
         <v>718</v>
@@ -32374,7 +32391,7 @@
       </c>
       <c r="J695" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>10/1(수)~10/2(목)</v>
+        <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
     <row r="696" spans="1:23" ht="15.6">
@@ -32639,7 +32656,7 @@
         <v>698</v>
       </c>
       <c r="B703" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C703" s="30" t="s">
         <v>832</v>
@@ -32664,7 +32681,7 @@
       </c>
       <c r="J703" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>10/1(수)~10/2(목)</v>
+        <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
     <row r="704" spans="1:23" ht="15.6">
@@ -34435,6 +34452,9 @@
     <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H111">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2A8C99-2B0A-4912-8EDF-2DE9731E3701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D110AD-BA60-4367-83C8-010974056965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5528" uniqueCount="2415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5530" uniqueCount="2416">
   <si>
     <t>● 25년 전사 워크숍 참석인원 명부</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7437,6 +7437,10 @@
   </si>
   <si>
     <t>770113-2067325</t>
+  </si>
+  <si>
+    <t>불참</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8081,8 +8085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
   <dimension ref="A1:W756"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A680" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B695" sqref="B695"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8380,7 +8384,7 @@
       </c>
       <c r="Q7" s="12">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" si="1"/>
@@ -8388,7 +8392,7 @@
       </c>
       <c r="S7" s="12">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T7" s="12">
         <f t="shared" si="4"/>
@@ -8396,15 +8400,15 @@
       </c>
       <c r="U7" s="12">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V7" s="12">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W7" s="12">
         <f t="shared" si="6"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.6">
@@ -8450,11 +8454,11 @@
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S8" s="12">
         <f t="shared" si="2"/>
@@ -8462,7 +8466,7 @@
       </c>
       <c r="T8" s="12">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U8" s="12">
         <f t="shared" si="4"/>
@@ -8470,11 +8474,11 @@
       </c>
       <c r="V8" s="12">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W8" s="12">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.6">
@@ -8590,7 +8594,7 @@
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="1"/>
@@ -8598,7 +8602,7 @@
       </c>
       <c r="S10" s="12">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" s="12">
         <f t="shared" si="4"/>
@@ -8606,15 +8610,15 @@
       </c>
       <c r="U10" s="12">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V10" s="12">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W10" s="12">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.6">
@@ -8730,7 +8734,7 @@
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R12" s="12">
         <f t="shared" si="1"/>
@@ -8738,7 +8742,7 @@
       </c>
       <c r="S12" s="12">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T12" s="12">
         <f t="shared" si="4"/>
@@ -8934,19 +8938,19 @@
       </c>
       <c r="Q15" s="12">
         <f>SUM(Q5:Q14)</f>
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="R15" s="12">
         <f t="shared" ref="R15:W15" si="8">SUM(R5:R14)</f>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S15" s="12">
         <f t="shared" si="8"/>
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T15" s="12">
         <f t="shared" si="8"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U15" s="12">
         <f t="shared" si="8"/>
@@ -8954,11 +8958,11 @@
       </c>
       <c r="V15" s="12">
         <f t="shared" si="8"/>
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="8"/>
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.6">
@@ -9464,7 +9468,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.6">
+    <row r="30" spans="1:23" ht="31.2">
       <c r="A30" s="29">
         <v>25</v>
       </c>
@@ -9497,7 +9501,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.6">
+    <row r="31" spans="1:23" ht="31.2">
       <c r="A31" s="29">
         <v>26</v>
       </c>
@@ -10844,7 +10848,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.6">
+    <row r="71" spans="1:10" ht="31.2">
       <c r="A71" s="29">
         <v>66</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.6">
+    <row r="72" spans="1:10" ht="31.2">
       <c r="A72" s="29">
         <v>67</v>
       </c>
@@ -10976,7 +10980,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.6">
+    <row r="75" spans="1:10" ht="31.2">
       <c r="A75" s="29">
         <v>70</v>
       </c>
@@ -11708,7 +11712,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="96" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A96" s="29">
         <v>91</v>
       </c>
@@ -11754,7 +11758,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
     </row>
-    <row r="97" spans="1:23" ht="15.6">
+    <row r="97" spans="1:23" ht="31.2">
       <c r="A97" s="29">
         <v>92</v>
       </c>
@@ -11787,7 +11791,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15.6">
+    <row r="98" spans="1:23" ht="31.2">
       <c r="A98" s="29">
         <v>93</v>
       </c>
@@ -11820,7 +11824,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15.6">
+    <row r="99" spans="1:23" ht="31.2">
       <c r="A99" s="29">
         <v>94</v>
       </c>
@@ -13165,7 +13169,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.6">
+    <row r="137" spans="1:10" ht="31.2">
       <c r="A137" s="29">
         <v>132</v>
       </c>
@@ -13198,7 +13202,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.6">
+    <row r="138" spans="1:10" ht="31.2">
       <c r="A138" s="29">
         <v>133</v>
       </c>
@@ -13264,7 +13268,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.6">
+    <row r="140" spans="1:10" ht="31.2">
       <c r="A140" s="29">
         <v>135</v>
       </c>
@@ -13330,7 +13334,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.6">
+    <row r="142" spans="1:10" ht="31.2">
       <c r="A142" s="29">
         <v>137</v>
       </c>
@@ -14069,7 +14073,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15.6">
+    <row r="164" spans="1:10" ht="31.2">
       <c r="A164" s="29">
         <v>209</v>
       </c>
@@ -14676,7 +14680,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="182" spans="1:23" s="11" customFormat="1" ht="15.6">
+    <row r="182" spans="1:23" s="11" customFormat="1" ht="31.2">
       <c r="A182" s="29">
         <v>170</v>
       </c>
@@ -15326,8 +15330,8 @@
       <c r="A200" s="29">
         <v>152</v>
       </c>
-      <c r="B200" s="29">
-        <v>3</v>
+      <c r="B200" s="29" t="s">
+        <v>2415</v>
       </c>
       <c r="C200" s="30" t="s">
         <v>262</v>
@@ -15350,9 +15354,9 @@
       <c r="I200" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="J200" s="32" t="str">
+      <c r="J200" s="32" t="e">
         <f t="shared" si="11"/>
-        <v>9/1(월)~9/2(화)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="31.2">
@@ -15817,7 +15821,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15.6">
+    <row r="215" spans="1:12" ht="31.2">
       <c r="A215" s="29">
         <v>171</v>
       </c>
@@ -16854,7 +16858,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="15.6">
+    <row r="246" spans="1:23" ht="31.2">
       <c r="A246" s="29">
         <v>243</v>
       </c>
@@ -17019,7 +17023,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="15.6">
+    <row r="251" spans="1:23" ht="31.2">
       <c r="A251" s="29">
         <v>215</v>
       </c>
@@ -17085,7 +17089,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="253" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="253" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A253" s="29">
         <v>248</v>
       </c>
@@ -17603,8 +17607,8 @@
       <c r="A267" s="29">
         <v>219</v>
       </c>
-      <c r="B267" s="29">
-        <v>4</v>
+      <c r="B267" s="29" t="s">
+        <v>2415</v>
       </c>
       <c r="C267" s="30" t="s">
         <v>337</v>
@@ -17627,9 +17631,9 @@
       <c r="I267" s="31" t="s">
         <v>984</v>
       </c>
-      <c r="J267" s="32" t="str">
+      <c r="J267" s="32" t="e">
         <f t="shared" si="12"/>
-        <v>9/8(월)~9/9(화)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="268" spans="1:23" ht="15.6">
@@ -17929,7 +17933,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="15.6">
+    <row r="277" spans="1:23" ht="31.2">
       <c r="A277" s="29">
         <v>245</v>
       </c>
@@ -17995,7 +17999,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="279" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="279" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A279" s="29">
         <v>625</v>
       </c>
@@ -18074,7 +18078,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="15.6">
+    <row r="281" spans="1:23" ht="31.2">
       <c r="A281" s="29">
         <v>246</v>
       </c>
@@ -18107,7 +18111,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="15.6">
+    <row r="282" spans="1:23" ht="31.2">
       <c r="A282" s="29">
         <v>244</v>
       </c>
@@ -18239,7 +18243,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="15.6">
+    <row r="286" spans="1:23" ht="31.2">
       <c r="A286" s="29">
         <v>247</v>
       </c>
@@ -19624,7 +19628,7 @@
       <c r="V325" s="3"/>
       <c r="W325" s="3"/>
     </row>
-    <row r="326" spans="1:23" ht="15.6">
+    <row r="326" spans="1:23" ht="31.2">
       <c r="A326" s="29">
         <v>288</v>
       </c>
@@ -20224,7 +20228,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="15.6">
+    <row r="343" spans="1:23" ht="31.2">
       <c r="A343" s="29">
         <v>287</v>
       </c>
@@ -20917,7 +20921,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="15.6">
+    <row r="364" spans="1:23" ht="31.2">
       <c r="A364" s="29">
         <v>293</v>
       </c>
@@ -20950,7 +20954,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="15.6">
+    <row r="365" spans="1:23" ht="31.2">
       <c r="A365" s="29">
         <v>317</v>
       </c>
@@ -21194,7 +21198,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="15.6">
+    <row r="372" spans="1:10" ht="31.2">
       <c r="A372" s="29">
         <v>393</v>
       </c>
@@ -21458,7 +21462,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="15.6">
+    <row r="380" spans="1:10" ht="31.2">
       <c r="A380" s="29">
         <v>392</v>
       </c>
@@ -21722,7 +21726,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="15.6">
+    <row r="388" spans="1:23" ht="31.2">
       <c r="A388" s="29">
         <v>541</v>
       </c>
@@ -21755,7 +21759,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="389" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="389" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A389" s="29">
         <v>434</v>
       </c>
@@ -22183,7 +22187,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="15.6">
+    <row r="400" spans="1:23" ht="31.2">
       <c r="A400" s="29">
         <v>366</v>
       </c>
@@ -23014,7 +23018,7 @@
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
     </row>
-    <row r="424" spans="1:23" ht="15.6">
+    <row r="424" spans="1:23" ht="31.2">
       <c r="A424" s="29">
         <v>394</v>
       </c>
@@ -23377,7 +23381,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="15.6">
+    <row r="435" spans="1:10" ht="31.2">
       <c r="A435" s="29">
         <v>702</v>
       </c>
@@ -23608,7 +23612,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="15.6">
+    <row r="442" spans="1:10" ht="31.2">
       <c r="A442" s="29">
         <v>437</v>
       </c>
@@ -23872,7 +23876,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="15.6">
+    <row r="450" spans="1:23" ht="31.2">
       <c r="A450" s="29">
         <v>445</v>
       </c>
@@ -24736,7 +24740,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="475" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="475" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A475" s="29">
         <v>470</v>
       </c>
@@ -24782,7 +24786,7 @@
       <c r="V475" s="3"/>
       <c r="W475" s="3"/>
     </row>
-    <row r="476" spans="1:23" ht="15.6">
+    <row r="476" spans="1:23" ht="31.2">
       <c r="A476" s="29">
         <v>471</v>
       </c>
@@ -27176,7 +27180,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="545" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="545" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A545" s="29">
         <v>540</v>
       </c>
@@ -27255,12 +27259,12 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="547" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="547" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A547" s="29">
         <v>542</v>
       </c>
       <c r="B547" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C547" s="30" t="s">
         <v>673</v>
@@ -27285,7 +27289,7 @@
       </c>
       <c r="J547" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>9/22(월)~9/23(화)</v>
+        <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K547" s="3"/>
       <c r="L547" s="3"/>
@@ -29143,7 +29147,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="15.6">
+    <row r="603" spans="1:12" ht="31.2">
       <c r="A603" s="29">
         <v>598</v>
       </c>
@@ -29927,7 +29931,7 @@
       <c r="V623" s="3"/>
       <c r="W623" s="3"/>
     </row>
-    <row r="624" spans="1:23" ht="15.6">
+    <row r="624" spans="1:23" ht="31.2">
       <c r="A624" s="29">
         <v>619</v>
       </c>
@@ -29960,7 +29964,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="625" spans="1:23" ht="15.6">
+    <row r="625" spans="1:23" ht="31.2">
       <c r="A625" s="29">
         <v>620</v>
       </c>
@@ -29993,7 +29997,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="626" spans="1:23" ht="15.6">
+    <row r="626" spans="1:23" ht="31.2">
       <c r="A626" s="29">
         <v>621</v>
       </c>
@@ -30026,7 +30030,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="627" spans="1:23" ht="15.6">
+    <row r="627" spans="1:23" ht="31.2">
       <c r="A627" s="29">
         <v>622</v>
       </c>
@@ -30059,7 +30063,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="628" spans="1:23" ht="15.6">
+    <row r="628" spans="1:23" ht="31.2">
       <c r="A628" s="29">
         <v>623</v>
       </c>
@@ -30092,7 +30096,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="629" spans="1:23" ht="15.6">
+    <row r="629" spans="1:23" ht="31.2">
       <c r="A629" s="29">
         <v>624</v>
       </c>
@@ -31755,7 +31759,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="679" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="679" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A679" s="29">
         <v>674</v>
       </c>
@@ -32750,7 +32754,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="15.6">
+    <row r="706" spans="1:10" ht="31.2">
       <c r="A706" s="29">
         <v>701</v>
       </c>
@@ -32816,7 +32820,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="708" spans="1:10" ht="15.6">
+    <row r="708" spans="1:10" ht="31.2">
       <c r="A708" s="29">
         <v>703</v>
       </c>
@@ -32849,7 +32853,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="709" spans="1:10" ht="15.6">
+    <row r="709" spans="1:10" ht="31.2">
       <c r="A709" s="29">
         <v>704</v>
       </c>
@@ -32882,7 +32886,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="15.6">
+    <row r="710" spans="1:10" ht="31.2">
       <c r="A710" s="29">
         <v>705</v>
       </c>
@@ -32915,7 +32919,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="15.6">
+    <row r="711" spans="1:10" ht="31.2">
       <c r="A711" s="29">
         <v>706</v>
       </c>
@@ -34875,7 +34879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6">
+    <row r="26" spans="1:5" ht="31.2">
       <c r="A26" s="9">
         <v>21</v>
       </c>
@@ -34892,7 +34896,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="15.6">
+    <row r="27" spans="1:5" s="7" customFormat="1" ht="31.2">
       <c r="A27" s="9">
         <v>22</v>
       </c>
@@ -34909,7 +34913,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6">
+    <row r="28" spans="1:5" ht="31.2">
       <c r="A28" s="9">
         <v>23</v>
       </c>
@@ -34926,7 +34930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6">
+    <row r="29" spans="1:5" ht="31.2">
       <c r="A29" s="9">
         <v>24</v>
       </c>
@@ -35572,7 +35576,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.6">
+    <row r="67" spans="1:5" ht="31.2">
       <c r="A67" s="9">
         <v>62</v>
       </c>
@@ -35589,7 +35593,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.6">
+    <row r="68" spans="1:5" ht="31.2">
       <c r="A68" s="9">
         <v>63</v>
       </c>
@@ -35623,7 +35627,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.6">
+    <row r="70" spans="1:5" ht="31.2">
       <c r="A70" s="9">
         <v>65</v>
       </c>
@@ -35657,7 +35661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.6">
+    <row r="72" spans="1:5" ht="31.2">
       <c r="A72" s="9">
         <v>67</v>
       </c>

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D110AD-BA60-4367-83C8-010974056965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE07670-C168-42CA-B3EA-F573101207EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5530" uniqueCount="2416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="2383">
   <si>
     <t>● 25년 전사 워크숍 참석인원 명부</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7327,106 +7327,6 @@
   <si>
     <t>860712-1059111</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박상호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>임원</t>
-  </si>
-  <si>
-    <t>01073198020</t>
-  </si>
-  <si>
-    <t>741109-1120525</t>
-  </si>
-  <si>
-    <t>임형일</t>
-  </si>
-  <si>
-    <t>01071626475</t>
-  </si>
-  <si>
-    <t>720214-1063610</t>
-  </si>
-  <si>
-    <t>남궁표</t>
-  </si>
-  <si>
-    <t>01087990850</t>
-  </si>
-  <si>
-    <t>770715-1267812</t>
-  </si>
-  <si>
-    <t>이정민</t>
-  </si>
-  <si>
-    <t>01077110564</t>
-  </si>
-  <si>
-    <t>720115-1063415</t>
-  </si>
-  <si>
-    <t>이준영</t>
-  </si>
-  <si>
-    <t>01063646551</t>
-  </si>
-  <si>
-    <t>710530-1101723</t>
-  </si>
-  <si>
-    <t>김원식</t>
-  </si>
-  <si>
-    <t>E-Commerce부문</t>
-  </si>
-  <si>
-    <t>01041477424</t>
-  </si>
-  <si>
-    <t>740501-1041518</t>
-  </si>
-  <si>
-    <t>안영삼</t>
-  </si>
-  <si>
-    <t>01022444039</t>
-  </si>
-  <si>
-    <t>740609-1247915</t>
-  </si>
-  <si>
-    <t>심재우</t>
-  </si>
-  <si>
-    <t>01062479198</t>
-  </si>
-  <si>
-    <t>780301-1002019</t>
-  </si>
-  <si>
-    <t>안대현</t>
-  </si>
-  <si>
-    <t>01089408897</t>
-  </si>
-  <si>
-    <t>720122-1042319</t>
-  </si>
-  <si>
-    <t>양희상</t>
-  </si>
-  <si>
-    <t>명동본점</t>
-  </si>
-  <si>
-    <t>01038897437</t>
-  </si>
-  <si>
-    <t>740325-1450914</t>
   </si>
   <si>
     <t>불참</t>
@@ -8083,10 +7983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W756"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F754" sqref="F754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8212,7 +8113,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.2" customHeight="1">
+    <row r="5" spans="1:23" ht="16.2" hidden="1" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
@@ -8244,11 +8145,11 @@
       </c>
       <c r="Q5" s="12">
         <f t="shared" ref="Q5:Q14" si="0">COUNTIF(B:B,P5)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R5" s="12">
         <f t="shared" ref="R5:R14" si="1">COUNTIFS(B:B,P5,G:G,$R$4)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" s="12">
         <f t="shared" ref="S5:S14" si="2">COUNTIFS(B:B,P5,G:G,$S$4)</f>
@@ -8256,7 +8157,7 @@
       </c>
       <c r="T5" s="12">
         <f>ROUNDUP(R5/2,0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U5" s="12">
         <f>ROUNDUP(S5/2,0)</f>
@@ -8264,14 +8165,14 @@
       </c>
       <c r="V5" s="12">
         <f>SUM(T5:U5)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" s="12">
         <f>V5+6</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.6" hidden="1">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -8314,11 +8215,11 @@
       </c>
       <c r="Q6" s="12">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R6" s="12">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S6" s="12">
         <f t="shared" si="2"/>
@@ -8341,7 +8242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.6">
+    <row r="7" spans="1:23" ht="15.6" hidden="1">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -8384,11 +8285,11 @@
       </c>
       <c r="Q7" s="12">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S7" s="12">
         <f t="shared" si="2"/>
@@ -8411,7 +8312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.6">
+    <row r="8" spans="1:23" ht="15.6" hidden="1">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -8454,11 +8355,11 @@
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S8" s="12">
         <f t="shared" si="2"/>
@@ -8481,7 +8382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.6">
+    <row r="9" spans="1:23" ht="15.6" hidden="1">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -8524,11 +8425,11 @@
       </c>
       <c r="Q9" s="12">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R9" s="12">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" s="12">
         <f t="shared" si="2"/>
@@ -8536,7 +8437,7 @@
       </c>
       <c r="T9" s="12">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U9" s="12">
         <f t="shared" si="4"/>
@@ -8544,14 +8445,14 @@
       </c>
       <c r="V9" s="12">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9" s="12">
         <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.6" hidden="1">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -8594,11 +8495,11 @@
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S10" s="12">
         <f t="shared" si="2"/>
@@ -8606,7 +8507,7 @@
       </c>
       <c r="T10" s="12">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U10" s="12">
         <f t="shared" si="4"/>
@@ -8614,14 +8515,14 @@
       </c>
       <c r="V10" s="12">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W10" s="12">
         <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.6" hidden="1">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -8664,11 +8565,11 @@
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S11" s="12">
         <f t="shared" si="2"/>
@@ -8676,7 +8577,7 @@
       </c>
       <c r="T11" s="12">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U11" s="12">
         <f t="shared" si="4"/>
@@ -8684,14 +8585,14 @@
       </c>
       <c r="V11" s="12">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" s="12">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.6" hidden="1">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -8734,11 +8635,11 @@
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R12" s="12">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S12" s="12">
         <f t="shared" si="2"/>
@@ -8761,7 +8662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.6">
+    <row r="13" spans="1:23" ht="15.6" hidden="1">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -8804,11 +8705,11 @@
       </c>
       <c r="Q13" s="12">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R13" s="12">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S13" s="12">
         <f t="shared" si="2"/>
@@ -8816,7 +8717,7 @@
       </c>
       <c r="T13" s="12">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U13" s="12">
         <f t="shared" si="4"/>
@@ -8824,14 +8725,14 @@
       </c>
       <c r="V13" s="12">
         <f>SUM(T13:U13)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W13" s="12">
         <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.6" hidden="1">
       <c r="A14" s="9">
         <v>9</v>
       </c>
@@ -8874,11 +8775,11 @@
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R14" s="12">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" s="12">
         <f t="shared" si="2"/>
@@ -8886,7 +8787,7 @@
       </c>
       <c r="T14" s="12">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U14" s="12">
         <f t="shared" si="4"/>
@@ -8894,14 +8795,14 @@
       </c>
       <c r="V14" s="12">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W14" s="12">
         <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.6" hidden="1">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -8938,11 +8839,11 @@
       </c>
       <c r="Q15" s="12">
         <f>SUM(Q5:Q14)</f>
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="R15" s="12">
         <f t="shared" ref="R15:W15" si="8">SUM(R5:R14)</f>
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="S15" s="12">
         <f t="shared" si="8"/>
@@ -8950,7 +8851,7 @@
       </c>
       <c r="T15" s="12">
         <f t="shared" si="8"/>
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U15" s="12">
         <f t="shared" si="8"/>
@@ -8958,14 +8859,14 @@
       </c>
       <c r="V15" s="12">
         <f t="shared" si="8"/>
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="8"/>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.6" hidden="1">
       <c r="A16" s="9">
         <v>11</v>
       </c>
@@ -8998,7 +8899,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.6">
+    <row r="17" spans="1:23" ht="15.6" hidden="1">
       <c r="A17" s="9">
         <v>12</v>
       </c>
@@ -9031,7 +8932,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.6">
+    <row r="18" spans="1:23" ht="15.6" hidden="1">
       <c r="A18" s="9">
         <v>13</v>
       </c>
@@ -9064,7 +8965,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.6">
+    <row r="19" spans="1:23" ht="15.6" hidden="1">
       <c r="A19" s="9">
         <v>14</v>
       </c>
@@ -9098,7 +8999,7 @@
       </c>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="20" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A20" s="29">
         <v>15</v>
       </c>
@@ -9144,7 +9045,7 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" ht="15.6">
+    <row r="21" spans="1:23" ht="15.6" hidden="1">
       <c r="A21" s="29">
         <v>16</v>
       </c>
@@ -9178,7 +9079,7 @@
       </c>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="1:23" s="10" customFormat="1" ht="15.6">
+    <row r="22" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
       <c r="A22" s="29">
         <v>17</v>
       </c>
@@ -9224,7 +9125,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" ht="15.6">
+    <row r="23" spans="1:23" ht="15.6" hidden="1">
       <c r="A23" s="29">
         <v>18</v>
       </c>
@@ -9257,7 +9158,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="24" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A24" s="29">
         <v>19</v>
       </c>
@@ -9303,7 +9204,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" ht="15.6">
+    <row r="25" spans="1:23" ht="15.6" hidden="1">
       <c r="A25" s="29">
         <v>20</v>
       </c>
@@ -9336,7 +9237,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.6">
+    <row r="26" spans="1:23" ht="15.6" hidden="1">
       <c r="A26" s="29">
         <v>21</v>
       </c>
@@ -9369,7 +9270,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.6">
+    <row r="27" spans="1:23" ht="15.6" hidden="1">
       <c r="A27" s="29">
         <v>22</v>
       </c>
@@ -9402,7 +9303,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.6">
+    <row r="28" spans="1:23" ht="15.6" hidden="1">
       <c r="A28" s="29">
         <v>23</v>
       </c>
@@ -9435,7 +9336,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.6">
+    <row r="29" spans="1:23" ht="15.6" hidden="1">
       <c r="A29" s="29">
         <v>24</v>
       </c>
@@ -9468,7 +9369,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="31.2">
+    <row r="30" spans="1:23" ht="31.2" hidden="1">
       <c r="A30" s="29">
         <v>25</v>
       </c>
@@ -9501,7 +9402,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="31.2">
+    <row r="31" spans="1:23" ht="31.2" hidden="1">
       <c r="A31" s="29">
         <v>26</v>
       </c>
@@ -9534,7 +9435,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.6">
+    <row r="32" spans="1:23" ht="15.6" hidden="1">
       <c r="A32" s="29">
         <v>27</v>
       </c>
@@ -9567,7 +9468,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.6">
+    <row r="33" spans="1:23" ht="15.6" hidden="1">
       <c r="A33" s="29">
         <v>28</v>
       </c>
@@ -9600,7 +9501,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.6">
+    <row r="34" spans="1:23" ht="15.6" hidden="1">
       <c r="A34" s="29">
         <v>29</v>
       </c>
@@ -9633,7 +9534,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.6">
+    <row r="35" spans="1:23" ht="15.6" hidden="1">
       <c r="A35" s="29">
         <v>30</v>
       </c>
@@ -9666,7 +9567,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.6">
+    <row r="36" spans="1:23" ht="15.6" hidden="1">
       <c r="A36" s="29">
         <v>31</v>
       </c>
@@ -9699,7 +9600,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="31.2">
+    <row r="37" spans="1:23" ht="31.2" hidden="1">
       <c r="A37" s="29">
         <v>32</v>
       </c>
@@ -9732,7 +9633,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="31.2">
+    <row r="38" spans="1:23" ht="31.2" hidden="1">
       <c r="A38" s="29">
         <v>33</v>
       </c>
@@ -9765,7 +9666,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="31.2">
+    <row r="39" spans="1:23" ht="31.2" hidden="1">
       <c r="A39" s="29">
         <v>34</v>
       </c>
@@ -9798,7 +9699,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="31.2">
+    <row r="40" spans="1:23" ht="31.2" hidden="1">
       <c r="A40" s="29">
         <v>35</v>
       </c>
@@ -9831,7 +9732,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="41" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A41" s="29">
         <v>36</v>
       </c>
@@ -9877,7 +9778,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:23" ht="15.6">
+    <row r="42" spans="1:23" ht="15.6" hidden="1">
       <c r="A42" s="29">
         <v>37</v>
       </c>
@@ -9910,7 +9811,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="10" customFormat="1" ht="15.6">
+    <row r="43" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
       <c r="A43" s="29">
         <v>38</v>
       </c>
@@ -9956,7 +9857,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" ht="15.6">
+    <row r="44" spans="1:23" ht="15.6" hidden="1">
       <c r="A44" s="29">
         <v>39</v>
       </c>
@@ -9989,7 +9890,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.6">
+    <row r="45" spans="1:23" ht="15.6" hidden="1">
       <c r="A45" s="29">
         <v>40</v>
       </c>
@@ -10022,7 +9923,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.6">
+    <row r="46" spans="1:23" ht="15.6" hidden="1">
       <c r="A46" s="29">
         <v>41</v>
       </c>
@@ -10055,7 +9956,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="31.2">
+    <row r="47" spans="1:23" ht="31.2" hidden="1">
       <c r="A47" s="29">
         <v>42</v>
       </c>
@@ -10088,7 +9989,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="31.2">
+    <row r="48" spans="1:23" ht="31.2" hidden="1">
       <c r="A48" s="29">
         <v>43</v>
       </c>
@@ -10121,7 +10022,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.2">
+    <row r="49" spans="1:12" ht="31.2" hidden="1">
       <c r="A49" s="29">
         <v>44</v>
       </c>
@@ -10154,7 +10055,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="31.2">
+    <row r="50" spans="1:12" ht="31.2" hidden="1">
       <c r="A50" s="29">
         <v>45</v>
       </c>
@@ -10187,7 +10088,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="31.2">
+    <row r="51" spans="1:12" ht="31.2" hidden="1">
       <c r="A51" s="29">
         <v>46</v>
       </c>
@@ -10220,7 +10121,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.6">
+    <row r="52" spans="1:12" ht="15.6" hidden="1">
       <c r="A52" s="29">
         <v>47</v>
       </c>
@@ -10253,7 +10154,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.6">
+    <row r="53" spans="1:12" ht="15.6" hidden="1">
       <c r="A53" s="29">
         <v>48</v>
       </c>
@@ -10286,7 +10187,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.6">
+    <row r="54" spans="1:12" ht="15.6" hidden="1">
       <c r="A54" s="29">
         <v>49</v>
       </c>
@@ -10319,7 +10220,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="31.2">
+    <row r="55" spans="1:12" ht="31.2" hidden="1">
       <c r="A55" s="29">
         <v>50</v>
       </c>
@@ -10352,7 +10253,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.6">
+    <row r="56" spans="1:12" ht="15.6" hidden="1">
       <c r="A56" s="29">
         <v>51</v>
       </c>
@@ -10385,7 +10286,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.6">
+    <row r="57" spans="1:12" ht="15.6" hidden="1">
       <c r="A57" s="29">
         <v>52</v>
       </c>
@@ -10418,7 +10319,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.6">
+    <row r="58" spans="1:12" ht="15.6" hidden="1">
       <c r="A58" s="29">
         <v>53</v>
       </c>
@@ -10451,7 +10352,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.6">
+    <row r="59" spans="1:12" ht="15.6" hidden="1">
       <c r="A59" s="29">
         <v>54</v>
       </c>
@@ -10484,7 +10385,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.6">
+    <row r="60" spans="1:12" ht="15.6" hidden="1">
       <c r="A60" s="29">
         <v>55</v>
       </c>
@@ -10517,7 +10418,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.6">
+    <row r="61" spans="1:12" ht="15.6" hidden="1">
       <c r="A61" s="29">
         <v>56</v>
       </c>
@@ -10550,7 +10451,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="31.2">
+    <row r="62" spans="1:12" ht="31.2" hidden="1">
       <c r="A62" s="29">
         <v>57</v>
       </c>
@@ -10584,7 +10485,7 @@
       </c>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="15.6">
+    <row r="63" spans="1:12" ht="15.6" hidden="1">
       <c r="A63" s="29">
         <v>58</v>
       </c>
@@ -10617,7 +10518,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.6">
+    <row r="64" spans="1:12" ht="15.6" hidden="1">
       <c r="A64" s="29">
         <v>59</v>
       </c>
@@ -10650,7 +10551,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.6">
+    <row r="65" spans="1:10" ht="15.6" hidden="1">
       <c r="A65" s="29">
         <v>60</v>
       </c>
@@ -10683,7 +10584,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6">
+    <row r="66" spans="1:10" ht="15.6" hidden="1">
       <c r="A66" s="29">
         <v>61</v>
       </c>
@@ -10716,7 +10617,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.6">
+    <row r="67" spans="1:10" ht="15.6" hidden="1">
       <c r="A67" s="29">
         <v>62</v>
       </c>
@@ -10749,7 +10650,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.6">
+    <row r="68" spans="1:10" ht="15.6" hidden="1">
       <c r="A68" s="29">
         <v>63</v>
       </c>
@@ -10782,7 +10683,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.6">
+    <row r="69" spans="1:10" ht="15.6" hidden="1">
       <c r="A69" s="29">
         <v>64</v>
       </c>
@@ -10815,7 +10716,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.6">
+    <row r="70" spans="1:10" ht="15.6" hidden="1">
       <c r="A70" s="29">
         <v>65</v>
       </c>
@@ -10848,7 +10749,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31.2">
+    <row r="71" spans="1:10" ht="31.2" hidden="1">
       <c r="A71" s="29">
         <v>66</v>
       </c>
@@ -10881,7 +10782,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="31.2">
+    <row r="72" spans="1:10" ht="31.2" hidden="1">
       <c r="A72" s="29">
         <v>67</v>
       </c>
@@ -10914,7 +10815,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.6">
+    <row r="73" spans="1:10" ht="15.6" hidden="1">
       <c r="A73" s="29">
         <v>68</v>
       </c>
@@ -10947,7 +10848,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.6">
+    <row r="74" spans="1:10" ht="15.6" hidden="1">
       <c r="A74" s="29">
         <v>69</v>
       </c>
@@ -10980,7 +10881,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.2">
+    <row r="75" spans="1:10" ht="31.2" hidden="1">
       <c r="A75" s="29">
         <v>70</v>
       </c>
@@ -11013,7 +10914,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.6">
+    <row r="76" spans="1:10" ht="15.6" hidden="1">
       <c r="A76" s="29">
         <v>71</v>
       </c>
@@ -11046,7 +10947,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.6">
+    <row r="77" spans="1:10" ht="15.6" hidden="1">
       <c r="A77" s="29">
         <v>72</v>
       </c>
@@ -11079,7 +10980,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.6">
+    <row r="78" spans="1:10" ht="15.6" hidden="1">
       <c r="A78" s="29">
         <v>73</v>
       </c>
@@ -11112,7 +11013,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.6">
+    <row r="79" spans="1:10" ht="15.6" hidden="1">
       <c r="A79" s="29">
         <v>74</v>
       </c>
@@ -11145,7 +11046,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.6">
+    <row r="80" spans="1:10" ht="15.6" hidden="1">
       <c r="A80" s="29">
         <v>75</v>
       </c>
@@ -11178,7 +11079,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15.6">
+    <row r="81" spans="1:23" ht="15.6" hidden="1">
       <c r="A81" s="29">
         <v>76</v>
       </c>
@@ -11211,7 +11112,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15.6">
+    <row r="82" spans="1:23" ht="15.6" hidden="1">
       <c r="A82" s="29">
         <v>77</v>
       </c>
@@ -11244,7 +11145,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15.6">
+    <row r="83" spans="1:23" ht="15.6" hidden="1">
       <c r="A83" s="29">
         <v>78</v>
       </c>
@@ -11277,7 +11178,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15.6">
+    <row r="84" spans="1:23" ht="15.6" hidden="1">
       <c r="A84" s="29">
         <v>79</v>
       </c>
@@ -11310,7 +11211,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15.6">
+    <row r="85" spans="1:23" ht="15.6" hidden="1">
       <c r="A85" s="29">
         <v>80</v>
       </c>
@@ -11343,7 +11244,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15.6">
+    <row r="86" spans="1:23" ht="15.6" hidden="1">
       <c r="A86" s="29">
         <v>81</v>
       </c>
@@ -11376,7 +11277,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="87" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A87" s="29">
         <v>82</v>
       </c>
@@ -11422,7 +11323,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
     </row>
-    <row r="88" spans="1:23" ht="15.6">
+    <row r="88" spans="1:23" ht="15.6" hidden="1">
       <c r="A88" s="29">
         <v>168</v>
       </c>
@@ -11455,7 +11356,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15.6">
+    <row r="89" spans="1:23" ht="15.6" hidden="1">
       <c r="A89" s="29">
         <v>84</v>
       </c>
@@ -11488,7 +11389,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15.6">
+    <row r="90" spans="1:23" ht="15.6" hidden="1">
       <c r="A90" s="29">
         <v>85</v>
       </c>
@@ -11521,7 +11422,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15.6">
+    <row r="91" spans="1:23" ht="15.6" hidden="1">
       <c r="A91" s="29">
         <v>86</v>
       </c>
@@ -11554,7 +11455,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="92" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A92" s="29">
         <v>87</v>
       </c>
@@ -11600,7 +11501,7 @@
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
     </row>
-    <row r="93" spans="1:23" ht="15.6">
+    <row r="93" spans="1:23" ht="15.6" hidden="1">
       <c r="A93" s="29">
         <v>88</v>
       </c>
@@ -11633,7 +11534,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="94" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A94" s="29">
         <v>89</v>
       </c>
@@ -11679,7 +11580,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
     </row>
-    <row r="95" spans="1:23" ht="15.6">
+    <row r="95" spans="1:23" ht="15.6" hidden="1">
       <c r="A95" s="29">
         <v>90</v>
       </c>
@@ -11712,7 +11613,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="96" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A96" s="29">
         <v>91</v>
       </c>
@@ -11758,7 +11659,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
     </row>
-    <row r="97" spans="1:23" ht="31.2">
+    <row r="97" spans="1:23" ht="31.2" hidden="1">
       <c r="A97" s="29">
         <v>92</v>
       </c>
@@ -11791,7 +11692,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="31.2">
+    <row r="98" spans="1:23" ht="31.2" hidden="1">
       <c r="A98" s="29">
         <v>93</v>
       </c>
@@ -11824,7 +11725,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="31.2">
+    <row r="99" spans="1:23" ht="31.2" hidden="1">
       <c r="A99" s="29">
         <v>94</v>
       </c>
@@ -11857,7 +11758,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15.6">
+    <row r="100" spans="1:23" ht="15.6" hidden="1">
       <c r="A100" s="29">
         <v>95</v>
       </c>
@@ -11890,7 +11791,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="101" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A101" s="29">
         <v>96</v>
       </c>
@@ -11936,7 +11837,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="102" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A102" s="29">
         <v>97</v>
       </c>
@@ -11982,7 +11883,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="1:23" ht="15.6">
+    <row r="103" spans="1:23" ht="15.6" hidden="1">
       <c r="A103" s="29">
         <v>98</v>
       </c>
@@ -12015,7 +11916,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15.6">
+    <row r="104" spans="1:23" ht="15.6" hidden="1">
       <c r="A104" s="29">
         <v>99</v>
       </c>
@@ -12048,7 +11949,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15.6">
+    <row r="105" spans="1:23" ht="15.6" hidden="1">
       <c r="A105" s="29">
         <v>100</v>
       </c>
@@ -12081,7 +11982,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="10" customFormat="1" ht="31.2">
+    <row r="106" spans="1:23" s="10" customFormat="1" ht="31.2" hidden="1">
       <c r="A106" s="29">
         <v>101</v>
       </c>
@@ -12127,7 +12028,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
-    <row r="107" spans="1:23" ht="31.2">
+    <row r="107" spans="1:23" ht="31.2" hidden="1">
       <c r="A107" s="29">
         <v>102</v>
       </c>
@@ -12160,7 +12061,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="31.2">
+    <row r="108" spans="1:23" ht="31.2" hidden="1">
       <c r="A108" s="29">
         <v>103</v>
       </c>
@@ -12193,7 +12094,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="11" customFormat="1" ht="31.2">
+    <row r="109" spans="1:23" s="11" customFormat="1" ht="31.2" hidden="1">
       <c r="A109" s="29">
         <v>104</v>
       </c>
@@ -12239,7 +12140,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
     </row>
-    <row r="110" spans="1:23" ht="31.2">
+    <row r="110" spans="1:23" ht="31.2" hidden="1">
       <c r="A110" s="29">
         <v>105</v>
       </c>
@@ -12272,7 +12173,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="31.2">
+    <row r="111" spans="1:23" ht="31.2" hidden="1">
       <c r="A111" s="29">
         <v>106</v>
       </c>
@@ -12295,17 +12196,17 @@
         <v>22</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>2413</v>
+        <v>2380</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>2414</v>
+        <v>2381</v>
       </c>
       <c r="J111" s="32" t="str">
         <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15.6">
+    <row r="112" spans="1:23" ht="15.6" hidden="1">
       <c r="A112" s="29">
         <v>107</v>
       </c>
@@ -12338,7 +12239,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15.6">
+    <row r="113" spans="1:23" ht="15.6" hidden="1">
       <c r="A113" s="29">
         <v>108</v>
       </c>
@@ -12371,7 +12272,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15.6">
+    <row r="114" spans="1:23" ht="15.6" hidden="1">
       <c r="A114" s="29">
         <v>109</v>
       </c>
@@ -12404,7 +12305,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15.6">
+    <row r="115" spans="1:23" ht="15.6" hidden="1">
       <c r="A115" s="29">
         <v>110</v>
       </c>
@@ -12437,7 +12338,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15.6">
+    <row r="116" spans="1:23" ht="15.6" hidden="1">
       <c r="A116" s="29">
         <v>111</v>
       </c>
@@ -12470,7 +12371,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="117" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A117" s="29">
         <v>112</v>
       </c>
@@ -12516,7 +12417,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
     </row>
-    <row r="118" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="118" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A118" s="29">
         <v>113</v>
       </c>
@@ -12562,7 +12463,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
     </row>
-    <row r="119" spans="1:23" ht="31.2">
+    <row r="119" spans="1:23" ht="31.2" hidden="1">
       <c r="A119" s="29">
         <v>114</v>
       </c>
@@ -12595,7 +12496,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="10" customFormat="1" ht="31.2">
+    <row r="120" spans="1:23" s="10" customFormat="1" ht="31.2" hidden="1">
       <c r="A120" s="29">
         <v>115</v>
       </c>
@@ -12641,7 +12542,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
     </row>
-    <row r="121" spans="1:23" ht="31.2">
+    <row r="121" spans="1:23" ht="31.2" hidden="1">
       <c r="A121" s="29">
         <v>116</v>
       </c>
@@ -12674,7 +12575,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15.6">
+    <row r="122" spans="1:23" ht="15.6" hidden="1">
       <c r="A122" s="29">
         <v>117</v>
       </c>
@@ -12707,7 +12608,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15.6">
+    <row r="123" spans="1:23" ht="15.6" hidden="1">
       <c r="A123" s="29">
         <v>118</v>
       </c>
@@ -12740,7 +12641,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15.6">
+    <row r="124" spans="1:23" ht="15.6" hidden="1">
       <c r="A124" s="29">
         <v>119</v>
       </c>
@@ -12773,7 +12674,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15.6">
+    <row r="125" spans="1:23" ht="15.6" hidden="1">
       <c r="A125" s="29">
         <v>120</v>
       </c>
@@ -12806,7 +12707,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15.6">
+    <row r="126" spans="1:23" ht="15.6" hidden="1">
       <c r="A126" s="29">
         <v>121</v>
       </c>
@@ -12839,7 +12740,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15.6">
+    <row r="127" spans="1:23" ht="15.6" hidden="1">
       <c r="A127" s="29">
         <v>122</v>
       </c>
@@ -12872,7 +12773,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15.6">
+    <row r="128" spans="1:23" ht="15.6" hidden="1">
       <c r="A128" s="29">
         <v>123</v>
       </c>
@@ -12905,7 +12806,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.6">
+    <row r="129" spans="1:10" ht="15.6" hidden="1">
       <c r="A129" s="29">
         <v>124</v>
       </c>
@@ -12938,7 +12839,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.6">
+    <row r="130" spans="1:10" ht="15.6" hidden="1">
       <c r="A130" s="29">
         <v>125</v>
       </c>
@@ -12971,7 +12872,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.6">
+    <row r="131" spans="1:10" ht="15.6" hidden="1">
       <c r="A131" s="29">
         <v>126</v>
       </c>
@@ -13004,7 +12905,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.6">
+    <row r="132" spans="1:10" ht="15.6" hidden="1">
       <c r="A132" s="29">
         <v>127</v>
       </c>
@@ -13037,7 +12938,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.6">
+    <row r="133" spans="1:10" ht="15.6" hidden="1">
       <c r="A133" s="29">
         <v>128</v>
       </c>
@@ -13070,7 +12971,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.6">
+    <row r="134" spans="1:10" ht="15.6" hidden="1">
       <c r="A134" s="29">
         <v>129</v>
       </c>
@@ -13103,7 +13004,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.6">
+    <row r="135" spans="1:10" ht="15.6" hidden="1">
       <c r="A135" s="29">
         <v>130</v>
       </c>
@@ -13136,7 +13037,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.6">
+    <row r="136" spans="1:10" ht="15.6" hidden="1">
       <c r="A136" s="29">
         <v>131</v>
       </c>
@@ -13169,7 +13070,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="31.2">
+    <row r="137" spans="1:10" ht="31.2" hidden="1">
       <c r="A137" s="29">
         <v>132</v>
       </c>
@@ -13202,7 +13103,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="31.2">
+    <row r="138" spans="1:10" ht="31.2" hidden="1">
       <c r="A138" s="29">
         <v>133</v>
       </c>
@@ -13235,7 +13136,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.6">
+    <row r="139" spans="1:10" ht="15.6" hidden="1">
       <c r="A139" s="29">
         <v>134</v>
       </c>
@@ -13268,7 +13169,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="31.2">
+    <row r="140" spans="1:10" ht="31.2" hidden="1">
       <c r="A140" s="29">
         <v>135</v>
       </c>
@@ -13301,7 +13202,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.6">
+    <row r="141" spans="1:10" ht="15.6" hidden="1">
       <c r="A141" s="29">
         <v>136</v>
       </c>
@@ -13334,7 +13235,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="31.2">
+    <row r="142" spans="1:10" ht="31.2" hidden="1">
       <c r="A142" s="29">
         <v>137</v>
       </c>
@@ -13367,7 +13268,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.6">
+    <row r="143" spans="1:10" ht="15.6" hidden="1">
       <c r="A143" s="29">
         <v>138</v>
       </c>
@@ -13400,7 +13301,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.6">
+    <row r="144" spans="1:10" ht="15.6" hidden="1">
       <c r="A144" s="29">
         <v>139</v>
       </c>
@@ -13433,7 +13334,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15.6">
+    <row r="145" spans="1:23" ht="15.6" hidden="1">
       <c r="A145" s="29">
         <v>140</v>
       </c>
@@ -13466,7 +13367,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15.6">
+    <row r="146" spans="1:23" ht="15.6" hidden="1">
       <c r="A146" s="29">
         <v>141</v>
       </c>
@@ -13499,7 +13400,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15.6">
+    <row r="147" spans="1:23" ht="15.6" hidden="1">
       <c r="A147" s="29">
         <v>204</v>
       </c>
@@ -13532,7 +13433,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="31.2">
+    <row r="148" spans="1:23" ht="31.2" hidden="1">
       <c r="A148" s="29">
         <v>189</v>
       </c>
@@ -13565,7 +13466,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="15.6">
+    <row r="149" spans="1:23" ht="15.6" hidden="1">
       <c r="A149" s="29">
         <v>283</v>
       </c>
@@ -13598,7 +13499,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="10" customFormat="1" ht="15.6">
+    <row r="150" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
       <c r="A150" s="29">
         <v>185</v>
       </c>
@@ -13631,7 +13532,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15.6">
+    <row r="151" spans="1:23" ht="15.6" hidden="1">
       <c r="A151" s="29">
         <v>203</v>
       </c>
@@ -13664,7 +13565,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="31.2">
+    <row r="152" spans="1:23" ht="31.2" hidden="1">
       <c r="A152" s="29">
         <v>181</v>
       </c>
@@ -13697,7 +13598,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15.6">
+    <row r="153" spans="1:23" ht="15.6" hidden="1">
       <c r="A153" s="29">
         <v>161</v>
       </c>
@@ -13730,7 +13631,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="15.6">
+    <row r="154" spans="1:23" ht="15.6" hidden="1">
       <c r="A154" s="29">
         <v>142</v>
       </c>
@@ -13763,7 +13664,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="155" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A155" s="29">
         <v>193</v>
       </c>
@@ -13809,7 +13710,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
     </row>
-    <row r="156" spans="1:23" ht="15.6">
+    <row r="156" spans="1:23" ht="15.6" hidden="1">
       <c r="A156" s="29">
         <v>169</v>
       </c>
@@ -13842,7 +13743,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15.6">
+    <row r="157" spans="1:23" ht="15.6" hidden="1">
       <c r="A157" s="29">
         <v>208</v>
       </c>
@@ -13875,7 +13776,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15.6">
+    <row r="158" spans="1:23" ht="15.6" hidden="1">
       <c r="A158" s="29">
         <v>153</v>
       </c>
@@ -13908,7 +13809,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="15.6">
+    <row r="159" spans="1:23" ht="15.6" hidden="1">
       <c r="A159" s="29">
         <v>83</v>
       </c>
@@ -13941,7 +13842,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15.6">
+    <row r="160" spans="1:23" ht="15.6" hidden="1">
       <c r="A160" s="29">
         <v>155</v>
       </c>
@@ -13974,7 +13875,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15.6">
+    <row r="161" spans="1:10" ht="15.6" hidden="1">
       <c r="A161" s="29">
         <v>166</v>
       </c>
@@ -14007,7 +13908,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.6">
+    <row r="162" spans="1:10" ht="15.6" hidden="1">
       <c r="A162" s="29">
         <v>154</v>
       </c>
@@ -14040,7 +13941,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15.6">
+    <row r="163" spans="1:10" ht="15.6" hidden="1">
       <c r="A163" s="29">
         <v>148</v>
       </c>
@@ -14073,7 +13974,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="31.2">
+    <row r="164" spans="1:10" ht="31.2" hidden="1">
       <c r="A164" s="29">
         <v>209</v>
       </c>
@@ -14106,7 +14007,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15.6">
+    <row r="165" spans="1:10" ht="15.6" hidden="1">
       <c r="A165" s="29">
         <v>173</v>
       </c>
@@ -14140,39 +14041,18 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="15.6">
-      <c r="A166" s="16">
-        <v>744</v>
-      </c>
-      <c r="B166" s="16">
-        <v>3</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>2386</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E166" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F166" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G166" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H166" s="28" t="s">
-        <v>2387</v>
-      </c>
-      <c r="I166" s="28" t="s">
-        <v>2388</v>
-      </c>
-      <c r="J166" s="17" t="str">
-        <f t="shared" si="11"/>
-        <v>9/1(월)~9/2(화)</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="15.6">
+      <c r="A166" s="16"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="28"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="17"/>
+    </row>
+    <row r="167" spans="1:10" ht="15.6" hidden="1">
       <c r="A167" s="29">
         <v>172</v>
       </c>
@@ -14205,7 +14085,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.6">
+    <row r="168" spans="1:10" ht="15.6" hidden="1">
       <c r="A168" s="29">
         <v>196</v>
       </c>
@@ -14238,7 +14118,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.6">
+    <row r="169" spans="1:10" ht="15.6" hidden="1">
       <c r="A169" s="29">
         <v>182</v>
       </c>
@@ -14271,7 +14151,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15.6">
+    <row r="170" spans="1:10" ht="15.6" hidden="1">
       <c r="A170" s="29">
         <v>165</v>
       </c>
@@ -14304,7 +14184,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.6">
+    <row r="171" spans="1:10" ht="15.6" hidden="1">
       <c r="A171" s="29">
         <v>188</v>
       </c>
@@ -14337,7 +14217,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.6">
+    <row r="172" spans="1:10" ht="15.6" hidden="1">
       <c r="A172" s="29">
         <v>206</v>
       </c>
@@ -14370,7 +14250,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="31.2">
+    <row r="173" spans="1:10" ht="31.2" hidden="1">
       <c r="A173" s="29">
         <v>190</v>
       </c>
@@ -14403,7 +14283,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.6">
+    <row r="174" spans="1:10" ht="15.6" hidden="1">
       <c r="A174" s="29">
         <v>200</v>
       </c>
@@ -14436,7 +14316,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="31.2">
+    <row r="175" spans="1:10" ht="31.2" hidden="1">
       <c r="A175" s="29">
         <v>179</v>
       </c>
@@ -14469,7 +14349,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.6">
+    <row r="176" spans="1:10" ht="15.6" hidden="1">
       <c r="A176" s="29">
         <v>158</v>
       </c>
@@ -14502,7 +14382,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="15.6">
+    <row r="177" spans="1:23" ht="15.6" hidden="1">
       <c r="A177" s="29">
         <v>175</v>
       </c>
@@ -14535,7 +14415,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="178" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="178" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A178" s="29">
         <v>202</v>
       </c>
@@ -14581,7 +14461,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="3"/>
     </row>
-    <row r="179" spans="1:23" ht="15.6">
+    <row r="179" spans="1:23" ht="15.6" hidden="1">
       <c r="A179" s="29">
         <v>210</v>
       </c>
@@ -14614,7 +14494,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15.6">
+    <row r="180" spans="1:23" ht="15.6" hidden="1">
       <c r="A180" s="29">
         <v>150</v>
       </c>
@@ -14647,7 +14527,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="15.6">
+    <row r="181" spans="1:23" ht="15.6" hidden="1">
       <c r="A181" s="29">
         <v>205</v>
       </c>
@@ -14680,7 +14560,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="182" spans="1:23" s="11" customFormat="1" ht="31.2">
+    <row r="182" spans="1:23" s="11" customFormat="1" ht="31.2" hidden="1">
       <c r="A182" s="29">
         <v>170</v>
       </c>
@@ -14726,7 +14606,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
     </row>
-    <row r="183" spans="1:23" ht="15.6">
+    <row r="183" spans="1:23" ht="15.6" hidden="1">
       <c r="A183" s="29">
         <v>192</v>
       </c>
@@ -14759,7 +14639,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="184" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="184" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A184" s="29">
         <v>167</v>
       </c>
@@ -14805,7 +14685,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
     </row>
-    <row r="185" spans="1:23" ht="31.2">
+    <row r="185" spans="1:23" ht="31.2" hidden="1">
       <c r="A185" s="29">
         <v>180</v>
       </c>
@@ -14838,7 +14718,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15.6">
+    <row r="186" spans="1:23" ht="15.6" hidden="1">
       <c r="A186" s="29">
         <v>194</v>
       </c>
@@ -14871,7 +14751,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="15.6">
+    <row r="187" spans="1:23" ht="15.6" hidden="1">
       <c r="A187" s="29">
         <v>186</v>
       </c>
@@ -14904,7 +14784,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="15.6">
+    <row r="188" spans="1:23" ht="15.6" hidden="1">
       <c r="A188" s="29">
         <v>201</v>
       </c>
@@ -14937,7 +14817,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="15.6">
+    <row r="189" spans="1:23" ht="15.6" hidden="1">
       <c r="A189" s="29">
         <v>157</v>
       </c>
@@ -14970,7 +14850,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="15.6">
+    <row r="190" spans="1:23" ht="15.6" hidden="1">
       <c r="A190" s="29">
         <v>147</v>
       </c>
@@ -15003,7 +14883,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="191" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A191" s="29">
         <v>160</v>
       </c>
@@ -15049,7 +14929,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
     </row>
-    <row r="192" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="192" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A192" s="29">
         <v>164</v>
       </c>
@@ -15095,7 +14975,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
     </row>
-    <row r="193" spans="1:10" ht="15.6">
+    <row r="193" spans="1:10" ht="15.6" hidden="1">
       <c r="A193" s="29">
         <v>163</v>
       </c>
@@ -15128,7 +15008,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.6">
+    <row r="194" spans="1:10" ht="15.6" hidden="1">
       <c r="A194" s="29">
         <v>187</v>
       </c>
@@ -15161,7 +15041,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15.6">
+    <row r="195" spans="1:10" ht="15.6" hidden="1">
       <c r="A195" s="29">
         <v>174</v>
       </c>
@@ -15194,7 +15074,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15.6">
+    <row r="196" spans="1:10" ht="15.6" hidden="1">
       <c r="A196" s="29">
         <v>195</v>
       </c>
@@ -15227,7 +15107,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15.6">
+    <row r="197" spans="1:10" ht="15.6" hidden="1">
       <c r="A197" s="29">
         <v>156</v>
       </c>
@@ -15260,7 +15140,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15.6">
+    <row r="198" spans="1:10" ht="15.6" hidden="1">
       <c r="A198" s="29">
         <v>183</v>
       </c>
@@ -15293,7 +15173,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15.6">
+    <row r="199" spans="1:10" ht="15.6" hidden="1">
       <c r="A199" s="29">
         <v>184</v>
       </c>
@@ -15326,12 +15206,12 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15.6">
+    <row r="200" spans="1:10" ht="15.6" hidden="1">
       <c r="A200" s="29">
         <v>152</v>
       </c>
       <c r="B200" s="29" t="s">
-        <v>2415</v>
+        <v>2382</v>
       </c>
       <c r="C200" s="30" t="s">
         <v>262</v>
@@ -15359,7 +15239,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="31.2">
+    <row r="201" spans="1:10" ht="31.2" hidden="1">
       <c r="A201" s="29">
         <v>178</v>
       </c>
@@ -15392,7 +15272,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15.6">
+    <row r="202" spans="1:10" ht="15.6" hidden="1">
       <c r="A202" s="29">
         <v>145</v>
       </c>
@@ -15425,7 +15305,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15.6">
+    <row r="203" spans="1:10" ht="15.6" hidden="1">
       <c r="A203" s="29">
         <v>151</v>
       </c>
@@ -15458,7 +15338,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15.6">
+    <row r="204" spans="1:10" ht="15.6" hidden="1">
       <c r="A204" s="29">
         <v>197</v>
       </c>
@@ -15491,7 +15371,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15.6">
+    <row r="205" spans="1:10" ht="15.6" hidden="1">
       <c r="A205" s="29">
         <v>199</v>
       </c>
@@ -15524,7 +15404,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15.6">
+    <row r="206" spans="1:10" ht="15.6" hidden="1">
       <c r="A206" s="29">
         <v>198</v>
       </c>
@@ -15557,7 +15437,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15.6">
+    <row r="207" spans="1:10" ht="15.6" hidden="1">
       <c r="A207" s="29">
         <v>159</v>
       </c>
@@ -15590,7 +15470,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15.6">
+    <row r="208" spans="1:10" ht="15.6" hidden="1">
       <c r="A208" s="29">
         <v>149</v>
       </c>
@@ -15623,7 +15503,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.6">
+    <row r="209" spans="1:12" ht="15.6" hidden="1">
       <c r="A209" s="29">
         <v>382</v>
       </c>
@@ -15656,7 +15536,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15.6">
+    <row r="210" spans="1:12" ht="15.6" hidden="1">
       <c r="A210" s="29">
         <v>162</v>
       </c>
@@ -15689,7 +15569,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.6">
+    <row r="211" spans="1:12" ht="15.6" hidden="1">
       <c r="A211" s="29">
         <v>176</v>
       </c>
@@ -15722,7 +15602,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="10" customFormat="1" ht="15.6">
+    <row r="212" spans="1:12" s="10" customFormat="1" ht="15.6" hidden="1">
       <c r="A212" s="29">
         <v>207</v>
       </c>
@@ -15755,7 +15635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="31.2">
+    <row r="213" spans="1:12" ht="31.2" hidden="1">
       <c r="A213" s="29">
         <v>191</v>
       </c>
@@ -15788,7 +15668,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.6">
+    <row r="214" spans="1:12" ht="15.6" hidden="1">
       <c r="A214" s="29">
         <v>146</v>
       </c>
@@ -15821,7 +15701,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="31.2">
+    <row r="215" spans="1:12" ht="31.2" hidden="1">
       <c r="A215" s="29">
         <v>171</v>
       </c>
@@ -15854,7 +15734,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="23" customFormat="1" ht="15.6">
+    <row r="216" spans="1:12" s="23" customFormat="1" ht="15.6" hidden="1">
       <c r="A216" s="29">
         <v>211</v>
       </c>
@@ -15888,7 +15768,7 @@
       </c>
       <c r="L216" s="24"/>
     </row>
-    <row r="217" spans="1:12" ht="15.6">
+    <row r="217" spans="1:12" ht="15.6" hidden="1">
       <c r="A217" s="29">
         <v>278</v>
       </c>
@@ -15921,7 +15801,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15.6">
+    <row r="218" spans="1:12" ht="15.6" hidden="1">
       <c r="A218" s="29">
         <v>238</v>
       </c>
@@ -15954,7 +15834,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.6">
+    <row r="219" spans="1:12" ht="15.6" hidden="1">
       <c r="A219" s="29">
         <v>221</v>
       </c>
@@ -15987,7 +15867,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15.6">
+    <row r="220" spans="1:12" ht="15.6" hidden="1">
       <c r="A220" s="29">
         <v>240</v>
       </c>
@@ -16020,7 +15900,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.6">
+    <row r="221" spans="1:12" ht="15.6" hidden="1">
       <c r="A221" s="29">
         <v>236</v>
       </c>
@@ -16053,7 +15933,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15.6">
+    <row r="222" spans="1:12" ht="15.6" hidden="1">
       <c r="A222" s="29">
         <v>277</v>
       </c>
@@ -16086,7 +15966,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15.6">
+    <row r="223" spans="1:12" ht="15.6" hidden="1">
       <c r="A223" s="29">
         <v>271</v>
       </c>
@@ -16119,7 +15999,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="31.2">
+    <row r="224" spans="1:12" ht="31.2" hidden="1">
       <c r="A224" s="29">
         <v>269</v>
       </c>
@@ -16152,7 +16032,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="15.6">
+    <row r="225" spans="1:23" ht="15.6" hidden="1">
       <c r="A225" s="29">
         <v>259</v>
       </c>
@@ -16185,7 +16065,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="15.6">
+    <row r="226" spans="1:23" ht="15.6" hidden="1">
       <c r="A226" s="29">
         <v>262</v>
       </c>
@@ -16218,7 +16098,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="15.6">
+    <row r="227" spans="1:23" ht="15.6" hidden="1">
       <c r="A227" s="29">
         <v>222</v>
       </c>
@@ -16251,7 +16131,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15.6">
+    <row r="228" spans="1:23" ht="15.6" hidden="1">
       <c r="A228" s="29">
         <v>237</v>
       </c>
@@ -16284,7 +16164,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="31.2">
+    <row r="229" spans="1:23" ht="31.2" hidden="1">
       <c r="A229" s="29">
         <v>258</v>
       </c>
@@ -16317,7 +16197,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="15.6">
+    <row r="230" spans="1:23" ht="15.6" hidden="1">
       <c r="A230" s="29">
         <v>274</v>
       </c>
@@ -16350,7 +16230,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="15.6">
+    <row r="231" spans="1:23" ht="15.6" hidden="1">
       <c r="A231" s="29">
         <v>242</v>
       </c>
@@ -16383,7 +16263,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="31.2">
+    <row r="232" spans="1:23" ht="31.2" hidden="1">
       <c r="A232" s="29">
         <v>284</v>
       </c>
@@ -16416,7 +16296,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="15.6">
+    <row r="233" spans="1:23" ht="15.6" hidden="1">
       <c r="A233" s="29">
         <v>233</v>
       </c>
@@ -16449,7 +16329,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="31.2">
+    <row r="234" spans="1:23" ht="31.2" hidden="1">
       <c r="A234" s="29">
         <v>276</v>
       </c>
@@ -16482,7 +16362,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="235" spans="1:23" s="10" customFormat="1" ht="15.6">
+    <row r="235" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
       <c r="A235" s="29">
         <v>227</v>
       </c>
@@ -16528,7 +16408,7 @@
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
     </row>
-    <row r="236" spans="1:23" ht="15.6">
+    <row r="236" spans="1:23" ht="15.6" hidden="1">
       <c r="A236" s="29">
         <v>249</v>
       </c>
@@ -16561,7 +16441,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="15.6">
+    <row r="237" spans="1:23" ht="15.6" hidden="1">
       <c r="A237" s="29">
         <v>273</v>
       </c>
@@ -16594,7 +16474,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="15.6">
+    <row r="238" spans="1:23" ht="15.6" hidden="1">
       <c r="A238" s="29">
         <v>260</v>
       </c>
@@ -16627,7 +16507,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="15.6">
+    <row r="239" spans="1:23" ht="15.6" hidden="1">
       <c r="A239" s="29">
         <v>282</v>
       </c>
@@ -16660,7 +16540,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="15.6">
+    <row r="240" spans="1:23" ht="15.6" hidden="1">
       <c r="A240" s="29">
         <v>226</v>
       </c>
@@ -16693,7 +16573,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="15.6">
+    <row r="241" spans="1:23" ht="15.6" hidden="1">
       <c r="A241" s="29">
         <v>281</v>
       </c>
@@ -16726,7 +16606,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="15.6">
+    <row r="242" spans="1:23" ht="15.6" hidden="1">
       <c r="A242" s="29">
         <v>241</v>
       </c>
@@ -16759,7 +16639,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="15.6">
+    <row r="243" spans="1:23" ht="15.6" hidden="1">
       <c r="A243" s="29">
         <v>250</v>
       </c>
@@ -16792,7 +16672,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="15.6">
+    <row r="244" spans="1:23" ht="15.6" hidden="1">
       <c r="A244" s="29">
         <v>229</v>
       </c>
@@ -16825,7 +16705,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="15.6">
+    <row r="245" spans="1:23" ht="15.6" hidden="1">
       <c r="A245" s="29">
         <v>253</v>
       </c>
@@ -16858,7 +16738,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="31.2">
+    <row r="246" spans="1:23" ht="31.2" hidden="1">
       <c r="A246" s="29">
         <v>243</v>
       </c>
@@ -16891,7 +16771,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="15.6">
+    <row r="247" spans="1:23" ht="15.6" hidden="1">
       <c r="A247" s="29">
         <v>218</v>
       </c>
@@ -16924,7 +16804,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="15.6">
+    <row r="248" spans="1:23" ht="15.6" hidden="1">
       <c r="A248" s="29">
         <v>255</v>
       </c>
@@ -16957,7 +16837,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="15.6">
+    <row r="249" spans="1:23" ht="15.6" hidden="1">
       <c r="A249" s="29">
         <v>265</v>
       </c>
@@ -16990,7 +16870,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="15.6">
+    <row r="250" spans="1:23" ht="15.6" hidden="1">
       <c r="A250" s="29">
         <v>252</v>
       </c>
@@ -17023,7 +16903,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="31.2">
+    <row r="251" spans="1:23" ht="31.2" hidden="1">
       <c r="A251" s="29">
         <v>215</v>
       </c>
@@ -17056,7 +16936,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="15.6">
+    <row r="252" spans="1:23" ht="15.6" hidden="1">
       <c r="A252" s="29">
         <v>275</v>
       </c>
@@ -17089,7 +16969,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="253" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="253" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A253" s="29">
         <v>248</v>
       </c>
@@ -17135,7 +17015,7 @@
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
     </row>
-    <row r="254" spans="1:23" s="11" customFormat="1" ht="15.6">
+    <row r="254" spans="1:23" s="11" customFormat="1" ht="15.6" hidden="1">
       <c r="A254" s="29">
         <v>254</v>
       </c>
@@ -17181,7 +17061,7 @@
       <c r="V254" s="3"/>
       <c r="W254" s="3"/>
     </row>
-    <row r="255" spans="1:23" ht="15.6">
+    <row r="255" spans="1:23" ht="15.6" hidden="1">
       <c r="A255" s="29">
         <v>270</v>
       </c>
@@ -17214,7 +17094,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="15.6">
+    <row r="256" spans="1:23" ht="15.6" hidden="1">
       <c r="A256" s="29">
         <v>285</v>
       </c>
@@ -17247,7 +17127,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="257" spans="1:23" s="11" customFormat="1" ht="15.6">
+    <row r="257" spans="1:23" s="11" customFormat="1" ht="15.6" hidden="1">
       <c r="A257" s="29">
         <v>213</v>
       </c>
@@ -17293,7 +17173,7 @@
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
     </row>
-    <row r="258" spans="1:23" ht="31.2">
+    <row r="258" spans="1:23" ht="31.2" hidden="1">
       <c r="A258" s="29">
         <v>266</v>
       </c>
@@ -17326,7 +17206,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="15.6">
+    <row r="259" spans="1:23" ht="15.6" hidden="1">
       <c r="A259" s="29">
         <v>239</v>
       </c>
@@ -17359,7 +17239,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="15.6">
+    <row r="260" spans="1:23" ht="15.6" hidden="1">
       <c r="A260" s="29">
         <v>231</v>
       </c>
@@ -17393,39 +17273,18 @@
       </c>
     </row>
     <row r="261" spans="1:23" ht="15.6">
-      <c r="A261" s="16">
-        <v>745</v>
-      </c>
-      <c r="B261" s="16">
-        <v>4</v>
-      </c>
-      <c r="C261" s="27" t="s">
-        <v>2389</v>
-      </c>
-      <c r="D261" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E261" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F261" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G261" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H261" s="28" t="s">
-        <v>2390</v>
-      </c>
-      <c r="I261" s="28" t="s">
-        <v>2391</v>
-      </c>
-      <c r="J261" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>9/8(월)~9/9(화)</v>
-      </c>
-    </row>
-    <row r="262" spans="1:23" ht="15.6">
+      <c r="A261" s="16"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="27"/>
+      <c r="D261" s="27"/>
+      <c r="E261" s="27"/>
+      <c r="F261" s="27"/>
+      <c r="G261" s="19"/>
+      <c r="H261" s="28"/>
+      <c r="I261" s="28"/>
+      <c r="J261" s="17"/>
+    </row>
+    <row r="262" spans="1:23" ht="15.6" hidden="1">
       <c r="A262" s="29">
         <v>230</v>
       </c>
@@ -17458,7 +17317,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="15.6">
+    <row r="263" spans="1:23" ht="15.6" hidden="1">
       <c r="A263" s="29">
         <v>225</v>
       </c>
@@ -17491,7 +17350,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="31.2">
+    <row r="264" spans="1:23" ht="31.2" hidden="1">
       <c r="A264" s="29">
         <v>268</v>
       </c>
@@ -17524,7 +17383,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="15.6">
+    <row r="265" spans="1:23" ht="15.6" hidden="1">
       <c r="A265" s="29">
         <v>607</v>
       </c>
@@ -17557,7 +17416,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="266" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="266" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A266" s="29">
         <v>267</v>
       </c>
@@ -17603,12 +17462,12 @@
       <c r="V266" s="3"/>
       <c r="W266" s="3"/>
     </row>
-    <row r="267" spans="1:23" ht="15.6">
+    <row r="267" spans="1:23" ht="15.6" hidden="1">
       <c r="A267" s="29">
         <v>219</v>
       </c>
       <c r="B267" s="29" t="s">
-        <v>2415</v>
+        <v>2382</v>
       </c>
       <c r="C267" s="30" t="s">
         <v>337</v>
@@ -17636,7 +17495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="15.6">
+    <row r="268" spans="1:23" ht="15.6" hidden="1">
       <c r="A268" s="29">
         <v>234</v>
       </c>
@@ -17669,7 +17528,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="15.6">
+    <row r="269" spans="1:23" ht="15.6" hidden="1">
       <c r="A269" s="29">
         <v>217</v>
       </c>
@@ -17702,7 +17561,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="15.6">
+    <row r="270" spans="1:23" ht="15.6" hidden="1">
       <c r="A270" s="29">
         <v>228</v>
       </c>
@@ -17735,7 +17594,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="15.6">
+    <row r="271" spans="1:23" ht="15.6" hidden="1">
       <c r="A271" s="29">
         <v>223</v>
       </c>
@@ -17768,7 +17627,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="15.6">
+    <row r="272" spans="1:23" ht="15.6" hidden="1">
       <c r="A272" s="29">
         <v>280</v>
       </c>
@@ -17801,7 +17660,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="31.2">
+    <row r="273" spans="1:23" ht="31.2" hidden="1">
       <c r="A273" s="29">
         <v>257</v>
       </c>
@@ -17834,7 +17693,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="15.6">
+    <row r="274" spans="1:23" ht="15.6" hidden="1">
       <c r="A274" s="29">
         <v>144</v>
       </c>
@@ -17867,7 +17726,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="15.6">
+    <row r="275" spans="1:23" ht="15.6" hidden="1">
       <c r="A275" s="29">
         <v>263</v>
       </c>
@@ -17900,7 +17759,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="15.6">
+    <row r="276" spans="1:23" ht="15.6" hidden="1">
       <c r="A276" s="29">
         <v>232</v>
       </c>
@@ -17933,7 +17792,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="31.2">
+    <row r="277" spans="1:23" ht="31.2" hidden="1">
       <c r="A277" s="29">
         <v>245</v>
       </c>
@@ -17966,7 +17825,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="15.6">
+    <row r="278" spans="1:23" ht="15.6" hidden="1">
       <c r="A278" s="29">
         <v>235</v>
       </c>
@@ -17999,7 +17858,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="279" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="279" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A279" s="29">
         <v>625</v>
       </c>
@@ -18045,7 +17904,7 @@
       <c r="V279" s="3"/>
       <c r="W279" s="3"/>
     </row>
-    <row r="280" spans="1:23" ht="15.6">
+    <row r="280" spans="1:23" ht="15.6" hidden="1">
       <c r="A280" s="29">
         <v>272</v>
       </c>
@@ -18078,7 +17937,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="31.2">
+    <row r="281" spans="1:23" ht="31.2" hidden="1">
       <c r="A281" s="29">
         <v>246</v>
       </c>
@@ -18111,7 +17970,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="31.2">
+    <row r="282" spans="1:23" ht="31.2" hidden="1">
       <c r="A282" s="29">
         <v>244</v>
       </c>
@@ -18144,7 +18003,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="15.6">
+    <row r="283" spans="1:23" ht="15.6" hidden="1">
       <c r="A283" s="29">
         <v>251</v>
       </c>
@@ -18177,7 +18036,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="15.6">
+    <row r="284" spans="1:23" ht="15.6" hidden="1">
       <c r="A284" s="29">
         <v>212</v>
       </c>
@@ -18210,7 +18069,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="15.6">
+    <row r="285" spans="1:23" ht="15.6" hidden="1">
       <c r="A285" s="29">
         <v>264</v>
       </c>
@@ -18243,7 +18102,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="31.2">
+    <row r="286" spans="1:23" ht="31.2" hidden="1">
       <c r="A286" s="29">
         <v>247</v>
       </c>
@@ -18276,7 +18135,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="15.6">
+    <row r="287" spans="1:23" ht="15.6" hidden="1">
       <c r="A287" s="29">
         <v>216</v>
       </c>
@@ -18309,7 +18168,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="15.6">
+    <row r="288" spans="1:23" ht="15.6" hidden="1">
       <c r="A288" s="29">
         <v>224</v>
       </c>
@@ -18342,7 +18201,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15.6">
+    <row r="289" spans="1:10" ht="15.6" hidden="1">
       <c r="A289" s="29">
         <v>279</v>
       </c>
@@ -18375,7 +18234,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="31.2">
+    <row r="290" spans="1:10" ht="31.2" hidden="1">
       <c r="A290" s="29">
         <v>256</v>
       </c>
@@ -18408,7 +18267,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="15.6">
+    <row r="291" spans="1:10" ht="15.6" hidden="1">
       <c r="A291" s="29">
         <v>610</v>
       </c>
@@ -18441,7 +18300,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15.6">
+    <row r="292" spans="1:10" ht="15.6" hidden="1">
       <c r="A292" s="29">
         <v>353</v>
       </c>
@@ -18474,7 +18333,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15.6">
+    <row r="293" spans="1:10" ht="15.6" hidden="1">
       <c r="A293" s="29">
         <v>347</v>
       </c>
@@ -18507,7 +18366,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15.6">
+    <row r="294" spans="1:10" ht="15.6" hidden="1">
       <c r="A294" s="29">
         <v>299</v>
       </c>
@@ -18540,7 +18399,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="15.6">
+    <row r="295" spans="1:10" ht="15.6" hidden="1">
       <c r="A295" s="29">
         <v>290</v>
       </c>
@@ -18573,7 +18432,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="15.6">
+    <row r="296" spans="1:10" ht="15.6" hidden="1">
       <c r="A296" s="29">
         <v>350</v>
       </c>
@@ -18606,7 +18465,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15.6">
+    <row r="297" spans="1:10" ht="15.6" hidden="1">
       <c r="A297" s="29">
         <v>307</v>
       </c>
@@ -18639,7 +18498,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15.6">
+    <row r="298" spans="1:10" ht="15.6" hidden="1">
       <c r="A298" s="29">
         <v>345</v>
       </c>
@@ -18672,7 +18531,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="31.2">
+    <row r="299" spans="1:10" ht="31.2" hidden="1">
       <c r="A299" s="29">
         <v>336</v>
       </c>
@@ -18705,7 +18564,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15.6">
+    <row r="300" spans="1:10" ht="15.6" hidden="1">
       <c r="A300" s="29">
         <v>296</v>
       </c>
@@ -18738,7 +18597,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="31.2">
+    <row r="301" spans="1:10" ht="31.2" hidden="1">
       <c r="A301" s="29">
         <v>325</v>
       </c>
@@ -18771,7 +18630,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15.6">
+    <row r="302" spans="1:10" ht="15.6" hidden="1">
       <c r="A302" s="29">
         <v>340</v>
       </c>
@@ -18804,7 +18663,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15.6">
+    <row r="303" spans="1:10" ht="15.6" hidden="1">
       <c r="A303" s="29">
         <v>346</v>
       </c>
@@ -18837,7 +18696,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15.6">
+    <row r="304" spans="1:10" ht="15.6" hidden="1">
       <c r="A304" s="29">
         <v>292</v>
       </c>
@@ -18870,7 +18729,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="15.6">
+    <row r="305" spans="1:23" ht="15.6" hidden="1">
       <c r="A305" s="29">
         <v>351</v>
       </c>
@@ -18903,7 +18762,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="15.6">
+    <row r="306" spans="1:23" ht="15.6" hidden="1">
       <c r="A306" s="29">
         <v>309</v>
       </c>
@@ -18936,7 +18795,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="307" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="307" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A307" s="29">
         <v>331</v>
       </c>
@@ -18982,7 +18841,7 @@
       <c r="V307" s="3"/>
       <c r="W307" s="3"/>
     </row>
-    <row r="308" spans="1:23" ht="15.6">
+    <row r="308" spans="1:23" ht="15.6" hidden="1">
       <c r="A308" s="29">
         <v>356</v>
       </c>
@@ -19015,7 +18874,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="15.6">
+    <row r="309" spans="1:23" ht="15.6" hidden="1">
       <c r="A309" s="29">
         <v>286</v>
       </c>
@@ -19048,7 +18907,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="15.6">
+    <row r="310" spans="1:23" ht="15.6" hidden="1">
       <c r="A310" s="29">
         <v>318</v>
       </c>
@@ -19081,7 +18940,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="15.6">
+    <row r="311" spans="1:23" ht="15.6" hidden="1">
       <c r="A311" s="29">
         <v>301</v>
       </c>
@@ -19114,7 +18973,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="312" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="312" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A312" s="29">
         <v>362</v>
       </c>
@@ -19160,7 +19019,7 @@
       <c r="V312" s="3"/>
       <c r="W312" s="3"/>
     </row>
-    <row r="313" spans="1:23" ht="15.6">
+    <row r="313" spans="1:23" ht="15.6" hidden="1">
       <c r="A313" s="29">
         <v>312</v>
       </c>
@@ -19193,7 +19052,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="15.6">
+    <row r="314" spans="1:23" ht="15.6" hidden="1">
       <c r="A314" s="29">
         <v>291</v>
       </c>
@@ -19226,7 +19085,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="31.2">
+    <row r="315" spans="1:23" ht="31.2" hidden="1">
       <c r="A315" s="29">
         <v>339</v>
       </c>
@@ -19259,7 +19118,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="15.6">
+    <row r="316" spans="1:23" ht="15.6" hidden="1">
       <c r="A316" s="29">
         <v>333</v>
       </c>
@@ -19292,7 +19151,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="15.6">
+    <row r="317" spans="1:23" ht="15.6" hidden="1">
       <c r="A317" s="29">
         <v>316</v>
       </c>
@@ -19325,7 +19184,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="318" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="318" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A318" s="29">
         <v>327</v>
       </c>
@@ -19371,7 +19230,7 @@
       <c r="V318" s="3"/>
       <c r="W318" s="3"/>
     </row>
-    <row r="319" spans="1:23" ht="15.6">
+    <row r="319" spans="1:23" ht="15.6" hidden="1">
       <c r="A319" s="29">
         <v>319</v>
       </c>
@@ -19404,7 +19263,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="15.6">
+    <row r="320" spans="1:23" ht="15.6" hidden="1">
       <c r="A320" s="29">
         <v>323</v>
       </c>
@@ -19437,7 +19296,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="15.6">
+    <row r="321" spans="1:23" ht="15.6" hidden="1">
       <c r="A321" s="29">
         <v>295</v>
       </c>
@@ -19470,7 +19329,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="15.6">
+    <row r="322" spans="1:23" ht="15.6" hidden="1">
       <c r="A322" s="29">
         <v>335</v>
       </c>
@@ -19503,7 +19362,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="15.6">
+    <row r="323" spans="1:23" ht="15.6" hidden="1">
       <c r="A323" s="29">
         <v>314</v>
       </c>
@@ -19536,7 +19395,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="324" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="324" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A324" s="29">
         <v>332</v>
       </c>
@@ -19582,7 +19441,7 @@
       <c r="V324" s="3"/>
       <c r="W324" s="3"/>
     </row>
-    <row r="325" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="325" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A325" s="29">
         <v>338</v>
       </c>
@@ -19628,7 +19487,7 @@
       <c r="V325" s="3"/>
       <c r="W325" s="3"/>
     </row>
-    <row r="326" spans="1:23" ht="31.2">
+    <row r="326" spans="1:23" ht="31.2" hidden="1">
       <c r="A326" s="29">
         <v>288</v>
       </c>
@@ -19661,7 +19520,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="31.2">
+    <row r="327" spans="1:23" ht="31.2" hidden="1">
       <c r="A327" s="29">
         <v>328</v>
       </c>
@@ -19694,7 +19553,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="15.6">
+    <row r="328" spans="1:23" ht="15.6" hidden="1">
       <c r="A328" s="29">
         <v>361</v>
       </c>
@@ -19727,7 +19586,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="15.6">
+    <row r="329" spans="1:23" ht="15.6" hidden="1">
       <c r="A329" s="29">
         <v>315</v>
       </c>
@@ -19760,7 +19619,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="15.6">
+    <row r="330" spans="1:23" ht="15.6" hidden="1">
       <c r="A330" s="29">
         <v>310</v>
       </c>
@@ -19793,7 +19652,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="15.6">
+    <row r="331" spans="1:23" ht="15.6" hidden="1">
       <c r="A331" s="29">
         <v>306</v>
       </c>
@@ -19826,7 +19685,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="15.6">
+    <row r="332" spans="1:23" ht="15.6" hidden="1">
       <c r="A332" s="29">
         <v>303</v>
       </c>
@@ -19859,7 +19718,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="15.6">
+    <row r="333" spans="1:23" ht="15.6" hidden="1">
       <c r="A333" s="29">
         <v>348</v>
       </c>
@@ -19892,7 +19751,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="15.6">
+    <row r="334" spans="1:23" ht="15.6" hidden="1">
       <c r="A334" s="29">
         <v>359</v>
       </c>
@@ -19925,7 +19784,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="15.6">
+    <row r="335" spans="1:23" ht="15.6" hidden="1">
       <c r="A335" s="29">
         <v>305</v>
       </c>
@@ -19958,7 +19817,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="336" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="336" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A336" s="29">
         <v>344</v>
       </c>
@@ -20004,7 +19863,7 @@
       <c r="V336" s="3"/>
       <c r="W336" s="3"/>
     </row>
-    <row r="337" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="337" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A337" s="29">
         <v>294</v>
       </c>
@@ -20050,7 +19909,7 @@
       <c r="V337" s="3"/>
       <c r="W337" s="3"/>
     </row>
-    <row r="338" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="338" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A338" s="29">
         <v>322</v>
       </c>
@@ -20096,7 +19955,7 @@
       <c r="V338" s="3"/>
       <c r="W338" s="3"/>
     </row>
-    <row r="339" spans="1:23" ht="15.6">
+    <row r="339" spans="1:23" ht="15.6" hidden="1">
       <c r="A339" s="29">
         <v>308</v>
       </c>
@@ -20129,7 +19988,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="15.6">
+    <row r="340" spans="1:23" ht="15.6" hidden="1">
       <c r="A340" s="29">
         <v>300</v>
       </c>
@@ -20162,7 +20021,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="15.6">
+    <row r="341" spans="1:23" ht="15.6" hidden="1">
       <c r="A341" s="29">
         <v>302</v>
       </c>
@@ -20195,7 +20054,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="15.6">
+    <row r="342" spans="1:23" ht="15.6" hidden="1">
       <c r="A342" s="29">
         <v>342</v>
       </c>
@@ -20228,7 +20087,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="31.2">
+    <row r="343" spans="1:23" ht="31.2" hidden="1">
       <c r="A343" s="29">
         <v>287</v>
       </c>
@@ -20261,7 +20120,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="15.6">
+    <row r="344" spans="1:23" ht="15.6" hidden="1">
       <c r="A344" s="29">
         <v>320</v>
       </c>
@@ -20294,7 +20153,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="15.6">
+    <row r="345" spans="1:23" ht="15.6" hidden="1">
       <c r="A345" s="29">
         <v>352</v>
       </c>
@@ -20327,7 +20186,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="15.6">
+    <row r="346" spans="1:23" ht="15.6" hidden="1">
       <c r="A346" s="29">
         <v>298</v>
       </c>
@@ -20360,7 +20219,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="15.6">
+    <row r="347" spans="1:23" ht="15.6" hidden="1">
       <c r="A347" s="29">
         <v>357</v>
       </c>
@@ -20394,39 +20253,18 @@
       </c>
     </row>
     <row r="348" spans="1:23" ht="15.6">
-      <c r="A348" s="16">
-        <v>746</v>
-      </c>
-      <c r="B348" s="16">
-        <v>5</v>
-      </c>
-      <c r="C348" s="27" t="s">
-        <v>2392</v>
-      </c>
-      <c r="D348" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E348" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F348" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G348" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H348" s="28" t="s">
-        <v>2393</v>
-      </c>
-      <c r="I348" s="28" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J348" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>9/10(수)~9/11(목)</v>
-      </c>
-    </row>
-    <row r="349" spans="1:23" ht="15.6">
+      <c r="A348" s="16"/>
+      <c r="B348" s="16"/>
+      <c r="C348" s="27"/>
+      <c r="D348" s="27"/>
+      <c r="E348" s="27"/>
+      <c r="F348" s="27"/>
+      <c r="G348" s="19"/>
+      <c r="H348" s="28"/>
+      <c r="I348" s="28"/>
+      <c r="J348" s="17"/>
+    </row>
+    <row r="349" spans="1:23" ht="15.6" hidden="1">
       <c r="A349" s="29">
         <v>341</v>
       </c>
@@ -20459,7 +20297,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="15.6">
+    <row r="350" spans="1:23" ht="15.6" hidden="1">
       <c r="A350" s="29">
         <v>343</v>
       </c>
@@ -20492,7 +20330,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="31.2">
+    <row r="351" spans="1:23" ht="31.2" hidden="1">
       <c r="A351" s="29">
         <v>337</v>
       </c>
@@ -20525,7 +20363,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="15.6">
+    <row r="352" spans="1:23" ht="15.6" hidden="1">
       <c r="A352" s="29">
         <v>324</v>
       </c>
@@ -20558,7 +20396,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="15.6">
+    <row r="353" spans="1:23" ht="15.6" hidden="1">
       <c r="A353" s="29">
         <v>311</v>
       </c>
@@ -20591,7 +20429,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="15.6">
+    <row r="354" spans="1:23" ht="15.6" hidden="1">
       <c r="A354" s="29">
         <v>321</v>
       </c>
@@ -20624,7 +20462,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="31.2">
+    <row r="355" spans="1:23" ht="31.2" hidden="1">
       <c r="A355" s="29">
         <v>326</v>
       </c>
@@ -20657,7 +20495,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="15.6">
+    <row r="356" spans="1:23" ht="15.6" hidden="1">
       <c r="A356" s="29">
         <v>297</v>
       </c>
@@ -20690,7 +20528,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="31.2">
+    <row r="357" spans="1:23" ht="31.2" hidden="1">
       <c r="A357" s="29">
         <v>329</v>
       </c>
@@ -20723,7 +20561,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="15.6">
+    <row r="358" spans="1:23" ht="15.6" hidden="1">
       <c r="A358" s="29">
         <v>304</v>
       </c>
@@ -20756,7 +20594,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="15.6">
+    <row r="359" spans="1:23" ht="15.6" hidden="1">
       <c r="A359" s="29">
         <v>289</v>
       </c>
@@ -20789,7 +20627,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="15.6">
+    <row r="360" spans="1:23" ht="15.6" hidden="1">
       <c r="A360" s="29">
         <v>354</v>
       </c>
@@ -20822,7 +20660,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="15.6">
+    <row r="361" spans="1:23" ht="15.6" hidden="1">
       <c r="A361" s="29">
         <v>355</v>
       </c>
@@ -20855,7 +20693,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="15.6">
+    <row r="362" spans="1:23" ht="15.6" hidden="1">
       <c r="A362" s="29">
         <v>313</v>
       </c>
@@ -20888,7 +20726,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="363" spans="1:23" s="23" customFormat="1" ht="15.6">
+    <row r="363" spans="1:23" s="23" customFormat="1" ht="15.6" hidden="1">
       <c r="A363" s="29">
         <v>358</v>
       </c>
@@ -20921,7 +20759,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="31.2">
+    <row r="364" spans="1:23" ht="31.2" hidden="1">
       <c r="A364" s="29">
         <v>293</v>
       </c>
@@ -20954,7 +20792,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="31.2">
+    <row r="365" spans="1:23" ht="31.2" hidden="1">
       <c r="A365" s="29">
         <v>317</v>
       </c>
@@ -20987,7 +20825,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="15.6">
+    <row r="366" spans="1:23" ht="15.6" hidden="1">
       <c r="A366" s="16">
         <v>741</v>
       </c>
@@ -21020,7 +20858,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="367" spans="1:23" s="10" customFormat="1" ht="15.6">
+    <row r="367" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
       <c r="A367" s="29">
         <v>360</v>
       </c>
@@ -21066,7 +20904,7 @@
       <c r="V367" s="3"/>
       <c r="W367" s="3"/>
     </row>
-    <row r="368" spans="1:23" ht="15.6">
+    <row r="368" spans="1:23" ht="15.6" hidden="1">
       <c r="A368" s="29">
         <v>391</v>
       </c>
@@ -21099,7 +20937,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="15.6">
+    <row r="369" spans="1:10" ht="15.6" hidden="1">
       <c r="A369" s="29">
         <v>415</v>
       </c>
@@ -21132,7 +20970,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="15.6">
+    <row r="370" spans="1:10" ht="15.6" hidden="1">
       <c r="A370" s="29">
         <v>369</v>
       </c>
@@ -21165,7 +21003,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="15.6">
+    <row r="371" spans="1:10" ht="15.6" hidden="1">
       <c r="A371" s="29">
         <v>423</v>
       </c>
@@ -21198,7 +21036,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="31.2">
+    <row r="372" spans="1:10" ht="31.2" hidden="1">
       <c r="A372" s="29">
         <v>393</v>
       </c>
@@ -21231,7 +21069,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="15.6">
+    <row r="373" spans="1:10" ht="15.6" hidden="1">
       <c r="A373" s="29">
         <v>407</v>
       </c>
@@ -21264,7 +21102,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="15.6">
+    <row r="374" spans="1:10" ht="15.6" hidden="1">
       <c r="A374" s="29">
         <v>373</v>
       </c>
@@ -21297,7 +21135,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="31.2">
+    <row r="375" spans="1:10" ht="31.2" hidden="1">
       <c r="A375" s="29">
         <v>401</v>
       </c>
@@ -21330,7 +21168,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="376" spans="1:10" s="10" customFormat="1" ht="15.6">
+    <row r="376" spans="1:10" s="10" customFormat="1" ht="15.6" hidden="1">
       <c r="A376" s="29">
         <v>371</v>
       </c>
@@ -21363,7 +21201,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="15.6">
+    <row r="377" spans="1:10" ht="15.6" hidden="1">
       <c r="A377" s="29">
         <v>385</v>
       </c>
@@ -21396,7 +21234,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="31.2">
+    <row r="378" spans="1:10" ht="31.2" hidden="1">
       <c r="A378" s="29">
         <v>412</v>
       </c>
@@ -21430,39 +21268,18 @@
       </c>
     </row>
     <row r="379" spans="1:10" ht="15.6">
-      <c r="A379" s="16">
-        <v>747</v>
-      </c>
-      <c r="B379" s="16">
-        <v>6</v>
-      </c>
-      <c r="C379" s="27" t="s">
-        <v>2395</v>
-      </c>
-      <c r="D379" s="27" t="s">
-        <v>2396</v>
-      </c>
-      <c r="E379" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F379" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G379" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H379" s="28" t="s">
-        <v>2397</v>
-      </c>
-      <c r="I379" s="28" t="s">
-        <v>2398</v>
-      </c>
-      <c r="J379" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>9/15(월)~9/16(화)</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" ht="31.2">
+      <c r="A379" s="16"/>
+      <c r="B379" s="16"/>
+      <c r="C379" s="27"/>
+      <c r="D379" s="27"/>
+      <c r="E379" s="27"/>
+      <c r="F379" s="27"/>
+      <c r="G379" s="19"/>
+      <c r="H379" s="28"/>
+      <c r="I379" s="28"/>
+      <c r="J379" s="17"/>
+    </row>
+    <row r="380" spans="1:10" ht="31.2" hidden="1">
       <c r="A380" s="29">
         <v>392</v>
       </c>
@@ -21495,7 +21312,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="15.6">
+    <row r="381" spans="1:10" ht="15.6" hidden="1">
       <c r="A381" s="29">
         <v>405</v>
       </c>
@@ -21528,7 +21345,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="15.6">
+    <row r="382" spans="1:10" ht="15.6" hidden="1">
       <c r="A382" s="29">
         <v>408</v>
       </c>
@@ -21561,7 +21378,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="15.6">
+    <row r="383" spans="1:10" ht="15.6" hidden="1">
       <c r="A383" s="29">
         <v>603</v>
       </c>
@@ -21594,7 +21411,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="15.6">
+    <row r="384" spans="1:10" ht="15.6" hidden="1">
       <c r="A384" s="29">
         <v>388</v>
       </c>
@@ -21627,7 +21444,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="15.6">
+    <row r="385" spans="1:23" ht="15.6" hidden="1">
       <c r="A385" s="29">
         <v>389</v>
       </c>
@@ -21660,7 +21477,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="15.6">
+    <row r="386" spans="1:23" ht="15.6" hidden="1">
       <c r="A386" s="29">
         <v>381</v>
       </c>
@@ -21693,7 +21510,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="31.2">
+    <row r="387" spans="1:23" ht="31.2" hidden="1">
       <c r="A387" s="29">
         <v>177</v>
       </c>
@@ -21726,7 +21543,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="31.2">
+    <row r="388" spans="1:23" ht="31.2" hidden="1">
       <c r="A388" s="29">
         <v>541</v>
       </c>
@@ -21759,7 +21576,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="389" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="389" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A389" s="29">
         <v>434</v>
       </c>
@@ -21805,7 +21622,7 @@
       <c r="V389" s="3"/>
       <c r="W389" s="3"/>
     </row>
-    <row r="390" spans="1:23" ht="15.6">
+    <row r="390" spans="1:23" ht="15.6" hidden="1">
       <c r="A390" s="29">
         <v>409</v>
       </c>
@@ -21838,7 +21655,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="391" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="391" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A391" s="29">
         <v>368</v>
       </c>
@@ -21884,7 +21701,7 @@
       <c r="V391" s="3"/>
       <c r="W391" s="3"/>
     </row>
-    <row r="392" spans="1:23" ht="15.6">
+    <row r="392" spans="1:23" ht="15.6" hidden="1">
       <c r="A392" s="29">
         <v>414</v>
       </c>
@@ -21917,7 +21734,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="15.6">
+    <row r="393" spans="1:23" ht="15.6" hidden="1">
       <c r="A393" s="29">
         <v>418</v>
       </c>
@@ -21950,7 +21767,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="394" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="394" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A394" s="29">
         <v>390</v>
       </c>
@@ -21996,7 +21813,7 @@
       <c r="V394" s="3"/>
       <c r="W394" s="3"/>
     </row>
-    <row r="395" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="395" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A395" s="29">
         <v>372</v>
       </c>
@@ -22042,7 +21859,7 @@
       <c r="V395" s="3"/>
       <c r="W395" s="3"/>
     </row>
-    <row r="396" spans="1:23" ht="31.2">
+    <row r="396" spans="1:23" ht="31.2" hidden="1">
       <c r="A396" s="29">
         <v>413</v>
       </c>
@@ -22075,7 +21892,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="397" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="397" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A397" s="29">
         <v>398</v>
       </c>
@@ -22121,7 +21938,7 @@
       <c r="V397" s="3"/>
       <c r="W397" s="3"/>
     </row>
-    <row r="398" spans="1:23" ht="15.6">
+    <row r="398" spans="1:23" ht="15.6" hidden="1">
       <c r="A398" s="29">
         <v>420</v>
       </c>
@@ -22154,7 +21971,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="15.6">
+    <row r="399" spans="1:23" ht="15.6" hidden="1">
       <c r="A399" s="29">
         <v>363</v>
       </c>
@@ -22187,7 +22004,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="31.2">
+    <row r="400" spans="1:23" ht="31.2" hidden="1">
       <c r="A400" s="29">
         <v>366</v>
       </c>
@@ -22220,7 +22037,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="401" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="401" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A401" s="29">
         <v>364</v>
       </c>
@@ -22266,7 +22083,7 @@
       <c r="V401" s="3"/>
       <c r="W401" s="3"/>
     </row>
-    <row r="402" spans="1:23" ht="15.6">
+    <row r="402" spans="1:23" ht="15.6" hidden="1">
       <c r="A402" s="29">
         <v>417</v>
       </c>
@@ -22299,7 +22116,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="15.6">
+    <row r="403" spans="1:23" ht="15.6" hidden="1">
       <c r="A403" s="29">
         <v>365</v>
       </c>
@@ -22332,7 +22149,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="15.6">
+    <row r="404" spans="1:23" ht="15.6" hidden="1">
       <c r="A404" s="29">
         <v>376</v>
       </c>
@@ -22365,7 +22182,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="31.2">
+    <row r="405" spans="1:23" ht="31.2" hidden="1">
       <c r="A405" s="29">
         <v>400</v>
       </c>
@@ -22398,7 +22215,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="15.6">
+    <row r="406" spans="1:23" ht="15.6" hidden="1">
       <c r="A406" s="29">
         <v>380</v>
       </c>
@@ -22431,7 +22248,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="15.6">
+    <row r="407" spans="1:23" ht="15.6" hidden="1">
       <c r="A407" s="29">
         <v>396</v>
       </c>
@@ -22464,7 +22281,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="15.6">
+    <row r="408" spans="1:23" ht="15.6" hidden="1">
       <c r="A408" s="29">
         <v>429</v>
       </c>
@@ -22497,7 +22314,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="15.6">
+    <row r="409" spans="1:23" ht="15.6" hidden="1">
       <c r="A409" s="29">
         <v>421</v>
       </c>
@@ -22530,7 +22347,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="15.6">
+    <row r="410" spans="1:23" ht="15.6" hidden="1">
       <c r="A410" s="29">
         <v>424</v>
       </c>
@@ -22563,7 +22380,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="15.6">
+    <row r="411" spans="1:23" ht="15.6" hidden="1">
       <c r="A411" s="29">
         <v>378</v>
       </c>
@@ -22596,7 +22413,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="412" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="412" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A412" s="29">
         <v>395</v>
       </c>
@@ -22642,7 +22459,7 @@
       <c r="V412" s="3"/>
       <c r="W412" s="3"/>
     </row>
-    <row r="413" spans="1:23" ht="15.6">
+    <row r="413" spans="1:23" ht="15.6" hidden="1">
       <c r="A413" s="29">
         <v>370</v>
       </c>
@@ -22675,7 +22492,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="15.6">
+    <row r="414" spans="1:23" ht="15.6" hidden="1">
       <c r="A414" s="29">
         <v>383</v>
       </c>
@@ -22708,7 +22525,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="31.2">
+    <row r="415" spans="1:23" ht="31.2" hidden="1">
       <c r="A415" s="29">
         <v>410</v>
       </c>
@@ -22741,7 +22558,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="15.6">
+    <row r="416" spans="1:23" ht="15.6" hidden="1">
       <c r="A416" s="29">
         <v>419</v>
       </c>
@@ -22774,7 +22591,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="15.6">
+    <row r="417" spans="1:23" ht="15.6" hidden="1">
       <c r="A417" s="29">
         <v>374</v>
       </c>
@@ -22807,7 +22624,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="31.2">
+    <row r="418" spans="1:23" ht="31.2" hidden="1">
       <c r="A418" s="29">
         <v>411</v>
       </c>
@@ -22840,7 +22657,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="31.2">
+    <row r="419" spans="1:23" ht="31.2" hidden="1">
       <c r="A419" s="29">
         <v>402</v>
       </c>
@@ -22873,7 +22690,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="31.2">
+    <row r="420" spans="1:23" ht="31.2" hidden="1">
       <c r="A420" s="29">
         <v>403</v>
       </c>
@@ -22906,7 +22723,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="15.6">
+    <row r="421" spans="1:23" ht="15.6" hidden="1">
       <c r="A421" s="29">
         <v>384</v>
       </c>
@@ -22939,7 +22756,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="15.6">
+    <row r="422" spans="1:23" ht="15.6" hidden="1">
       <c r="A422" s="29">
         <v>416</v>
       </c>
@@ -22972,7 +22789,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="423" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="423" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A423" s="29">
         <v>377</v>
       </c>
@@ -23018,7 +22835,7 @@
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
     </row>
-    <row r="424" spans="1:23" ht="31.2">
+    <row r="424" spans="1:23" ht="31.2" hidden="1">
       <c r="A424" s="29">
         <v>394</v>
       </c>
@@ -23051,7 +22868,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="15.6">
+    <row r="425" spans="1:23" ht="15.6" hidden="1">
       <c r="A425" s="29">
         <v>375</v>
       </c>
@@ -23084,7 +22901,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="15.6">
+    <row r="426" spans="1:23" ht="15.6" hidden="1">
       <c r="A426" s="29">
         <v>406</v>
       </c>
@@ -23117,7 +22934,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="15.6">
+    <row r="427" spans="1:23" ht="15.6" hidden="1">
       <c r="A427" s="29">
         <v>387</v>
       </c>
@@ -23150,7 +22967,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="15.6">
+    <row r="428" spans="1:23" ht="15.6" hidden="1">
       <c r="A428" s="29">
         <v>425</v>
       </c>
@@ -23183,7 +23000,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="15.6">
+    <row r="429" spans="1:23" ht="15.6" hidden="1">
       <c r="A429" s="29">
         <v>432</v>
       </c>
@@ -23216,7 +23033,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="15.6">
+    <row r="430" spans="1:23" ht="15.6" hidden="1">
       <c r="A430" s="29">
         <v>431</v>
       </c>
@@ -23249,7 +23066,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="15.6">
+    <row r="431" spans="1:23" ht="15.6" hidden="1">
       <c r="A431" s="29">
         <v>422</v>
       </c>
@@ -23282,7 +23099,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="15.6">
+    <row r="432" spans="1:23" ht="15.6" hidden="1">
       <c r="A432" s="29">
         <v>427</v>
       </c>
@@ -23315,7 +23132,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="15.6">
+    <row r="433" spans="1:10" ht="15.6" hidden="1">
       <c r="A433" s="29">
         <v>379</v>
       </c>
@@ -23348,7 +23165,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="15.6">
+    <row r="434" spans="1:10" ht="15.6" hidden="1">
       <c r="A434" s="29">
         <v>433</v>
       </c>
@@ -23381,7 +23198,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="31.2">
+    <row r="435" spans="1:10" ht="31.2" hidden="1">
       <c r="A435" s="29">
         <v>702</v>
       </c>
@@ -23414,7 +23231,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="15.6">
+    <row r="436" spans="1:10" ht="15.6" hidden="1">
       <c r="A436" s="29">
         <v>430</v>
       </c>
@@ -23447,7 +23264,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="15.6">
+    <row r="437" spans="1:10" ht="15.6" hidden="1">
       <c r="A437" s="29">
         <v>386</v>
       </c>
@@ -23480,7 +23297,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="15.6">
+    <row r="438" spans="1:10" ht="15.6" hidden="1">
       <c r="A438" s="29">
         <v>436</v>
       </c>
@@ -23513,7 +23330,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="15.6">
+    <row r="439" spans="1:10" ht="15.6" hidden="1">
       <c r="A439" s="29">
         <v>399</v>
       </c>
@@ -23546,7 +23363,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="15.6">
+    <row r="440" spans="1:10" ht="15.6" hidden="1">
       <c r="A440" s="29">
         <v>435</v>
       </c>
@@ -23579,7 +23396,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="31.2">
+    <row r="441" spans="1:10" ht="31.2" hidden="1">
       <c r="A441" s="29">
         <v>367</v>
       </c>
@@ -23612,7 +23429,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="31.2">
+    <row r="442" spans="1:10" ht="31.2" hidden="1">
       <c r="A442" s="29">
         <v>437</v>
       </c>
@@ -23645,12 +23462,12 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="15.6">
+    <row r="443" spans="1:10" ht="15.6" hidden="1">
       <c r="A443" s="29">
         <v>438</v>
       </c>
       <c r="B443" s="29" t="s">
-        <v>2412</v>
+        <v>2379</v>
       </c>
       <c r="C443" s="30" t="s">
         <v>388</v>
@@ -23678,7 +23495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="15.6">
+    <row r="444" spans="1:10" ht="15.6" hidden="1">
       <c r="A444" s="29">
         <v>439</v>
       </c>
@@ -23711,7 +23528,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="15.6">
+    <row r="445" spans="1:10" ht="15.6" hidden="1">
       <c r="A445" s="29">
         <v>440</v>
       </c>
@@ -23744,7 +23561,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="15.6">
+    <row r="446" spans="1:10" ht="15.6" hidden="1">
       <c r="A446" s="29">
         <v>441</v>
       </c>
@@ -23777,7 +23594,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="15.6">
+    <row r="447" spans="1:10" ht="15.6" hidden="1">
       <c r="A447" s="29">
         <v>442</v>
       </c>
@@ -23810,7 +23627,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="15.6">
+    <row r="448" spans="1:10" ht="15.6" hidden="1">
       <c r="A448" s="29">
         <v>443</v>
       </c>
@@ -23843,7 +23660,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="15.6">
+    <row r="449" spans="1:23" ht="15.6" hidden="1">
       <c r="A449" s="29">
         <v>444</v>
       </c>
@@ -23876,7 +23693,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="31.2">
+    <row r="450" spans="1:23" ht="31.2" hidden="1">
       <c r="A450" s="29">
         <v>445</v>
       </c>
@@ -23909,7 +23726,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="15.6">
+    <row r="451" spans="1:23" ht="15.6" hidden="1">
       <c r="A451" s="29">
         <v>446</v>
       </c>
@@ -23942,7 +23759,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="15.6">
+    <row r="452" spans="1:23" ht="15.6" hidden="1">
       <c r="A452" s="29">
         <v>447</v>
       </c>
@@ -23975,7 +23792,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="15.6">
+    <row r="453" spans="1:23" ht="15.6" hidden="1">
       <c r="A453" s="29">
         <v>448</v>
       </c>
@@ -24008,7 +23825,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="15.6">
+    <row r="454" spans="1:23" ht="15.6" hidden="1">
       <c r="A454" s="29">
         <v>449</v>
       </c>
@@ -24041,7 +23858,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="15.6">
+    <row r="455" spans="1:23" ht="15.6" hidden="1">
       <c r="A455" s="29">
         <v>450</v>
       </c>
@@ -24074,7 +23891,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="15.6">
+    <row r="456" spans="1:23" ht="15.6" hidden="1">
       <c r="A456" s="29">
         <v>451</v>
       </c>
@@ -24107,7 +23924,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="15.6">
+    <row r="457" spans="1:23" ht="15.6" hidden="1">
       <c r="A457" s="29">
         <v>452</v>
       </c>
@@ -24140,7 +23957,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="15.6">
+    <row r="458" spans="1:23" ht="15.6" hidden="1">
       <c r="A458" s="29">
         <v>453</v>
       </c>
@@ -24173,7 +23990,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="15.6">
+    <row r="459" spans="1:23" ht="15.6" hidden="1">
       <c r="A459" s="29">
         <v>454</v>
       </c>
@@ -24206,7 +24023,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="15.6">
+    <row r="460" spans="1:23" ht="15.6" hidden="1">
       <c r="A460" s="29">
         <v>455</v>
       </c>
@@ -24239,7 +24056,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="15.6">
+    <row r="461" spans="1:23" ht="15.6" hidden="1">
       <c r="A461" s="29">
         <v>456</v>
       </c>
@@ -24272,7 +24089,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="15.6">
+    <row r="462" spans="1:23" ht="15.6" hidden="1">
       <c r="A462" s="29">
         <v>457</v>
       </c>
@@ -24305,7 +24122,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="463" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="463" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A463" s="29">
         <v>458</v>
       </c>
@@ -24351,7 +24168,7 @@
       <c r="V463" s="3"/>
       <c r="W463" s="3"/>
     </row>
-    <row r="464" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="464" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A464" s="29">
         <v>459</v>
       </c>
@@ -24397,7 +24214,7 @@
       <c r="V464" s="3"/>
       <c r="W464" s="3"/>
     </row>
-    <row r="465" spans="1:23" ht="15.6">
+    <row r="465" spans="1:23" ht="15.6" hidden="1">
       <c r="A465" s="29">
         <v>460</v>
       </c>
@@ -24430,7 +24247,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="466" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="466" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A466" s="29">
         <v>461</v>
       </c>
@@ -24476,7 +24293,7 @@
       <c r="V466" s="3"/>
       <c r="W466" s="3"/>
     </row>
-    <row r="467" spans="1:23" ht="15.6">
+    <row r="467" spans="1:23" ht="15.6" hidden="1">
       <c r="A467" s="29">
         <v>462</v>
       </c>
@@ -24509,7 +24326,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="15.6">
+    <row r="468" spans="1:23" ht="15.6" hidden="1">
       <c r="A468" s="29">
         <v>463</v>
       </c>
@@ -24542,7 +24359,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="15.6">
+    <row r="469" spans="1:23" ht="15.6" hidden="1">
       <c r="A469" s="29">
         <v>464</v>
       </c>
@@ -24575,7 +24392,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="15.6">
+    <row r="470" spans="1:23" ht="15.6" hidden="1">
       <c r="A470" s="29">
         <v>465</v>
       </c>
@@ -24608,7 +24425,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="15.6">
+    <row r="471" spans="1:23" ht="15.6" hidden="1">
       <c r="A471" s="29">
         <v>466</v>
       </c>
@@ -24641,7 +24458,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="15.6">
+    <row r="472" spans="1:23" ht="15.6" hidden="1">
       <c r="A472" s="29">
         <v>467</v>
       </c>
@@ -24674,7 +24491,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="473" spans="1:23" ht="15.6">
+    <row r="473" spans="1:23" ht="15.6" hidden="1">
       <c r="A473" s="29">
         <v>468</v>
       </c>
@@ -24707,7 +24524,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="474" spans="1:23" ht="15.6">
+    <row r="474" spans="1:23" ht="15.6" hidden="1">
       <c r="A474" s="29">
         <v>469</v>
       </c>
@@ -24740,7 +24557,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="475" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="475" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A475" s="29">
         <v>470</v>
       </c>
@@ -24786,7 +24603,7 @@
       <c r="V475" s="3"/>
       <c r="W475" s="3"/>
     </row>
-    <row r="476" spans="1:23" ht="31.2">
+    <row r="476" spans="1:23" ht="31.2" hidden="1">
       <c r="A476" s="29">
         <v>471</v>
       </c>
@@ -24819,7 +24636,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="477" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="477" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A477" s="29">
         <v>472</v>
       </c>
@@ -24865,7 +24682,7 @@
       <c r="V477" s="3"/>
       <c r="W477" s="3"/>
     </row>
-    <row r="478" spans="1:23" ht="15.6">
+    <row r="478" spans="1:23" ht="15.6" hidden="1">
       <c r="A478" s="29">
         <v>473</v>
       </c>
@@ -24898,7 +24715,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="15.6">
+    <row r="479" spans="1:23" ht="15.6" hidden="1">
       <c r="A479" s="29">
         <v>474</v>
       </c>
@@ -24931,7 +24748,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="15.6">
+    <row r="480" spans="1:23" ht="15.6" hidden="1">
       <c r="A480" s="29">
         <v>475</v>
       </c>
@@ -24964,7 +24781,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="15.6">
+    <row r="481" spans="1:23" ht="15.6" hidden="1">
       <c r="A481" s="29">
         <v>476</v>
       </c>
@@ -24997,12 +24814,12 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="31.2">
+    <row r="482" spans="1:23" ht="31.2" hidden="1">
       <c r="A482" s="29">
         <v>477</v>
       </c>
       <c r="B482" s="29" t="s">
-        <v>2412</v>
+        <v>2379</v>
       </c>
       <c r="C482" s="30" t="s">
         <v>608</v>
@@ -25030,7 +24847,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="31.2">
+    <row r="483" spans="1:23" ht="31.2" hidden="1">
       <c r="A483" s="29">
         <v>478</v>
       </c>
@@ -25063,7 +24880,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="484" spans="1:23" ht="31.2">
+    <row r="484" spans="1:23" ht="31.2" hidden="1">
       <c r="A484" s="29">
         <v>479</v>
       </c>
@@ -25096,7 +24913,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="485" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="485" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A485" s="29">
         <v>480</v>
       </c>
@@ -25142,7 +24959,7 @@
       <c r="V485" s="3"/>
       <c r="W485" s="3"/>
     </row>
-    <row r="486" spans="1:23" ht="31.2">
+    <row r="486" spans="1:23" ht="31.2" hidden="1">
       <c r="A486" s="29">
         <v>481</v>
       </c>
@@ -25175,7 +24992,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="487" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="487" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A487" s="29">
         <v>482</v>
       </c>
@@ -25221,7 +25038,7 @@
       <c r="V487" s="3"/>
       <c r="W487" s="3"/>
     </row>
-    <row r="488" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="488" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A488" s="29">
         <v>483</v>
       </c>
@@ -25267,7 +25084,7 @@
       <c r="V488" s="3"/>
       <c r="W488" s="3"/>
     </row>
-    <row r="489" spans="1:23" ht="15.6">
+    <row r="489" spans="1:23" ht="15.6" hidden="1">
       <c r="A489" s="29">
         <v>484</v>
       </c>
@@ -25300,7 +25117,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="15.6">
+    <row r="490" spans="1:23" ht="15.6" hidden="1">
       <c r="A490" s="29">
         <v>485</v>
       </c>
@@ -25333,7 +25150,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="15.6">
+    <row r="491" spans="1:23" ht="15.6" hidden="1">
       <c r="A491" s="29">
         <v>486</v>
       </c>
@@ -25366,7 +25183,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="15.6">
+    <row r="492" spans="1:23" ht="15.6" hidden="1">
       <c r="A492" s="29">
         <v>487</v>
       </c>
@@ -25399,7 +25216,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="31.2">
+    <row r="493" spans="1:23" ht="31.2" hidden="1">
       <c r="A493" s="29">
         <v>488</v>
       </c>
@@ -25432,7 +25249,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="31.2">
+    <row r="494" spans="1:23" ht="31.2" hidden="1">
       <c r="A494" s="29">
         <v>489</v>
       </c>
@@ -25465,7 +25282,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="31.2">
+    <row r="495" spans="1:23" ht="31.2" hidden="1">
       <c r="A495" s="29">
         <v>490</v>
       </c>
@@ -25498,7 +25315,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="31.2">
+    <row r="496" spans="1:23" ht="31.2" hidden="1">
       <c r="A496" s="29">
         <v>491</v>
       </c>
@@ -25531,7 +25348,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="15.6">
+    <row r="497" spans="1:10" ht="15.6" hidden="1">
       <c r="A497" s="29">
         <v>492</v>
       </c>
@@ -25564,7 +25381,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="15.6">
+    <row r="498" spans="1:10" ht="15.6" hidden="1">
       <c r="A498" s="29">
         <v>493</v>
       </c>
@@ -25597,7 +25414,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="15.6">
+    <row r="499" spans="1:10" ht="15.6" hidden="1">
       <c r="A499" s="29">
         <v>494</v>
       </c>
@@ -25630,7 +25447,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="15.6">
+    <row r="500" spans="1:10" ht="15.6" hidden="1">
       <c r="A500" s="29">
         <v>495</v>
       </c>
@@ -25663,7 +25480,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="15.6">
+    <row r="501" spans="1:10" ht="15.6" hidden="1">
       <c r="A501" s="29">
         <v>496</v>
       </c>
@@ -25696,7 +25513,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="15.6">
+    <row r="502" spans="1:10" ht="15.6" hidden="1">
       <c r="A502" s="29">
         <v>497</v>
       </c>
@@ -25729,7 +25546,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="15.6">
+    <row r="503" spans="1:10" ht="15.6" hidden="1">
       <c r="A503" s="29">
         <v>498</v>
       </c>
@@ -25762,7 +25579,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="15.6">
+    <row r="504" spans="1:10" ht="15.6" hidden="1">
       <c r="A504" s="29">
         <v>499</v>
       </c>
@@ -25795,7 +25612,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="15.6">
+    <row r="505" spans="1:10" ht="15.6" hidden="1">
       <c r="A505" s="29">
         <v>500</v>
       </c>
@@ -25828,7 +25645,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="15.6">
+    <row r="506" spans="1:10" ht="15.6" hidden="1">
       <c r="A506" s="29">
         <v>501</v>
       </c>
@@ -25861,7 +25678,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="15.6">
+    <row r="507" spans="1:10" ht="15.6" hidden="1">
       <c r="A507" s="29">
         <v>502</v>
       </c>
@@ -25894,7 +25711,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="15.6">
+    <row r="508" spans="1:10" ht="15.6" hidden="1">
       <c r="A508" s="29">
         <v>503</v>
       </c>
@@ -25927,7 +25744,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="15.6">
+    <row r="509" spans="1:10" ht="15.6" hidden="1">
       <c r="A509" s="29">
         <v>504</v>
       </c>
@@ -25960,7 +25777,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="15.6">
+    <row r="510" spans="1:10" ht="15.6" hidden="1">
       <c r="A510" s="29">
         <v>505</v>
       </c>
@@ -25993,7 +25810,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="15.6">
+    <row r="511" spans="1:10" ht="15.6" hidden="1">
       <c r="A511" s="29">
         <v>506</v>
       </c>
@@ -26026,7 +25843,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="15.6">
+    <row r="512" spans="1:10" ht="15.6" hidden="1">
       <c r="A512" s="29">
         <v>507</v>
       </c>
@@ -26059,7 +25876,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="15.6">
+    <row r="513" spans="1:10" ht="15.6" hidden="1">
       <c r="A513" s="29">
         <v>508</v>
       </c>
@@ -26092,7 +25909,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="15.6">
+    <row r="514" spans="1:10" ht="15.6" hidden="1">
       <c r="A514" s="29">
         <v>509</v>
       </c>
@@ -26125,7 +25942,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="15.6">
+    <row r="515" spans="1:10" ht="15.6" hidden="1">
       <c r="A515" s="29">
         <v>510</v>
       </c>
@@ -26158,7 +25975,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="15.6">
+    <row r="516" spans="1:10" ht="15.6" hidden="1">
       <c r="A516" s="29">
         <v>511</v>
       </c>
@@ -26191,7 +26008,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="15.6">
+    <row r="517" spans="1:10" ht="15.6" hidden="1">
       <c r="A517" s="29">
         <v>512</v>
       </c>
@@ -26224,7 +26041,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="15.6">
+    <row r="518" spans="1:10" ht="15.6" hidden="1">
       <c r="A518" s="29">
         <v>513</v>
       </c>
@@ -26257,7 +26074,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="15.6">
+    <row r="519" spans="1:10" ht="15.6" hidden="1">
       <c r="A519" s="29">
         <v>514</v>
       </c>
@@ -26290,7 +26107,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="15.6">
+    <row r="520" spans="1:10" ht="15.6" hidden="1">
       <c r="A520" s="29">
         <v>515</v>
       </c>
@@ -26323,7 +26140,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="15.6">
+    <row r="521" spans="1:10" ht="15.6" hidden="1">
       <c r="A521" s="29">
         <v>516</v>
       </c>
@@ -26356,7 +26173,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="15.6">
+    <row r="522" spans="1:10" ht="15.6" hidden="1">
       <c r="A522" s="29">
         <v>517</v>
       </c>
@@ -26389,7 +26206,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="15.6">
+    <row r="523" spans="1:10" ht="15.6" hidden="1">
       <c r="A523" s="29">
         <v>518</v>
       </c>
@@ -26422,7 +26239,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="15.6">
+    <row r="524" spans="1:10" ht="15.6" hidden="1">
       <c r="A524" s="29">
         <v>519</v>
       </c>
@@ -26455,7 +26272,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="15.6">
+    <row r="525" spans="1:10" ht="15.6" hidden="1">
       <c r="A525" s="29">
         <v>520</v>
       </c>
@@ -26488,7 +26305,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="15.6">
+    <row r="526" spans="1:10" ht="15.6" hidden="1">
       <c r="A526" s="29">
         <v>521</v>
       </c>
@@ -26521,7 +26338,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="15.6">
+    <row r="527" spans="1:10" ht="15.6" hidden="1">
       <c r="A527" s="29">
         <v>522</v>
       </c>
@@ -26554,7 +26371,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="15.6">
+    <row r="528" spans="1:10" ht="15.6" hidden="1">
       <c r="A528" s="29">
         <v>523</v>
       </c>
@@ -26587,7 +26404,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="529" spans="1:23" ht="15.6">
+    <row r="529" spans="1:23" ht="15.6" hidden="1">
       <c r="A529" s="29">
         <v>524</v>
       </c>
@@ -26620,7 +26437,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="530" spans="1:23" ht="15.6">
+    <row r="530" spans="1:23" ht="15.6" hidden="1">
       <c r="A530" s="29">
         <v>525</v>
       </c>
@@ -26653,7 +26470,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="531" spans="1:23" ht="15.6">
+    <row r="531" spans="1:23" ht="15.6" hidden="1">
       <c r="A531" s="29">
         <v>526</v>
       </c>
@@ -26686,7 +26503,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="532" spans="1:23" ht="15.6">
+    <row r="532" spans="1:23" ht="15.6" hidden="1">
       <c r="A532" s="29">
         <v>527</v>
       </c>
@@ -26719,7 +26536,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="533" spans="1:23" ht="15.6">
+    <row r="533" spans="1:23" ht="15.6" hidden="1">
       <c r="A533" s="29">
         <v>528</v>
       </c>
@@ -26752,7 +26569,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="534" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="534" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A534" s="29">
         <v>529</v>
       </c>
@@ -26798,7 +26615,7 @@
       <c r="V534" s="3"/>
       <c r="W534" s="3"/>
     </row>
-    <row r="535" spans="1:23" ht="15.6">
+    <row r="535" spans="1:23" ht="15.6" hidden="1">
       <c r="A535" s="29">
         <v>530</v>
       </c>
@@ -26831,7 +26648,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="536" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="536" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A536" s="29">
         <v>531</v>
       </c>
@@ -26877,7 +26694,7 @@
       <c r="V536" s="3"/>
       <c r="W536" s="3"/>
     </row>
-    <row r="537" spans="1:23" ht="15.6">
+    <row r="537" spans="1:23" ht="15.6" hidden="1">
       <c r="A537" s="29">
         <v>532</v>
       </c>
@@ -26910,7 +26727,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="538" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="538" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A538" s="29">
         <v>533</v>
       </c>
@@ -26956,7 +26773,7 @@
       <c r="V538" s="3"/>
       <c r="W538" s="3"/>
     </row>
-    <row r="539" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="539" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A539" s="29">
         <v>534</v>
       </c>
@@ -27002,7 +26819,7 @@
       <c r="V539" s="3"/>
       <c r="W539" s="3"/>
     </row>
-    <row r="540" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="540" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A540" s="29">
         <v>535</v>
       </c>
@@ -27048,7 +26865,7 @@
       <c r="V540" s="3"/>
       <c r="W540" s="3"/>
     </row>
-    <row r="541" spans="1:23" ht="15.6">
+    <row r="541" spans="1:23" ht="15.6" hidden="1">
       <c r="A541" s="29">
         <v>536</v>
       </c>
@@ -27081,7 +26898,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="542" spans="1:23" ht="15.6">
+    <row r="542" spans="1:23" ht="15.6" hidden="1">
       <c r="A542" s="29">
         <v>537</v>
       </c>
@@ -27114,7 +26931,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="543" spans="1:23" ht="15.6">
+    <row r="543" spans="1:23" ht="15.6" hidden="1">
       <c r="A543" s="29">
         <v>538</v>
       </c>
@@ -27147,7 +26964,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="544" spans="1:23" ht="15.6">
+    <row r="544" spans="1:23" ht="15.6" hidden="1">
       <c r="A544" s="29">
         <v>539</v>
       </c>
@@ -27180,7 +26997,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="545" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="545" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A545" s="29">
         <v>540</v>
       </c>
@@ -27226,7 +27043,7 @@
       <c r="V545" s="3"/>
       <c r="W545" s="3"/>
     </row>
-    <row r="546" spans="1:23" ht="15.6">
+    <row r="546" spans="1:23" ht="15.6" hidden="1">
       <c r="A546" s="29">
         <v>397</v>
       </c>
@@ -27259,7 +27076,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="547" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="547" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A547" s="29">
         <v>542</v>
       </c>
@@ -27305,7 +27122,7 @@
       <c r="V547" s="3"/>
       <c r="W547" s="3"/>
     </row>
-    <row r="548" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="548" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A548" s="29">
         <v>543</v>
       </c>
@@ -27351,7 +27168,7 @@
       <c r="V548" s="3"/>
       <c r="W548" s="3"/>
     </row>
-    <row r="549" spans="1:23" ht="15.6">
+    <row r="549" spans="1:23" ht="15.6" hidden="1">
       <c r="A549" s="29">
         <v>544</v>
       </c>
@@ -27384,7 +27201,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="550" spans="1:23" ht="15.6">
+    <row r="550" spans="1:23" ht="15.6" hidden="1">
       <c r="A550" s="29">
         <v>545</v>
       </c>
@@ -27417,7 +27234,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="551" spans="1:23" ht="15.6">
+    <row r="551" spans="1:23" ht="15.6" hidden="1">
       <c r="A551" s="29">
         <v>546</v>
       </c>
@@ -27450,7 +27267,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="552" spans="1:23" ht="15.6">
+    <row r="552" spans="1:23" ht="15.6" hidden="1">
       <c r="A552" s="29">
         <v>547</v>
       </c>
@@ -27483,7 +27300,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="553" spans="1:23" ht="15.6">
+    <row r="553" spans="1:23" ht="15.6" hidden="1">
       <c r="A553" s="29">
         <v>548</v>
       </c>
@@ -27516,7 +27333,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="554" spans="1:23" ht="15.6">
+    <row r="554" spans="1:23" ht="15.6" hidden="1">
       <c r="A554" s="29">
         <v>549</v>
       </c>
@@ -27549,7 +27366,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="555" spans="1:23" ht="15.6">
+    <row r="555" spans="1:23" ht="15.6" hidden="1">
       <c r="A555" s="29">
         <v>550</v>
       </c>
@@ -27582,7 +27399,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="556" spans="1:23" ht="31.2">
+    <row r="556" spans="1:23" ht="31.2" hidden="1">
       <c r="A556" s="29">
         <v>551</v>
       </c>
@@ -27615,7 +27432,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="557" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="557" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A557" s="29">
         <v>552</v>
       </c>
@@ -27661,7 +27478,7 @@
       <c r="V557" s="3"/>
       <c r="W557" s="3"/>
     </row>
-    <row r="558" spans="1:23" ht="31.2">
+    <row r="558" spans="1:23" ht="31.2" hidden="1">
       <c r="A558" s="29">
         <v>553</v>
       </c>
@@ -27694,7 +27511,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="559" spans="1:23" ht="31.2">
+    <row r="559" spans="1:23" ht="31.2" hidden="1">
       <c r="A559" s="29">
         <v>554</v>
       </c>
@@ -27727,7 +27544,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="560" spans="1:23" ht="15.6">
+    <row r="560" spans="1:23" ht="15.6" hidden="1">
       <c r="A560" s="29">
         <v>555</v>
       </c>
@@ -27760,7 +27577,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="15.6">
+    <row r="561" spans="1:10" ht="15.6" hidden="1">
       <c r="A561" s="29">
         <v>556</v>
       </c>
@@ -27793,7 +27610,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="15.6">
+    <row r="562" spans="1:10" ht="15.6" hidden="1">
       <c r="A562" s="29">
         <v>557</v>
       </c>
@@ -27826,7 +27643,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="15.6">
+    <row r="563" spans="1:10" ht="15.6" hidden="1">
       <c r="A563" s="29">
         <v>558</v>
       </c>
@@ -27859,7 +27676,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="15.6">
+    <row r="564" spans="1:10" ht="15.6" hidden="1">
       <c r="A564" s="29">
         <v>559</v>
       </c>
@@ -27892,7 +27709,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="15.6">
+    <row r="565" spans="1:10" ht="15.6" hidden="1">
       <c r="A565" s="29">
         <v>560</v>
       </c>
@@ -27925,7 +27742,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="15.6">
+    <row r="566" spans="1:10" ht="15.6" hidden="1">
       <c r="A566" s="29">
         <v>561</v>
       </c>
@@ -27958,7 +27775,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="31.2">
+    <row r="567" spans="1:10" ht="31.2" hidden="1">
       <c r="A567" s="29">
         <v>562</v>
       </c>
@@ -27991,7 +27808,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="31.2">
+    <row r="568" spans="1:10" ht="31.2" hidden="1">
       <c r="A568" s="29">
         <v>563</v>
       </c>
@@ -28024,7 +27841,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="31.2">
+    <row r="569" spans="1:10" ht="31.2" hidden="1">
       <c r="A569" s="29">
         <v>564</v>
       </c>
@@ -28057,7 +27874,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="31.2">
+    <row r="570" spans="1:10" ht="31.2" hidden="1">
       <c r="A570" s="29">
         <v>565</v>
       </c>
@@ -28090,7 +27907,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="15.6">
+    <row r="571" spans="1:10" ht="15.6" hidden="1">
       <c r="A571" s="29">
         <v>566</v>
       </c>
@@ -28123,7 +27940,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="15.6">
+    <row r="572" spans="1:10" ht="15.6" hidden="1">
       <c r="A572" s="29">
         <v>567</v>
       </c>
@@ -28156,7 +27973,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="15.6">
+    <row r="573" spans="1:10" ht="15.6" hidden="1">
       <c r="A573" s="29">
         <v>568</v>
       </c>
@@ -28189,7 +28006,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="15.6">
+    <row r="574" spans="1:10" ht="15.6" hidden="1">
       <c r="A574" s="29">
         <v>569</v>
       </c>
@@ -28222,7 +28039,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="15.6">
+    <row r="575" spans="1:10" ht="15.6" hidden="1">
       <c r="A575" s="29">
         <v>570</v>
       </c>
@@ -28255,7 +28072,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="15.6">
+    <row r="576" spans="1:10" ht="15.6" hidden="1">
       <c r="A576" s="29">
         <v>571</v>
       </c>
@@ -28288,7 +28105,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="15.6">
+    <row r="577" spans="1:10" ht="15.6" hidden="1">
       <c r="A577" s="29">
         <v>572</v>
       </c>
@@ -28321,7 +28138,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="15.6">
+    <row r="578" spans="1:10" ht="15.6" hidden="1">
       <c r="A578" s="29">
         <v>573</v>
       </c>
@@ -28354,7 +28171,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="15.6">
+    <row r="579" spans="1:10" ht="15.6" hidden="1">
       <c r="A579" s="29">
         <v>574</v>
       </c>
@@ -28387,7 +28204,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="15.6">
+    <row r="580" spans="1:10" ht="15.6" hidden="1">
       <c r="A580" s="29">
         <v>575</v>
       </c>
@@ -28420,7 +28237,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="15.6">
+    <row r="581" spans="1:10" ht="15.6" hidden="1">
       <c r="A581" s="29">
         <v>576</v>
       </c>
@@ -28453,7 +28270,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="15.6">
+    <row r="582" spans="1:10" ht="15.6" hidden="1">
       <c r="A582" s="29">
         <v>577</v>
       </c>
@@ -28486,7 +28303,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="15.6">
+    <row r="583" spans="1:10" ht="15.6" hidden="1">
       <c r="A583" s="29">
         <v>578</v>
       </c>
@@ -28519,7 +28336,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="15.6">
+    <row r="584" spans="1:10" ht="15.6" hidden="1">
       <c r="A584" s="29">
         <v>579</v>
       </c>
@@ -28552,7 +28369,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="15.6">
+    <row r="585" spans="1:10" ht="15.6" hidden="1">
       <c r="A585" s="29">
         <v>580</v>
       </c>
@@ -28585,7 +28402,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="15.6">
+    <row r="586" spans="1:10" ht="15.6" hidden="1">
       <c r="A586" s="29">
         <v>581</v>
       </c>
@@ -28618,7 +28435,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="15.6">
+    <row r="587" spans="1:10" ht="15.6" hidden="1">
       <c r="A587" s="29">
         <v>582</v>
       </c>
@@ -28651,7 +28468,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="15.6">
+    <row r="588" spans="1:10" ht="15.6" hidden="1">
       <c r="A588" s="29">
         <v>583</v>
       </c>
@@ -28684,7 +28501,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="15.6">
+    <row r="589" spans="1:10" ht="15.6" hidden="1">
       <c r="A589" s="29">
         <v>584</v>
       </c>
@@ -28717,7 +28534,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="15.6">
+    <row r="590" spans="1:10" ht="15.6" hidden="1">
       <c r="A590" s="29">
         <v>585</v>
       </c>
@@ -28750,7 +28567,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="15.6">
+    <row r="591" spans="1:10" ht="15.6" hidden="1">
       <c r="A591" s="29">
         <v>586</v>
       </c>
@@ -28783,7 +28600,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="15.6">
+    <row r="592" spans="1:10" ht="15.6" hidden="1">
       <c r="A592" s="29">
         <v>587</v>
       </c>
@@ -28816,7 +28633,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="15.6">
+    <row r="593" spans="1:12" ht="15.6" hidden="1">
       <c r="A593" s="29">
         <v>588</v>
       </c>
@@ -28849,7 +28666,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="594" spans="1:12" ht="15.6">
+    <row r="594" spans="1:12" ht="15.6" hidden="1">
       <c r="A594" s="29">
         <v>589</v>
       </c>
@@ -28882,7 +28699,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="595" spans="1:12" ht="15.6">
+    <row r="595" spans="1:12" ht="15.6" hidden="1">
       <c r="A595" s="29">
         <v>590</v>
       </c>
@@ -28916,7 +28733,7 @@
       </c>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="1:12" ht="15.6">
+    <row r="596" spans="1:12" ht="15.6" hidden="1">
       <c r="A596" s="29">
         <v>591</v>
       </c>
@@ -28949,7 +28766,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="597" spans="1:12" ht="15.6">
+    <row r="597" spans="1:12" ht="15.6" hidden="1">
       <c r="A597" s="29">
         <v>592</v>
       </c>
@@ -28982,7 +28799,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="598" spans="1:12" ht="15.6">
+    <row r="598" spans="1:12" ht="15.6" hidden="1">
       <c r="A598" s="29">
         <v>593</v>
       </c>
@@ -29015,7 +28832,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="599" spans="1:12" ht="15.6">
+    <row r="599" spans="1:12" ht="15.6" hidden="1">
       <c r="A599" s="29">
         <v>594</v>
       </c>
@@ -29048,7 +28865,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="15.6">
+    <row r="600" spans="1:12" ht="15.6" hidden="1">
       <c r="A600" s="29">
         <v>595</v>
       </c>
@@ -29081,7 +28898,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="601" spans="1:12" ht="15.6">
+    <row r="601" spans="1:12" ht="15.6" hidden="1">
       <c r="A601" s="29">
         <v>596</v>
       </c>
@@ -29114,7 +28931,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="602" spans="1:12" ht="15.6">
+    <row r="602" spans="1:12" ht="15.6" hidden="1">
       <c r="A602" s="29">
         <v>597</v>
       </c>
@@ -29147,7 +28964,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="31.2">
+    <row r="603" spans="1:12" ht="31.2" hidden="1">
       <c r="A603" s="29">
         <v>598</v>
       </c>
@@ -29180,7 +28997,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="604" spans="1:12" ht="15.6">
+    <row r="604" spans="1:12" ht="15.6" hidden="1">
       <c r="A604" s="29">
         <v>599</v>
       </c>
@@ -29213,7 +29030,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="15.6">
+    <row r="605" spans="1:12" ht="15.6" hidden="1">
       <c r="A605" s="29">
         <v>600</v>
       </c>
@@ -29246,7 +29063,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="606" spans="1:12" ht="15.6">
+    <row r="606" spans="1:12" ht="15.6" hidden="1">
       <c r="A606" s="29">
         <v>601</v>
       </c>
@@ -29279,7 +29096,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="607" spans="1:12" ht="15.6">
+    <row r="607" spans="1:12" ht="15.6" hidden="1">
       <c r="A607" s="29">
         <v>602</v>
       </c>
@@ -29312,7 +29129,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="608" spans="1:12" s="10" customFormat="1" ht="15.6">
+    <row r="608" spans="1:12" s="10" customFormat="1" ht="15.6" hidden="1">
       <c r="A608" s="29">
         <v>426</v>
       </c>
@@ -29345,7 +29162,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="609" spans="1:23" ht="15.6">
+    <row r="609" spans="1:23" ht="15.6" hidden="1">
       <c r="A609" s="29">
         <v>604</v>
       </c>
@@ -29378,7 +29195,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="610" spans="1:23" ht="15.6">
+    <row r="610" spans="1:23" ht="15.6" hidden="1">
       <c r="A610" s="29">
         <v>605</v>
       </c>
@@ -29411,7 +29228,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="611" spans="1:23" ht="15.6">
+    <row r="611" spans="1:23" ht="15.6" hidden="1">
       <c r="A611" s="29">
         <v>606</v>
       </c>
@@ -29444,7 +29261,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="612" spans="1:23" ht="15.6">
+    <row r="612" spans="1:23" ht="15.6" hidden="1">
       <c r="A612" s="29">
         <v>214</v>
       </c>
@@ -29477,7 +29294,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="613" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="613" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A613" s="29">
         <v>608</v>
       </c>
@@ -29523,7 +29340,7 @@
       <c r="V613" s="3"/>
       <c r="W613" s="3"/>
     </row>
-    <row r="614" spans="1:23" ht="15.6">
+    <row r="614" spans="1:23" ht="15.6" hidden="1">
       <c r="A614" s="29">
         <v>609</v>
       </c>
@@ -29556,7 +29373,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="615" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="615" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A615" s="29">
         <v>330</v>
       </c>
@@ -29602,7 +29419,7 @@
       <c r="V615" s="3"/>
       <c r="W615" s="3"/>
     </row>
-    <row r="616" spans="1:23" ht="15.6">
+    <row r="616" spans="1:23" ht="15.6" hidden="1">
       <c r="A616" s="29">
         <v>611</v>
       </c>
@@ -29635,7 +29452,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="617" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="617" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A617" s="29">
         <v>612</v>
       </c>
@@ -29681,7 +29498,7 @@
       <c r="V617" s="3"/>
       <c r="W617" s="3"/>
     </row>
-    <row r="618" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="618" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A618" s="29">
         <v>613</v>
       </c>
@@ -29727,7 +29544,7 @@
       <c r="V618" s="3"/>
       <c r="W618" s="3"/>
     </row>
-    <row r="619" spans="1:23" ht="15.6">
+    <row r="619" spans="1:23" ht="15.6" hidden="1">
       <c r="A619" s="29">
         <v>614</v>
       </c>
@@ -29760,7 +29577,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="620" spans="1:23" ht="15.6">
+    <row r="620" spans="1:23" ht="15.6" hidden="1">
       <c r="A620" s="29">
         <v>615</v>
       </c>
@@ -29793,7 +29610,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="621" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="621" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A621" s="29">
         <v>616</v>
       </c>
@@ -29839,7 +29656,7 @@
       <c r="V621" s="3"/>
       <c r="W621" s="3"/>
     </row>
-    <row r="622" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="622" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A622" s="29">
         <v>617</v>
       </c>
@@ -29885,7 +29702,7 @@
       <c r="V622" s="3"/>
       <c r="W622" s="3"/>
     </row>
-    <row r="623" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="623" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A623" s="29">
         <v>618</v>
       </c>
@@ -29931,7 +29748,7 @@
       <c r="V623" s="3"/>
       <c r="W623" s="3"/>
     </row>
-    <row r="624" spans="1:23" ht="31.2">
+    <row r="624" spans="1:23" ht="31.2" hidden="1">
       <c r="A624" s="29">
         <v>619</v>
       </c>
@@ -29964,7 +29781,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="625" spans="1:23" ht="31.2">
+    <row r="625" spans="1:23" ht="31.2" hidden="1">
       <c r="A625" s="29">
         <v>620</v>
       </c>
@@ -29997,7 +29814,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="626" spans="1:23" ht="31.2">
+    <row r="626" spans="1:23" ht="31.2" hidden="1">
       <c r="A626" s="29">
         <v>621</v>
       </c>
@@ -30030,7 +29847,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="627" spans="1:23" ht="31.2">
+    <row r="627" spans="1:23" ht="31.2" hidden="1">
       <c r="A627" s="29">
         <v>622</v>
       </c>
@@ -30063,7 +29880,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="628" spans="1:23" ht="31.2">
+    <row r="628" spans="1:23" ht="31.2" hidden="1">
       <c r="A628" s="29">
         <v>623</v>
       </c>
@@ -30096,7 +29913,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="629" spans="1:23" ht="31.2">
+    <row r="629" spans="1:23" ht="31.2" hidden="1">
       <c r="A629" s="29">
         <v>624</v>
       </c>
@@ -30129,7 +29946,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="630" spans="1:23" ht="15.6">
+    <row r="630" spans="1:23" ht="15.6" hidden="1">
       <c r="A630" s="29">
         <v>220</v>
       </c>
@@ -30162,7 +29979,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="631" spans="1:23" ht="15.6">
+    <row r="631" spans="1:23" ht="15.6" hidden="1">
       <c r="A631" s="29">
         <v>626</v>
       </c>
@@ -30195,7 +30012,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="632" spans="1:23" ht="15.6">
+    <row r="632" spans="1:23" ht="15.6" hidden="1">
       <c r="A632" s="29">
         <v>627</v>
       </c>
@@ -30228,7 +30045,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="633" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="633" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A633" s="29">
         <v>628</v>
       </c>
@@ -30274,7 +30091,7 @@
       <c r="V633" s="3"/>
       <c r="W633" s="3"/>
     </row>
-    <row r="634" spans="1:23" ht="15.6">
+    <row r="634" spans="1:23" ht="15.6" hidden="1">
       <c r="A634" s="29">
         <v>629</v>
       </c>
@@ -30307,7 +30124,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="635" spans="1:23" ht="15.6">
+    <row r="635" spans="1:23" ht="15.6" hidden="1">
       <c r="A635" s="29">
         <v>630</v>
       </c>
@@ -30340,7 +30157,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="636" spans="1:23" ht="15.6">
+    <row r="636" spans="1:23" ht="15.6" hidden="1">
       <c r="A636" s="29">
         <v>631</v>
       </c>
@@ -30373,7 +30190,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="637" spans="1:23" ht="31.2">
+    <row r="637" spans="1:23" ht="31.2" hidden="1">
       <c r="A637" s="29">
         <v>632</v>
       </c>
@@ -30406,7 +30223,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="638" spans="1:23" ht="15.6">
+    <row r="638" spans="1:23" ht="15.6" hidden="1">
       <c r="A638" s="29">
         <v>633</v>
       </c>
@@ -30439,7 +30256,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="639" spans="1:23" ht="31.2">
+    <row r="639" spans="1:23" ht="31.2" hidden="1">
       <c r="A639" s="29">
         <v>634</v>
       </c>
@@ -30472,7 +30289,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="640" spans="1:23" ht="31.2">
+    <row r="640" spans="1:23" ht="31.2" hidden="1">
       <c r="A640" s="29">
         <v>635</v>
       </c>
@@ -30505,7 +30322,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="31.2">
+    <row r="641" spans="1:10" ht="31.2" hidden="1">
       <c r="A641" s="29">
         <v>636</v>
       </c>
@@ -30538,7 +30355,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="31.2">
+    <row r="642" spans="1:10" ht="31.2" hidden="1">
       <c r="A642" s="29">
         <v>637</v>
       </c>
@@ -30571,7 +30388,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="15.6">
+    <row r="643" spans="1:10" ht="15.6" hidden="1">
       <c r="A643" s="29">
         <v>638</v>
       </c>
@@ -30604,7 +30421,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="15.6">
+    <row r="644" spans="1:10" ht="15.6" hidden="1">
       <c r="A644" s="29">
         <v>639</v>
       </c>
@@ -30637,7 +30454,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="15.6">
+    <row r="645" spans="1:10" ht="15.6" hidden="1">
       <c r="A645" s="29">
         <v>640</v>
       </c>
@@ -30670,7 +30487,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="15.6">
+    <row r="646" spans="1:10" ht="15.6" hidden="1">
       <c r="A646" s="29">
         <v>641</v>
       </c>
@@ -30703,7 +30520,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="15.6">
+    <row r="647" spans="1:10" ht="15.6" hidden="1">
       <c r="A647" s="29">
         <v>642</v>
       </c>
@@ -30736,7 +30553,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="31.2">
+    <row r="648" spans="1:10" ht="31.2" hidden="1">
       <c r="A648" s="29">
         <v>643</v>
       </c>
@@ -30769,7 +30586,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="31.2">
+    <row r="649" spans="1:10" ht="31.2" hidden="1">
       <c r="A649" s="29">
         <v>644</v>
       </c>
@@ -30802,7 +30619,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="31.2">
+    <row r="650" spans="1:10" ht="31.2" hidden="1">
       <c r="A650" s="29">
         <v>645</v>
       </c>
@@ -30835,7 +30652,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="31.2">
+    <row r="651" spans="1:10" ht="31.2" hidden="1">
       <c r="A651" s="29">
         <v>646</v>
       </c>
@@ -30868,7 +30685,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="15.6">
+    <row r="652" spans="1:10" ht="15.6" hidden="1">
       <c r="A652" s="29">
         <v>647</v>
       </c>
@@ -30901,7 +30718,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="15.6">
+    <row r="653" spans="1:10" ht="15.6" hidden="1">
       <c r="A653" s="29">
         <v>648</v>
       </c>
@@ -30934,7 +30751,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="15.6">
+    <row r="654" spans="1:10" ht="15.6" hidden="1">
       <c r="A654" s="29">
         <v>649</v>
       </c>
@@ -30967,7 +30784,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="15.6">
+    <row r="655" spans="1:10" ht="15.6" hidden="1">
       <c r="A655" s="29">
         <v>650</v>
       </c>
@@ -31000,7 +30817,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="656" spans="1:10" ht="15.6">
+    <row r="656" spans="1:10" ht="15.6" hidden="1">
       <c r="A656" s="29">
         <v>651</v>
       </c>
@@ -31033,7 +30850,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="15.6">
+    <row r="657" spans="1:10" ht="15.6" hidden="1">
       <c r="A657" s="29">
         <v>652</v>
       </c>
@@ -31066,7 +30883,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="15.6">
+    <row r="658" spans="1:10" ht="15.6" hidden="1">
       <c r="A658" s="29">
         <v>653</v>
       </c>
@@ -31099,7 +30916,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="15.6">
+    <row r="659" spans="1:10" ht="15.6" hidden="1">
       <c r="A659" s="29">
         <v>654</v>
       </c>
@@ -31132,7 +30949,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="15.6">
+    <row r="660" spans="1:10" ht="15.6" hidden="1">
       <c r="A660" s="29">
         <v>655</v>
       </c>
@@ -31165,7 +30982,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="15.6">
+    <row r="661" spans="1:10" ht="15.6" hidden="1">
       <c r="A661" s="29">
         <v>656</v>
       </c>
@@ -31198,7 +31015,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="15.6">
+    <row r="662" spans="1:10" ht="15.6" hidden="1">
       <c r="A662" s="29">
         <v>657</v>
       </c>
@@ -31231,7 +31048,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="15.6">
+    <row r="663" spans="1:10" ht="15.6" hidden="1">
       <c r="A663" s="29">
         <v>658</v>
       </c>
@@ -31264,7 +31081,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="15.6">
+    <row r="664" spans="1:10" ht="15.6" hidden="1">
       <c r="A664" s="29">
         <v>659</v>
       </c>
@@ -31297,7 +31114,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="15.6">
+    <row r="665" spans="1:10" ht="15.6" hidden="1">
       <c r="A665" s="29">
         <v>660</v>
       </c>
@@ -31330,7 +31147,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="15.6">
+    <row r="666" spans="1:10" ht="15.6" hidden="1">
       <c r="A666" s="29">
         <v>661</v>
       </c>
@@ -31363,7 +31180,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="15.6">
+    <row r="667" spans="1:10" ht="15.6" hidden="1">
       <c r="A667" s="29">
         <v>662</v>
       </c>
@@ -31396,7 +31213,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="15.6">
+    <row r="668" spans="1:10" ht="15.6" hidden="1">
       <c r="A668" s="29">
         <v>663</v>
       </c>
@@ -31429,7 +31246,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="15.6">
+    <row r="669" spans="1:10" ht="15.6" hidden="1">
       <c r="A669" s="29">
         <v>664</v>
       </c>
@@ -31462,7 +31279,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="15.6">
+    <row r="670" spans="1:10" ht="15.6" hidden="1">
       <c r="A670" s="29">
         <v>665</v>
       </c>
@@ -31495,7 +31312,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="15.6">
+    <row r="671" spans="1:10" ht="15.6" hidden="1">
       <c r="A671" s="29">
         <v>666</v>
       </c>
@@ -31528,7 +31345,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="15.6">
+    <row r="672" spans="1:10" ht="15.6" hidden="1">
       <c r="A672" s="29">
         <v>667</v>
       </c>
@@ -31561,7 +31378,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="673" spans="1:23" ht="15.6">
+    <row r="673" spans="1:23" ht="15.6" hidden="1">
       <c r="A673" s="29">
         <v>668</v>
       </c>
@@ -31594,7 +31411,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="674" spans="1:23" ht="15.6">
+    <row r="674" spans="1:23" ht="15.6" hidden="1">
       <c r="A674" s="29">
         <v>669</v>
       </c>
@@ -31627,7 +31444,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="675" spans="1:23" s="23" customFormat="1" ht="15.6">
+    <row r="675" spans="1:23" s="23" customFormat="1" ht="15.6" hidden="1">
       <c r="A675" s="29">
         <v>670</v>
       </c>
@@ -31660,7 +31477,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="676" spans="1:23" ht="15.6">
+    <row r="676" spans="1:23" ht="15.6" hidden="1">
       <c r="A676" s="29">
         <v>671</v>
       </c>
@@ -31693,7 +31510,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="677" spans="1:23" ht="15.6">
+    <row r="677" spans="1:23" ht="15.6" hidden="1">
       <c r="A677" s="29">
         <v>672</v>
       </c>
@@ -31726,7 +31543,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="678" spans="1:23" ht="15.6">
+    <row r="678" spans="1:23" ht="15.6" hidden="1">
       <c r="A678" s="29">
         <v>673</v>
       </c>
@@ -31759,7 +31576,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="679" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="679" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
       <c r="A679" s="29">
         <v>674</v>
       </c>
@@ -31805,7 +31622,7 @@
       <c r="V679" s="3"/>
       <c r="W679" s="3"/>
     </row>
-    <row r="680" spans="1:23" ht="15.6">
+    <row r="680" spans="1:23" ht="15.6" hidden="1">
       <c r="A680" s="29">
         <v>675</v>
       </c>
@@ -31838,7 +31655,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="681" spans="1:23" ht="15.6">
+    <row r="681" spans="1:23" ht="15.6" hidden="1">
       <c r="A681" s="29">
         <v>676</v>
       </c>
@@ -31871,7 +31688,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="682" spans="1:23" ht="15.6">
+    <row r="682" spans="1:23" ht="15.6" hidden="1">
       <c r="A682" s="29">
         <v>677</v>
       </c>
@@ -31904,7 +31721,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="683" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="683" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A683" s="29">
         <v>678</v>
       </c>
@@ -31950,7 +31767,7 @@
       <c r="V683" s="3"/>
       <c r="W683" s="3"/>
     </row>
-    <row r="684" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="684" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A684" s="29">
         <v>679</v>
       </c>
@@ -31996,7 +31813,7 @@
       <c r="V684" s="3"/>
       <c r="W684" s="3"/>
     </row>
-    <row r="685" spans="1:23" ht="15.6">
+    <row r="685" spans="1:23" ht="15.6" hidden="1">
       <c r="A685" s="29">
         <v>680</v>
       </c>
@@ -32029,7 +31846,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="686" spans="1:23" ht="15.6">
+    <row r="686" spans="1:23" ht="15.6" hidden="1">
       <c r="A686" s="29">
         <v>681</v>
       </c>
@@ -32062,7 +31879,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="687" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="687" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A687" s="29">
         <v>682</v>
       </c>
@@ -32108,7 +31925,7 @@
       <c r="V687" s="3"/>
       <c r="W687" s="3"/>
     </row>
-    <row r="688" spans="1:23" ht="15.6">
+    <row r="688" spans="1:23" ht="15.6" hidden="1">
       <c r="A688" s="29">
         <v>683</v>
       </c>
@@ -32141,7 +31958,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="689" spans="1:23" ht="15.6">
+    <row r="689" spans="1:23" ht="15.6" hidden="1">
       <c r="A689" s="29">
         <v>684</v>
       </c>
@@ -32174,7 +31991,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="690" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="690" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A690" s="29">
         <v>685</v>
       </c>
@@ -32220,7 +32037,7 @@
       <c r="V690" s="3"/>
       <c r="W690" s="3"/>
     </row>
-    <row r="691" spans="1:23" ht="15.6">
+    <row r="691" spans="1:23" ht="15.6" hidden="1">
       <c r="A691" s="29">
         <v>686</v>
       </c>
@@ -32253,7 +32070,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="692" spans="1:23" ht="15.6">
+    <row r="692" spans="1:23" ht="15.6" hidden="1">
       <c r="A692" s="29">
         <v>687</v>
       </c>
@@ -32286,7 +32103,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="693" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="693" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A693" s="29">
         <v>688</v>
       </c>
@@ -32332,7 +32149,7 @@
       <c r="V693" s="3"/>
       <c r="W693" s="3"/>
     </row>
-    <row r="694" spans="1:23" ht="15.6">
+    <row r="694" spans="1:23" ht="15.6" hidden="1">
       <c r="A694" s="29">
         <v>689</v>
       </c>
@@ -32365,7 +32182,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="695" spans="1:23" ht="15.6">
+    <row r="695" spans="1:23" ht="15.6" hidden="1">
       <c r="A695" s="29">
         <v>690</v>
       </c>
@@ -32398,7 +32215,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="696" spans="1:23" ht="15.6">
+    <row r="696" spans="1:23" ht="15.6" hidden="1">
       <c r="A696" s="29">
         <v>691</v>
       </c>
@@ -32431,7 +32248,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="697" spans="1:23" ht="15.6">
+    <row r="697" spans="1:23" ht="15.6" hidden="1">
       <c r="A697" s="29">
         <v>692</v>
       </c>
@@ -32464,7 +32281,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="698" spans="1:23" ht="15.6">
+    <row r="698" spans="1:23" ht="15.6" hidden="1">
       <c r="A698" s="29">
         <v>693</v>
       </c>
@@ -32497,7 +32314,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="699" spans="1:23" ht="15.6">
+    <row r="699" spans="1:23" ht="15.6" hidden="1">
       <c r="A699" s="29">
         <v>694</v>
       </c>
@@ -32530,7 +32347,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="700" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="700" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A700" s="29">
         <v>695</v>
       </c>
@@ -32576,7 +32393,7 @@
       <c r="V700" s="3"/>
       <c r="W700" s="3"/>
     </row>
-    <row r="701" spans="1:23" s="7" customFormat="1" ht="15.6">
+    <row r="701" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
       <c r="A701" s="29">
         <v>696</v>
       </c>
@@ -32622,7 +32439,7 @@
       <c r="V701" s="3"/>
       <c r="W701" s="3"/>
     </row>
-    <row r="702" spans="1:23" ht="15.6">
+    <row r="702" spans="1:23" ht="15.6" hidden="1">
       <c r="A702" s="29">
         <v>697</v>
       </c>
@@ -32655,7 +32472,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="703" spans="1:23" ht="15.6">
+    <row r="703" spans="1:23" ht="15.6" hidden="1">
       <c r="A703" s="29">
         <v>698</v>
       </c>
@@ -32688,7 +32505,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="704" spans="1:23" ht="15.6">
+    <row r="704" spans="1:23" ht="15.6" hidden="1">
       <c r="A704" s="29">
         <v>699</v>
       </c>
@@ -32721,7 +32538,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="15.6">
+    <row r="705" spans="1:10" ht="15.6" hidden="1">
       <c r="A705" s="29">
         <v>700</v>
       </c>
@@ -32754,7 +32571,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="31.2">
+    <row r="706" spans="1:10" ht="31.2" hidden="1">
       <c r="A706" s="29">
         <v>701</v>
       </c>
@@ -32787,7 +32604,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="707" spans="1:10" ht="31.2">
+    <row r="707" spans="1:10" ht="31.2" hidden="1">
       <c r="A707" s="29">
         <v>404</v>
       </c>
@@ -32820,7 +32637,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="708" spans="1:10" ht="31.2">
+    <row r="708" spans="1:10" ht="31.2" hidden="1">
       <c r="A708" s="29">
         <v>703</v>
       </c>
@@ -32853,7 +32670,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="709" spans="1:10" ht="31.2">
+    <row r="709" spans="1:10" ht="31.2" hidden="1">
       <c r="A709" s="29">
         <v>704</v>
       </c>
@@ -32886,7 +32703,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="31.2">
+    <row r="710" spans="1:10" ht="31.2" hidden="1">
       <c r="A710" s="29">
         <v>705</v>
       </c>
@@ -32919,7 +32736,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="31.2">
+    <row r="711" spans="1:10" ht="31.2" hidden="1">
       <c r="A711" s="29">
         <v>706</v>
       </c>
@@ -32952,7 +32769,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="712" spans="1:10" ht="15.6">
+    <row r="712" spans="1:10" ht="15.6" hidden="1">
       <c r="A712" s="29">
         <v>707</v>
       </c>
@@ -32985,7 +32802,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="713" spans="1:10" ht="15.6">
+    <row r="713" spans="1:10" ht="15.6" hidden="1">
       <c r="A713" s="29">
         <v>708</v>
       </c>
@@ -33018,7 +32835,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="714" spans="1:10" ht="15.6">
+    <row r="714" spans="1:10" ht="15.6" hidden="1">
       <c r="A714" s="29">
         <v>709</v>
       </c>
@@ -33051,7 +32868,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="15.6">
+    <row r="715" spans="1:10" ht="15.6" hidden="1">
       <c r="A715" s="29">
         <v>710</v>
       </c>
@@ -33084,7 +32901,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="15.6">
+    <row r="716" spans="1:10" ht="15.6" hidden="1">
       <c r="A716" s="29">
         <v>711</v>
       </c>
@@ -33117,7 +32934,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="717" spans="1:10" ht="15.6">
+    <row r="717" spans="1:10" ht="15.6" hidden="1">
       <c r="A717" s="29">
         <v>712</v>
       </c>
@@ -33150,7 +32967,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="718" spans="1:10" ht="15.6">
+    <row r="718" spans="1:10" ht="15.6" hidden="1">
       <c r="A718" s="29">
         <v>713</v>
       </c>
@@ -33183,7 +33000,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="719" spans="1:10" ht="31.2">
+    <row r="719" spans="1:10" ht="31.2" hidden="1">
       <c r="A719" s="29">
         <v>714</v>
       </c>
@@ -33216,7 +33033,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="720" spans="1:10" ht="31.2">
+    <row r="720" spans="1:10" ht="31.2" hidden="1">
       <c r="A720" s="29">
         <v>715</v>
       </c>
@@ -33249,7 +33066,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="721" spans="1:10" ht="31.2">
+    <row r="721" spans="1:10" ht="31.2" hidden="1">
       <c r="A721" s="29">
         <v>716</v>
       </c>
@@ -33282,7 +33099,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="722" spans="1:10" ht="31.2">
+    <row r="722" spans="1:10" ht="31.2" hidden="1">
       <c r="A722" s="29">
         <v>717</v>
       </c>
@@ -33315,7 +33132,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="723" spans="1:10" ht="31.2">
+    <row r="723" spans="1:10" ht="31.2" hidden="1">
       <c r="A723" s="29">
         <v>718</v>
       </c>
@@ -33348,7 +33165,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="724" spans="1:10" ht="15.6">
+    <row r="724" spans="1:10" ht="15.6" hidden="1">
       <c r="A724" s="29">
         <v>719</v>
       </c>
@@ -33381,7 +33198,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="725" spans="1:10" ht="15.6">
+    <row r="725" spans="1:10" ht="15.6" hidden="1">
       <c r="A725" s="29">
         <v>720</v>
       </c>
@@ -33414,7 +33231,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="726" spans="1:10" ht="15.6">
+    <row r="726" spans="1:10" ht="15.6" hidden="1">
       <c r="A726" s="29">
         <v>721</v>
       </c>
@@ -33447,7 +33264,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="727" spans="1:10" ht="15.6">
+    <row r="727" spans="1:10" ht="15.6" hidden="1">
       <c r="A727" s="29">
         <v>722</v>
       </c>
@@ -33480,7 +33297,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="728" spans="1:10" ht="15.6">
+    <row r="728" spans="1:10" ht="15.6" hidden="1">
       <c r="A728" s="29">
         <v>723</v>
       </c>
@@ -33513,7 +33330,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="729" spans="1:10" ht="31.2">
+    <row r="729" spans="1:10" ht="31.2" hidden="1">
       <c r="A729" s="29">
         <v>724</v>
       </c>
@@ -33546,7 +33363,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="730" spans="1:10" ht="31.2">
+    <row r="730" spans="1:10" ht="31.2" hidden="1">
       <c r="A730" s="29">
         <v>725</v>
       </c>
@@ -33579,7 +33396,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="731" spans="1:10" ht="31.2">
+    <row r="731" spans="1:10" ht="31.2" hidden="1">
       <c r="A731" s="29">
         <v>726</v>
       </c>
@@ -33612,7 +33429,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="732" spans="1:10" ht="31.2">
+    <row r="732" spans="1:10" ht="31.2" hidden="1">
       <c r="A732" s="29">
         <v>727</v>
       </c>
@@ -33645,7 +33462,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="733" spans="1:10" ht="31.2">
+    <row r="733" spans="1:10" ht="31.2" hidden="1">
       <c r="A733" s="29">
         <v>728</v>
       </c>
@@ -33678,7 +33495,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="734" spans="1:10" s="23" customFormat="1" ht="15.6">
+    <row r="734" spans="1:10" s="23" customFormat="1" ht="15.6" hidden="1">
       <c r="A734" s="29">
         <v>729</v>
       </c>
@@ -33711,7 +33528,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="15.6">
+    <row r="735" spans="1:10" ht="15.6" hidden="1">
       <c r="A735" s="9">
         <v>730</v>
       </c>
@@ -33744,7 +33561,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="736" spans="1:10" ht="15.6">
+    <row r="736" spans="1:10" ht="15.6" hidden="1">
       <c r="A736" s="9">
         <v>731</v>
       </c>
@@ -33777,7 +33594,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="15.6">
+    <row r="737" spans="1:10" ht="15.6" hidden="1">
       <c r="A737" s="9">
         <v>732</v>
       </c>
@@ -33810,7 +33627,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="15.6">
+    <row r="738" spans="1:10" ht="15.6" hidden="1">
       <c r="A738" s="9">
         <v>733</v>
       </c>
@@ -33843,7 +33660,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="15.6">
+    <row r="739" spans="1:10" ht="15.6" hidden="1">
       <c r="A739" s="9">
         <v>734</v>
       </c>
@@ -33876,7 +33693,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="740" spans="1:10" ht="15.6">
+    <row r="740" spans="1:10" ht="15.6" hidden="1">
       <c r="A740" s="9">
         <v>735</v>
       </c>
@@ -33909,7 +33726,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="741" spans="1:10" ht="15.6">
+    <row r="741" spans="1:10" ht="15.6" hidden="1">
       <c r="A741" s="9">
         <v>736</v>
       </c>
@@ -33942,7 +33759,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="742" spans="1:10" ht="15.6">
+    <row r="742" spans="1:10" ht="15.6" hidden="1">
       <c r="A742" s="9">
         <v>737</v>
       </c>
@@ -33975,7 +33792,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="743" spans="1:10" ht="15.6">
+    <row r="743" spans="1:10" ht="15.6" hidden="1">
       <c r="A743" s="9">
         <v>738</v>
       </c>
@@ -34008,7 +33825,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="15.6">
+    <row r="744" spans="1:10" ht="15.6" hidden="1">
       <c r="A744" s="9">
         <v>739</v>
       </c>
@@ -34041,7 +33858,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="745" spans="1:10" ht="15.6">
+    <row r="745" spans="1:10" ht="15.6" hidden="1">
       <c r="A745" s="9">
         <v>740</v>
       </c>
@@ -34074,7 +33891,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="15.6">
+    <row r="746" spans="1:10" ht="15.6" hidden="1">
       <c r="A746" s="29">
         <v>349</v>
       </c>
@@ -34108,72 +33925,30 @@
       </c>
     </row>
     <row r="747" spans="1:10" ht="15.6">
-      <c r="A747" s="16">
-        <v>742</v>
-      </c>
-      <c r="B747" s="16">
-        <v>1</v>
-      </c>
-      <c r="C747" s="18" t="s">
-        <v>2379</v>
-      </c>
-      <c r="D747" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E747" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F747" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G747" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H747" s="28" t="s">
-        <v>2381</v>
-      </c>
-      <c r="I747" s="28" t="s">
-        <v>2382</v>
-      </c>
-      <c r="J747" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>8/25(월)~8/26(화)</v>
-      </c>
+      <c r="A747" s="16"/>
+      <c r="B747" s="16"/>
+      <c r="C747" s="18"/>
+      <c r="D747" s="27"/>
+      <c r="E747" s="27"/>
+      <c r="F747" s="27"/>
+      <c r="G747" s="19"/>
+      <c r="H747" s="28"/>
+      <c r="I747" s="28"/>
+      <c r="J747" s="17"/>
     </row>
     <row r="748" spans="1:10" ht="15.6">
-      <c r="A748" s="16">
-        <v>743</v>
-      </c>
-      <c r="B748" s="16">
-        <v>2</v>
-      </c>
-      <c r="C748" s="27" t="s">
-        <v>2383</v>
-      </c>
-      <c r="D748" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E748" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F748" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G748" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H748" s="28" t="s">
-        <v>2384</v>
-      </c>
-      <c r="I748" s="28" t="s">
-        <v>2385</v>
-      </c>
-      <c r="J748" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>8/27(수)~8/28(목)</v>
-      </c>
-    </row>
-    <row r="749" spans="1:10" ht="15.6">
+      <c r="A748" s="16"/>
+      <c r="B748" s="16"/>
+      <c r="C748" s="27"/>
+      <c r="D748" s="27"/>
+      <c r="E748" s="27"/>
+      <c r="F748" s="27"/>
+      <c r="G748" s="19"/>
+      <c r="H748" s="28"/>
+      <c r="I748" s="28"/>
+      <c r="J748" s="17"/>
+    </row>
+    <row r="749" spans="1:10" ht="15.6" hidden="1">
       <c r="A749" s="29">
         <v>143</v>
       </c>
@@ -34206,7 +33981,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="750" spans="1:10" ht="15.6">
+    <row r="750" spans="1:10" ht="15.6" hidden="1">
       <c r="A750" s="29">
         <v>261</v>
       </c>
@@ -34239,7 +34014,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="751" spans="1:10" ht="15.6">
+    <row r="751" spans="1:10" ht="15.6" hidden="1">
       <c r="A751" s="29">
         <v>334</v>
       </c>
@@ -34272,7 +34047,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="752" spans="1:10" ht="15.6">
+    <row r="752" spans="1:10" ht="15.6" hidden="1">
       <c r="A752" s="29">
         <v>428</v>
       </c>
@@ -34306,139 +34081,60 @@
       </c>
     </row>
     <row r="753" spans="1:10" ht="15.6">
-      <c r="A753" s="16">
-        <v>748</v>
-      </c>
-      <c r="B753" s="16">
-        <v>7</v>
-      </c>
-      <c r="C753" s="27" t="s">
-        <v>2399</v>
-      </c>
-      <c r="D753" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E753" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F753" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G753" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H753" s="28" t="s">
-        <v>2400</v>
-      </c>
-      <c r="I753" s="28" t="s">
-        <v>2401</v>
-      </c>
-      <c r="J753" s="17" t="str">
-        <f t="shared" ref="J753:J756" si="21">VLOOKUP(B753,$L$5:$M$14,2)</f>
-        <v>9/17(수)~9/18(목)</v>
-      </c>
+      <c r="A753" s="16"/>
+      <c r="B753" s="16"/>
+      <c r="C753" s="27"/>
+      <c r="D753" s="27"/>
+      <c r="E753" s="27"/>
+      <c r="F753" s="27"/>
+      <c r="G753" s="19"/>
+      <c r="H753" s="28"/>
+      <c r="I753" s="28"/>
+      <c r="J753" s="17"/>
     </row>
     <row r="754" spans="1:10" ht="15.6">
-      <c r="A754" s="16">
-        <v>749</v>
-      </c>
-      <c r="B754" s="16">
-        <v>8</v>
-      </c>
-      <c r="C754" s="27" t="s">
-        <v>2402</v>
-      </c>
-      <c r="D754" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E754" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F754" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G754" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H754" s="28" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I754" s="28" t="s">
-        <v>2404</v>
-      </c>
-      <c r="J754" s="17" t="str">
-        <f t="shared" si="21"/>
-        <v>9/22(월)~9/23(화)</v>
-      </c>
+      <c r="A754" s="16"/>
+      <c r="B754" s="16"/>
+      <c r="C754" s="27"/>
+      <c r="D754" s="27"/>
+      <c r="E754" s="27"/>
+      <c r="F754" s="27"/>
+      <c r="G754" s="19"/>
+      <c r="H754" s="28"/>
+      <c r="I754" s="28"/>
+      <c r="J754" s="17"/>
     </row>
     <row r="755" spans="1:10" ht="15.6">
-      <c r="A755" s="16">
-        <v>750</v>
-      </c>
-      <c r="B755" s="16">
-        <v>9</v>
-      </c>
-      <c r="C755" s="27" t="s">
-        <v>2405</v>
-      </c>
-      <c r="D755" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E755" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F755" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G755" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H755" s="28" t="s">
-        <v>2406</v>
-      </c>
-      <c r="I755" s="28" t="s">
-        <v>2407</v>
-      </c>
-      <c r="J755" s="17" t="str">
-        <f t="shared" si="21"/>
-        <v>9/29(월)~9/30(화)</v>
-      </c>
+      <c r="A755" s="16"/>
+      <c r="B755" s="16"/>
+      <c r="C755" s="27"/>
+      <c r="D755" s="27"/>
+      <c r="E755" s="27"/>
+      <c r="F755" s="27"/>
+      <c r="G755" s="19"/>
+      <c r="H755" s="28"/>
+      <c r="I755" s="28"/>
+      <c r="J755" s="17"/>
     </row>
     <row r="756" spans="1:10" ht="15.6">
-      <c r="A756" s="16">
-        <v>751</v>
-      </c>
-      <c r="B756" s="16">
-        <v>10</v>
-      </c>
-      <c r="C756" s="27" t="s">
-        <v>2408</v>
-      </c>
-      <c r="D756" s="27" t="s">
-        <v>2409</v>
-      </c>
-      <c r="E756" s="27" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F756" s="27" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G756" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H756" s="28" t="s">
-        <v>2410</v>
-      </c>
-      <c r="I756" s="28" t="s">
-        <v>2411</v>
-      </c>
-      <c r="J756" s="17" t="str">
-        <f t="shared" si="21"/>
-        <v>10/1(수)~10/2(목)</v>
-      </c>
+      <c r="A756" s="16"/>
+      <c r="B756" s="16"/>
+      <c r="C756" s="27"/>
+      <c r="D756" s="27"/>
+      <c r="E756" s="27"/>
+      <c r="F756" s="27"/>
+      <c r="G756" s="19"/>
+      <c r="H756" s="28"/>
+      <c r="I756" s="28"/>
+      <c r="J756" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:J756" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="임원"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A368:J752">
       <sortCondition ref="C4:C756"/>
     </sortState>

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE07670-C168-42CA-B3EA-F573101207EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98AE52-9D28-428E-B55D-2C9E9040A71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="2383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="2384">
   <si>
     <t>● 25년 전사 워크숍 참석인원 명부</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7337,6 +7337,10 @@
   </si>
   <si>
     <t>770113-2067325</t>
+  </si>
+  <si>
+    <t>불참</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>불참</t>
@@ -7983,11 +7987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F754" sqref="F754"/>
+      <selection activeCell="F757" sqref="F757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8113,7 +8116,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.2" hidden="1" customHeight="1">
+    <row r="5" spans="1:23" ht="16.2" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
@@ -8172,7 +8175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.6" hidden="1">
+    <row r="6" spans="1:23" ht="15.6">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -8242,7 +8245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.6" hidden="1">
+    <row r="7" spans="1:23" ht="15.6">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.6" hidden="1">
+    <row r="8" spans="1:23" ht="15.6">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -8355,11 +8358,11 @@
       </c>
       <c r="Q8" s="12">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S8" s="12">
         <f t="shared" si="2"/>
@@ -8367,7 +8370,7 @@
       </c>
       <c r="T8" s="12">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U8" s="12">
         <f t="shared" si="4"/>
@@ -8375,14 +8378,14 @@
       </c>
       <c r="V8" s="12">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" s="12">
         <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.6" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.6">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -8425,11 +8428,11 @@
       </c>
       <c r="Q9" s="12">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R9" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S9" s="12">
         <f t="shared" si="2"/>
@@ -8437,7 +8440,7 @@
       </c>
       <c r="T9" s="12">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U9" s="12">
         <f t="shared" si="4"/>
@@ -8445,14 +8448,14 @@
       </c>
       <c r="V9" s="12">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W9" s="12">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.6" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.6">
       <c r="A10" s="9">
         <v>5</v>
       </c>
@@ -8495,7 +8498,7 @@
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="1"/>
@@ -8503,7 +8506,7 @@
       </c>
       <c r="S10" s="12">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T10" s="12">
         <f t="shared" si="4"/>
@@ -8511,18 +8514,18 @@
       </c>
       <c r="U10" s="12">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V10" s="12">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W10" s="12">
         <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.6" hidden="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.6">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -8592,7 +8595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.6" hidden="1">
+    <row r="12" spans="1:23" ht="15.6">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -8662,7 +8665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.6" hidden="1">
+    <row r="13" spans="1:23" ht="15.6">
       <c r="A13" s="9">
         <v>8</v>
       </c>
@@ -8705,11 +8708,11 @@
       </c>
       <c r="Q13" s="12">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R13" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" s="12">
         <f t="shared" si="2"/>
@@ -8732,7 +8735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.6" hidden="1">
+    <row r="14" spans="1:23" ht="15.6">
       <c r="A14" s="9">
         <v>9</v>
       </c>
@@ -8802,7 +8805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.6" hidden="1">
+    <row r="15" spans="1:23" ht="15.6">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -8839,7 +8842,7 @@
       </c>
       <c r="Q15" s="12">
         <f>SUM(Q5:Q14)</f>
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R15" s="12">
         <f t="shared" ref="R15:W15" si="8">SUM(R5:R14)</f>
@@ -8847,7 +8850,7 @@
       </c>
       <c r="S15" s="12">
         <f t="shared" si="8"/>
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T15" s="12">
         <f t="shared" si="8"/>
@@ -8855,18 +8858,18 @@
       </c>
       <c r="U15" s="12">
         <f t="shared" si="8"/>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V15" s="12">
         <f t="shared" si="8"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="8"/>
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.6" hidden="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.6">
       <c r="A16" s="9">
         <v>11</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.6" hidden="1">
+    <row r="17" spans="1:23" ht="15.6">
       <c r="A17" s="9">
         <v>12</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.6" hidden="1">
+    <row r="18" spans="1:23" ht="15.6">
       <c r="A18" s="9">
         <v>13</v>
       </c>
@@ -8965,7 +8968,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.6" hidden="1">
+    <row r="19" spans="1:23" ht="15.6">
       <c r="A19" s="9">
         <v>14</v>
       </c>
@@ -8999,7 +9002,7 @@
       </c>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="20" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A20" s="29">
         <v>15</v>
       </c>
@@ -9045,7 +9048,7 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" ht="15.6" hidden="1">
+    <row r="21" spans="1:23" ht="15.6">
       <c r="A21" s="29">
         <v>16</v>
       </c>
@@ -9079,7 +9082,7 @@
       </c>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
+    <row r="22" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A22" s="29">
         <v>17</v>
       </c>
@@ -9125,7 +9128,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" ht="15.6" hidden="1">
+    <row r="23" spans="1:23" ht="15.6">
       <c r="A23" s="29">
         <v>18</v>
       </c>
@@ -9158,7 +9161,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="24" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A24" s="29">
         <v>19</v>
       </c>
@@ -9204,7 +9207,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" ht="15.6" hidden="1">
+    <row r="25" spans="1:23" ht="15.6">
       <c r="A25" s="29">
         <v>20</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.6" hidden="1">
+    <row r="26" spans="1:23" ht="15.6">
       <c r="A26" s="29">
         <v>21</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.6" hidden="1">
+    <row r="27" spans="1:23" ht="15.6">
       <c r="A27" s="29">
         <v>22</v>
       </c>
@@ -9303,7 +9306,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.6" hidden="1">
+    <row r="28" spans="1:23" ht="15.6">
       <c r="A28" s="29">
         <v>23</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.6" hidden="1">
+    <row r="29" spans="1:23" ht="15.6">
       <c r="A29" s="29">
         <v>24</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="31.2" hidden="1">
+    <row r="30" spans="1:23" ht="31.2">
       <c r="A30" s="29">
         <v>25</v>
       </c>
@@ -9402,7 +9405,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="31.2" hidden="1">
+    <row r="31" spans="1:23" ht="31.2">
       <c r="A31" s="29">
         <v>26</v>
       </c>
@@ -9435,7 +9438,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.6" hidden="1">
+    <row r="32" spans="1:23" ht="15.6">
       <c r="A32" s="29">
         <v>27</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.6" hidden="1">
+    <row r="33" spans="1:23" ht="15.6">
       <c r="A33" s="29">
         <v>28</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.6" hidden="1">
+    <row r="34" spans="1:23" ht="15.6">
       <c r="A34" s="29">
         <v>29</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.6" hidden="1">
+    <row r="35" spans="1:23" ht="15.6">
       <c r="A35" s="29">
         <v>30</v>
       </c>
@@ -9567,7 +9570,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.6" hidden="1">
+    <row r="36" spans="1:23" ht="15.6">
       <c r="A36" s="29">
         <v>31</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="31.2" hidden="1">
+    <row r="37" spans="1:23" ht="31.2">
       <c r="A37" s="29">
         <v>32</v>
       </c>
@@ -9633,7 +9636,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="31.2" hidden="1">
+    <row r="38" spans="1:23" ht="31.2">
       <c r="A38" s="29">
         <v>33</v>
       </c>
@@ -9666,7 +9669,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="31.2" hidden="1">
+    <row r="39" spans="1:23" ht="31.2">
       <c r="A39" s="29">
         <v>34</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="31.2" hidden="1">
+    <row r="40" spans="1:23" ht="31.2">
       <c r="A40" s="29">
         <v>35</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="41" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A41" s="29">
         <v>36</v>
       </c>
@@ -9778,7 +9781,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:23" ht="15.6" hidden="1">
+    <row r="42" spans="1:23" ht="15.6">
       <c r="A42" s="29">
         <v>37</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
+    <row r="43" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A43" s="29">
         <v>38</v>
       </c>
@@ -9857,7 +9860,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" ht="15.6" hidden="1">
+    <row r="44" spans="1:23" ht="15.6">
       <c r="A44" s="29">
         <v>39</v>
       </c>
@@ -9890,7 +9893,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.6" hidden="1">
+    <row r="45" spans="1:23" ht="15.6">
       <c r="A45" s="29">
         <v>40</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.6" hidden="1">
+    <row r="46" spans="1:23" ht="15.6">
       <c r="A46" s="29">
         <v>41</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="31.2" hidden="1">
+    <row r="47" spans="1:23" ht="31.2">
       <c r="A47" s="29">
         <v>42</v>
       </c>
@@ -9989,7 +9992,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="31.2" hidden="1">
+    <row r="48" spans="1:23" ht="31.2">
       <c r="A48" s="29">
         <v>43</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.2" hidden="1">
+    <row r="49" spans="1:12" ht="31.2">
       <c r="A49" s="29">
         <v>44</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="31.2" hidden="1">
+    <row r="50" spans="1:12" ht="31.2">
       <c r="A50" s="29">
         <v>45</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="31.2" hidden="1">
+    <row r="51" spans="1:12" ht="31.2">
       <c r="A51" s="29">
         <v>46</v>
       </c>
@@ -10121,7 +10124,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.6" hidden="1">
+    <row r="52" spans="1:12" ht="15.6">
       <c r="A52" s="29">
         <v>47</v>
       </c>
@@ -10154,7 +10157,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.6" hidden="1">
+    <row r="53" spans="1:12" ht="15.6">
       <c r="A53" s="29">
         <v>48</v>
       </c>
@@ -10187,7 +10190,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.6" hidden="1">
+    <row r="54" spans="1:12" ht="15.6">
       <c r="A54" s="29">
         <v>49</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="31.2" hidden="1">
+    <row r="55" spans="1:12" ht="31.2">
       <c r="A55" s="29">
         <v>50</v>
       </c>
@@ -10253,7 +10256,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.6" hidden="1">
+    <row r="56" spans="1:12" ht="15.6">
       <c r="A56" s="29">
         <v>51</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.6" hidden="1">
+    <row r="57" spans="1:12" ht="15.6">
       <c r="A57" s="29">
         <v>52</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.6" hidden="1">
+    <row r="58" spans="1:12" ht="15.6">
       <c r="A58" s="29">
         <v>53</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.6" hidden="1">
+    <row r="59" spans="1:12" ht="15.6">
       <c r="A59" s="29">
         <v>54</v>
       </c>
@@ -10385,7 +10388,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.6" hidden="1">
+    <row r="60" spans="1:12" ht="15.6">
       <c r="A60" s="29">
         <v>55</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.6" hidden="1">
+    <row r="61" spans="1:12" ht="15.6">
       <c r="A61" s="29">
         <v>56</v>
       </c>
@@ -10451,7 +10454,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="31.2" hidden="1">
+    <row r="62" spans="1:12" ht="31.2">
       <c r="A62" s="29">
         <v>57</v>
       </c>
@@ -10485,7 +10488,7 @@
       </c>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="15.6" hidden="1">
+    <row r="63" spans="1:12" ht="15.6">
       <c r="A63" s="29">
         <v>58</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.6" hidden="1">
+    <row r="64" spans="1:12" ht="15.6">
       <c r="A64" s="29">
         <v>59</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.6" hidden="1">
+    <row r="65" spans="1:10" ht="15.6">
       <c r="A65" s="29">
         <v>60</v>
       </c>
@@ -10584,7 +10587,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" hidden="1">
+    <row r="66" spans="1:10" ht="15.6">
       <c r="A66" s="29">
         <v>61</v>
       </c>
@@ -10617,7 +10620,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.6" hidden="1">
+    <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="29">
         <v>62</v>
       </c>
@@ -10650,7 +10653,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.6" hidden="1">
+    <row r="68" spans="1:10" ht="15.6">
       <c r="A68" s="29">
         <v>63</v>
       </c>
@@ -10683,7 +10686,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.6" hidden="1">
+    <row r="69" spans="1:10" ht="15.6">
       <c r="A69" s="29">
         <v>64</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.6" hidden="1">
+    <row r="70" spans="1:10" ht="15.6">
       <c r="A70" s="29">
         <v>65</v>
       </c>
@@ -10749,7 +10752,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31.2" hidden="1">
+    <row r="71" spans="1:10" ht="31.2">
       <c r="A71" s="29">
         <v>66</v>
       </c>
@@ -10782,7 +10785,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="31.2" hidden="1">
+    <row r="72" spans="1:10" ht="31.2">
       <c r="A72" s="29">
         <v>67</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.6" hidden="1">
+    <row r="73" spans="1:10" ht="15.6">
       <c r="A73" s="29">
         <v>68</v>
       </c>
@@ -10848,7 +10851,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.6" hidden="1">
+    <row r="74" spans="1:10" ht="15.6">
       <c r="A74" s="29">
         <v>69</v>
       </c>
@@ -10881,7 +10884,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.2" hidden="1">
+    <row r="75" spans="1:10" ht="31.2">
       <c r="A75" s="29">
         <v>70</v>
       </c>
@@ -10914,7 +10917,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.6" hidden="1">
+    <row r="76" spans="1:10" ht="15.6">
       <c r="A76" s="29">
         <v>71</v>
       </c>
@@ -10947,7 +10950,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.6" hidden="1">
+    <row r="77" spans="1:10" ht="15.6">
       <c r="A77" s="29">
         <v>72</v>
       </c>
@@ -10980,7 +10983,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.6" hidden="1">
+    <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="29">
         <v>73</v>
       </c>
@@ -11013,7 +11016,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.6" hidden="1">
+    <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="29">
         <v>74</v>
       </c>
@@ -11046,7 +11049,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.6" hidden="1">
+    <row r="80" spans="1:10" ht="15.6">
       <c r="A80" s="29">
         <v>75</v>
       </c>
@@ -11079,7 +11082,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15.6" hidden="1">
+    <row r="81" spans="1:23" ht="15.6">
       <c r="A81" s="29">
         <v>76</v>
       </c>
@@ -11112,7 +11115,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15.6" hidden="1">
+    <row r="82" spans="1:23" ht="15.6">
       <c r="A82" s="29">
         <v>77</v>
       </c>
@@ -11145,7 +11148,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15.6" hidden="1">
+    <row r="83" spans="1:23" ht="15.6">
       <c r="A83" s="29">
         <v>78</v>
       </c>
@@ -11178,7 +11181,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15.6" hidden="1">
+    <row r="84" spans="1:23" ht="15.6">
       <c r="A84" s="29">
         <v>79</v>
       </c>
@@ -11211,7 +11214,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15.6" hidden="1">
+    <row r="85" spans="1:23" ht="15.6">
       <c r="A85" s="29">
         <v>80</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15.6" hidden="1">
+    <row r="86" spans="1:23" ht="15.6">
       <c r="A86" s="29">
         <v>81</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="87" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A87" s="29">
         <v>82</v>
       </c>
@@ -11323,7 +11326,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
     </row>
-    <row r="88" spans="1:23" ht="15.6" hidden="1">
+    <row r="88" spans="1:23" ht="15.6">
       <c r="A88" s="29">
         <v>168</v>
       </c>
@@ -11356,7 +11359,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15.6" hidden="1">
+    <row r="89" spans="1:23" ht="15.6">
       <c r="A89" s="29">
         <v>84</v>
       </c>
@@ -11389,7 +11392,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15.6" hidden="1">
+    <row r="90" spans="1:23" ht="15.6">
       <c r="A90" s="29">
         <v>85</v>
       </c>
@@ -11422,7 +11425,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15.6" hidden="1">
+    <row r="91" spans="1:23" ht="15.6">
       <c r="A91" s="29">
         <v>86</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="92" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A92" s="29">
         <v>87</v>
       </c>
@@ -11501,7 +11504,7 @@
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
     </row>
-    <row r="93" spans="1:23" ht="15.6" hidden="1">
+    <row r="93" spans="1:23" ht="15.6">
       <c r="A93" s="29">
         <v>88</v>
       </c>
@@ -11534,7 +11537,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="94" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A94" s="29">
         <v>89</v>
       </c>
@@ -11580,7 +11583,7 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
     </row>
-    <row r="95" spans="1:23" ht="15.6" hidden="1">
+    <row r="95" spans="1:23" ht="15.6">
       <c r="A95" s="29">
         <v>90</v>
       </c>
@@ -11613,7 +11616,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="96" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A96" s="29">
         <v>91</v>
       </c>
@@ -11659,7 +11662,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
     </row>
-    <row r="97" spans="1:23" ht="31.2" hidden="1">
+    <row r="97" spans="1:23" ht="31.2">
       <c r="A97" s="29">
         <v>92</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="31.2" hidden="1">
+    <row r="98" spans="1:23" ht="31.2">
       <c r="A98" s="29">
         <v>93</v>
       </c>
@@ -11725,7 +11728,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="31.2" hidden="1">
+    <row r="99" spans="1:23" ht="31.2">
       <c r="A99" s="29">
         <v>94</v>
       </c>
@@ -11758,7 +11761,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15.6" hidden="1">
+    <row r="100" spans="1:23" ht="15.6">
       <c r="A100" s="29">
         <v>95</v>
       </c>
@@ -11791,7 +11794,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="101" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A101" s="29">
         <v>96</v>
       </c>
@@ -11837,7 +11840,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="102" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A102" s="29">
         <v>97</v>
       </c>
@@ -11883,7 +11886,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="1:23" ht="15.6" hidden="1">
+    <row r="103" spans="1:23" ht="15.6">
       <c r="A103" s="29">
         <v>98</v>
       </c>
@@ -11916,7 +11919,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15.6" hidden="1">
+    <row r="104" spans="1:23" ht="15.6">
       <c r="A104" s="29">
         <v>99</v>
       </c>
@@ -11949,7 +11952,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15.6" hidden="1">
+    <row r="105" spans="1:23" ht="15.6">
       <c r="A105" s="29">
         <v>100</v>
       </c>
@@ -11982,7 +11985,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="10" customFormat="1" ht="31.2" hidden="1">
+    <row r="106" spans="1:23" s="10" customFormat="1" ht="31.2">
       <c r="A106" s="29">
         <v>101</v>
       </c>
@@ -12028,7 +12031,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
-    <row r="107" spans="1:23" ht="31.2" hidden="1">
+    <row r="107" spans="1:23" ht="31.2">
       <c r="A107" s="29">
         <v>102</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="31.2" hidden="1">
+    <row r="108" spans="1:23" ht="31.2">
       <c r="A108" s="29">
         <v>103</v>
       </c>
@@ -12094,7 +12097,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="11" customFormat="1" ht="31.2" hidden="1">
+    <row r="109" spans="1:23" s="11" customFormat="1" ht="31.2">
       <c r="A109" s="29">
         <v>104</v>
       </c>
@@ -12140,7 +12143,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
     </row>
-    <row r="110" spans="1:23" ht="31.2" hidden="1">
+    <row r="110" spans="1:23" ht="31.2">
       <c r="A110" s="29">
         <v>105</v>
       </c>
@@ -12173,7 +12176,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="31.2" hidden="1">
+    <row r="111" spans="1:23" ht="31.2">
       <c r="A111" s="29">
         <v>106</v>
       </c>
@@ -12206,7 +12209,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15.6" hidden="1">
+    <row r="112" spans="1:23" ht="15.6">
       <c r="A112" s="29">
         <v>107</v>
       </c>
@@ -12239,7 +12242,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15.6" hidden="1">
+    <row r="113" spans="1:23" ht="15.6">
       <c r="A113" s="29">
         <v>108</v>
       </c>
@@ -12272,7 +12275,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15.6" hidden="1">
+    <row r="114" spans="1:23" ht="15.6">
       <c r="A114" s="29">
         <v>109</v>
       </c>
@@ -12305,7 +12308,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15.6" hidden="1">
+    <row r="115" spans="1:23" ht="15.6">
       <c r="A115" s="29">
         <v>110</v>
       </c>
@@ -12338,7 +12341,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15.6" hidden="1">
+    <row r="116" spans="1:23" ht="15.6">
       <c r="A116" s="29">
         <v>111</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="117" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A117" s="29">
         <v>112</v>
       </c>
@@ -12417,7 +12420,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
     </row>
-    <row r="118" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="118" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A118" s="29">
         <v>113</v>
       </c>
@@ -12463,7 +12466,7 @@
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
     </row>
-    <row r="119" spans="1:23" ht="31.2" hidden="1">
+    <row r="119" spans="1:23" ht="31.2">
       <c r="A119" s="29">
         <v>114</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="10" customFormat="1" ht="31.2" hidden="1">
+    <row r="120" spans="1:23" s="10" customFormat="1" ht="31.2">
       <c r="A120" s="29">
         <v>115</v>
       </c>
@@ -12542,7 +12545,7 @@
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
     </row>
-    <row r="121" spans="1:23" ht="31.2" hidden="1">
+    <row r="121" spans="1:23" ht="31.2">
       <c r="A121" s="29">
         <v>116</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15.6" hidden="1">
+    <row r="122" spans="1:23" ht="15.6">
       <c r="A122" s="29">
         <v>117</v>
       </c>
@@ -12608,7 +12611,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15.6" hidden="1">
+    <row r="123" spans="1:23" ht="15.6">
       <c r="A123" s="29">
         <v>118</v>
       </c>
@@ -12641,7 +12644,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15.6" hidden="1">
+    <row r="124" spans="1:23" ht="15.6">
       <c r="A124" s="29">
         <v>119</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15.6" hidden="1">
+    <row r="125" spans="1:23" ht="15.6">
       <c r="A125" s="29">
         <v>120</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15.6" hidden="1">
+    <row r="126" spans="1:23" ht="15.6">
       <c r="A126" s="29">
         <v>121</v>
       </c>
@@ -12740,7 +12743,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15.6" hidden="1">
+    <row r="127" spans="1:23" ht="15.6">
       <c r="A127" s="29">
         <v>122</v>
       </c>
@@ -12773,7 +12776,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15.6" hidden="1">
+    <row r="128" spans="1:23" ht="15.6">
       <c r="A128" s="29">
         <v>123</v>
       </c>
@@ -12806,7 +12809,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.6" hidden="1">
+    <row r="129" spans="1:10" ht="15.6">
       <c r="A129" s="29">
         <v>124</v>
       </c>
@@ -12839,7 +12842,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.6" hidden="1">
+    <row r="130" spans="1:10" ht="15.6">
       <c r="A130" s="29">
         <v>125</v>
       </c>
@@ -12872,7 +12875,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.6" hidden="1">
+    <row r="131" spans="1:10" ht="15.6">
       <c r="A131" s="29">
         <v>126</v>
       </c>
@@ -12905,7 +12908,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.6" hidden="1">
+    <row r="132" spans="1:10" ht="15.6">
       <c r="A132" s="29">
         <v>127</v>
       </c>
@@ -12938,7 +12941,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.6" hidden="1">
+    <row r="133" spans="1:10" ht="15.6">
       <c r="A133" s="29">
         <v>128</v>
       </c>
@@ -12971,7 +12974,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.6" hidden="1">
+    <row r="134" spans="1:10" ht="15.6">
       <c r="A134" s="29">
         <v>129</v>
       </c>
@@ -13004,7 +13007,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.6" hidden="1">
+    <row r="135" spans="1:10" ht="15.6">
       <c r="A135" s="29">
         <v>130</v>
       </c>
@@ -13037,7 +13040,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.6" hidden="1">
+    <row r="136" spans="1:10" ht="15.6">
       <c r="A136" s="29">
         <v>131</v>
       </c>
@@ -13070,7 +13073,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="31.2" hidden="1">
+    <row r="137" spans="1:10" ht="31.2">
       <c r="A137" s="29">
         <v>132</v>
       </c>
@@ -13103,7 +13106,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="31.2" hidden="1">
+    <row r="138" spans="1:10" ht="31.2">
       <c r="A138" s="29">
         <v>133</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.6" hidden="1">
+    <row r="139" spans="1:10" ht="15.6">
       <c r="A139" s="29">
         <v>134</v>
       </c>
@@ -13169,7 +13172,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="31.2" hidden="1">
+    <row r="140" spans="1:10" ht="31.2">
       <c r="A140" s="29">
         <v>135</v>
       </c>
@@ -13202,7 +13205,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.6" hidden="1">
+    <row r="141" spans="1:10" ht="15.6">
       <c r="A141" s="29">
         <v>136</v>
       </c>
@@ -13235,7 +13238,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="31.2" hidden="1">
+    <row r="142" spans="1:10" ht="31.2">
       <c r="A142" s="29">
         <v>137</v>
       </c>
@@ -13268,7 +13271,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.6" hidden="1">
+    <row r="143" spans="1:10" ht="15.6">
       <c r="A143" s="29">
         <v>138</v>
       </c>
@@ -13301,7 +13304,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.6" hidden="1">
+    <row r="144" spans="1:10" ht="15.6">
       <c r="A144" s="29">
         <v>139</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15.6" hidden="1">
+    <row r="145" spans="1:23" ht="15.6">
       <c r="A145" s="29">
         <v>140</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15.6" hidden="1">
+    <row r="146" spans="1:23" ht="15.6">
       <c r="A146" s="29">
         <v>141</v>
       </c>
@@ -13400,7 +13403,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15.6" hidden="1">
+    <row r="147" spans="1:23" ht="15.6">
       <c r="A147" s="29">
         <v>204</v>
       </c>
@@ -13433,7 +13436,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="31.2" hidden="1">
+    <row r="148" spans="1:23" ht="31.2">
       <c r="A148" s="29">
         <v>189</v>
       </c>
@@ -13466,7 +13469,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="15.6" hidden="1">
+    <row r="149" spans="1:23" ht="15.6">
       <c r="A149" s="29">
         <v>283</v>
       </c>
@@ -13499,7 +13502,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
+    <row r="150" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A150" s="29">
         <v>185</v>
       </c>
@@ -13532,7 +13535,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15.6" hidden="1">
+    <row r="151" spans="1:23" ht="15.6">
       <c r="A151" s="29">
         <v>203</v>
       </c>
@@ -13565,7 +13568,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="31.2" hidden="1">
+    <row r="152" spans="1:23" ht="31.2">
       <c r="A152" s="29">
         <v>181</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15.6" hidden="1">
+    <row r="153" spans="1:23" ht="15.6">
       <c r="A153" s="29">
         <v>161</v>
       </c>
@@ -13631,7 +13634,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="15.6" hidden="1">
+    <row r="154" spans="1:23" ht="15.6">
       <c r="A154" s="29">
         <v>142</v>
       </c>
@@ -13664,7 +13667,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="155" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A155" s="29">
         <v>193</v>
       </c>
@@ -13710,7 +13713,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
     </row>
-    <row r="156" spans="1:23" ht="15.6" hidden="1">
+    <row r="156" spans="1:23" ht="15.6">
       <c r="A156" s="29">
         <v>169</v>
       </c>
@@ -13743,7 +13746,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15.6" hidden="1">
+    <row r="157" spans="1:23" ht="15.6">
       <c r="A157" s="29">
         <v>208</v>
       </c>
@@ -13776,7 +13779,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15.6" hidden="1">
+    <row r="158" spans="1:23" ht="15.6">
       <c r="A158" s="29">
         <v>153</v>
       </c>
@@ -13809,7 +13812,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="15.6" hidden="1">
+    <row r="159" spans="1:23" ht="15.6">
       <c r="A159" s="29">
         <v>83</v>
       </c>
@@ -13842,7 +13845,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15.6" hidden="1">
+    <row r="160" spans="1:23" ht="15.6">
       <c r="A160" s="29">
         <v>155</v>
       </c>
@@ -13875,7 +13878,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15.6" hidden="1">
+    <row r="161" spans="1:10" ht="15.6">
       <c r="A161" s="29">
         <v>166</v>
       </c>
@@ -13908,7 +13911,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.6" hidden="1">
+    <row r="162" spans="1:10" ht="15.6">
       <c r="A162" s="29">
         <v>154</v>
       </c>
@@ -13941,7 +13944,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15.6" hidden="1">
+    <row r="163" spans="1:10" ht="15.6">
       <c r="A163" s="29">
         <v>148</v>
       </c>
@@ -13974,7 +13977,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="31.2" hidden="1">
+    <row r="164" spans="1:10" ht="31.2">
       <c r="A164" s="29">
         <v>209</v>
       </c>
@@ -14007,7 +14010,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15.6" hidden="1">
+    <row r="165" spans="1:10" ht="15.6">
       <c r="A165" s="29">
         <v>173</v>
       </c>
@@ -14052,7 +14055,7 @@
       <c r="I166" s="28"/>
       <c r="J166" s="17"/>
     </row>
-    <row r="167" spans="1:10" ht="15.6" hidden="1">
+    <row r="167" spans="1:10" ht="15.6">
       <c r="A167" s="29">
         <v>172</v>
       </c>
@@ -14085,7 +14088,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.6" hidden="1">
+    <row r="168" spans="1:10" ht="15.6">
       <c r="A168" s="29">
         <v>196</v>
       </c>
@@ -14118,7 +14121,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.6" hidden="1">
+    <row r="169" spans="1:10" ht="15.6">
       <c r="A169" s="29">
         <v>182</v>
       </c>
@@ -14151,7 +14154,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15.6" hidden="1">
+    <row r="170" spans="1:10" ht="15.6">
       <c r="A170" s="29">
         <v>165</v>
       </c>
@@ -14184,7 +14187,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.6" hidden="1">
+    <row r="171" spans="1:10" ht="15.6">
       <c r="A171" s="29">
         <v>188</v>
       </c>
@@ -14217,7 +14220,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.6" hidden="1">
+    <row r="172" spans="1:10" ht="15.6">
       <c r="A172" s="29">
         <v>206</v>
       </c>
@@ -14250,7 +14253,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="31.2" hidden="1">
+    <row r="173" spans="1:10" ht="31.2">
       <c r="A173" s="29">
         <v>190</v>
       </c>
@@ -14283,7 +14286,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.6" hidden="1">
+    <row r="174" spans="1:10" ht="15.6">
       <c r="A174" s="29">
         <v>200</v>
       </c>
@@ -14316,7 +14319,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="31.2" hidden="1">
+    <row r="175" spans="1:10" ht="31.2">
       <c r="A175" s="29">
         <v>179</v>
       </c>
@@ -14349,7 +14352,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.6" hidden="1">
+    <row r="176" spans="1:10" ht="15.6">
       <c r="A176" s="29">
         <v>158</v>
       </c>
@@ -14382,7 +14385,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="15.6" hidden="1">
+    <row r="177" spans="1:23" ht="15.6">
       <c r="A177" s="29">
         <v>175</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="178" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="178" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A178" s="29">
         <v>202</v>
       </c>
@@ -14461,7 +14464,7 @@
       <c r="V178" s="3"/>
       <c r="W178" s="3"/>
     </row>
-    <row r="179" spans="1:23" ht="15.6" hidden="1">
+    <row r="179" spans="1:23" ht="15.6">
       <c r="A179" s="29">
         <v>210</v>
       </c>
@@ -14494,7 +14497,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15.6" hidden="1">
+    <row r="180" spans="1:23" ht="15.6">
       <c r="A180" s="29">
         <v>150</v>
       </c>
@@ -14527,7 +14530,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="15.6" hidden="1">
+    <row r="181" spans="1:23" ht="15.6">
       <c r="A181" s="29">
         <v>205</v>
       </c>
@@ -14560,7 +14563,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="182" spans="1:23" s="11" customFormat="1" ht="31.2" hidden="1">
+    <row r="182" spans="1:23" s="11" customFormat="1" ht="31.2">
       <c r="A182" s="29">
         <v>170</v>
       </c>
@@ -14606,7 +14609,7 @@
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
     </row>
-    <row r="183" spans="1:23" ht="15.6" hidden="1">
+    <row r="183" spans="1:23" ht="15.6">
       <c r="A183" s="29">
         <v>192</v>
       </c>
@@ -14639,7 +14642,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="184" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="184" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A184" s="29">
         <v>167</v>
       </c>
@@ -14685,7 +14688,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
     </row>
-    <row r="185" spans="1:23" ht="31.2" hidden="1">
+    <row r="185" spans="1:23" ht="31.2">
       <c r="A185" s="29">
         <v>180</v>
       </c>
@@ -14718,7 +14721,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15.6" hidden="1">
+    <row r="186" spans="1:23" ht="15.6">
       <c r="A186" s="29">
         <v>194</v>
       </c>
@@ -14751,7 +14754,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="15.6" hidden="1">
+    <row r="187" spans="1:23" ht="15.6">
       <c r="A187" s="29">
         <v>186</v>
       </c>
@@ -14784,7 +14787,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="15.6" hidden="1">
+    <row r="188" spans="1:23" ht="15.6">
       <c r="A188" s="29">
         <v>201</v>
       </c>
@@ -14817,7 +14820,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="15.6" hidden="1">
+    <row r="189" spans="1:23" ht="15.6">
       <c r="A189" s="29">
         <v>157</v>
       </c>
@@ -14850,7 +14853,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="15.6" hidden="1">
+    <row r="190" spans="1:23" ht="15.6">
       <c r="A190" s="29">
         <v>147</v>
       </c>
@@ -14883,7 +14886,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="191" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="191" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A191" s="29">
         <v>160</v>
       </c>
@@ -14929,7 +14932,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
     </row>
-    <row r="192" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="192" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A192" s="29">
         <v>164</v>
       </c>
@@ -14975,7 +14978,7 @@
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
     </row>
-    <row r="193" spans="1:10" ht="15.6" hidden="1">
+    <row r="193" spans="1:10" ht="15.6">
       <c r="A193" s="29">
         <v>163</v>
       </c>
@@ -15008,7 +15011,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.6" hidden="1">
+    <row r="194" spans="1:10" ht="15.6">
       <c r="A194" s="29">
         <v>187</v>
       </c>
@@ -15041,7 +15044,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15.6" hidden="1">
+    <row r="195" spans="1:10" ht="15.6">
       <c r="A195" s="29">
         <v>174</v>
       </c>
@@ -15074,7 +15077,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15.6" hidden="1">
+    <row r="196" spans="1:10" ht="15.6">
       <c r="A196" s="29">
         <v>195</v>
       </c>
@@ -15107,7 +15110,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15.6" hidden="1">
+    <row r="197" spans="1:10" ht="15.6">
       <c r="A197" s="29">
         <v>156</v>
       </c>
@@ -15140,7 +15143,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15.6" hidden="1">
+    <row r="198" spans="1:10" ht="15.6">
       <c r="A198" s="29">
         <v>183</v>
       </c>
@@ -15173,7 +15176,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15.6" hidden="1">
+    <row r="199" spans="1:10" ht="15.6">
       <c r="A199" s="29">
         <v>184</v>
       </c>
@@ -15206,7 +15209,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15.6" hidden="1">
+    <row r="200" spans="1:10" ht="15.6">
       <c r="A200" s="29">
         <v>152</v>
       </c>
@@ -15239,7 +15242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="31.2" hidden="1">
+    <row r="201" spans="1:10" ht="31.2">
       <c r="A201" s="29">
         <v>178</v>
       </c>
@@ -15272,7 +15275,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15.6" hidden="1">
+    <row r="202" spans="1:10" ht="15.6">
       <c r="A202" s="29">
         <v>145</v>
       </c>
@@ -15305,7 +15308,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15.6" hidden="1">
+    <row r="203" spans="1:10" ht="15.6">
       <c r="A203" s="29">
         <v>151</v>
       </c>
@@ -15338,7 +15341,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15.6" hidden="1">
+    <row r="204" spans="1:10" ht="15.6">
       <c r="A204" s="29">
         <v>197</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15.6" hidden="1">
+    <row r="205" spans="1:10" ht="15.6">
       <c r="A205" s="29">
         <v>199</v>
       </c>
@@ -15404,7 +15407,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15.6" hidden="1">
+    <row r="206" spans="1:10" ht="15.6">
       <c r="A206" s="29">
         <v>198</v>
       </c>
@@ -15437,7 +15440,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15.6" hidden="1">
+    <row r="207" spans="1:10" ht="15.6">
       <c r="A207" s="29">
         <v>159</v>
       </c>
@@ -15470,7 +15473,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15.6" hidden="1">
+    <row r="208" spans="1:10" ht="15.6">
       <c r="A208" s="29">
         <v>149</v>
       </c>
@@ -15503,7 +15506,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.6" hidden="1">
+    <row r="209" spans="1:12" ht="15.6">
       <c r="A209" s="29">
         <v>382</v>
       </c>
@@ -15536,7 +15539,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15.6" hidden="1">
+    <row r="210" spans="1:12" ht="15.6">
       <c r="A210" s="29">
         <v>162</v>
       </c>
@@ -15569,7 +15572,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.6" hidden="1">
+    <row r="211" spans="1:12" ht="15.6">
       <c r="A211" s="29">
         <v>176</v>
       </c>
@@ -15602,7 +15605,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="10" customFormat="1" ht="15.6" hidden="1">
+    <row r="212" spans="1:12" s="10" customFormat="1" ht="15.6">
       <c r="A212" s="29">
         <v>207</v>
       </c>
@@ -15635,7 +15638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="31.2" hidden="1">
+    <row r="213" spans="1:12" ht="31.2">
       <c r="A213" s="29">
         <v>191</v>
       </c>
@@ -15668,7 +15671,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.6" hidden="1">
+    <row r="214" spans="1:12" ht="15.6">
       <c r="A214" s="29">
         <v>146</v>
       </c>
@@ -15701,7 +15704,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="31.2" hidden="1">
+    <row r="215" spans="1:12" ht="31.2">
       <c r="A215" s="29">
         <v>171</v>
       </c>
@@ -15734,7 +15737,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="23" customFormat="1" ht="15.6" hidden="1">
+    <row r="216" spans="1:12" s="23" customFormat="1" ht="15.6">
       <c r="A216" s="29">
         <v>211</v>
       </c>
@@ -15768,7 +15771,7 @@
       </c>
       <c r="L216" s="24"/>
     </row>
-    <row r="217" spans="1:12" ht="15.6" hidden="1">
+    <row r="217" spans="1:12" ht="15.6">
       <c r="A217" s="29">
         <v>278</v>
       </c>
@@ -15801,7 +15804,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15.6" hidden="1">
+    <row r="218" spans="1:12" ht="15.6">
       <c r="A218" s="29">
         <v>238</v>
       </c>
@@ -15834,7 +15837,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.6" hidden="1">
+    <row r="219" spans="1:12" ht="15.6">
       <c r="A219" s="29">
         <v>221</v>
       </c>
@@ -15867,7 +15870,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15.6" hidden="1">
+    <row r="220" spans="1:12" ht="15.6">
       <c r="A220" s="29">
         <v>240</v>
       </c>
@@ -15900,7 +15903,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.6" hidden="1">
+    <row r="221" spans="1:12" ht="15.6">
       <c r="A221" s="29">
         <v>236</v>
       </c>
@@ -15933,7 +15936,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15.6" hidden="1">
+    <row r="222" spans="1:12" ht="15.6">
       <c r="A222" s="29">
         <v>277</v>
       </c>
@@ -15966,7 +15969,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15.6" hidden="1">
+    <row r="223" spans="1:12" ht="15.6">
       <c r="A223" s="29">
         <v>271</v>
       </c>
@@ -15999,7 +16002,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="31.2" hidden="1">
+    <row r="224" spans="1:12" ht="31.2">
       <c r="A224" s="29">
         <v>269</v>
       </c>
@@ -16032,7 +16035,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="15.6" hidden="1">
+    <row r="225" spans="1:23" ht="15.6">
       <c r="A225" s="29">
         <v>259</v>
       </c>
@@ -16065,7 +16068,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="15.6" hidden="1">
+    <row r="226" spans="1:23" ht="15.6">
       <c r="A226" s="29">
         <v>262</v>
       </c>
@@ -16098,7 +16101,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="15.6" hidden="1">
+    <row r="227" spans="1:23" ht="15.6">
       <c r="A227" s="29">
         <v>222</v>
       </c>
@@ -16131,7 +16134,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15.6" hidden="1">
+    <row r="228" spans="1:23" ht="15.6">
       <c r="A228" s="29">
         <v>237</v>
       </c>
@@ -16164,7 +16167,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="31.2" hidden="1">
+    <row r="229" spans="1:23" ht="31.2">
       <c r="A229" s="29">
         <v>258</v>
       </c>
@@ -16197,7 +16200,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="15.6" hidden="1">
+    <row r="230" spans="1:23" ht="15.6">
       <c r="A230" s="29">
         <v>274</v>
       </c>
@@ -16230,7 +16233,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="15.6" hidden="1">
+    <row r="231" spans="1:23" ht="15.6">
       <c r="A231" s="29">
         <v>242</v>
       </c>
@@ -16263,7 +16266,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="31.2" hidden="1">
+    <row r="232" spans="1:23" ht="31.2">
       <c r="A232" s="29">
         <v>284</v>
       </c>
@@ -16296,7 +16299,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="15.6" hidden="1">
+    <row r="233" spans="1:23" ht="15.6">
       <c r="A233" s="29">
         <v>233</v>
       </c>
@@ -16329,7 +16332,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="31.2" hidden="1">
+    <row r="234" spans="1:23" ht="31.2">
       <c r="A234" s="29">
         <v>276</v>
       </c>
@@ -16362,7 +16365,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="235" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
+    <row r="235" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A235" s="29">
         <v>227</v>
       </c>
@@ -16408,7 +16411,7 @@
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
     </row>
-    <row r="236" spans="1:23" ht="15.6" hidden="1">
+    <row r="236" spans="1:23" ht="15.6">
       <c r="A236" s="29">
         <v>249</v>
       </c>
@@ -16441,7 +16444,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="15.6" hidden="1">
+    <row r="237" spans="1:23" ht="15.6">
       <c r="A237" s="29">
         <v>273</v>
       </c>
@@ -16474,7 +16477,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="15.6" hidden="1">
+    <row r="238" spans="1:23" ht="15.6">
       <c r="A238" s="29">
         <v>260</v>
       </c>
@@ -16507,7 +16510,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="15.6" hidden="1">
+    <row r="239" spans="1:23" ht="15.6">
       <c r="A239" s="29">
         <v>282</v>
       </c>
@@ -16540,7 +16543,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="15.6" hidden="1">
+    <row r="240" spans="1:23" ht="15.6">
       <c r="A240" s="29">
         <v>226</v>
       </c>
@@ -16573,7 +16576,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="15.6" hidden="1">
+    <row r="241" spans="1:23" ht="15.6">
       <c r="A241" s="29">
         <v>281</v>
       </c>
@@ -16606,7 +16609,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="15.6" hidden="1">
+    <row r="242" spans="1:23" ht="15.6">
       <c r="A242" s="29">
         <v>241</v>
       </c>
@@ -16639,7 +16642,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="15.6" hidden="1">
+    <row r="243" spans="1:23" ht="15.6">
       <c r="A243" s="29">
         <v>250</v>
       </c>
@@ -16672,7 +16675,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="15.6" hidden="1">
+    <row r="244" spans="1:23" ht="15.6">
       <c r="A244" s="29">
         <v>229</v>
       </c>
@@ -16705,7 +16708,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="15.6" hidden="1">
+    <row r="245" spans="1:23" ht="15.6">
       <c r="A245" s="29">
         <v>253</v>
       </c>
@@ -16738,7 +16741,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="31.2" hidden="1">
+    <row r="246" spans="1:23" ht="31.2">
       <c r="A246" s="29">
         <v>243</v>
       </c>
@@ -16771,7 +16774,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="15.6" hidden="1">
+    <row r="247" spans="1:23" ht="15.6">
       <c r="A247" s="29">
         <v>218</v>
       </c>
@@ -16804,7 +16807,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="15.6" hidden="1">
+    <row r="248" spans="1:23" ht="15.6">
       <c r="A248" s="29">
         <v>255</v>
       </c>
@@ -16837,7 +16840,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="15.6" hidden="1">
+    <row r="249" spans="1:23" ht="15.6">
       <c r="A249" s="29">
         <v>265</v>
       </c>
@@ -16870,7 +16873,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="15.6" hidden="1">
+    <row r="250" spans="1:23" ht="15.6">
       <c r="A250" s="29">
         <v>252</v>
       </c>
@@ -16903,7 +16906,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="31.2" hidden="1">
+    <row r="251" spans="1:23" ht="31.2">
       <c r="A251" s="29">
         <v>215</v>
       </c>
@@ -16936,7 +16939,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="15.6" hidden="1">
+    <row r="252" spans="1:23" ht="15.6">
       <c r="A252" s="29">
         <v>275</v>
       </c>
@@ -16969,7 +16972,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="253" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="253" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A253" s="29">
         <v>248</v>
       </c>
@@ -17015,7 +17018,7 @@
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
     </row>
-    <row r="254" spans="1:23" s="11" customFormat="1" ht="15.6" hidden="1">
+    <row r="254" spans="1:23" s="11" customFormat="1" ht="15.6">
       <c r="A254" s="29">
         <v>254</v>
       </c>
@@ -17061,7 +17064,7 @@
       <c r="V254" s="3"/>
       <c r="W254" s="3"/>
     </row>
-    <row r="255" spans="1:23" ht="15.6" hidden="1">
+    <row r="255" spans="1:23" ht="15.6">
       <c r="A255" s="29">
         <v>270</v>
       </c>
@@ -17094,7 +17097,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="15.6" hidden="1">
+    <row r="256" spans="1:23" ht="15.6">
       <c r="A256" s="29">
         <v>285</v>
       </c>
@@ -17127,7 +17130,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="257" spans="1:23" s="11" customFormat="1" ht="15.6" hidden="1">
+    <row r="257" spans="1:23" s="11" customFormat="1" ht="15.6">
       <c r="A257" s="29">
         <v>213</v>
       </c>
@@ -17173,7 +17176,7 @@
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
     </row>
-    <row r="258" spans="1:23" ht="31.2" hidden="1">
+    <row r="258" spans="1:23" ht="31.2">
       <c r="A258" s="29">
         <v>266</v>
       </c>
@@ -17206,7 +17209,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="15.6" hidden="1">
+    <row r="259" spans="1:23" ht="15.6">
       <c r="A259" s="29">
         <v>239</v>
       </c>
@@ -17239,7 +17242,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="15.6" hidden="1">
+    <row r="260" spans="1:23" ht="15.6">
       <c r="A260" s="29">
         <v>231</v>
       </c>
@@ -17284,7 +17287,7 @@
       <c r="I261" s="28"/>
       <c r="J261" s="17"/>
     </row>
-    <row r="262" spans="1:23" ht="15.6" hidden="1">
+    <row r="262" spans="1:23" ht="15.6">
       <c r="A262" s="29">
         <v>230</v>
       </c>
@@ -17317,7 +17320,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="15.6" hidden="1">
+    <row r="263" spans="1:23" ht="15.6">
       <c r="A263" s="29">
         <v>225</v>
       </c>
@@ -17350,7 +17353,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="31.2" hidden="1">
+    <row r="264" spans="1:23" ht="31.2">
       <c r="A264" s="29">
         <v>268</v>
       </c>
@@ -17383,7 +17386,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="15.6" hidden="1">
+    <row r="265" spans="1:23" ht="15.6">
       <c r="A265" s="29">
         <v>607</v>
       </c>
@@ -17416,7 +17419,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="266" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="266" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A266" s="29">
         <v>267</v>
       </c>
@@ -17462,7 +17465,7 @@
       <c r="V266" s="3"/>
       <c r="W266" s="3"/>
     </row>
-    <row r="267" spans="1:23" ht="15.6" hidden="1">
+    <row r="267" spans="1:23" ht="15.6">
       <c r="A267" s="29">
         <v>219</v>
       </c>
@@ -17495,7 +17498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="15.6" hidden="1">
+    <row r="268" spans="1:23" ht="15.6">
       <c r="A268" s="29">
         <v>234</v>
       </c>
@@ -17528,7 +17531,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="15.6" hidden="1">
+    <row r="269" spans="1:23" ht="15.6">
       <c r="A269" s="29">
         <v>217</v>
       </c>
@@ -17561,7 +17564,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="15.6" hidden="1">
+    <row r="270" spans="1:23" ht="15.6">
       <c r="A270" s="29">
         <v>228</v>
       </c>
@@ -17594,7 +17597,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="15.6" hidden="1">
+    <row r="271" spans="1:23" ht="15.6">
       <c r="A271" s="29">
         <v>223</v>
       </c>
@@ -17627,7 +17630,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="15.6" hidden="1">
+    <row r="272" spans="1:23" ht="15.6">
       <c r="A272" s="29">
         <v>280</v>
       </c>
@@ -17660,7 +17663,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="31.2" hidden="1">
+    <row r="273" spans="1:23" ht="31.2">
       <c r="A273" s="29">
         <v>257</v>
       </c>
@@ -17693,7 +17696,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="15.6" hidden="1">
+    <row r="274" spans="1:23" ht="15.6">
       <c r="A274" s="29">
         <v>144</v>
       </c>
@@ -17726,7 +17729,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="15.6" hidden="1">
+    <row r="275" spans="1:23" ht="15.6">
       <c r="A275" s="29">
         <v>263</v>
       </c>
@@ -17759,7 +17762,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="15.6" hidden="1">
+    <row r="276" spans="1:23" ht="15.6">
       <c r="A276" s="29">
         <v>232</v>
       </c>
@@ -17792,7 +17795,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="31.2" hidden="1">
+    <row r="277" spans="1:23" ht="31.2">
       <c r="A277" s="29">
         <v>245</v>
       </c>
@@ -17825,7 +17828,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="15.6" hidden="1">
+    <row r="278" spans="1:23" ht="15.6">
       <c r="A278" s="29">
         <v>235</v>
       </c>
@@ -17858,7 +17861,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="279" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="279" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A279" s="29">
         <v>625</v>
       </c>
@@ -17904,7 +17907,7 @@
       <c r="V279" s="3"/>
       <c r="W279" s="3"/>
     </row>
-    <row r="280" spans="1:23" ht="15.6" hidden="1">
+    <row r="280" spans="1:23" ht="15.6">
       <c r="A280" s="29">
         <v>272</v>
       </c>
@@ -17937,7 +17940,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="31.2" hidden="1">
+    <row r="281" spans="1:23" ht="31.2">
       <c r="A281" s="29">
         <v>246</v>
       </c>
@@ -17970,7 +17973,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="31.2" hidden="1">
+    <row r="282" spans="1:23" ht="31.2">
       <c r="A282" s="29">
         <v>244</v>
       </c>
@@ -18003,7 +18006,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="15.6" hidden="1">
+    <row r="283" spans="1:23" ht="15.6">
       <c r="A283" s="29">
         <v>251</v>
       </c>
@@ -18036,7 +18039,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="15.6" hidden="1">
+    <row r="284" spans="1:23" ht="15.6">
       <c r="A284" s="29">
         <v>212</v>
       </c>
@@ -18069,7 +18072,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="15.6" hidden="1">
+    <row r="285" spans="1:23" ht="15.6">
       <c r="A285" s="29">
         <v>264</v>
       </c>
@@ -18102,7 +18105,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="31.2" hidden="1">
+    <row r="286" spans="1:23" ht="31.2">
       <c r="A286" s="29">
         <v>247</v>
       </c>
@@ -18135,7 +18138,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="15.6" hidden="1">
+    <row r="287" spans="1:23" ht="15.6">
       <c r="A287" s="29">
         <v>216</v>
       </c>
@@ -18168,7 +18171,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="15.6" hidden="1">
+    <row r="288" spans="1:23" ht="15.6">
       <c r="A288" s="29">
         <v>224</v>
       </c>
@@ -18201,7 +18204,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15.6" hidden="1">
+    <row r="289" spans="1:10" ht="15.6">
       <c r="A289" s="29">
         <v>279</v>
       </c>
@@ -18234,7 +18237,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="31.2" hidden="1">
+    <row r="290" spans="1:10" ht="31.2">
       <c r="A290" s="29">
         <v>256</v>
       </c>
@@ -18267,7 +18270,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="15.6" hidden="1">
+    <row r="291" spans="1:10" ht="15.6">
       <c r="A291" s="29">
         <v>610</v>
       </c>
@@ -18300,7 +18303,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15.6" hidden="1">
+    <row r="292" spans="1:10" ht="15.6">
       <c r="A292" s="29">
         <v>353</v>
       </c>
@@ -18333,7 +18336,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15.6" hidden="1">
+    <row r="293" spans="1:10" ht="15.6">
       <c r="A293" s="29">
         <v>347</v>
       </c>
@@ -18366,7 +18369,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15.6" hidden="1">
+    <row r="294" spans="1:10" ht="15.6">
       <c r="A294" s="29">
         <v>299</v>
       </c>
@@ -18399,7 +18402,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="15.6" hidden="1">
+    <row r="295" spans="1:10" ht="15.6">
       <c r="A295" s="29">
         <v>290</v>
       </c>
@@ -18432,7 +18435,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="15.6" hidden="1">
+    <row r="296" spans="1:10" ht="15.6">
       <c r="A296" s="29">
         <v>350</v>
       </c>
@@ -18465,7 +18468,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15.6" hidden="1">
+    <row r="297" spans="1:10" ht="15.6">
       <c r="A297" s="29">
         <v>307</v>
       </c>
@@ -18498,7 +18501,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15.6" hidden="1">
+    <row r="298" spans="1:10" ht="15.6">
       <c r="A298" s="29">
         <v>345</v>
       </c>
@@ -18531,7 +18534,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="31.2" hidden="1">
+    <row r="299" spans="1:10" ht="31.2">
       <c r="A299" s="29">
         <v>336</v>
       </c>
@@ -18564,7 +18567,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15.6" hidden="1">
+    <row r="300" spans="1:10" ht="15.6">
       <c r="A300" s="29">
         <v>296</v>
       </c>
@@ -18597,7 +18600,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="31.2" hidden="1">
+    <row r="301" spans="1:10" ht="31.2">
       <c r="A301" s="29">
         <v>325</v>
       </c>
@@ -18630,7 +18633,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15.6" hidden="1">
+    <row r="302" spans="1:10" ht="15.6">
       <c r="A302" s="29">
         <v>340</v>
       </c>
@@ -18663,7 +18666,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15.6" hidden="1">
+    <row r="303" spans="1:10" ht="15.6">
       <c r="A303" s="29">
         <v>346</v>
       </c>
@@ -18696,7 +18699,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15.6" hidden="1">
+    <row r="304" spans="1:10" ht="15.6">
       <c r="A304" s="29">
         <v>292</v>
       </c>
@@ -18729,7 +18732,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="15.6" hidden="1">
+    <row r="305" spans="1:23" ht="15.6">
       <c r="A305" s="29">
         <v>351</v>
       </c>
@@ -18762,7 +18765,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="15.6" hidden="1">
+    <row r="306" spans="1:23" ht="15.6">
       <c r="A306" s="29">
         <v>309</v>
       </c>
@@ -18795,7 +18798,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="307" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="307" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A307" s="29">
         <v>331</v>
       </c>
@@ -18841,7 +18844,7 @@
       <c r="V307" s="3"/>
       <c r="W307" s="3"/>
     </row>
-    <row r="308" spans="1:23" ht="15.6" hidden="1">
+    <row r="308" spans="1:23" ht="15.6">
       <c r="A308" s="29">
         <v>356</v>
       </c>
@@ -18874,7 +18877,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="15.6" hidden="1">
+    <row r="309" spans="1:23" ht="15.6">
       <c r="A309" s="29">
         <v>286</v>
       </c>
@@ -18907,7 +18910,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="15.6" hidden="1">
+    <row r="310" spans="1:23" ht="15.6">
       <c r="A310" s="29">
         <v>318</v>
       </c>
@@ -18940,7 +18943,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="15.6" hidden="1">
+    <row r="311" spans="1:23" ht="15.6">
       <c r="A311" s="29">
         <v>301</v>
       </c>
@@ -18973,7 +18976,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="312" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="312" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A312" s="29">
         <v>362</v>
       </c>
@@ -19019,7 +19022,7 @@
       <c r="V312" s="3"/>
       <c r="W312" s="3"/>
     </row>
-    <row r="313" spans="1:23" ht="15.6" hidden="1">
+    <row r="313" spans="1:23" ht="15.6">
       <c r="A313" s="29">
         <v>312</v>
       </c>
@@ -19052,12 +19055,12 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="15.6" hidden="1">
+    <row r="314" spans="1:23" ht="15.6">
       <c r="A314" s="29">
         <v>291</v>
       </c>
       <c r="B314" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C314" s="30" t="s">
         <v>417</v>
@@ -19082,10 +19085,10 @@
       </c>
       <c r="J314" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>9/10(수)~9/11(목)</v>
-      </c>
-    </row>
-    <row r="315" spans="1:23" ht="31.2" hidden="1">
+        <v>9/8(월)~9/9(화)</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" ht="31.2">
       <c r="A315" s="29">
         <v>339</v>
       </c>
@@ -19118,7 +19121,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="15.6" hidden="1">
+    <row r="316" spans="1:23" ht="15.6">
       <c r="A316" s="29">
         <v>333</v>
       </c>
@@ -19151,7 +19154,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="15.6" hidden="1">
+    <row r="317" spans="1:23" ht="15.6">
       <c r="A317" s="29">
         <v>316</v>
       </c>
@@ -19184,7 +19187,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="318" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="318" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A318" s="29">
         <v>327</v>
       </c>
@@ -19230,7 +19233,7 @@
       <c r="V318" s="3"/>
       <c r="W318" s="3"/>
     </row>
-    <row r="319" spans="1:23" ht="15.6" hidden="1">
+    <row r="319" spans="1:23" ht="15.6">
       <c r="A319" s="29">
         <v>319</v>
       </c>
@@ -19263,7 +19266,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="15.6" hidden="1">
+    <row r="320" spans="1:23" ht="15.6">
       <c r="A320" s="29">
         <v>323</v>
       </c>
@@ -19296,7 +19299,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="15.6" hidden="1">
+    <row r="321" spans="1:23" ht="15.6">
       <c r="A321" s="29">
         <v>295</v>
       </c>
@@ -19329,7 +19332,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="15.6" hidden="1">
+    <row r="322" spans="1:23" ht="15.6">
       <c r="A322" s="29">
         <v>335</v>
       </c>
@@ -19362,7 +19365,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="15.6" hidden="1">
+    <row r="323" spans="1:23" ht="15.6">
       <c r="A323" s="29">
         <v>314</v>
       </c>
@@ -19395,7 +19398,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="324" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="324" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A324" s="29">
         <v>332</v>
       </c>
@@ -19441,7 +19444,7 @@
       <c r="V324" s="3"/>
       <c r="W324" s="3"/>
     </row>
-    <row r="325" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="325" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A325" s="29">
         <v>338</v>
       </c>
@@ -19487,7 +19490,7 @@
       <c r="V325" s="3"/>
       <c r="W325" s="3"/>
     </row>
-    <row r="326" spans="1:23" ht="31.2" hidden="1">
+    <row r="326" spans="1:23" ht="31.2">
       <c r="A326" s="29">
         <v>288</v>
       </c>
@@ -19520,7 +19523,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="31.2" hidden="1">
+    <row r="327" spans="1:23" ht="31.2">
       <c r="A327" s="29">
         <v>328</v>
       </c>
@@ -19553,7 +19556,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="15.6" hidden="1">
+    <row r="328" spans="1:23" ht="15.6">
       <c r="A328" s="29">
         <v>361</v>
       </c>
@@ -19586,7 +19589,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="15.6" hidden="1">
+    <row r="329" spans="1:23" ht="15.6">
       <c r="A329" s="29">
         <v>315</v>
       </c>
@@ -19619,7 +19622,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="15.6" hidden="1">
+    <row r="330" spans="1:23" ht="15.6">
       <c r="A330" s="29">
         <v>310</v>
       </c>
@@ -19652,7 +19655,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="15.6" hidden="1">
+    <row r="331" spans="1:23" ht="15.6">
       <c r="A331" s="29">
         <v>306</v>
       </c>
@@ -19685,7 +19688,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="15.6" hidden="1">
+    <row r="332" spans="1:23" ht="15.6">
       <c r="A332" s="29">
         <v>303</v>
       </c>
@@ -19718,7 +19721,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="15.6" hidden="1">
+    <row r="333" spans="1:23" ht="15.6">
       <c r="A333" s="29">
         <v>348</v>
       </c>
@@ -19751,12 +19754,12 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="15.6" hidden="1">
+    <row r="334" spans="1:23" ht="15.6">
       <c r="A334" s="29">
         <v>359</v>
       </c>
       <c r="B334" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C334" s="30" t="s">
         <v>661</v>
@@ -19781,10 +19784,10 @@
       </c>
       <c r="J334" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>9/10(수)~9/11(목)</v>
-      </c>
-    </row>
-    <row r="335" spans="1:23" ht="15.6" hidden="1">
+        <v>9/8(월)~9/9(화)</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" ht="15.6">
       <c r="A335" s="29">
         <v>305</v>
       </c>
@@ -19817,7 +19820,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="336" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="336" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A336" s="29">
         <v>344</v>
       </c>
@@ -19863,7 +19866,7 @@
       <c r="V336" s="3"/>
       <c r="W336" s="3"/>
     </row>
-    <row r="337" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="337" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A337" s="29">
         <v>294</v>
       </c>
@@ -19909,7 +19912,7 @@
       <c r="V337" s="3"/>
       <c r="W337" s="3"/>
     </row>
-    <row r="338" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="338" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A338" s="29">
         <v>322</v>
       </c>
@@ -19955,7 +19958,7 @@
       <c r="V338" s="3"/>
       <c r="W338" s="3"/>
     </row>
-    <row r="339" spans="1:23" ht="15.6" hidden="1">
+    <row r="339" spans="1:23" ht="15.6">
       <c r="A339" s="29">
         <v>308</v>
       </c>
@@ -19988,7 +19991,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="15.6" hidden="1">
+    <row r="340" spans="1:23" ht="15.6">
       <c r="A340" s="29">
         <v>300</v>
       </c>
@@ -20021,7 +20024,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="15.6" hidden="1">
+    <row r="341" spans="1:23" ht="15.6">
       <c r="A341" s="29">
         <v>302</v>
       </c>
@@ -20054,7 +20057,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="15.6" hidden="1">
+    <row r="342" spans="1:23" ht="15.6">
       <c r="A342" s="29">
         <v>342</v>
       </c>
@@ -20087,7 +20090,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="31.2" hidden="1">
+    <row r="343" spans="1:23" ht="31.2">
       <c r="A343" s="29">
         <v>287</v>
       </c>
@@ -20120,7 +20123,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="15.6" hidden="1">
+    <row r="344" spans="1:23" ht="15.6">
       <c r="A344" s="29">
         <v>320</v>
       </c>
@@ -20153,7 +20156,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="15.6" hidden="1">
+    <row r="345" spans="1:23" ht="15.6">
       <c r="A345" s="29">
         <v>352</v>
       </c>
@@ -20186,7 +20189,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="15.6" hidden="1">
+    <row r="346" spans="1:23" ht="15.6">
       <c r="A346" s="29">
         <v>298</v>
       </c>
@@ -20219,7 +20222,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="15.6" hidden="1">
+    <row r="347" spans="1:23" ht="15.6">
       <c r="A347" s="29">
         <v>357</v>
       </c>
@@ -20264,7 +20267,7 @@
       <c r="I348" s="28"/>
       <c r="J348" s="17"/>
     </row>
-    <row r="349" spans="1:23" ht="15.6" hidden="1">
+    <row r="349" spans="1:23" ht="15.6">
       <c r="A349" s="29">
         <v>341</v>
       </c>
@@ -20297,7 +20300,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="15.6" hidden="1">
+    <row r="350" spans="1:23" ht="15.6">
       <c r="A350" s="29">
         <v>343</v>
       </c>
@@ -20330,7 +20333,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="31.2" hidden="1">
+    <row r="351" spans="1:23" ht="31.2">
       <c r="A351" s="29">
         <v>337</v>
       </c>
@@ -20363,7 +20366,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="15.6" hidden="1">
+    <row r="352" spans="1:23" ht="15.6">
       <c r="A352" s="29">
         <v>324</v>
       </c>
@@ -20396,7 +20399,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="15.6" hidden="1">
+    <row r="353" spans="1:23" ht="15.6">
       <c r="A353" s="29">
         <v>311</v>
       </c>
@@ -20429,7 +20432,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="15.6" hidden="1">
+    <row r="354" spans="1:23" ht="15.6">
       <c r="A354" s="29">
         <v>321</v>
       </c>
@@ -20462,7 +20465,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="31.2" hidden="1">
+    <row r="355" spans="1:23" ht="31.2">
       <c r="A355" s="29">
         <v>326</v>
       </c>
@@ -20495,7 +20498,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="15.6" hidden="1">
+    <row r="356" spans="1:23" ht="15.6">
       <c r="A356" s="29">
         <v>297</v>
       </c>
@@ -20528,7 +20531,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="31.2" hidden="1">
+    <row r="357" spans="1:23" ht="31.2">
       <c r="A357" s="29">
         <v>329</v>
       </c>
@@ -20561,7 +20564,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="15.6" hidden="1">
+    <row r="358" spans="1:23" ht="15.6">
       <c r="A358" s="29">
         <v>304</v>
       </c>
@@ -20594,7 +20597,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="15.6" hidden="1">
+    <row r="359" spans="1:23" ht="15.6">
       <c r="A359" s="29">
         <v>289</v>
       </c>
@@ -20627,7 +20630,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="15.6" hidden="1">
+    <row r="360" spans="1:23" ht="15.6">
       <c r="A360" s="29">
         <v>354</v>
       </c>
@@ -20660,7 +20663,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="15.6" hidden="1">
+    <row r="361" spans="1:23" ht="15.6">
       <c r="A361" s="29">
         <v>355</v>
       </c>
@@ -20693,7 +20696,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="15.6" hidden="1">
+    <row r="362" spans="1:23" ht="15.6">
       <c r="A362" s="29">
         <v>313</v>
       </c>
@@ -20726,7 +20729,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="363" spans="1:23" s="23" customFormat="1" ht="15.6" hidden="1">
+    <row r="363" spans="1:23" s="23" customFormat="1" ht="15.6">
       <c r="A363" s="29">
         <v>358</v>
       </c>
@@ -20759,7 +20762,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="31.2" hidden="1">
+    <row r="364" spans="1:23" ht="31.2">
       <c r="A364" s="29">
         <v>293</v>
       </c>
@@ -20792,7 +20795,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="31.2" hidden="1">
+    <row r="365" spans="1:23" ht="31.2">
       <c r="A365" s="29">
         <v>317</v>
       </c>
@@ -20825,7 +20828,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="15.6" hidden="1">
+    <row r="366" spans="1:23" ht="15.6">
       <c r="A366" s="16">
         <v>741</v>
       </c>
@@ -20858,7 +20861,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="367" spans="1:23" s="10" customFormat="1" ht="15.6" hidden="1">
+    <row r="367" spans="1:23" s="10" customFormat="1" ht="15.6">
       <c r="A367" s="29">
         <v>360</v>
       </c>
@@ -20904,7 +20907,7 @@
       <c r="V367" s="3"/>
       <c r="W367" s="3"/>
     </row>
-    <row r="368" spans="1:23" ht="15.6" hidden="1">
+    <row r="368" spans="1:23" ht="15.6">
       <c r="A368" s="29">
         <v>391</v>
       </c>
@@ -20937,7 +20940,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="15.6" hidden="1">
+    <row r="369" spans="1:10" ht="15.6">
       <c r="A369" s="29">
         <v>415</v>
       </c>
@@ -20970,7 +20973,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="15.6" hidden="1">
+    <row r="370" spans="1:10" ht="15.6">
       <c r="A370" s="29">
         <v>369</v>
       </c>
@@ -21003,7 +21006,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="15.6" hidden="1">
+    <row r="371" spans="1:10" ht="15.6">
       <c r="A371" s="29">
         <v>423</v>
       </c>
@@ -21036,7 +21039,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="31.2" hidden="1">
+    <row r="372" spans="1:10" ht="31.2">
       <c r="A372" s="29">
         <v>393</v>
       </c>
@@ -21069,7 +21072,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="15.6" hidden="1">
+    <row r="373" spans="1:10" ht="15.6">
       <c r="A373" s="29">
         <v>407</v>
       </c>
@@ -21102,7 +21105,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="15.6" hidden="1">
+    <row r="374" spans="1:10" ht="15.6">
       <c r="A374" s="29">
         <v>373</v>
       </c>
@@ -21135,7 +21138,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="31.2" hidden="1">
+    <row r="375" spans="1:10" ht="31.2">
       <c r="A375" s="29">
         <v>401</v>
       </c>
@@ -21168,7 +21171,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="376" spans="1:10" s="10" customFormat="1" ht="15.6" hidden="1">
+    <row r="376" spans="1:10" s="10" customFormat="1" ht="15.6">
       <c r="A376" s="29">
         <v>371</v>
       </c>
@@ -21201,7 +21204,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="15.6" hidden="1">
+    <row r="377" spans="1:10" ht="15.6">
       <c r="A377" s="29">
         <v>385</v>
       </c>
@@ -21234,7 +21237,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="31.2" hidden="1">
+    <row r="378" spans="1:10" ht="31.2">
       <c r="A378" s="29">
         <v>412</v>
       </c>
@@ -21279,7 +21282,7 @@
       <c r="I379" s="28"/>
       <c r="J379" s="17"/>
     </row>
-    <row r="380" spans="1:10" ht="31.2" hidden="1">
+    <row r="380" spans="1:10" ht="31.2">
       <c r="A380" s="29">
         <v>392</v>
       </c>
@@ -21312,7 +21315,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="15.6" hidden="1">
+    <row r="381" spans="1:10" ht="15.6">
       <c r="A381" s="29">
         <v>405</v>
       </c>
@@ -21345,7 +21348,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="15.6" hidden="1">
+    <row r="382" spans="1:10" ht="15.6">
       <c r="A382" s="29">
         <v>408</v>
       </c>
@@ -21378,7 +21381,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="15.6" hidden="1">
+    <row r="383" spans="1:10" ht="15.6">
       <c r="A383" s="29">
         <v>603</v>
       </c>
@@ -21411,7 +21414,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="15.6" hidden="1">
+    <row r="384" spans="1:10" ht="15.6">
       <c r="A384" s="29">
         <v>388</v>
       </c>
@@ -21444,7 +21447,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="15.6" hidden="1">
+    <row r="385" spans="1:23" ht="15.6">
       <c r="A385" s="29">
         <v>389</v>
       </c>
@@ -21477,7 +21480,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="15.6" hidden="1">
+    <row r="386" spans="1:23" ht="15.6">
       <c r="A386" s="29">
         <v>381</v>
       </c>
@@ -21510,7 +21513,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="31.2" hidden="1">
+    <row r="387" spans="1:23" ht="31.2">
       <c r="A387" s="29">
         <v>177</v>
       </c>
@@ -21543,7 +21546,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="31.2" hidden="1">
+    <row r="388" spans="1:23" ht="31.2">
       <c r="A388" s="29">
         <v>541</v>
       </c>
@@ -21576,7 +21579,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="389" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="389" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A389" s="29">
         <v>434</v>
       </c>
@@ -21622,7 +21625,7 @@
       <c r="V389" s="3"/>
       <c r="W389" s="3"/>
     </row>
-    <row r="390" spans="1:23" ht="15.6" hidden="1">
+    <row r="390" spans="1:23" ht="15.6">
       <c r="A390" s="29">
         <v>409</v>
       </c>
@@ -21655,7 +21658,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="391" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="391" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A391" s="29">
         <v>368</v>
       </c>
@@ -21701,7 +21704,7 @@
       <c r="V391" s="3"/>
       <c r="W391" s="3"/>
     </row>
-    <row r="392" spans="1:23" ht="15.6" hidden="1">
+    <row r="392" spans="1:23" ht="15.6">
       <c r="A392" s="29">
         <v>414</v>
       </c>
@@ -21734,7 +21737,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="15.6" hidden="1">
+    <row r="393" spans="1:23" ht="15.6">
       <c r="A393" s="29">
         <v>418</v>
       </c>
@@ -21767,7 +21770,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="394" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="394" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A394" s="29">
         <v>390</v>
       </c>
@@ -21813,7 +21816,7 @@
       <c r="V394" s="3"/>
       <c r="W394" s="3"/>
     </row>
-    <row r="395" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="395" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A395" s="29">
         <v>372</v>
       </c>
@@ -21859,7 +21862,7 @@
       <c r="V395" s="3"/>
       <c r="W395" s="3"/>
     </row>
-    <row r="396" spans="1:23" ht="31.2" hidden="1">
+    <row r="396" spans="1:23" ht="31.2">
       <c r="A396" s="29">
         <v>413</v>
       </c>
@@ -21892,7 +21895,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="397" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="397" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A397" s="29">
         <v>398</v>
       </c>
@@ -21938,7 +21941,7 @@
       <c r="V397" s="3"/>
       <c r="W397" s="3"/>
     </row>
-    <row r="398" spans="1:23" ht="15.6" hidden="1">
+    <row r="398" spans="1:23" ht="15.6">
       <c r="A398" s="29">
         <v>420</v>
       </c>
@@ -21971,7 +21974,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="15.6" hidden="1">
+    <row r="399" spans="1:23" ht="15.6">
       <c r="A399" s="29">
         <v>363</v>
       </c>
@@ -22004,7 +22007,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="31.2" hidden="1">
+    <row r="400" spans="1:23" ht="31.2">
       <c r="A400" s="29">
         <v>366</v>
       </c>
@@ -22037,7 +22040,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="401" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="401" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A401" s="29">
         <v>364</v>
       </c>
@@ -22083,7 +22086,7 @@
       <c r="V401" s="3"/>
       <c r="W401" s="3"/>
     </row>
-    <row r="402" spans="1:23" ht="15.6" hidden="1">
+    <row r="402" spans="1:23" ht="15.6">
       <c r="A402" s="29">
         <v>417</v>
       </c>
@@ -22116,7 +22119,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="15.6" hidden="1">
+    <row r="403" spans="1:23" ht="15.6">
       <c r="A403" s="29">
         <v>365</v>
       </c>
@@ -22149,7 +22152,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="15.6" hidden="1">
+    <row r="404" spans="1:23" ht="15.6">
       <c r="A404" s="29">
         <v>376</v>
       </c>
@@ -22182,7 +22185,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="31.2" hidden="1">
+    <row r="405" spans="1:23" ht="31.2">
       <c r="A405" s="29">
         <v>400</v>
       </c>
@@ -22215,7 +22218,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="15.6" hidden="1">
+    <row r="406" spans="1:23" ht="15.6">
       <c r="A406" s="29">
         <v>380</v>
       </c>
@@ -22248,7 +22251,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="15.6" hidden="1">
+    <row r="407" spans="1:23" ht="15.6">
       <c r="A407" s="29">
         <v>396</v>
       </c>
@@ -22281,7 +22284,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="15.6" hidden="1">
+    <row r="408" spans="1:23" ht="15.6">
       <c r="A408" s="29">
         <v>429</v>
       </c>
@@ -22314,12 +22317,12 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="15.6" hidden="1">
+    <row r="409" spans="1:23" ht="15.6">
       <c r="A409" s="29">
         <v>421</v>
       </c>
-      <c r="B409" s="29">
-        <v>6</v>
+      <c r="B409" s="29" t="s">
+        <v>2383</v>
       </c>
       <c r="C409" s="30" t="s">
         <v>186</v>
@@ -22342,12 +22345,12 @@
       <c r="I409" s="31" t="s">
         <v>2129</v>
       </c>
-      <c r="J409" s="32" t="str">
+      <c r="J409" s="32" t="e">
         <f t="shared" si="15"/>
-        <v>9/15(월)~9/16(화)</v>
-      </c>
-    </row>
-    <row r="410" spans="1:23" ht="15.6" hidden="1">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="410" spans="1:23" ht="15.6">
       <c r="A410" s="29">
         <v>424</v>
       </c>
@@ -22380,7 +22383,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="15.6" hidden="1">
+    <row r="411" spans="1:23" ht="15.6">
       <c r="A411" s="29">
         <v>378</v>
       </c>
@@ -22413,7 +22416,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="412" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="412" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A412" s="29">
         <v>395</v>
       </c>
@@ -22459,7 +22462,7 @@
       <c r="V412" s="3"/>
       <c r="W412" s="3"/>
     </row>
-    <row r="413" spans="1:23" ht="15.6" hidden="1">
+    <row r="413" spans="1:23" ht="15.6">
       <c r="A413" s="29">
         <v>370</v>
       </c>
@@ -22492,7 +22495,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="15.6" hidden="1">
+    <row r="414" spans="1:23" ht="15.6">
       <c r="A414" s="29">
         <v>383</v>
       </c>
@@ -22525,7 +22528,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="31.2" hidden="1">
+    <row r="415" spans="1:23" ht="31.2">
       <c r="A415" s="29">
         <v>410</v>
       </c>
@@ -22558,7 +22561,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="15.6" hidden="1">
+    <row r="416" spans="1:23" ht="15.6">
       <c r="A416" s="29">
         <v>419</v>
       </c>
@@ -22591,7 +22594,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="15.6" hidden="1">
+    <row r="417" spans="1:23" ht="15.6">
       <c r="A417" s="29">
         <v>374</v>
       </c>
@@ -22624,7 +22627,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="31.2" hidden="1">
+    <row r="418" spans="1:23" ht="31.2">
       <c r="A418" s="29">
         <v>411</v>
       </c>
@@ -22657,7 +22660,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="31.2" hidden="1">
+    <row r="419" spans="1:23" ht="31.2">
       <c r="A419" s="29">
         <v>402</v>
       </c>
@@ -22690,7 +22693,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="31.2" hidden="1">
+    <row r="420" spans="1:23" ht="31.2">
       <c r="A420" s="29">
         <v>403</v>
       </c>
@@ -22723,7 +22726,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="15.6" hidden="1">
+    <row r="421" spans="1:23" ht="15.6">
       <c r="A421" s="29">
         <v>384</v>
       </c>
@@ -22756,7 +22759,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="15.6" hidden="1">
+    <row r="422" spans="1:23" ht="15.6">
       <c r="A422" s="29">
         <v>416</v>
       </c>
@@ -22789,7 +22792,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="423" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="423" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A423" s="29">
         <v>377</v>
       </c>
@@ -22835,7 +22838,7 @@
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
     </row>
-    <row r="424" spans="1:23" ht="31.2" hidden="1">
+    <row r="424" spans="1:23" ht="31.2">
       <c r="A424" s="29">
         <v>394</v>
       </c>
@@ -22868,7 +22871,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="15.6" hidden="1">
+    <row r="425" spans="1:23" ht="15.6">
       <c r="A425" s="29">
         <v>375</v>
       </c>
@@ -22901,7 +22904,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="15.6" hidden="1">
+    <row r="426" spans="1:23" ht="15.6">
       <c r="A426" s="29">
         <v>406</v>
       </c>
@@ -22934,7 +22937,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="15.6" hidden="1">
+    <row r="427" spans="1:23" ht="15.6">
       <c r="A427" s="29">
         <v>387</v>
       </c>
@@ -22967,7 +22970,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="15.6" hidden="1">
+    <row r="428" spans="1:23" ht="15.6">
       <c r="A428" s="29">
         <v>425</v>
       </c>
@@ -23000,7 +23003,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="15.6" hidden="1">
+    <row r="429" spans="1:23" ht="15.6">
       <c r="A429" s="29">
         <v>432</v>
       </c>
@@ -23033,7 +23036,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="15.6" hidden="1">
+    <row r="430" spans="1:23" ht="15.6">
       <c r="A430" s="29">
         <v>431</v>
       </c>
@@ -23066,7 +23069,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="15.6" hidden="1">
+    <row r="431" spans="1:23" ht="15.6">
       <c r="A431" s="29">
         <v>422</v>
       </c>
@@ -23099,7 +23102,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="15.6" hidden="1">
+    <row r="432" spans="1:23" ht="15.6">
       <c r="A432" s="29">
         <v>427</v>
       </c>
@@ -23132,7 +23135,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="15.6" hidden="1">
+    <row r="433" spans="1:10" ht="15.6">
       <c r="A433" s="29">
         <v>379</v>
       </c>
@@ -23165,7 +23168,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="15.6" hidden="1">
+    <row r="434" spans="1:10" ht="15.6">
       <c r="A434" s="29">
         <v>433</v>
       </c>
@@ -23198,7 +23201,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="31.2" hidden="1">
+    <row r="435" spans="1:10" ht="31.2">
       <c r="A435" s="29">
         <v>702</v>
       </c>
@@ -23231,7 +23234,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="15.6" hidden="1">
+    <row r="436" spans="1:10" ht="15.6">
       <c r="A436" s="29">
         <v>430</v>
       </c>
@@ -23264,7 +23267,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="15.6" hidden="1">
+    <row r="437" spans="1:10" ht="15.6">
       <c r="A437" s="29">
         <v>386</v>
       </c>
@@ -23297,7 +23300,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="15.6" hidden="1">
+    <row r="438" spans="1:10" ht="15.6">
       <c r="A438" s="29">
         <v>436</v>
       </c>
@@ -23330,7 +23333,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="15.6" hidden="1">
+    <row r="439" spans="1:10" ht="15.6">
       <c r="A439" s="29">
         <v>399</v>
       </c>
@@ -23363,7 +23366,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="15.6" hidden="1">
+    <row r="440" spans="1:10" ht="15.6">
       <c r="A440" s="29">
         <v>435</v>
       </c>
@@ -23396,7 +23399,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="31.2" hidden="1">
+    <row r="441" spans="1:10" ht="31.2">
       <c r="A441" s="29">
         <v>367</v>
       </c>
@@ -23429,7 +23432,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="31.2" hidden="1">
+    <row r="442" spans="1:10" ht="31.2">
       <c r="A442" s="29">
         <v>437</v>
       </c>
@@ -23462,7 +23465,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="15.6" hidden="1">
+    <row r="443" spans="1:10" ht="15.6">
       <c r="A443" s="29">
         <v>438</v>
       </c>
@@ -23495,7 +23498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="15.6" hidden="1">
+    <row r="444" spans="1:10" ht="15.6">
       <c r="A444" s="29">
         <v>439</v>
       </c>
@@ -23528,7 +23531,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="15.6" hidden="1">
+    <row r="445" spans="1:10" ht="15.6">
       <c r="A445" s="29">
         <v>440</v>
       </c>
@@ -23561,7 +23564,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="15.6" hidden="1">
+    <row r="446" spans="1:10" ht="15.6">
       <c r="A446" s="29">
         <v>441</v>
       </c>
@@ -23594,7 +23597,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="15.6" hidden="1">
+    <row r="447" spans="1:10" ht="15.6">
       <c r="A447" s="29">
         <v>442</v>
       </c>
@@ -23627,7 +23630,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="15.6" hidden="1">
+    <row r="448" spans="1:10" ht="15.6">
       <c r="A448" s="29">
         <v>443</v>
       </c>
@@ -23660,7 +23663,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="15.6" hidden="1">
+    <row r="449" spans="1:23" ht="15.6">
       <c r="A449" s="29">
         <v>444</v>
       </c>
@@ -23693,7 +23696,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="31.2" hidden="1">
+    <row r="450" spans="1:23" ht="31.2">
       <c r="A450" s="29">
         <v>445</v>
       </c>
@@ -23726,7 +23729,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="15.6" hidden="1">
+    <row r="451" spans="1:23" ht="15.6">
       <c r="A451" s="29">
         <v>446</v>
       </c>
@@ -23759,7 +23762,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="15.6" hidden="1">
+    <row r="452" spans="1:23" ht="15.6">
       <c r="A452" s="29">
         <v>447</v>
       </c>
@@ -23792,7 +23795,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="15.6" hidden="1">
+    <row r="453" spans="1:23" ht="15.6">
       <c r="A453" s="29">
         <v>448</v>
       </c>
@@ -23825,7 +23828,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="15.6" hidden="1">
+    <row r="454" spans="1:23" ht="15.6">
       <c r="A454" s="29">
         <v>449</v>
       </c>
@@ -23858,7 +23861,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="15.6" hidden="1">
+    <row r="455" spans="1:23" ht="15.6">
       <c r="A455" s="29">
         <v>450</v>
       </c>
@@ -23891,7 +23894,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="15.6" hidden="1">
+    <row r="456" spans="1:23" ht="15.6">
       <c r="A456" s="29">
         <v>451</v>
       </c>
@@ -23924,7 +23927,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="15.6" hidden="1">
+    <row r="457" spans="1:23" ht="15.6">
       <c r="A457" s="29">
         <v>452</v>
       </c>
@@ -23957,7 +23960,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="15.6" hidden="1">
+    <row r="458" spans="1:23" ht="15.6">
       <c r="A458" s="29">
         <v>453</v>
       </c>
@@ -23990,7 +23993,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="15.6" hidden="1">
+    <row r="459" spans="1:23" ht="15.6">
       <c r="A459" s="29">
         <v>454</v>
       </c>
@@ -24023,7 +24026,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="15.6" hidden="1">
+    <row r="460" spans="1:23" ht="15.6">
       <c r="A460" s="29">
         <v>455</v>
       </c>
@@ -24056,7 +24059,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="15.6" hidden="1">
+    <row r="461" spans="1:23" ht="15.6">
       <c r="A461" s="29">
         <v>456</v>
       </c>
@@ -24089,7 +24092,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="15.6" hidden="1">
+    <row r="462" spans="1:23" ht="15.6">
       <c r="A462" s="29">
         <v>457</v>
       </c>
@@ -24122,7 +24125,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="463" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="463" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A463" s="29">
         <v>458</v>
       </c>
@@ -24168,7 +24171,7 @@
       <c r="V463" s="3"/>
       <c r="W463" s="3"/>
     </row>
-    <row r="464" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="464" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A464" s="29">
         <v>459</v>
       </c>
@@ -24214,7 +24217,7 @@
       <c r="V464" s="3"/>
       <c r="W464" s="3"/>
     </row>
-    <row r="465" spans="1:23" ht="15.6" hidden="1">
+    <row r="465" spans="1:23" ht="15.6">
       <c r="A465" s="29">
         <v>460</v>
       </c>
@@ -24247,7 +24250,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="466" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="466" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A466" s="29">
         <v>461</v>
       </c>
@@ -24293,7 +24296,7 @@
       <c r="V466" s="3"/>
       <c r="W466" s="3"/>
     </row>
-    <row r="467" spans="1:23" ht="15.6" hidden="1">
+    <row r="467" spans="1:23" ht="15.6">
       <c r="A467" s="29">
         <v>462</v>
       </c>
@@ -24326,7 +24329,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="15.6" hidden="1">
+    <row r="468" spans="1:23" ht="15.6">
       <c r="A468" s="29">
         <v>463</v>
       </c>
@@ -24359,7 +24362,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="15.6" hidden="1">
+    <row r="469" spans="1:23" ht="15.6">
       <c r="A469" s="29">
         <v>464</v>
       </c>
@@ -24392,7 +24395,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="15.6" hidden="1">
+    <row r="470" spans="1:23" ht="15.6">
       <c r="A470" s="29">
         <v>465</v>
       </c>
@@ -24425,7 +24428,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="15.6" hidden="1">
+    <row r="471" spans="1:23" ht="15.6">
       <c r="A471" s="29">
         <v>466</v>
       </c>
@@ -24458,7 +24461,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="15.6" hidden="1">
+    <row r="472" spans="1:23" ht="15.6">
       <c r="A472" s="29">
         <v>467</v>
       </c>
@@ -24491,7 +24494,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="473" spans="1:23" ht="15.6" hidden="1">
+    <row r="473" spans="1:23" ht="15.6">
       <c r="A473" s="29">
         <v>468</v>
       </c>
@@ -24524,7 +24527,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="474" spans="1:23" ht="15.6" hidden="1">
+    <row r="474" spans="1:23" ht="15.6">
       <c r="A474" s="29">
         <v>469</v>
       </c>
@@ -24557,7 +24560,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="475" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="475" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A475" s="29">
         <v>470</v>
       </c>
@@ -24603,7 +24606,7 @@
       <c r="V475" s="3"/>
       <c r="W475" s="3"/>
     </row>
-    <row r="476" spans="1:23" ht="31.2" hidden="1">
+    <row r="476" spans="1:23" ht="31.2">
       <c r="A476" s="29">
         <v>471</v>
       </c>
@@ -24636,7 +24639,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="477" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="477" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A477" s="29">
         <v>472</v>
       </c>
@@ -24682,7 +24685,7 @@
       <c r="V477" s="3"/>
       <c r="W477" s="3"/>
     </row>
-    <row r="478" spans="1:23" ht="15.6" hidden="1">
+    <row r="478" spans="1:23" ht="15.6">
       <c r="A478" s="29">
         <v>473</v>
       </c>
@@ -24715,7 +24718,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="15.6" hidden="1">
+    <row r="479" spans="1:23" ht="15.6">
       <c r="A479" s="29">
         <v>474</v>
       </c>
@@ -24748,7 +24751,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="15.6" hidden="1">
+    <row r="480" spans="1:23" ht="15.6">
       <c r="A480" s="29">
         <v>475</v>
       </c>
@@ -24781,7 +24784,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="15.6" hidden="1">
+    <row r="481" spans="1:23" ht="15.6">
       <c r="A481" s="29">
         <v>476</v>
       </c>
@@ -24814,7 +24817,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="31.2" hidden="1">
+    <row r="482" spans="1:23" ht="31.2">
       <c r="A482" s="29">
         <v>477</v>
       </c>
@@ -24847,7 +24850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="31.2" hidden="1">
+    <row r="483" spans="1:23" ht="31.2">
       <c r="A483" s="29">
         <v>478</v>
       </c>
@@ -24880,7 +24883,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="484" spans="1:23" ht="31.2" hidden="1">
+    <row r="484" spans="1:23" ht="31.2">
       <c r="A484" s="29">
         <v>479</v>
       </c>
@@ -24913,7 +24916,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="485" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="485" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A485" s="29">
         <v>480</v>
       </c>
@@ -24959,7 +24962,7 @@
       <c r="V485" s="3"/>
       <c r="W485" s="3"/>
     </row>
-    <row r="486" spans="1:23" ht="31.2" hidden="1">
+    <row r="486" spans="1:23" ht="31.2">
       <c r="A486" s="29">
         <v>481</v>
       </c>
@@ -24992,7 +24995,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="487" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="487" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A487" s="29">
         <v>482</v>
       </c>
@@ -25038,7 +25041,7 @@
       <c r="V487" s="3"/>
       <c r="W487" s="3"/>
     </row>
-    <row r="488" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="488" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A488" s="29">
         <v>483</v>
       </c>
@@ -25084,7 +25087,7 @@
       <c r="V488" s="3"/>
       <c r="W488" s="3"/>
     </row>
-    <row r="489" spans="1:23" ht="15.6" hidden="1">
+    <row r="489" spans="1:23" ht="15.6">
       <c r="A489" s="29">
         <v>484</v>
       </c>
@@ -25117,7 +25120,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="15.6" hidden="1">
+    <row r="490" spans="1:23" ht="15.6">
       <c r="A490" s="29">
         <v>485</v>
       </c>
@@ -25150,7 +25153,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="15.6" hidden="1">
+    <row r="491" spans="1:23" ht="15.6">
       <c r="A491" s="29">
         <v>486</v>
       </c>
@@ -25183,7 +25186,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="15.6" hidden="1">
+    <row r="492" spans="1:23" ht="15.6">
       <c r="A492" s="29">
         <v>487</v>
       </c>
@@ -25216,7 +25219,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="31.2" hidden="1">
+    <row r="493" spans="1:23" ht="31.2">
       <c r="A493" s="29">
         <v>488</v>
       </c>
@@ -25249,7 +25252,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="31.2" hidden="1">
+    <row r="494" spans="1:23" ht="31.2">
       <c r="A494" s="29">
         <v>489</v>
       </c>
@@ -25282,7 +25285,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="31.2" hidden="1">
+    <row r="495" spans="1:23" ht="31.2">
       <c r="A495" s="29">
         <v>490</v>
       </c>
@@ -25315,7 +25318,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="31.2" hidden="1">
+    <row r="496" spans="1:23" ht="31.2">
       <c r="A496" s="29">
         <v>491</v>
       </c>
@@ -25348,7 +25351,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="15.6" hidden="1">
+    <row r="497" spans="1:10" ht="15.6">
       <c r="A497" s="29">
         <v>492</v>
       </c>
@@ -25381,7 +25384,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="15.6" hidden="1">
+    <row r="498" spans="1:10" ht="15.6">
       <c r="A498" s="29">
         <v>493</v>
       </c>
@@ -25414,7 +25417,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="15.6" hidden="1">
+    <row r="499" spans="1:10" ht="15.6">
       <c r="A499" s="29">
         <v>494</v>
       </c>
@@ -25447,7 +25450,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="15.6" hidden="1">
+    <row r="500" spans="1:10" ht="15.6">
       <c r="A500" s="29">
         <v>495</v>
       </c>
@@ -25480,7 +25483,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="15.6" hidden="1">
+    <row r="501" spans="1:10" ht="15.6">
       <c r="A501" s="29">
         <v>496</v>
       </c>
@@ -25513,7 +25516,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="15.6" hidden="1">
+    <row r="502" spans="1:10" ht="15.6">
       <c r="A502" s="29">
         <v>497</v>
       </c>
@@ -25546,7 +25549,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="15.6" hidden="1">
+    <row r="503" spans="1:10" ht="15.6">
       <c r="A503" s="29">
         <v>498</v>
       </c>
@@ -25579,7 +25582,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="15.6" hidden="1">
+    <row r="504" spans="1:10" ht="15.6">
       <c r="A504" s="29">
         <v>499</v>
       </c>
@@ -25612,7 +25615,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="15.6" hidden="1">
+    <row r="505" spans="1:10" ht="15.6">
       <c r="A505" s="29">
         <v>500</v>
       </c>
@@ -25645,7 +25648,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="15.6" hidden="1">
+    <row r="506" spans="1:10" ht="15.6">
       <c r="A506" s="29">
         <v>501</v>
       </c>
@@ -25678,7 +25681,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="15.6" hidden="1">
+    <row r="507" spans="1:10" ht="15.6">
       <c r="A507" s="29">
         <v>502</v>
       </c>
@@ -25711,7 +25714,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="15.6" hidden="1">
+    <row r="508" spans="1:10" ht="15.6">
       <c r="A508" s="29">
         <v>503</v>
       </c>
@@ -25744,7 +25747,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="15.6" hidden="1">
+    <row r="509" spans="1:10" ht="15.6">
       <c r="A509" s="29">
         <v>504</v>
       </c>
@@ -25777,7 +25780,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="15.6" hidden="1">
+    <row r="510" spans="1:10" ht="15.6">
       <c r="A510" s="29">
         <v>505</v>
       </c>
@@ -25810,7 +25813,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="15.6" hidden="1">
+    <row r="511" spans="1:10" ht="15.6">
       <c r="A511" s="29">
         <v>506</v>
       </c>
@@ -25843,7 +25846,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="15.6" hidden="1">
+    <row r="512" spans="1:10" ht="15.6">
       <c r="A512" s="29">
         <v>507</v>
       </c>
@@ -25876,7 +25879,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="15.6" hidden="1">
+    <row r="513" spans="1:10" ht="15.6">
       <c r="A513" s="29">
         <v>508</v>
       </c>
@@ -25909,7 +25912,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="15.6" hidden="1">
+    <row r="514" spans="1:10" ht="15.6">
       <c r="A514" s="29">
         <v>509</v>
       </c>
@@ -25942,7 +25945,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="15.6" hidden="1">
+    <row r="515" spans="1:10" ht="15.6">
       <c r="A515" s="29">
         <v>510</v>
       </c>
@@ -25975,7 +25978,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="15.6" hidden="1">
+    <row r="516" spans="1:10" ht="15.6">
       <c r="A516" s="29">
         <v>511</v>
       </c>
@@ -26008,7 +26011,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="15.6" hidden="1">
+    <row r="517" spans="1:10" ht="15.6">
       <c r="A517" s="29">
         <v>512</v>
       </c>
@@ -26041,7 +26044,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="15.6" hidden="1">
+    <row r="518" spans="1:10" ht="15.6">
       <c r="A518" s="29">
         <v>513</v>
       </c>
@@ -26074,7 +26077,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="15.6" hidden="1">
+    <row r="519" spans="1:10" ht="15.6">
       <c r="A519" s="29">
         <v>514</v>
       </c>
@@ -26107,7 +26110,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="15.6" hidden="1">
+    <row r="520" spans="1:10" ht="15.6">
       <c r="A520" s="29">
         <v>515</v>
       </c>
@@ -26140,7 +26143,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="15.6" hidden="1">
+    <row r="521" spans="1:10" ht="15.6">
       <c r="A521" s="29">
         <v>516</v>
       </c>
@@ -26173,7 +26176,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="15.6" hidden="1">
+    <row r="522" spans="1:10" ht="15.6">
       <c r="A522" s="29">
         <v>517</v>
       </c>
@@ -26206,7 +26209,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="15.6" hidden="1">
+    <row r="523" spans="1:10" ht="15.6">
       <c r="A523" s="29">
         <v>518</v>
       </c>
@@ -26239,7 +26242,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="15.6" hidden="1">
+    <row r="524" spans="1:10" ht="15.6">
       <c r="A524" s="29">
         <v>519</v>
       </c>
@@ -26272,7 +26275,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="15.6" hidden="1">
+    <row r="525" spans="1:10" ht="15.6">
       <c r="A525" s="29">
         <v>520</v>
       </c>
@@ -26305,7 +26308,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="15.6" hidden="1">
+    <row r="526" spans="1:10" ht="15.6">
       <c r="A526" s="29">
         <v>521</v>
       </c>
@@ -26338,7 +26341,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="15.6" hidden="1">
+    <row r="527" spans="1:10" ht="15.6">
       <c r="A527" s="29">
         <v>522</v>
       </c>
@@ -26371,7 +26374,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="15.6" hidden="1">
+    <row r="528" spans="1:10" ht="15.6">
       <c r="A528" s="29">
         <v>523</v>
       </c>
@@ -26404,7 +26407,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="529" spans="1:23" ht="15.6" hidden="1">
+    <row r="529" spans="1:23" ht="15.6">
       <c r="A529" s="29">
         <v>524</v>
       </c>
@@ -26437,7 +26440,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="530" spans="1:23" ht="15.6" hidden="1">
+    <row r="530" spans="1:23" ht="15.6">
       <c r="A530" s="29">
         <v>525</v>
       </c>
@@ -26470,7 +26473,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="531" spans="1:23" ht="15.6" hidden="1">
+    <row r="531" spans="1:23" ht="15.6">
       <c r="A531" s="29">
         <v>526</v>
       </c>
@@ -26503,7 +26506,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="532" spans="1:23" ht="15.6" hidden="1">
+    <row r="532" spans="1:23" ht="15.6">
       <c r="A532" s="29">
         <v>527</v>
       </c>
@@ -26536,7 +26539,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="533" spans="1:23" ht="15.6" hidden="1">
+    <row r="533" spans="1:23" ht="15.6">
       <c r="A533" s="29">
         <v>528</v>
       </c>
@@ -26569,7 +26572,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="534" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="534" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A534" s="29">
         <v>529</v>
       </c>
@@ -26615,7 +26618,7 @@
       <c r="V534" s="3"/>
       <c r="W534" s="3"/>
     </row>
-    <row r="535" spans="1:23" ht="15.6" hidden="1">
+    <row r="535" spans="1:23" ht="15.6">
       <c r="A535" s="29">
         <v>530</v>
       </c>
@@ -26648,7 +26651,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="536" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="536" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A536" s="29">
         <v>531</v>
       </c>
@@ -26694,7 +26697,7 @@
       <c r="V536" s="3"/>
       <c r="W536" s="3"/>
     </row>
-    <row r="537" spans="1:23" ht="15.6" hidden="1">
+    <row r="537" spans="1:23" ht="15.6">
       <c r="A537" s="29">
         <v>532</v>
       </c>
@@ -26727,7 +26730,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="538" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="538" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A538" s="29">
         <v>533</v>
       </c>
@@ -26773,7 +26776,7 @@
       <c r="V538" s="3"/>
       <c r="W538" s="3"/>
     </row>
-    <row r="539" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="539" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A539" s="29">
         <v>534</v>
       </c>
@@ -26819,7 +26822,7 @@
       <c r="V539" s="3"/>
       <c r="W539" s="3"/>
     </row>
-    <row r="540" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="540" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A540" s="29">
         <v>535</v>
       </c>
@@ -26865,7 +26868,7 @@
       <c r="V540" s="3"/>
       <c r="W540" s="3"/>
     </row>
-    <row r="541" spans="1:23" ht="15.6" hidden="1">
+    <row r="541" spans="1:23" ht="15.6">
       <c r="A541" s="29">
         <v>536</v>
       </c>
@@ -26898,7 +26901,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="542" spans="1:23" ht="15.6" hidden="1">
+    <row r="542" spans="1:23" ht="15.6">
       <c r="A542" s="29">
         <v>537</v>
       </c>
@@ -26931,7 +26934,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="543" spans="1:23" ht="15.6" hidden="1">
+    <row r="543" spans="1:23" ht="15.6">
       <c r="A543" s="29">
         <v>538</v>
       </c>
@@ -26964,7 +26967,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="544" spans="1:23" ht="15.6" hidden="1">
+    <row r="544" spans="1:23" ht="15.6">
       <c r="A544" s="29">
         <v>539</v>
       </c>
@@ -26997,7 +27000,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="545" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="545" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A545" s="29">
         <v>540</v>
       </c>
@@ -27043,7 +27046,7 @@
       <c r="V545" s="3"/>
       <c r="W545" s="3"/>
     </row>
-    <row r="546" spans="1:23" ht="15.6" hidden="1">
+    <row r="546" spans="1:23" ht="15.6">
       <c r="A546" s="29">
         <v>397</v>
       </c>
@@ -27076,7 +27079,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="547" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="547" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A547" s="29">
         <v>542</v>
       </c>
@@ -27122,7 +27125,7 @@
       <c r="V547" s="3"/>
       <c r="W547" s="3"/>
     </row>
-    <row r="548" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="548" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A548" s="29">
         <v>543</v>
       </c>
@@ -27168,7 +27171,7 @@
       <c r="V548" s="3"/>
       <c r="W548" s="3"/>
     </row>
-    <row r="549" spans="1:23" ht="15.6" hidden="1">
+    <row r="549" spans="1:23" ht="15.6">
       <c r="A549" s="29">
         <v>544</v>
       </c>
@@ -27201,7 +27204,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="550" spans="1:23" ht="15.6" hidden="1">
+    <row r="550" spans="1:23" ht="15.6">
       <c r="A550" s="29">
         <v>545</v>
       </c>
@@ -27234,7 +27237,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="551" spans="1:23" ht="15.6" hidden="1">
+    <row r="551" spans="1:23" ht="15.6">
       <c r="A551" s="29">
         <v>546</v>
       </c>
@@ -27267,7 +27270,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="552" spans="1:23" ht="15.6" hidden="1">
+    <row r="552" spans="1:23" ht="15.6">
       <c r="A552" s="29">
         <v>547</v>
       </c>
@@ -27300,7 +27303,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="553" spans="1:23" ht="15.6" hidden="1">
+    <row r="553" spans="1:23" ht="15.6">
       <c r="A553" s="29">
         <v>548</v>
       </c>
@@ -27333,7 +27336,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="554" spans="1:23" ht="15.6" hidden="1">
+    <row r="554" spans="1:23" ht="15.6">
       <c r="A554" s="29">
         <v>549</v>
       </c>
@@ -27366,7 +27369,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="555" spans="1:23" ht="15.6" hidden="1">
+    <row r="555" spans="1:23" ht="15.6">
       <c r="A555" s="29">
         <v>550</v>
       </c>
@@ -27399,7 +27402,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="556" spans="1:23" ht="31.2" hidden="1">
+    <row r="556" spans="1:23" ht="31.2">
       <c r="A556" s="29">
         <v>551</v>
       </c>
@@ -27432,7 +27435,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="557" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="557" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A557" s="29">
         <v>552</v>
       </c>
@@ -27478,7 +27481,7 @@
       <c r="V557" s="3"/>
       <c r="W557" s="3"/>
     </row>
-    <row r="558" spans="1:23" ht="31.2" hidden="1">
+    <row r="558" spans="1:23" ht="31.2">
       <c r="A558" s="29">
         <v>553</v>
       </c>
@@ -27511,7 +27514,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="559" spans="1:23" ht="31.2" hidden="1">
+    <row r="559" spans="1:23" ht="31.2">
       <c r="A559" s="29">
         <v>554</v>
       </c>
@@ -27544,7 +27547,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="560" spans="1:23" ht="15.6" hidden="1">
+    <row r="560" spans="1:23" ht="15.6">
       <c r="A560" s="29">
         <v>555</v>
       </c>
@@ -27577,7 +27580,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="15.6" hidden="1">
+    <row r="561" spans="1:10" ht="15.6">
       <c r="A561" s="29">
         <v>556</v>
       </c>
@@ -27610,7 +27613,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="15.6" hidden="1">
+    <row r="562" spans="1:10" ht="15.6">
       <c r="A562" s="29">
         <v>557</v>
       </c>
@@ -27643,7 +27646,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="15.6" hidden="1">
+    <row r="563" spans="1:10" ht="15.6">
       <c r="A563" s="29">
         <v>558</v>
       </c>
@@ -27676,7 +27679,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="15.6" hidden="1">
+    <row r="564" spans="1:10" ht="15.6">
       <c r="A564" s="29">
         <v>559</v>
       </c>
@@ -27709,7 +27712,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="15.6" hidden="1">
+    <row r="565" spans="1:10" ht="15.6">
       <c r="A565" s="29">
         <v>560</v>
       </c>
@@ -27742,7 +27745,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="15.6" hidden="1">
+    <row r="566" spans="1:10" ht="15.6">
       <c r="A566" s="29">
         <v>561</v>
       </c>
@@ -27775,7 +27778,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="31.2" hidden="1">
+    <row r="567" spans="1:10" ht="31.2">
       <c r="A567" s="29">
         <v>562</v>
       </c>
@@ -27808,7 +27811,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="31.2" hidden="1">
+    <row r="568" spans="1:10" ht="31.2">
       <c r="A568" s="29">
         <v>563</v>
       </c>
@@ -27841,7 +27844,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="31.2" hidden="1">
+    <row r="569" spans="1:10" ht="31.2">
       <c r="A569" s="29">
         <v>564</v>
       </c>
@@ -27874,7 +27877,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="31.2" hidden="1">
+    <row r="570" spans="1:10" ht="31.2">
       <c r="A570" s="29">
         <v>565</v>
       </c>
@@ -27907,7 +27910,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="15.6" hidden="1">
+    <row r="571" spans="1:10" ht="15.6">
       <c r="A571" s="29">
         <v>566</v>
       </c>
@@ -27940,7 +27943,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="15.6" hidden="1">
+    <row r="572" spans="1:10" ht="15.6">
       <c r="A572" s="29">
         <v>567</v>
       </c>
@@ -27973,7 +27976,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="15.6" hidden="1">
+    <row r="573" spans="1:10" ht="15.6">
       <c r="A573" s="29">
         <v>568</v>
       </c>
@@ -28006,7 +28009,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="15.6" hidden="1">
+    <row r="574" spans="1:10" ht="15.6">
       <c r="A574" s="29">
         <v>569</v>
       </c>
@@ -28039,7 +28042,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="15.6" hidden="1">
+    <row r="575" spans="1:10" ht="15.6">
       <c r="A575" s="29">
         <v>570</v>
       </c>
@@ -28072,7 +28075,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="15.6" hidden="1">
+    <row r="576" spans="1:10" ht="15.6">
       <c r="A576" s="29">
         <v>571</v>
       </c>
@@ -28105,7 +28108,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="15.6" hidden="1">
+    <row r="577" spans="1:10" ht="15.6">
       <c r="A577" s="29">
         <v>572</v>
       </c>
@@ -28138,7 +28141,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="15.6" hidden="1">
+    <row r="578" spans="1:10" ht="15.6">
       <c r="A578" s="29">
         <v>573</v>
       </c>
@@ -28171,7 +28174,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="15.6" hidden="1">
+    <row r="579" spans="1:10" ht="15.6">
       <c r="A579" s="29">
         <v>574</v>
       </c>
@@ -28204,7 +28207,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="15.6" hidden="1">
+    <row r="580" spans="1:10" ht="15.6">
       <c r="A580" s="29">
         <v>575</v>
       </c>
@@ -28237,7 +28240,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="15.6" hidden="1">
+    <row r="581" spans="1:10" ht="15.6">
       <c r="A581" s="29">
         <v>576</v>
       </c>
@@ -28270,7 +28273,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="15.6" hidden="1">
+    <row r="582" spans="1:10" ht="15.6">
       <c r="A582" s="29">
         <v>577</v>
       </c>
@@ -28303,7 +28306,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="15.6" hidden="1">
+    <row r="583" spans="1:10" ht="15.6">
       <c r="A583" s="29">
         <v>578</v>
       </c>
@@ -28336,7 +28339,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="15.6" hidden="1">
+    <row r="584" spans="1:10" ht="15.6">
       <c r="A584" s="29">
         <v>579</v>
       </c>
@@ -28369,7 +28372,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="15.6" hidden="1">
+    <row r="585" spans="1:10" ht="15.6">
       <c r="A585" s="29">
         <v>580</v>
       </c>
@@ -28402,7 +28405,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="15.6" hidden="1">
+    <row r="586" spans="1:10" ht="15.6">
       <c r="A586" s="29">
         <v>581</v>
       </c>
@@ -28435,7 +28438,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="15.6" hidden="1">
+    <row r="587" spans="1:10" ht="15.6">
       <c r="A587" s="29">
         <v>582</v>
       </c>
@@ -28468,7 +28471,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="15.6" hidden="1">
+    <row r="588" spans="1:10" ht="15.6">
       <c r="A588" s="29">
         <v>583</v>
       </c>
@@ -28501,7 +28504,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="15.6" hidden="1">
+    <row r="589" spans="1:10" ht="15.6">
       <c r="A589" s="29">
         <v>584</v>
       </c>
@@ -28534,7 +28537,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="15.6" hidden="1">
+    <row r="590" spans="1:10" ht="15.6">
       <c r="A590" s="29">
         <v>585</v>
       </c>
@@ -28567,7 +28570,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="15.6" hidden="1">
+    <row r="591" spans="1:10" ht="15.6">
       <c r="A591" s="29">
         <v>586</v>
       </c>
@@ -28600,7 +28603,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="15.6" hidden="1">
+    <row r="592" spans="1:10" ht="15.6">
       <c r="A592" s="29">
         <v>587</v>
       </c>
@@ -28633,7 +28636,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="15.6" hidden="1">
+    <row r="593" spans="1:12" ht="15.6">
       <c r="A593" s="29">
         <v>588</v>
       </c>
@@ -28666,7 +28669,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="594" spans="1:12" ht="15.6" hidden="1">
+    <row r="594" spans="1:12" ht="15.6">
       <c r="A594" s="29">
         <v>589</v>
       </c>
@@ -28699,7 +28702,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="595" spans="1:12" ht="15.6" hidden="1">
+    <row r="595" spans="1:12" ht="15.6">
       <c r="A595" s="29">
         <v>590</v>
       </c>
@@ -28733,7 +28736,7 @@
       </c>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="1:12" ht="15.6" hidden="1">
+    <row r="596" spans="1:12" ht="15.6">
       <c r="A596" s="29">
         <v>591</v>
       </c>
@@ -28766,7 +28769,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="597" spans="1:12" ht="15.6" hidden="1">
+    <row r="597" spans="1:12" ht="15.6">
       <c r="A597" s="29">
         <v>592</v>
       </c>
@@ -28799,7 +28802,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="598" spans="1:12" ht="15.6" hidden="1">
+    <row r="598" spans="1:12" ht="15.6">
       <c r="A598" s="29">
         <v>593</v>
       </c>
@@ -28832,7 +28835,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="599" spans="1:12" ht="15.6" hidden="1">
+    <row r="599" spans="1:12" ht="15.6">
       <c r="A599" s="29">
         <v>594</v>
       </c>
@@ -28865,7 +28868,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="15.6" hidden="1">
+    <row r="600" spans="1:12" ht="15.6">
       <c r="A600" s="29">
         <v>595</v>
       </c>
@@ -28898,7 +28901,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="601" spans="1:12" ht="15.6" hidden="1">
+    <row r="601" spans="1:12" ht="15.6">
       <c r="A601" s="29">
         <v>596</v>
       </c>
@@ -28931,7 +28934,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="602" spans="1:12" ht="15.6" hidden="1">
+    <row r="602" spans="1:12" ht="15.6">
       <c r="A602" s="29">
         <v>597</v>
       </c>
@@ -28964,7 +28967,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="31.2" hidden="1">
+    <row r="603" spans="1:12" ht="31.2">
       <c r="A603" s="29">
         <v>598</v>
       </c>
@@ -28997,7 +29000,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="604" spans="1:12" ht="15.6" hidden="1">
+    <row r="604" spans="1:12" ht="15.6">
       <c r="A604" s="29">
         <v>599</v>
       </c>
@@ -29030,7 +29033,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="15.6" hidden="1">
+    <row r="605" spans="1:12" ht="15.6">
       <c r="A605" s="29">
         <v>600</v>
       </c>
@@ -29063,7 +29066,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="606" spans="1:12" ht="15.6" hidden="1">
+    <row r="606" spans="1:12" ht="15.6">
       <c r="A606" s="29">
         <v>601</v>
       </c>
@@ -29096,7 +29099,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="607" spans="1:12" ht="15.6" hidden="1">
+    <row r="607" spans="1:12" ht="15.6">
       <c r="A607" s="29">
         <v>602</v>
       </c>
@@ -29129,7 +29132,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="608" spans="1:12" s="10" customFormat="1" ht="15.6" hidden="1">
+    <row r="608" spans="1:12" s="10" customFormat="1" ht="15.6">
       <c r="A608" s="29">
         <v>426</v>
       </c>
@@ -29162,7 +29165,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="609" spans="1:23" ht="15.6" hidden="1">
+    <row r="609" spans="1:23" ht="15.6">
       <c r="A609" s="29">
         <v>604</v>
       </c>
@@ -29195,7 +29198,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="610" spans="1:23" ht="15.6" hidden="1">
+    <row r="610" spans="1:23" ht="15.6">
       <c r="A610" s="29">
         <v>605</v>
       </c>
@@ -29228,7 +29231,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="611" spans="1:23" ht="15.6" hidden="1">
+    <row r="611" spans="1:23" ht="15.6">
       <c r="A611" s="29">
         <v>606</v>
       </c>
@@ -29261,7 +29264,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="612" spans="1:23" ht="15.6" hidden="1">
+    <row r="612" spans="1:23" ht="15.6">
       <c r="A612" s="29">
         <v>214</v>
       </c>
@@ -29294,7 +29297,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="613" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="613" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A613" s="29">
         <v>608</v>
       </c>
@@ -29340,12 +29343,12 @@
       <c r="V613" s="3"/>
       <c r="W613" s="3"/>
     </row>
-    <row r="614" spans="1:23" ht="15.6" hidden="1">
+    <row r="614" spans="1:23" ht="15.6">
       <c r="A614" s="29">
         <v>609</v>
       </c>
       <c r="B614" s="29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C614" s="30" t="s">
         <v>739</v>
@@ -29370,10 +29373,10 @@
       </c>
       <c r="J614" s="32" t="str">
         <f t="shared" si="18"/>
-        <v>9/29(월)~9/30(화)</v>
-      </c>
-    </row>
-    <row r="615" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+        <v>9/8(월)~9/9(화)</v>
+      </c>
+    </row>
+    <row r="615" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A615" s="29">
         <v>330</v>
       </c>
@@ -29419,7 +29422,7 @@
       <c r="V615" s="3"/>
       <c r="W615" s="3"/>
     </row>
-    <row r="616" spans="1:23" ht="15.6" hidden="1">
+    <row r="616" spans="1:23" ht="15.6">
       <c r="A616" s="29">
         <v>611</v>
       </c>
@@ -29452,7 +29455,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="617" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="617" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A617" s="29">
         <v>612</v>
       </c>
@@ -29498,7 +29501,7 @@
       <c r="V617" s="3"/>
       <c r="W617" s="3"/>
     </row>
-    <row r="618" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="618" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A618" s="29">
         <v>613</v>
       </c>
@@ -29544,7 +29547,7 @@
       <c r="V618" s="3"/>
       <c r="W618" s="3"/>
     </row>
-    <row r="619" spans="1:23" ht="15.6" hidden="1">
+    <row r="619" spans="1:23" ht="15.6">
       <c r="A619" s="29">
         <v>614</v>
       </c>
@@ -29577,7 +29580,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="620" spans="1:23" ht="15.6" hidden="1">
+    <row r="620" spans="1:23" ht="15.6">
       <c r="A620" s="29">
         <v>615</v>
       </c>
@@ -29610,7 +29613,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="621" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="621" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A621" s="29">
         <v>616</v>
       </c>
@@ -29656,7 +29659,7 @@
       <c r="V621" s="3"/>
       <c r="W621" s="3"/>
     </row>
-    <row r="622" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="622" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A622" s="29">
         <v>617</v>
       </c>
@@ -29702,7 +29705,7 @@
       <c r="V622" s="3"/>
       <c r="W622" s="3"/>
     </row>
-    <row r="623" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="623" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A623" s="29">
         <v>618</v>
       </c>
@@ -29748,7 +29751,7 @@
       <c r="V623" s="3"/>
       <c r="W623" s="3"/>
     </row>
-    <row r="624" spans="1:23" ht="31.2" hidden="1">
+    <row r="624" spans="1:23" ht="31.2">
       <c r="A624" s="29">
         <v>619</v>
       </c>
@@ -29781,7 +29784,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="625" spans="1:23" ht="31.2" hidden="1">
+    <row r="625" spans="1:23" ht="31.2">
       <c r="A625" s="29">
         <v>620</v>
       </c>
@@ -29814,7 +29817,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="626" spans="1:23" ht="31.2" hidden="1">
+    <row r="626" spans="1:23" ht="31.2">
       <c r="A626" s="29">
         <v>621</v>
       </c>
@@ -29847,7 +29850,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="627" spans="1:23" ht="31.2" hidden="1">
+    <row r="627" spans="1:23" ht="31.2">
       <c r="A627" s="29">
         <v>622</v>
       </c>
@@ -29880,7 +29883,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="628" spans="1:23" ht="31.2" hidden="1">
+    <row r="628" spans="1:23" ht="31.2">
       <c r="A628" s="29">
         <v>623</v>
       </c>
@@ -29913,7 +29916,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="629" spans="1:23" ht="31.2" hidden="1">
+    <row r="629" spans="1:23" ht="31.2">
       <c r="A629" s="29">
         <v>624</v>
       </c>
@@ -29946,7 +29949,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="630" spans="1:23" ht="15.6" hidden="1">
+    <row r="630" spans="1:23" ht="15.6">
       <c r="A630" s="29">
         <v>220</v>
       </c>
@@ -29979,7 +29982,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="631" spans="1:23" ht="15.6" hidden="1">
+    <row r="631" spans="1:23" ht="15.6">
       <c r="A631" s="29">
         <v>626</v>
       </c>
@@ -30012,7 +30015,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="632" spans="1:23" ht="15.6" hidden="1">
+    <row r="632" spans="1:23" ht="15.6">
       <c r="A632" s="29">
         <v>627</v>
       </c>
@@ -30045,7 +30048,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="633" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="633" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A633" s="29">
         <v>628</v>
       </c>
@@ -30091,7 +30094,7 @@
       <c r="V633" s="3"/>
       <c r="W633" s="3"/>
     </row>
-    <row r="634" spans="1:23" ht="15.6" hidden="1">
+    <row r="634" spans="1:23" ht="15.6">
       <c r="A634" s="29">
         <v>629</v>
       </c>
@@ -30124,7 +30127,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="635" spans="1:23" ht="15.6" hidden="1">
+    <row r="635" spans="1:23" ht="15.6">
       <c r="A635" s="29">
         <v>630</v>
       </c>
@@ -30157,7 +30160,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="636" spans="1:23" ht="15.6" hidden="1">
+    <row r="636" spans="1:23" ht="15.6">
       <c r="A636" s="29">
         <v>631</v>
       </c>
@@ -30190,7 +30193,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="637" spans="1:23" ht="31.2" hidden="1">
+    <row r="637" spans="1:23" ht="31.2">
       <c r="A637" s="29">
         <v>632</v>
       </c>
@@ -30223,7 +30226,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="638" spans="1:23" ht="15.6" hidden="1">
+    <row r="638" spans="1:23" ht="15.6">
       <c r="A638" s="29">
         <v>633</v>
       </c>
@@ -30256,7 +30259,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="639" spans="1:23" ht="31.2" hidden="1">
+    <row r="639" spans="1:23" ht="31.2">
       <c r="A639" s="29">
         <v>634</v>
       </c>
@@ -30289,7 +30292,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="640" spans="1:23" ht="31.2" hidden="1">
+    <row r="640" spans="1:23" ht="31.2">
       <c r="A640" s="29">
         <v>635</v>
       </c>
@@ -30322,7 +30325,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="31.2" hidden="1">
+    <row r="641" spans="1:10" ht="31.2">
       <c r="A641" s="29">
         <v>636</v>
       </c>
@@ -30355,7 +30358,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="31.2" hidden="1">
+    <row r="642" spans="1:10" ht="31.2">
       <c r="A642" s="29">
         <v>637</v>
       </c>
@@ -30388,7 +30391,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="15.6" hidden="1">
+    <row r="643" spans="1:10" ht="15.6">
       <c r="A643" s="29">
         <v>638</v>
       </c>
@@ -30421,7 +30424,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="15.6" hidden="1">
+    <row r="644" spans="1:10" ht="15.6">
       <c r="A644" s="29">
         <v>639</v>
       </c>
@@ -30454,7 +30457,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="15.6" hidden="1">
+    <row r="645" spans="1:10" ht="15.6">
       <c r="A645" s="29">
         <v>640</v>
       </c>
@@ -30487,7 +30490,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="15.6" hidden="1">
+    <row r="646" spans="1:10" ht="15.6">
       <c r="A646" s="29">
         <v>641</v>
       </c>
@@ -30520,7 +30523,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="15.6" hidden="1">
+    <row r="647" spans="1:10" ht="15.6">
       <c r="A647" s="29">
         <v>642</v>
       </c>
@@ -30553,7 +30556,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="31.2" hidden="1">
+    <row r="648" spans="1:10" ht="31.2">
       <c r="A648" s="29">
         <v>643</v>
       </c>
@@ -30586,7 +30589,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="31.2" hidden="1">
+    <row r="649" spans="1:10" ht="31.2">
       <c r="A649" s="29">
         <v>644</v>
       </c>
@@ -30619,7 +30622,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="31.2" hidden="1">
+    <row r="650" spans="1:10" ht="31.2">
       <c r="A650" s="29">
         <v>645</v>
       </c>
@@ -30652,7 +30655,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="31.2" hidden="1">
+    <row r="651" spans="1:10" ht="31.2">
       <c r="A651" s="29">
         <v>646</v>
       </c>
@@ -30685,7 +30688,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="15.6" hidden="1">
+    <row r="652" spans="1:10" ht="15.6">
       <c r="A652" s="29">
         <v>647</v>
       </c>
@@ -30718,7 +30721,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="15.6" hidden="1">
+    <row r="653" spans="1:10" ht="15.6">
       <c r="A653" s="29">
         <v>648</v>
       </c>
@@ -30751,7 +30754,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="15.6" hidden="1">
+    <row r="654" spans="1:10" ht="15.6">
       <c r="A654" s="29">
         <v>649</v>
       </c>
@@ -30784,7 +30787,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="15.6" hidden="1">
+    <row r="655" spans="1:10" ht="15.6">
       <c r="A655" s="29">
         <v>650</v>
       </c>
@@ -30817,7 +30820,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="656" spans="1:10" ht="15.6" hidden="1">
+    <row r="656" spans="1:10" ht="15.6">
       <c r="A656" s="29">
         <v>651</v>
       </c>
@@ -30850,7 +30853,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="15.6" hidden="1">
+    <row r="657" spans="1:10" ht="15.6">
       <c r="A657" s="29">
         <v>652</v>
       </c>
@@ -30883,7 +30886,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="15.6" hidden="1">
+    <row r="658" spans="1:10" ht="15.6">
       <c r="A658" s="29">
         <v>653</v>
       </c>
@@ -30916,7 +30919,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="15.6" hidden="1">
+    <row r="659" spans="1:10" ht="15.6">
       <c r="A659" s="29">
         <v>654</v>
       </c>
@@ -30949,7 +30952,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="15.6" hidden="1">
+    <row r="660" spans="1:10" ht="15.6">
       <c r="A660" s="29">
         <v>655</v>
       </c>
@@ -30982,7 +30985,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="15.6" hidden="1">
+    <row r="661" spans="1:10" ht="15.6">
       <c r="A661" s="29">
         <v>656</v>
       </c>
@@ -31015,7 +31018,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="15.6" hidden="1">
+    <row r="662" spans="1:10" ht="15.6">
       <c r="A662" s="29">
         <v>657</v>
       </c>
@@ -31048,7 +31051,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="15.6" hidden="1">
+    <row r="663" spans="1:10" ht="15.6">
       <c r="A663" s="29">
         <v>658</v>
       </c>
@@ -31081,7 +31084,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="15.6" hidden="1">
+    <row r="664" spans="1:10" ht="15.6">
       <c r="A664" s="29">
         <v>659</v>
       </c>
@@ -31114,7 +31117,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="15.6" hidden="1">
+    <row r="665" spans="1:10" ht="15.6">
       <c r="A665" s="29">
         <v>660</v>
       </c>
@@ -31147,7 +31150,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="15.6" hidden="1">
+    <row r="666" spans="1:10" ht="15.6">
       <c r="A666" s="29">
         <v>661</v>
       </c>
@@ -31180,7 +31183,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="15.6" hidden="1">
+    <row r="667" spans="1:10" ht="15.6">
       <c r="A667" s="29">
         <v>662</v>
       </c>
@@ -31213,7 +31216,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="15.6" hidden="1">
+    <row r="668" spans="1:10" ht="15.6">
       <c r="A668" s="29">
         <v>663</v>
       </c>
@@ -31246,7 +31249,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="15.6" hidden="1">
+    <row r="669" spans="1:10" ht="15.6">
       <c r="A669" s="29">
         <v>664</v>
       </c>
@@ -31279,7 +31282,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="15.6" hidden="1">
+    <row r="670" spans="1:10" ht="15.6">
       <c r="A670" s="29">
         <v>665</v>
       </c>
@@ -31312,7 +31315,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="15.6" hidden="1">
+    <row r="671" spans="1:10" ht="15.6">
       <c r="A671" s="29">
         <v>666</v>
       </c>
@@ -31345,7 +31348,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="15.6" hidden="1">
+    <row r="672" spans="1:10" ht="15.6">
       <c r="A672" s="29">
         <v>667</v>
       </c>
@@ -31378,7 +31381,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="673" spans="1:23" ht="15.6" hidden="1">
+    <row r="673" spans="1:23" ht="15.6">
       <c r="A673" s="29">
         <v>668</v>
       </c>
@@ -31411,7 +31414,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="674" spans="1:23" ht="15.6" hidden="1">
+    <row r="674" spans="1:23" ht="15.6">
       <c r="A674" s="29">
         <v>669</v>
       </c>
@@ -31444,7 +31447,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="675" spans="1:23" s="23" customFormat="1" ht="15.6" hidden="1">
+    <row r="675" spans="1:23" s="23" customFormat="1" ht="15.6">
       <c r="A675" s="29">
         <v>670</v>
       </c>
@@ -31477,7 +31480,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="676" spans="1:23" ht="15.6" hidden="1">
+    <row r="676" spans="1:23" ht="15.6">
       <c r="A676" s="29">
         <v>671</v>
       </c>
@@ -31510,7 +31513,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="677" spans="1:23" ht="15.6" hidden="1">
+    <row r="677" spans="1:23" ht="15.6">
       <c r="A677" s="29">
         <v>672</v>
       </c>
@@ -31543,7 +31546,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="678" spans="1:23" ht="15.6" hidden="1">
+    <row r="678" spans="1:23" ht="15.6">
       <c r="A678" s="29">
         <v>673</v>
       </c>
@@ -31576,7 +31579,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="679" spans="1:23" s="7" customFormat="1" ht="31.2" hidden="1">
+    <row r="679" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A679" s="29">
         <v>674</v>
       </c>
@@ -31622,7 +31625,7 @@
       <c r="V679" s="3"/>
       <c r="W679" s="3"/>
     </row>
-    <row r="680" spans="1:23" ht="15.6" hidden="1">
+    <row r="680" spans="1:23" ht="15.6">
       <c r="A680" s="29">
         <v>675</v>
       </c>
@@ -31655,7 +31658,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="681" spans="1:23" ht="15.6" hidden="1">
+    <row r="681" spans="1:23" ht="15.6">
       <c r="A681" s="29">
         <v>676</v>
       </c>
@@ -31688,7 +31691,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="682" spans="1:23" ht="15.6" hidden="1">
+    <row r="682" spans="1:23" ht="15.6">
       <c r="A682" s="29">
         <v>677</v>
       </c>
@@ -31721,7 +31724,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="683" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="683" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A683" s="29">
         <v>678</v>
       </c>
@@ -31767,7 +31770,7 @@
       <c r="V683" s="3"/>
       <c r="W683" s="3"/>
     </row>
-    <row r="684" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="684" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A684" s="29">
         <v>679</v>
       </c>
@@ -31813,7 +31816,7 @@
       <c r="V684" s="3"/>
       <c r="W684" s="3"/>
     </row>
-    <row r="685" spans="1:23" ht="15.6" hidden="1">
+    <row r="685" spans="1:23" ht="15.6">
       <c r="A685" s="29">
         <v>680</v>
       </c>
@@ -31846,7 +31849,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="686" spans="1:23" ht="15.6" hidden="1">
+    <row r="686" spans="1:23" ht="15.6">
       <c r="A686" s="29">
         <v>681</v>
       </c>
@@ -31879,7 +31882,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="687" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="687" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A687" s="29">
         <v>682</v>
       </c>
@@ -31925,7 +31928,7 @@
       <c r="V687" s="3"/>
       <c r="W687" s="3"/>
     </row>
-    <row r="688" spans="1:23" ht="15.6" hidden="1">
+    <row r="688" spans="1:23" ht="15.6">
       <c r="A688" s="29">
         <v>683</v>
       </c>
@@ -31958,7 +31961,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="689" spans="1:23" ht="15.6" hidden="1">
+    <row r="689" spans="1:23" ht="15.6">
       <c r="A689" s="29">
         <v>684</v>
       </c>
@@ -31991,7 +31994,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="690" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="690" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A690" s="29">
         <v>685</v>
       </c>
@@ -32037,7 +32040,7 @@
       <c r="V690" s="3"/>
       <c r="W690" s="3"/>
     </row>
-    <row r="691" spans="1:23" ht="15.6" hidden="1">
+    <row r="691" spans="1:23" ht="15.6">
       <c r="A691" s="29">
         <v>686</v>
       </c>
@@ -32070,7 +32073,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="692" spans="1:23" ht="15.6" hidden="1">
+    <row r="692" spans="1:23" ht="15.6">
       <c r="A692" s="29">
         <v>687</v>
       </c>
@@ -32103,7 +32106,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="693" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="693" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A693" s="29">
         <v>688</v>
       </c>
@@ -32149,7 +32152,7 @@
       <c r="V693" s="3"/>
       <c r="W693" s="3"/>
     </row>
-    <row r="694" spans="1:23" ht="15.6" hidden="1">
+    <row r="694" spans="1:23" ht="15.6">
       <c r="A694" s="29">
         <v>689</v>
       </c>
@@ -32182,7 +32185,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="695" spans="1:23" ht="15.6" hidden="1">
+    <row r="695" spans="1:23" ht="15.6">
       <c r="A695" s="29">
         <v>690</v>
       </c>
@@ -32215,7 +32218,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="696" spans="1:23" ht="15.6" hidden="1">
+    <row r="696" spans="1:23" ht="15.6">
       <c r="A696" s="29">
         <v>691</v>
       </c>
@@ -32248,7 +32251,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="697" spans="1:23" ht="15.6" hidden="1">
+    <row r="697" spans="1:23" ht="15.6">
       <c r="A697" s="29">
         <v>692</v>
       </c>
@@ -32281,7 +32284,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="698" spans="1:23" ht="15.6" hidden="1">
+    <row r="698" spans="1:23" ht="15.6">
       <c r="A698" s="29">
         <v>693</v>
       </c>
@@ -32314,7 +32317,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="699" spans="1:23" ht="15.6" hidden="1">
+    <row r="699" spans="1:23" ht="15.6">
       <c r="A699" s="29">
         <v>694</v>
       </c>
@@ -32347,7 +32350,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="700" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="700" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A700" s="29">
         <v>695</v>
       </c>
@@ -32393,7 +32396,7 @@
       <c r="V700" s="3"/>
       <c r="W700" s="3"/>
     </row>
-    <row r="701" spans="1:23" s="7" customFormat="1" ht="15.6" hidden="1">
+    <row r="701" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A701" s="29">
         <v>696</v>
       </c>
@@ -32439,7 +32442,7 @@
       <c r="V701" s="3"/>
       <c r="W701" s="3"/>
     </row>
-    <row r="702" spans="1:23" ht="15.6" hidden="1">
+    <row r="702" spans="1:23" ht="15.6">
       <c r="A702" s="29">
         <v>697</v>
       </c>
@@ -32472,7 +32475,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="703" spans="1:23" ht="15.6" hidden="1">
+    <row r="703" spans="1:23" ht="15.6">
       <c r="A703" s="29">
         <v>698</v>
       </c>
@@ -32505,7 +32508,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="704" spans="1:23" ht="15.6" hidden="1">
+    <row r="704" spans="1:23" ht="15.6">
       <c r="A704" s="29">
         <v>699</v>
       </c>
@@ -32538,7 +32541,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="15.6" hidden="1">
+    <row r="705" spans="1:10" ht="15.6">
       <c r="A705" s="29">
         <v>700</v>
       </c>
@@ -32571,7 +32574,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="31.2" hidden="1">
+    <row r="706" spans="1:10" ht="31.2">
       <c r="A706" s="29">
         <v>701</v>
       </c>
@@ -32604,7 +32607,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="707" spans="1:10" ht="31.2" hidden="1">
+    <row r="707" spans="1:10" ht="31.2">
       <c r="A707" s="29">
         <v>404</v>
       </c>
@@ -32637,7 +32640,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="708" spans="1:10" ht="31.2" hidden="1">
+    <row r="708" spans="1:10" ht="31.2">
       <c r="A708" s="29">
         <v>703</v>
       </c>
@@ -32670,7 +32673,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="709" spans="1:10" ht="31.2" hidden="1">
+    <row r="709" spans="1:10" ht="31.2">
       <c r="A709" s="29">
         <v>704</v>
       </c>
@@ -32703,7 +32706,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="31.2" hidden="1">
+    <row r="710" spans="1:10" ht="31.2">
       <c r="A710" s="29">
         <v>705</v>
       </c>
@@ -32736,7 +32739,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="31.2" hidden="1">
+    <row r="711" spans="1:10" ht="31.2">
       <c r="A711" s="29">
         <v>706</v>
       </c>
@@ -32769,7 +32772,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="712" spans="1:10" ht="15.6" hidden="1">
+    <row r="712" spans="1:10" ht="15.6">
       <c r="A712" s="29">
         <v>707</v>
       </c>
@@ -32802,7 +32805,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="713" spans="1:10" ht="15.6" hidden="1">
+    <row r="713" spans="1:10" ht="15.6">
       <c r="A713" s="29">
         <v>708</v>
       </c>
@@ -32835,7 +32838,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="714" spans="1:10" ht="15.6" hidden="1">
+    <row r="714" spans="1:10" ht="15.6">
       <c r="A714" s="29">
         <v>709</v>
       </c>
@@ -32868,7 +32871,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="15.6" hidden="1">
+    <row r="715" spans="1:10" ht="15.6">
       <c r="A715" s="29">
         <v>710</v>
       </c>
@@ -32901,7 +32904,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="15.6" hidden="1">
+    <row r="716" spans="1:10" ht="15.6">
       <c r="A716" s="29">
         <v>711</v>
       </c>
@@ -32934,7 +32937,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="717" spans="1:10" ht="15.6" hidden="1">
+    <row r="717" spans="1:10" ht="15.6">
       <c r="A717" s="29">
         <v>712</v>
       </c>
@@ -32967,7 +32970,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="718" spans="1:10" ht="15.6" hidden="1">
+    <row r="718" spans="1:10" ht="15.6">
       <c r="A718" s="29">
         <v>713</v>
       </c>
@@ -33000,7 +33003,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="719" spans="1:10" ht="31.2" hidden="1">
+    <row r="719" spans="1:10" ht="31.2">
       <c r="A719" s="29">
         <v>714</v>
       </c>
@@ -33033,7 +33036,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="720" spans="1:10" ht="31.2" hidden="1">
+    <row r="720" spans="1:10" ht="31.2">
       <c r="A720" s="29">
         <v>715</v>
       </c>
@@ -33066,7 +33069,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="721" spans="1:10" ht="31.2" hidden="1">
+    <row r="721" spans="1:10" ht="31.2">
       <c r="A721" s="29">
         <v>716</v>
       </c>
@@ -33099,7 +33102,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="722" spans="1:10" ht="31.2" hidden="1">
+    <row r="722" spans="1:10" ht="31.2">
       <c r="A722" s="29">
         <v>717</v>
       </c>
@@ -33132,7 +33135,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="723" spans="1:10" ht="31.2" hidden="1">
+    <row r="723" spans="1:10" ht="31.2">
       <c r="A723" s="29">
         <v>718</v>
       </c>
@@ -33165,7 +33168,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="724" spans="1:10" ht="15.6" hidden="1">
+    <row r="724" spans="1:10" ht="15.6">
       <c r="A724" s="29">
         <v>719</v>
       </c>
@@ -33198,7 +33201,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="725" spans="1:10" ht="15.6" hidden="1">
+    <row r="725" spans="1:10" ht="15.6">
       <c r="A725" s="29">
         <v>720</v>
       </c>
@@ -33231,7 +33234,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="726" spans="1:10" ht="15.6" hidden="1">
+    <row r="726" spans="1:10" ht="15.6">
       <c r="A726" s="29">
         <v>721</v>
       </c>
@@ -33264,7 +33267,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="727" spans="1:10" ht="15.6" hidden="1">
+    <row r="727" spans="1:10" ht="15.6">
       <c r="A727" s="29">
         <v>722</v>
       </c>
@@ -33297,7 +33300,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="728" spans="1:10" ht="15.6" hidden="1">
+    <row r="728" spans="1:10" ht="15.6">
       <c r="A728" s="29">
         <v>723</v>
       </c>
@@ -33330,7 +33333,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="729" spans="1:10" ht="31.2" hidden="1">
+    <row r="729" spans="1:10" ht="31.2">
       <c r="A729" s="29">
         <v>724</v>
       </c>
@@ -33363,7 +33366,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="730" spans="1:10" ht="31.2" hidden="1">
+    <row r="730" spans="1:10" ht="31.2">
       <c r="A730" s="29">
         <v>725</v>
       </c>
@@ -33396,7 +33399,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="731" spans="1:10" ht="31.2" hidden="1">
+    <row r="731" spans="1:10" ht="31.2">
       <c r="A731" s="29">
         <v>726</v>
       </c>
@@ -33429,7 +33432,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="732" spans="1:10" ht="31.2" hidden="1">
+    <row r="732" spans="1:10" ht="31.2">
       <c r="A732" s="29">
         <v>727</v>
       </c>
@@ -33462,7 +33465,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="733" spans="1:10" ht="31.2" hidden="1">
+    <row r="733" spans="1:10" ht="31.2">
       <c r="A733" s="29">
         <v>728</v>
       </c>
@@ -33495,7 +33498,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="734" spans="1:10" s="23" customFormat="1" ht="15.6" hidden="1">
+    <row r="734" spans="1:10" s="23" customFormat="1" ht="15.6">
       <c r="A734" s="29">
         <v>729</v>
       </c>
@@ -33528,7 +33531,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="735" spans="1:10" ht="15.6" hidden="1">
+    <row r="735" spans="1:10" ht="15.6">
       <c r="A735" s="9">
         <v>730</v>
       </c>
@@ -33561,7 +33564,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="736" spans="1:10" ht="15.6" hidden="1">
+    <row r="736" spans="1:10" ht="15.6">
       <c r="A736" s="9">
         <v>731</v>
       </c>
@@ -33594,7 +33597,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="15.6" hidden="1">
+    <row r="737" spans="1:10" ht="15.6">
       <c r="A737" s="9">
         <v>732</v>
       </c>
@@ -33627,7 +33630,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="15.6" hidden="1">
+    <row r="738" spans="1:10" ht="15.6">
       <c r="A738" s="9">
         <v>733</v>
       </c>
@@ -33660,7 +33663,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="15.6" hidden="1">
+    <row r="739" spans="1:10" ht="15.6">
       <c r="A739" s="9">
         <v>734</v>
       </c>
@@ -33693,7 +33696,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="740" spans="1:10" ht="15.6" hidden="1">
+    <row r="740" spans="1:10" ht="15.6">
       <c r="A740" s="9">
         <v>735</v>
       </c>
@@ -33726,7 +33729,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="741" spans="1:10" ht="15.6" hidden="1">
+    <row r="741" spans="1:10" ht="15.6">
       <c r="A741" s="9">
         <v>736</v>
       </c>
@@ -33759,7 +33762,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="742" spans="1:10" ht="15.6" hidden="1">
+    <row r="742" spans="1:10" ht="15.6">
       <c r="A742" s="9">
         <v>737</v>
       </c>
@@ -33792,7 +33795,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="743" spans="1:10" ht="15.6" hidden="1">
+    <row r="743" spans="1:10" ht="15.6">
       <c r="A743" s="9">
         <v>738</v>
       </c>
@@ -33825,7 +33828,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="15.6" hidden="1">
+    <row r="744" spans="1:10" ht="15.6">
       <c r="A744" s="9">
         <v>739</v>
       </c>
@@ -33858,7 +33861,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="745" spans="1:10" ht="15.6" hidden="1">
+    <row r="745" spans="1:10" ht="15.6">
       <c r="A745" s="9">
         <v>740</v>
       </c>
@@ -33891,7 +33894,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="15.6" hidden="1">
+    <row r="746" spans="1:10" ht="15.6">
       <c r="A746" s="29">
         <v>349</v>
       </c>
@@ -33948,7 +33951,7 @@
       <c r="I748" s="28"/>
       <c r="J748" s="17"/>
     </row>
-    <row r="749" spans="1:10" ht="15.6" hidden="1">
+    <row r="749" spans="1:10" ht="15.6">
       <c r="A749" s="29">
         <v>143</v>
       </c>
@@ -33981,7 +33984,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="750" spans="1:10" ht="15.6" hidden="1">
+    <row r="750" spans="1:10" ht="15.6">
       <c r="A750" s="29">
         <v>261</v>
       </c>
@@ -34014,7 +34017,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="751" spans="1:10" ht="15.6" hidden="1">
+    <row r="751" spans="1:10" ht="15.6">
       <c r="A751" s="29">
         <v>334</v>
       </c>
@@ -34047,7 +34050,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="752" spans="1:10" ht="15.6" hidden="1">
+    <row r="752" spans="1:10" ht="15.6">
       <c r="A752" s="29">
         <v>428</v>
       </c>
@@ -34130,11 +34133,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:J756" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="임원"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A368:J752">
       <sortCondition ref="C4:C756"/>
     </sortState>

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98AE52-9D28-428E-B55D-2C9E9040A71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E3474D-FE98-403D-B015-AEDA18F670A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
+    <workbookView xWindow="1536" yWindow="720" windowWidth="13308" windowHeight="12240" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
   <sheets>
     <sheet name="참석인원명부_차수및 성별" sheetId="2" r:id="rId1"/>
@@ -7990,7 +7990,7 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F757" sqref="F757"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="1"/>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="S10" s="12">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" s="12">
         <f t="shared" si="4"/>
@@ -8514,15 +8514,15 @@
       </c>
       <c r="U10" s="12">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V10" s="12">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" s="12">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.6">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R14" s="12">
         <f t="shared" si="1"/>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="S14" s="12">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T14" s="12">
         <f t="shared" si="4"/>
@@ -8858,15 +8858,15 @@
       </c>
       <c r="U15" s="12">
         <f t="shared" si="8"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V15" s="12">
         <f t="shared" si="8"/>
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="8"/>
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.6">
@@ -9372,7 +9372,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="31.2">
+    <row r="30" spans="1:23" ht="15.6">
       <c r="A30" s="29">
         <v>25</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="31.2">
+    <row r="31" spans="1:23" ht="15.6">
       <c r="A31" s="29">
         <v>26</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31.2">
+    <row r="71" spans="1:10" ht="15.6">
       <c r="A71" s="29">
         <v>66</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="31.2">
+    <row r="72" spans="1:10" ht="15.6">
       <c r="A72" s="29">
         <v>67</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.2">
+    <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="29">
         <v>70</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="96" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A96" s="29">
         <v>91</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
     </row>
-    <row r="97" spans="1:23" ht="31.2">
+    <row r="97" spans="1:23" ht="15.6">
       <c r="A97" s="29">
         <v>92</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="31.2">
+    <row r="98" spans="1:23" ht="15.6">
       <c r="A98" s="29">
         <v>93</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="31.2">
+    <row r="99" spans="1:23" ht="15.6">
       <c r="A99" s="29">
         <v>94</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="31.2">
+    <row r="137" spans="1:10" ht="15.6">
       <c r="A137" s="29">
         <v>132</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="31.2">
+    <row r="138" spans="1:10" ht="15.6">
       <c r="A138" s="29">
         <v>133</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="31.2">
+    <row r="140" spans="1:10" ht="15.6">
       <c r="A140" s="29">
         <v>135</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="31.2">
+    <row r="142" spans="1:10" ht="15.6">
       <c r="A142" s="29">
         <v>137</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="31.2">
+    <row r="164" spans="1:10" ht="15.6">
       <c r="A164" s="29">
         <v>209</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="182" spans="1:23" s="11" customFormat="1" ht="31.2">
+    <row r="182" spans="1:23" s="11" customFormat="1" ht="15.6">
       <c r="A182" s="29">
         <v>170</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="31.2">
+    <row r="215" spans="1:12" ht="15.6">
       <c r="A215" s="29">
         <v>171</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="31.2">
+    <row r="246" spans="1:23" ht="15.6">
       <c r="A246" s="29">
         <v>243</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="31.2">
+    <row r="251" spans="1:23" ht="15.6">
       <c r="A251" s="29">
         <v>215</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="253" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="253" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A253" s="29">
         <v>248</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="31.2">
+    <row r="277" spans="1:23" ht="15.6">
       <c r="A277" s="29">
         <v>245</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="279" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="279" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A279" s="29">
         <v>625</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="31.2">
+    <row r="281" spans="1:23" ht="15.6">
       <c r="A281" s="29">
         <v>246</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="31.2">
+    <row r="282" spans="1:23" ht="15.6">
       <c r="A282" s="29">
         <v>244</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="31.2">
+    <row r="286" spans="1:23" ht="15.6">
       <c r="A286" s="29">
         <v>247</v>
       </c>
@@ -19490,7 +19490,7 @@
       <c r="V325" s="3"/>
       <c r="W325" s="3"/>
     </row>
-    <row r="326" spans="1:23" ht="31.2">
+    <row r="326" spans="1:23" ht="15.6">
       <c r="A326" s="29">
         <v>288</v>
       </c>
@@ -20090,7 +20090,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="31.2">
+    <row r="343" spans="1:23" ht="15.6">
       <c r="A343" s="29">
         <v>287</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="31.2">
+    <row r="364" spans="1:23" ht="15.6">
       <c r="A364" s="29">
         <v>293</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="31.2">
+    <row r="365" spans="1:23" ht="15.6">
       <c r="A365" s="29">
         <v>317</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="31.2">
+    <row r="372" spans="1:10" ht="15.6">
       <c r="A372" s="29">
         <v>393</v>
       </c>
@@ -21282,7 +21282,7 @@
       <c r="I379" s="28"/>
       <c r="J379" s="17"/>
     </row>
-    <row r="380" spans="1:10" ht="31.2">
+    <row r="380" spans="1:10" ht="15.6">
       <c r="A380" s="29">
         <v>392</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="31.2">
+    <row r="388" spans="1:23" ht="15.6">
       <c r="A388" s="29">
         <v>541</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="389" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="389" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A389" s="29">
         <v>434</v>
       </c>
@@ -22007,7 +22007,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="31.2">
+    <row r="400" spans="1:23" ht="15.6">
       <c r="A400" s="29">
         <v>366</v>
       </c>
@@ -22838,7 +22838,7 @@
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
     </row>
-    <row r="424" spans="1:23" ht="31.2">
+    <row r="424" spans="1:23" ht="15.6">
       <c r="A424" s="29">
         <v>394</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="31.2">
+    <row r="435" spans="1:10" ht="15.6">
       <c r="A435" s="29">
         <v>702</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="31.2">
+    <row r="442" spans="1:10" ht="15.6">
       <c r="A442" s="29">
         <v>437</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="31.2">
+    <row r="450" spans="1:23" ht="15.6">
       <c r="A450" s="29">
         <v>445</v>
       </c>
@@ -24560,7 +24560,7 @@
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
-    <row r="475" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="475" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A475" s="29">
         <v>470</v>
       </c>
@@ -24606,7 +24606,7 @@
       <c r="V475" s="3"/>
       <c r="W475" s="3"/>
     </row>
-    <row r="476" spans="1:23" ht="31.2">
+    <row r="476" spans="1:23" ht="15.6">
       <c r="A476" s="29">
         <v>471</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
-    <row r="545" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="545" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A545" s="29">
         <v>540</v>
       </c>
@@ -27079,7 +27079,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="547" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="547" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A547" s="29">
         <v>542</v>
       </c>
@@ -28967,7 +28967,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="31.2">
+    <row r="603" spans="1:12" ht="15.6">
       <c r="A603" s="29">
         <v>598</v>
       </c>
@@ -29751,7 +29751,7 @@
       <c r="V623" s="3"/>
       <c r="W623" s="3"/>
     </row>
-    <row r="624" spans="1:23" ht="31.2">
+    <row r="624" spans="1:23" ht="15.6">
       <c r="A624" s="29">
         <v>619</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="625" spans="1:23" ht="31.2">
+    <row r="625" spans="1:23" ht="15.6">
       <c r="A625" s="29">
         <v>620</v>
       </c>
@@ -29817,7 +29817,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="626" spans="1:23" ht="31.2">
+    <row r="626" spans="1:23" ht="15.6">
       <c r="A626" s="29">
         <v>621</v>
       </c>
@@ -29850,7 +29850,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="627" spans="1:23" ht="31.2">
+    <row r="627" spans="1:23" ht="15.6">
       <c r="A627" s="29">
         <v>622</v>
       </c>
@@ -29883,7 +29883,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="628" spans="1:23" ht="31.2">
+    <row r="628" spans="1:23" ht="15.6">
       <c r="A628" s="29">
         <v>623</v>
       </c>
@@ -29916,7 +29916,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="629" spans="1:23" ht="31.2">
+    <row r="629" spans="1:23" ht="15.6">
       <c r="A629" s="29">
         <v>624</v>
       </c>
@@ -31579,7 +31579,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="679" spans="1:23" s="7" customFormat="1" ht="31.2">
+    <row r="679" spans="1:23" s="7" customFormat="1" ht="15.6">
       <c r="A679" s="29">
         <v>674</v>
       </c>
@@ -32157,7 +32157,7 @@
         <v>689</v>
       </c>
       <c r="B694" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C694" s="30" t="s">
         <v>823</v>
@@ -32182,7 +32182,7 @@
       </c>
       <c r="J694" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>10/1(수)~10/2(목)</v>
+        <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
     <row r="695" spans="1:23" ht="15.6">
@@ -32574,7 +32574,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="31.2">
+    <row r="706" spans="1:10" ht="15.6">
       <c r="A706" s="29">
         <v>701</v>
       </c>
@@ -32640,7 +32640,7 @@
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
-    <row r="708" spans="1:10" ht="31.2">
+    <row r="708" spans="1:10" ht="15.6">
       <c r="A708" s="29">
         <v>703</v>
       </c>
@@ -32673,7 +32673,7 @@
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
-    <row r="709" spans="1:10" ht="31.2">
+    <row r="709" spans="1:10" ht="15.6">
       <c r="A709" s="29">
         <v>704</v>
       </c>
@@ -32706,7 +32706,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="31.2">
+    <row r="710" spans="1:10" ht="15.6">
       <c r="A710" s="29">
         <v>705</v>
       </c>
@@ -32739,7 +32739,7 @@
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="31.2">
+    <row r="711" spans="1:10" ht="15.6">
       <c r="A711" s="29">
         <v>706</v>
       </c>
@@ -34573,7 +34573,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.2">
+    <row r="26" spans="1:5" ht="15.6">
       <c r="A26" s="9">
         <v>21</v>
       </c>
@@ -34590,7 +34590,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="31.2">
+    <row r="27" spans="1:5" s="7" customFormat="1" ht="15.6">
       <c r="A27" s="9">
         <v>22</v>
       </c>
@@ -34607,7 +34607,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.2">
+    <row r="28" spans="1:5" ht="15.6">
       <c r="A28" s="9">
         <v>23</v>
       </c>
@@ -34624,7 +34624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.2">
+    <row r="29" spans="1:5" ht="15.6">
       <c r="A29" s="9">
         <v>24</v>
       </c>
@@ -35270,7 +35270,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="31.2">
+    <row r="67" spans="1:5" ht="15.6">
       <c r="A67" s="9">
         <v>62</v>
       </c>
@@ -35287,7 +35287,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="31.2">
+    <row r="68" spans="1:5" ht="15.6">
       <c r="A68" s="9">
         <v>63</v>
       </c>
@@ -35321,7 +35321,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="31.2">
+    <row r="70" spans="1:5" ht="15.6">
       <c r="A70" s="9">
         <v>65</v>
       </c>
@@ -35355,7 +35355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="31.2">
+    <row r="72" spans="1:5" ht="15.6">
       <c r="A72" s="9">
         <v>67</v>
       </c>

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B35109-CB5E-4158-9D51-F1059D1451E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B829B5-B31E-433E-937E-C16430A67D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -8017,7 +8017,7 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E762" sqref="E762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="Q9" s="12">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R9" s="12">
         <f t="shared" si="1"/>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="S9" s="12">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T9" s="12">
         <f t="shared" si="4"/>
@@ -8471,15 +8471,15 @@
       </c>
       <c r="U9" s="12">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V9" s="12">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W9" s="12">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.6">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="1"/>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="S10" s="12">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T10" s="12">
         <f t="shared" si="4"/>
@@ -8885,15 +8885,15 @@
       </c>
       <c r="U15" s="12">
         <f t="shared" si="8"/>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V15" s="12">
         <f t="shared" si="8"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="8"/>
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.6">
@@ -15256,9 +15256,7 @@
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.6">
-      <c r="A200" s="29">
-        <v>152</v>
-      </c>
+      <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="30"/>
       <c r="D200" s="30"/>
@@ -15636,9 +15634,7 @@
       </c>
     </row>
     <row r="212" spans="1:12" s="10" customFormat="1" ht="15.6">
-      <c r="A212" s="29">
-        <v>207</v>
-      </c>
+      <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="30"/>
       <c r="D212" s="30"/>
@@ -17145,9 +17141,7 @@
       </c>
     </row>
     <row r="257" spans="1:23" s="11" customFormat="1" ht="15.6">
-      <c r="A257" s="29">
-        <v>213</v>
-      </c>
+      <c r="A257" s="29"/>
       <c r="B257" s="29"/>
       <c r="C257" s="30"/>
       <c r="D257" s="30"/>
@@ -17342,7 +17336,7 @@
         <v>225</v>
       </c>
       <c r="B263" s="29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C263" s="30" t="s">
         <v>340</v>
@@ -17367,7 +17361,7 @@
       </c>
       <c r="J263" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>9/8(월)~9/9(화)</v>
+        <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
     <row r="264" spans="1:23" ht="31.2">
@@ -17483,9 +17477,7 @@
       <c r="W266" s="3"/>
     </row>
     <row r="267" spans="1:23" ht="15.6">
-      <c r="A267" s="29">
-        <v>219</v>
-      </c>
+      <c r="A267" s="29"/>
       <c r="B267" s="29"/>
       <c r="C267" s="30"/>
       <c r="D267" s="30"/>
@@ -19661,7 +19653,7 @@
         <v>306</v>
       </c>
       <c r="B331" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C331" s="30" t="s">
         <v>431</v>
@@ -19686,7 +19678,7 @@
       </c>
       <c r="J331" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>9/10(수)~9/11(목)</v>
+        <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
     <row r="332" spans="1:23" ht="15.6">
@@ -22357,9 +22349,7 @@
       </c>
     </row>
     <row r="409" spans="1:23" ht="15.6">
-      <c r="A409" s="29">
-        <v>421</v>
-      </c>
+      <c r="A409" s="29"/>
       <c r="B409" s="29"/>
       <c r="C409" s="30"/>
       <c r="D409" s="30"/>
@@ -23489,9 +23479,7 @@
       </c>
     </row>
     <row r="443" spans="1:10" ht="15.6">
-      <c r="A443" s="29">
-        <v>438</v>
-      </c>
+      <c r="A443" s="29"/>
       <c r="B443" s="29"/>
       <c r="C443" s="30"/>
       <c r="D443" s="30"/>
@@ -24825,9 +24813,7 @@
       </c>
     </row>
     <row r="482" spans="1:23" ht="15.6">
-      <c r="A482" s="29">
-        <v>477</v>
-      </c>
+      <c r="A482" s="29"/>
       <c r="B482" s="29"/>
       <c r="C482" s="30"/>
       <c r="D482" s="30"/>
@@ -26370,7 +26356,7 @@
         <v>523</v>
       </c>
       <c r="B528" s="29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C528" s="30" t="s">
         <v>649</v>
@@ -26395,7 +26381,7 @@
       </c>
       <c r="J528" s="32" t="str">
         <f t="shared" si="16"/>
-        <v>9/22(월)~9/23(화)</v>
+        <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
     <row r="529" spans="1:23" ht="15.6">
@@ -27576,7 +27562,7 @@
         <v>556</v>
       </c>
       <c r="B561" s="29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C561" s="30" t="s">
         <v>683</v>
@@ -27601,7 +27587,7 @@
       </c>
       <c r="J561" s="32" t="str">
         <f t="shared" si="17"/>
-        <v>9/22(월)~9/23(화)</v>
+        <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
     <row r="562" spans="1:10" ht="15.6">
@@ -33197,7 +33183,7 @@
         <v>720</v>
       </c>
       <c r="B725" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C725" s="30" t="s">
         <v>848</v>
@@ -33222,7 +33208,7 @@
       </c>
       <c r="J725" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>10/1(수)~10/2(목)</v>
+        <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
     <row r="726" spans="1:10" ht="15.6">

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B829B5-B31E-433E-937E-C16430A67D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C206F33-E3F6-4020-95F7-368B8F08EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -8017,7 +8017,7 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E762" sqref="E762"/>
+      <selection activeCell="D761" sqref="D761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="Q10" s="12">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="1"/>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="S10" s="12">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T10" s="12">
         <f t="shared" si="4"/>
@@ -8541,15 +8541,15 @@
       </c>
       <c r="U10" s="12">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V10" s="12">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W10" s="12">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.6">
@@ -8595,11 +8595,11 @@
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S11" s="12">
         <f t="shared" si="2"/>
@@ -8805,31 +8805,31 @@
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R14" s="12">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S14" s="12">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T14" s="12">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U14" s="12">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V14" s="12">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W14" s="12">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.6">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="T15" s="12">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U15" s="12">
         <f t="shared" si="8"/>
@@ -8889,11 +8889,11 @@
       </c>
       <c r="V15" s="12">
         <f t="shared" si="8"/>
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="8"/>
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.6">
@@ -21694,7 +21694,7 @@
         <v>368</v>
       </c>
       <c r="B391" s="29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C391" s="30" t="s">
         <v>497</v>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="J391" s="32" t="str">
         <f t="shared" si="14"/>
-        <v>9/15(월)~9/16(화)</v>
+        <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
@@ -22188,7 +22188,7 @@
         <v>376</v>
       </c>
       <c r="B404" s="29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C404" s="30" t="s">
         <v>507</v>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="J404" s="32" t="str">
         <f t="shared" si="14"/>
-        <v>9/15(월)~9/16(화)</v>
+        <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
     <row r="405" spans="1:23" ht="31.2">
@@ -25960,7 +25960,7 @@
         <v>511</v>
       </c>
       <c r="B516" s="29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C516" s="30" t="s">
         <v>637</v>
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J516" s="32" t="str">
         <f t="shared" si="16"/>
-        <v>9/17(수)~9/18(목)</v>
+        <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="15.6">

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C206F33-E3F6-4020-95F7-368B8F08EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280BE500-3D20-4278-909A-D37E58B504B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -8016,8 +8016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
   <dimension ref="A1:W756"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D761" sqref="D761"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A455" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D472" sqref="D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8595,11 +8595,11 @@
       </c>
       <c r="Q11" s="12">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S11" s="12">
         <f t="shared" si="2"/>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="T11" s="12">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U11" s="12">
         <f t="shared" si="4"/>
@@ -8615,11 +8615,11 @@
       </c>
       <c r="V11" s="12">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" s="12">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.6">
@@ -8805,11 +8805,11 @@
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R14" s="12">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S14" s="12">
         <f t="shared" si="2"/>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="T15" s="12">
         <f t="shared" si="8"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U15" s="12">
         <f t="shared" si="8"/>
@@ -8889,11 +8889,11 @@
       </c>
       <c r="V15" s="12">
         <f t="shared" si="8"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W15" s="12">
         <f t="shared" si="8"/>
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.6">
@@ -24395,7 +24395,7 @@
         <v>465</v>
       </c>
       <c r="B470" s="29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C470" s="30" t="s">
         <v>592</v>
@@ -24420,7 +24420,7 @@
       </c>
       <c r="J470" s="32" t="str">
         <f t="shared" si="15"/>
-        <v>9/17(수)~9/18(목)</v>
+        <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
     <row r="471" spans="1:23" ht="15.6">

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280BE500-3D20-4278-909A-D37E58B504B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B5F4E0-393D-4E58-9047-3A1FB45CB74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">참석인원명부_2차수!$A$4:$E$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'참석인원명부_차수및 성별'!$A$4:$J$756</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">참석인원명부_2차수!$A$1:$E$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'참석인원명부_차수및 성별'!$A$1:$W$756</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'참석인원명부_차수및 성별'!$A$1:$W$757</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5476" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="2400">
   <si>
     <t>● 25년 전사 워크숍 참석인원 명부</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7372,6 +7372,28 @@
   </si>
   <si>
     <t>770113-2067325</t>
+  </si>
+  <si>
+    <t>양승환</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영혁신부문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류운영담당(인도장)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01066911006</t>
+  </si>
+  <si>
+    <t>891006-1481510</t>
   </si>
 </sst>
 </file>
@@ -7381,7 +7403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -7472,8 +7494,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7514,6 +7542,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -7578,7 +7611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7685,6 +7718,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8014,10 +8053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
-  <dimension ref="A1:W756"/>
+  <dimension ref="A1:W757"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A455" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D472" sqref="D472"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A739" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J757" sqref="J757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8665,7 +8704,7 @@
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" s="12">
         <f t="shared" si="1"/>
@@ -8869,7 +8908,7 @@
       </c>
       <c r="Q15" s="12">
         <f>SUM(Q5:Q14)</f>
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="R15" s="12">
         <f t="shared" ref="R15:W15" si="8">SUM(R5:R14)</f>
@@ -34220,6 +34259,32 @@
       <c r="J756" s="17" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" ht="15.6">
+      <c r="B757" s="3">
+        <v>8</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D757" s="36" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E757" s="37" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F757" s="36" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G757" s="36" t="s">
+        <v>2397</v>
+      </c>
+      <c r="H757" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I757" s="36" t="s">
+        <v>2399</v>
       </c>
     </row>
   </sheetData>
@@ -34247,7 +34312,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="11" max="755" man="1"/>
+    <brk id="11" max="756" man="1"/>
     <brk id="23" max="751" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E2990-C961-4BD3-ADD0-A9A63DB8AE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF63FF53-0321-4003-8B4A-06AA2C11252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -8010,8 +8010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
   <dimension ref="A1:W752"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A444" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K458" sqref="K458"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A405" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8168,15 +8168,15 @@
         <v>1</v>
       </c>
       <c r="Q5" s="12">
-        <f>COUNTIF(B:B,P5)</f>
+        <f t="shared" ref="Q5:Q14" si="0">COUNTIF(B:B,P5)</f>
         <v>69</v>
       </c>
       <c r="R5" s="12">
-        <f>COUNTIFS(B:B,P5,G:G,$R$4)</f>
+        <f t="shared" ref="R5:R14" si="1">COUNTIFS(B:B,P5,G:G,$R$4)</f>
         <v>22</v>
       </c>
       <c r="S5" s="12">
-        <f>COUNTIFS(B:B,P5,G:G,$S$4)</f>
+        <f t="shared" ref="S5:S14" si="2">COUNTIFS(B:B,P5,G:G,$S$4)</f>
         <v>47</v>
       </c>
       <c r="T5" s="12">
@@ -8225,7 +8225,7 @@
         <v>884</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:J10" si="0">VLOOKUP(B6,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J6:J10" si="3">VLOOKUP(B6,$L$5:$M$14,2)</f>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L6" s="12">
@@ -8238,31 +8238,31 @@
         <v>2</v>
       </c>
       <c r="Q6" s="12">
-        <f>COUNTIF(B:B,P6)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="R6" s="12">
-        <f>COUNTIFS(B:B,P6,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S6" s="12">
-        <f>COUNTIFS(B:B,P6,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="T6" s="12">
-        <f t="shared" ref="T6:U14" si="1">ROUNDUP(R6/2,0)</f>
+        <f t="shared" ref="T6:U14" si="4">ROUNDUP(R6/2,0)</f>
         <v>13</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="V6" s="12">
-        <f t="shared" ref="V6:V14" si="2">SUM(T6:U6)</f>
+        <f t="shared" ref="V6:V14" si="5">SUM(T6:U6)</f>
         <v>37</v>
       </c>
       <c r="W6" s="12">
-        <f t="shared" ref="W6:W14" si="3">V6+6</f>
+        <f t="shared" ref="W6:W14" si="6">V6+6</f>
         <v>43</v>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
         <v>890</v>
       </c>
       <c r="J7" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L7" s="12">
@@ -8308,31 +8308,31 @@
         <v>3</v>
       </c>
       <c r="Q7" s="12">
-        <f>COUNTIF(B:B,P7)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="R7" s="12">
-        <f>COUNTIFS(B:B,P7,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="S7" s="12">
-        <f>COUNTIFS(B:B,P7,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="V7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="W7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
         <v>943</v>
       </c>
       <c r="J8" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L8" s="12">
@@ -8378,31 +8378,31 @@
         <v>4</v>
       </c>
       <c r="Q8" s="12">
-        <f>COUNTIF(B:B,P8)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="R8" s="12">
-        <f>COUNTIFS(B:B,P8,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="S8" s="12">
-        <f>COUNTIFS(B:B,P8,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
         <v>951</v>
       </c>
       <c r="J9" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L9" s="12">
@@ -8448,31 +8448,31 @@
         <v>5</v>
       </c>
       <c r="Q9" s="12">
-        <f>COUNTIF(B:B,P9)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="R9" s="12">
-        <f>COUNTIFS(B:B,P9,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="S9" s="12">
-        <f>COUNTIFS(B:B,P9,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="V9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="W9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
         <v>963</v>
       </c>
       <c r="J10" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L10" s="12">
@@ -8518,31 +8518,31 @@
         <v>6</v>
       </c>
       <c r="Q10" s="12">
-        <f>COUNTIF(B:B,P10)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="R10" s="12">
-        <f>COUNTIFS(B:B,P10,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="S10" s="12">
-        <f>COUNTIFS(B:B,P10,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="V10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
         <v>1007</v>
       </c>
       <c r="J11" s="13" t="str">
-        <f t="shared" ref="J11:J74" si="4">VLOOKUP(B11,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J11:J74" si="7">VLOOKUP(B11,$L$5:$M$14,2)</f>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="L11" s="12">
@@ -8588,32 +8588,32 @@
         <v>7</v>
       </c>
       <c r="Q11" s="12">
-        <f>COUNTIF(B:B,P11)</f>
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="R11" s="12">
-        <f>COUNTIFS(B:B,P11,G:G,$R$4)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="S11" s="12">
-        <f>COUNTIFS(B:B,P11,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="V11" s="12">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>38</v>
       </c>
       <c r="W11" s="12">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.6">
@@ -8645,7 +8645,7 @@
         <v>1025</v>
       </c>
       <c r="J12" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L12" s="12">
@@ -8658,31 +8658,31 @@
         <v>8</v>
       </c>
       <c r="Q12" s="12">
-        <f>COUNTIF(B:B,P12)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="R12" s="12">
-        <f>COUNTIFS(B:B,P12,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S12" s="12">
-        <f>COUNTIFS(B:B,P12,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
         <v>1083</v>
       </c>
       <c r="J13" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L13" s="12">
@@ -8728,32 +8728,32 @@
         <v>9</v>
       </c>
       <c r="Q13" s="12">
-        <f>COUNTIF(B:B,P13)</f>
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
       <c r="R13" s="12">
-        <f>COUNTIFS(B:B,P13,G:G,$R$4)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="S13" s="12">
-        <f>COUNTIFS(B:B,P13,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="T13" s="12">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="V13" s="12">
         <f>SUM(T13:U13)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.6">
@@ -8785,7 +8785,7 @@
         <v>1102</v>
       </c>
       <c r="J14" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L14" s="12">
@@ -8798,31 +8798,31 @@
         <v>10</v>
       </c>
       <c r="Q14" s="12">
-        <f>COUNTIF(B:B,P14)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="R14" s="12">
-        <f>COUNTIFS(B:B,P14,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="S14" s="12">
-        <f>COUNTIFS(B:B,P14,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="V14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
         <v>1176</v>
       </c>
       <c r="J15" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -8866,27 +8866,27 @@
         <v>730</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15:W15" si="5">SUM(R5:R14)</f>
+        <f t="shared" ref="R15:W15" si="8">SUM(R5:R14)</f>
         <v>245</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>484</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="V15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>369</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>429</v>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
         <v>1238</v>
       </c>
       <c r="J16" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -8952,7 +8952,7 @@
         <v>1282</v>
       </c>
       <c r="J17" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
         <v>1292</v>
       </c>
       <c r="J18" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
         <v>1314</v>
       </c>
       <c r="J19" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="N19" s="25"/>
@@ -9052,7 +9052,7 @@
         <v>1356</v>
       </c>
       <c r="J20" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K20" s="3"/>
@@ -9098,7 +9098,7 @@
         <v>1366</v>
       </c>
       <c r="J21" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="N21" s="26"/>
@@ -9132,7 +9132,7 @@
         <v>1374</v>
       </c>
       <c r="J22" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="K22" s="3"/>
@@ -9178,7 +9178,7 @@
         <v>1396</v>
       </c>
       <c r="J23" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9211,7 +9211,7 @@
         <v>1398</v>
       </c>
       <c r="J24" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="K24" s="3"/>
@@ -9257,7 +9257,7 @@
         <v>1416</v>
       </c>
       <c r="J25" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9290,7 +9290,7 @@
         <v>1426</v>
       </c>
       <c r="J26" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
         <v>1430</v>
       </c>
       <c r="J27" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9356,7 +9356,7 @@
         <v>1448</v>
       </c>
       <c r="J28" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9389,7 +9389,7 @@
         <v>1462</v>
       </c>
       <c r="J29" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9422,7 +9422,7 @@
         <v>1492</v>
       </c>
       <c r="J30" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9455,7 +9455,7 @@
         <v>1576</v>
       </c>
       <c r="J31" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9488,7 +9488,7 @@
         <v>1594</v>
       </c>
       <c r="J32" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
         <v>1611</v>
       </c>
       <c r="J33" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9554,7 +9554,7 @@
         <v>1617</v>
       </c>
       <c r="J34" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
         <v>1645</v>
       </c>
       <c r="J35" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9620,7 +9620,7 @@
         <v>1671</v>
       </c>
       <c r="J36" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
         <v>1741</v>
       </c>
       <c r="J37" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
         <v>1747</v>
       </c>
       <c r="J38" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9719,7 +9719,7 @@
         <v>1777</v>
       </c>
       <c r="J39" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
         <v>1799</v>
       </c>
       <c r="J40" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9785,7 +9785,7 @@
         <v>1807</v>
       </c>
       <c r="J41" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="K41" s="3"/>
@@ -9831,7 +9831,7 @@
         <v>1815</v>
       </c>
       <c r="J42" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9864,7 +9864,7 @@
         <v>1854</v>
       </c>
       <c r="J43" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="K43" s="3"/>
@@ -9910,7 +9910,7 @@
         <v>1866</v>
       </c>
       <c r="J44" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
         <v>1880</v>
       </c>
       <c r="J45" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
         <v>1918</v>
       </c>
       <c r="J46" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10009,7 +10009,7 @@
         <v>1966</v>
       </c>
       <c r="J47" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10042,7 +10042,7 @@
         <v>1982</v>
       </c>
       <c r="J48" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
         <v>1990</v>
       </c>
       <c r="J49" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
         <v>1996</v>
       </c>
       <c r="J50" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
         <v>1998</v>
       </c>
       <c r="J51" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10174,7 +10174,7 @@
         <v>2014</v>
       </c>
       <c r="J52" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10207,7 +10207,7 @@
         <v>2016</v>
       </c>
       <c r="J53" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
         <v>2118</v>
       </c>
       <c r="J54" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10273,7 +10273,7 @@
         <v>2130</v>
       </c>
       <c r="J55" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10306,7 +10306,7 @@
         <v>2132</v>
       </c>
       <c r="J56" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
         <v>2140</v>
       </c>
       <c r="J57" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10372,7 +10372,7 @@
         <v>2154</v>
       </c>
       <c r="J58" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10405,7 +10405,7 @@
         <v>2168</v>
       </c>
       <c r="J59" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -10438,7 +10438,7 @@
         <v>2212</v>
       </c>
       <c r="J60" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
         <v>2222</v>
       </c>
       <c r="J61" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10504,7 +10504,7 @@
         <v>2226</v>
       </c>
       <c r="J62" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L62" s="2"/>
@@ -10538,7 +10538,7 @@
         <v>2254</v>
       </c>
       <c r="J63" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
         <v>2262</v>
       </c>
       <c r="J64" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10604,7 +10604,7 @@
         <v>2280</v>
       </c>
       <c r="J65" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
         <v>2302</v>
       </c>
       <c r="J66" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
         <v>2316</v>
       </c>
       <c r="J67" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10703,7 +10703,7 @@
         <v>2330</v>
       </c>
       <c r="J68" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10736,7 +10736,7 @@
         <v>2224</v>
       </c>
       <c r="J69" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
         <v>1258</v>
       </c>
       <c r="J70" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10802,7 +10802,7 @@
         <v>1522</v>
       </c>
       <c r="J71" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
         <v>1568</v>
       </c>
       <c r="J72" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10868,7 +10868,7 @@
         <v>2128</v>
       </c>
       <c r="J73" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
         <v>1146</v>
       </c>
       <c r="J74" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10934,7 +10934,7 @@
         <v>1532</v>
       </c>
       <c r="J75" s="32" t="str">
-        <f t="shared" ref="J75:J87" si="6">VLOOKUP(B75,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J75:J87" si="9">VLOOKUP(B75,$L$5:$M$14,2)</f>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10967,7 +10967,7 @@
         <v>894</v>
       </c>
       <c r="J76" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11000,7 +11000,7 @@
         <v>906</v>
       </c>
       <c r="J77" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
         <v>929</v>
       </c>
       <c r="J78" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11066,7 +11066,7 @@
         <v>933</v>
       </c>
       <c r="J79" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11099,7 +11099,7 @@
         <v>987</v>
       </c>
       <c r="J80" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11132,7 +11132,7 @@
         <v>1011</v>
       </c>
       <c r="J81" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11165,7 +11165,7 @@
         <v>1033</v>
       </c>
       <c r="J82" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
         <v>1089</v>
       </c>
       <c r="J83" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
         <v>1096</v>
       </c>
       <c r="J84" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11264,7 +11264,7 @@
         <v>1160</v>
       </c>
       <c r="J85" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
         <v>1164</v>
       </c>
       <c r="J86" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11330,7 +11330,7 @@
         <v>1222</v>
       </c>
       <c r="J87" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K87" s="3"/>
@@ -11376,7 +11376,7 @@
         <v>1474</v>
       </c>
       <c r="J88" s="32" t="str">
-        <f t="shared" ref="J88:J151" si="7">VLOOKUP(B88,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J88:J151" si="10">VLOOKUP(B88,$L$5:$M$14,2)</f>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -11409,7 +11409,7 @@
         <v>1254</v>
       </c>
       <c r="J89" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11442,7 +11442,7 @@
         <v>1274</v>
       </c>
       <c r="J90" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11475,7 +11475,7 @@
         <v>1340</v>
       </c>
       <c r="J91" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11508,7 +11508,7 @@
         <v>1344</v>
       </c>
       <c r="J92" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K92" s="3"/>
@@ -11554,7 +11554,7 @@
         <v>1388</v>
       </c>
       <c r="J93" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11587,7 +11587,7 @@
         <v>1452</v>
       </c>
       <c r="J94" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K94" s="3"/>
@@ -11633,7 +11633,7 @@
         <v>1476</v>
       </c>
       <c r="J95" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11666,7 +11666,7 @@
         <v>1488</v>
       </c>
       <c r="J96" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K96" s="3"/>
@@ -11712,7 +11712,7 @@
         <v>1538</v>
       </c>
       <c r="J97" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
         <v>1566</v>
       </c>
       <c r="J98" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11778,7 +11778,7 @@
         <v>1588</v>
       </c>
       <c r="J99" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11811,7 +11811,7 @@
         <v>1602</v>
       </c>
       <c r="J100" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11844,7 +11844,7 @@
         <v>1609</v>
       </c>
       <c r="J101" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K101" s="3"/>
@@ -11890,7 +11890,7 @@
         <v>1639</v>
       </c>
       <c r="J102" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K102" s="3"/>
@@ -11936,7 +11936,7 @@
         <v>1659</v>
       </c>
       <c r="J103" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11969,7 +11969,7 @@
         <v>1667</v>
       </c>
       <c r="J104" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12002,7 +12002,7 @@
         <v>1677</v>
       </c>
       <c r="J105" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12035,7 +12035,7 @@
         <v>1719</v>
       </c>
       <c r="J106" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K106" s="3"/>
@@ -12081,7 +12081,7 @@
         <v>1731</v>
       </c>
       <c r="J107" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12114,7 +12114,7 @@
         <v>1735</v>
       </c>
       <c r="J108" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12147,7 +12147,7 @@
         <v>1763</v>
       </c>
       <c r="J109" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K109" s="3"/>
@@ -12193,7 +12193,7 @@
         <v>1767</v>
       </c>
       <c r="J110" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12226,7 +12226,7 @@
         <v>2378</v>
       </c>
       <c r="J111" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
         <v>1813</v>
       </c>
       <c r="J112" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
         <v>1864</v>
       </c>
       <c r="J113" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
         <v>1868</v>
       </c>
       <c r="J114" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12358,7 +12358,7 @@
         <v>1876</v>
       </c>
       <c r="J115" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
         <v>1910</v>
       </c>
       <c r="J116" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12424,7 +12424,7 @@
         <v>1926</v>
       </c>
       <c r="J117" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K117" s="3"/>
@@ -12470,7 +12470,7 @@
         <v>1934</v>
       </c>
       <c r="J118" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K118" s="3"/>
@@ -12516,7 +12516,7 @@
         <v>1944</v>
       </c>
       <c r="J119" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12549,7 +12549,7 @@
         <v>1986</v>
       </c>
       <c r="J120" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K120" s="3"/>
@@ -12595,7 +12595,7 @@
         <v>1992</v>
       </c>
       <c r="J121" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12628,7 +12628,7 @@
         <v>2024</v>
       </c>
       <c r="J122" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
         <v>2032</v>
       </c>
       <c r="J123" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12694,7 +12694,7 @@
         <v>2054</v>
       </c>
       <c r="J124" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
         <v>2064</v>
       </c>
       <c r="J125" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12760,7 +12760,7 @@
         <v>2070</v>
       </c>
       <c r="J126" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
         <v>2230</v>
       </c>
       <c r="J127" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12826,7 +12826,7 @@
         <v>2264</v>
       </c>
       <c r="J128" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
         <v>2286</v>
       </c>
       <c r="J129" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12892,7 +12892,7 @@
         <v>2296</v>
       </c>
       <c r="J130" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12925,7 +12925,7 @@
         <v>945</v>
       </c>
       <c r="J131" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
         <v>1154</v>
       </c>
       <c r="J132" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
         <v>1290</v>
       </c>
       <c r="J133" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13024,7 +13024,7 @@
         <v>931</v>
       </c>
       <c r="J134" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13057,7 +13057,7 @@
         <v>999</v>
       </c>
       <c r="J135" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13090,7 +13090,7 @@
         <v>1200</v>
       </c>
       <c r="J136" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
         <v>1534</v>
       </c>
       <c r="J137" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13156,7 +13156,7 @@
         <v>1540</v>
       </c>
       <c r="J138" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13189,7 +13189,7 @@
         <v>1198</v>
       </c>
       <c r="J139" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13222,7 +13222,7 @@
         <v>1556</v>
       </c>
       <c r="J140" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13255,7 +13255,7 @@
         <v>1306</v>
       </c>
       <c r="J141" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
         <v>1570</v>
       </c>
       <c r="J142" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13321,7 +13321,7 @@
         <v>1288</v>
       </c>
       <c r="J143" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13354,7 +13354,7 @@
         <v>1312</v>
       </c>
       <c r="J144" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13387,7 +13387,7 @@
         <v>965</v>
       </c>
       <c r="J145" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13420,7 +13420,7 @@
         <v>1304</v>
       </c>
       <c r="J146" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
         <v>2252</v>
       </c>
       <c r="J147" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13486,7 +13486,7 @@
         <v>1950</v>
       </c>
       <c r="J148" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13519,7 +13519,7 @@
         <v>1019</v>
       </c>
       <c r="J149" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -13552,7 +13552,7 @@
         <v>1846</v>
       </c>
       <c r="J150" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13585,7 +13585,7 @@
         <v>2218</v>
       </c>
       <c r="J151" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13618,7 +13618,7 @@
         <v>1787</v>
       </c>
       <c r="J152" s="32" t="str">
-        <f t="shared" ref="J152:J215" si="8">VLOOKUP(B152,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J152:J215" si="11">VLOOKUP(B152,$L$5:$M$14,2)</f>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13651,7 +13651,7 @@
         <v>1266</v>
       </c>
       <c r="J153" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13684,7 +13684,7 @@
         <v>1268</v>
       </c>
       <c r="J154" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13717,7 +13717,7 @@
         <v>2030</v>
       </c>
       <c r="J155" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K155" s="3"/>
@@ -13763,7 +13763,7 @@
         <v>1482</v>
       </c>
       <c r="J156" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13796,7 +13796,7 @@
         <v>1322</v>
       </c>
       <c r="J157" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13829,7 +13829,7 @@
         <v>1134</v>
       </c>
       <c r="J158" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13862,7 +13862,7 @@
         <v>1242</v>
       </c>
       <c r="J159" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
         <v>1194</v>
       </c>
       <c r="J160" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13928,7 +13928,7 @@
         <v>1432</v>
       </c>
       <c r="J161" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13961,7 +13961,7 @@
         <v>1162</v>
       </c>
       <c r="J162" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13994,7 +13994,7 @@
         <v>975</v>
       </c>
       <c r="J163" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14027,7 +14027,7 @@
         <v>1516</v>
       </c>
       <c r="J164" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14060,7 +14060,7 @@
         <v>1631</v>
       </c>
       <c r="J165" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14091,7 +14091,7 @@
         <v>2353</v>
       </c>
       <c r="J166" s="17" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14124,7 +14124,7 @@
         <v>1625</v>
       </c>
       <c r="J167" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
         <v>2110</v>
       </c>
       <c r="J168" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14190,7 +14190,7 @@
         <v>1819</v>
       </c>
       <c r="J169" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
         <v>1358</v>
       </c>
       <c r="J170" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -14256,7 +14256,7 @@
         <v>1916</v>
       </c>
       <c r="J171" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
         <v>2278</v>
       </c>
       <c r="J172" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14322,7 +14322,7 @@
         <v>1962</v>
       </c>
       <c r="J173" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14355,7 +14355,7 @@
         <v>2162</v>
       </c>
       <c r="J174" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14388,7 +14388,7 @@
         <v>1769</v>
       </c>
       <c r="J175" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14421,7 +14421,7 @@
         <v>1230</v>
       </c>
       <c r="J176" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
         <v>1689</v>
       </c>
       <c r="J177" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14487,7 +14487,7 @@
         <v>2192</v>
       </c>
       <c r="J178" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K178" s="3"/>
@@ -14533,7 +14533,7 @@
         <v>1280</v>
       </c>
       <c r="J179" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14566,7 +14566,7 @@
         <v>1003</v>
       </c>
       <c r="J180" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14599,7 +14599,7 @@
         <v>2256</v>
       </c>
       <c r="J181" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14632,7 +14632,7 @@
         <v>1500</v>
       </c>
       <c r="J182" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K182" s="3"/>
@@ -14678,7 +14678,7 @@
         <v>2028</v>
       </c>
       <c r="J183" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14711,7 +14711,7 @@
         <v>1444</v>
       </c>
       <c r="J184" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K184" s="3"/>
@@ -14757,7 +14757,7 @@
         <v>1771</v>
       </c>
       <c r="J185" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14790,7 +14790,7 @@
         <v>2050</v>
       </c>
       <c r="J186" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
         <v>1878</v>
       </c>
       <c r="J187" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14856,7 +14856,7 @@
         <v>2188</v>
       </c>
       <c r="J188" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14889,7 +14889,7 @@
         <v>1218</v>
       </c>
       <c r="J189" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14922,7 +14922,7 @@
         <v>941</v>
       </c>
       <c r="J190" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14955,7 +14955,7 @@
         <v>1250</v>
       </c>
       <c r="J191" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K191" s="3"/>
@@ -15001,7 +15001,7 @@
         <v>1338</v>
       </c>
       <c r="J192" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K192" s="3"/>
@@ -15047,7 +15047,7 @@
         <v>1302</v>
       </c>
       <c r="J193" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15080,7 +15080,7 @@
         <v>1888</v>
       </c>
       <c r="J194" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
         <v>1649</v>
       </c>
       <c r="J195" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15146,7 +15146,7 @@
         <v>2100</v>
       </c>
       <c r="J196" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
         <v>1210</v>
       </c>
       <c r="J197" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15212,7 +15212,7 @@
         <v>1831</v>
       </c>
       <c r="J198" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
         <v>1842</v>
       </c>
       <c r="J199" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
       <c r="J200" s="32" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
         <v>1721</v>
       </c>
       <c r="J201" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15326,7 +15326,7 @@
         <v>916</v>
       </c>
       <c r="J202" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
         <v>1015</v>
       </c>
       <c r="J203" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15392,7 +15392,7 @@
         <v>2126</v>
       </c>
       <c r="J204" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15425,7 +15425,7 @@
         <v>2158</v>
       </c>
       <c r="J205" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15458,7 +15458,7 @@
         <v>2144</v>
       </c>
       <c r="J206" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
         <v>1236</v>
       </c>
       <c r="J207" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15524,7 +15524,7 @@
         <v>989</v>
       </c>
       <c r="J208" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15557,7 +15557,7 @@
         <v>1220</v>
       </c>
       <c r="J209" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
         <v>1296</v>
       </c>
       <c r="J210" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15623,7 +15623,7 @@
         <v>1693</v>
       </c>
       <c r="J211" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
       <c r="J212" s="32" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
         <v>1980</v>
       </c>
       <c r="J213" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15704,7 +15704,7 @@
         <v>923</v>
       </c>
       <c r="J214" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15737,7 +15737,7 @@
         <v>1542</v>
       </c>
       <c r="J215" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
         <v>879</v>
       </c>
       <c r="J216" s="32" t="str">
-        <f t="shared" ref="J216:J279" si="9">VLOOKUP(B216,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J216:J279" si="12">VLOOKUP(B216,$L$5:$M$14,2)</f>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L216" s="24"/>
@@ -15804,7 +15804,7 @@
         <v>2250</v>
       </c>
       <c r="J217" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15837,7 +15837,7 @@
         <v>1380</v>
       </c>
       <c r="J218" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
         <v>1029</v>
       </c>
       <c r="J219" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15903,7 +15903,7 @@
         <v>1442</v>
       </c>
       <c r="J220" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15936,7 +15936,7 @@
         <v>1310</v>
       </c>
       <c r="J221" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15969,7 +15969,7 @@
         <v>2232</v>
       </c>
       <c r="J222" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
         <v>2056</v>
       </c>
       <c r="J223" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16035,7 +16035,7 @@
         <v>2002</v>
       </c>
       <c r="J224" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16068,7 +16068,7 @@
         <v>1817</v>
       </c>
       <c r="J225" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16101,7 +16101,7 @@
         <v>1858</v>
       </c>
       <c r="J226" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16134,7 +16134,7 @@
         <v>1049</v>
       </c>
       <c r="J227" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -16167,7 +16167,7 @@
         <v>1346</v>
       </c>
       <c r="J228" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16200,7 +16200,7 @@
         <v>1781</v>
       </c>
       <c r="J229" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16233,7 +16233,7 @@
         <v>2084</v>
       </c>
       <c r="J230" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16266,7 +16266,7 @@
         <v>1480</v>
       </c>
       <c r="J231" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16299,7 +16299,7 @@
         <v>1783</v>
       </c>
       <c r="J232" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16332,7 +16332,7 @@
         <v>1252</v>
       </c>
       <c r="J233" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
         <v>2228</v>
       </c>
       <c r="J234" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16398,7 +16398,7 @@
         <v>1122</v>
       </c>
       <c r="J235" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="K235" s="3"/>
@@ -16444,7 +16444,7 @@
         <v>1598</v>
       </c>
       <c r="J236" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16477,7 +16477,7 @@
         <v>2072</v>
       </c>
       <c r="J237" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16510,7 +16510,7 @@
         <v>1823</v>
       </c>
       <c r="J238" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16543,7 +16543,7 @@
         <v>2314</v>
       </c>
       <c r="J239" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
         <v>1110</v>
       </c>
       <c r="J240" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16609,7 +16609,7 @@
         <v>2294</v>
       </c>
       <c r="J241" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16642,7 +16642,7 @@
         <v>1460</v>
       </c>
       <c r="J242" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16675,7 +16675,7 @@
         <v>1619</v>
       </c>
       <c r="J243" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16708,7 +16708,7 @@
         <v>1170</v>
       </c>
       <c r="J244" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16741,7 +16741,7 @@
         <v>1665</v>
       </c>
       <c r="J245" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16774,7 +16774,7 @@
         <v>1508</v>
       </c>
       <c r="J246" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
         <v>921</v>
       </c>
       <c r="J247" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16840,7 +16840,7 @@
         <v>1701</v>
       </c>
       <c r="J248" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16873,7 +16873,7 @@
         <v>1922</v>
       </c>
       <c r="J249" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16906,7 +16906,7 @@
         <v>1641</v>
       </c>
       <c r="J250" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16939,7 +16939,7 @@
         <v>1510</v>
       </c>
       <c r="J251" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16972,7 +16972,7 @@
         <v>2186</v>
       </c>
       <c r="J252" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17005,7 +17005,7 @@
         <v>1586</v>
       </c>
       <c r="J253" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K253" s="3"/>
@@ -17051,7 +17051,7 @@
         <v>1669</v>
       </c>
       <c r="J254" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="K254" s="3"/>
@@ -17097,7 +17097,7 @@
         <v>2044</v>
       </c>
       <c r="J255" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
         <v>1348</v>
       </c>
       <c r="J256" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17145,7 +17145,7 @@
       <c r="H257" s="31"/>
       <c r="I257" s="31"/>
       <c r="J257" s="32" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="K257" s="3"/>
@@ -17191,7 +17191,7 @@
         <v>1942</v>
       </c>
       <c r="J258" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17224,7 +17224,7 @@
         <v>1428</v>
       </c>
       <c r="J259" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17257,7 +17257,7 @@
         <v>1226</v>
       </c>
       <c r="J260" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17288,7 +17288,7 @@
         <v>2356</v>
       </c>
       <c r="J261" s="17" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17321,7 +17321,7 @@
         <v>1208</v>
       </c>
       <c r="J262" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17354,7 +17354,7 @@
         <v>1094</v>
       </c>
       <c r="J263" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -17387,7 +17387,7 @@
         <v>1960</v>
       </c>
       <c r="J264" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
         <v>1112</v>
       </c>
       <c r="J265" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17453,7 +17453,7 @@
         <v>1956</v>
       </c>
       <c r="J266" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="K266" s="3"/>
@@ -17481,7 +17481,7 @@
       <c r="H267" s="31"/>
       <c r="I267" s="31"/>
       <c r="J267" s="32" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17514,7 +17514,7 @@
         <v>1256</v>
       </c>
       <c r="J268" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17547,7 +17547,7 @@
         <v>908</v>
       </c>
       <c r="J269" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17580,7 +17580,7 @@
         <v>1124</v>
       </c>
       <c r="J270" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17613,7 +17613,7 @@
         <v>1073</v>
       </c>
       <c r="J271" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17646,7 +17646,7 @@
         <v>2284</v>
       </c>
       <c r="J272" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17679,7 +17679,7 @@
         <v>1775</v>
       </c>
       <c r="J273" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
         <v>896</v>
       </c>
       <c r="J274" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17745,7 +17745,7 @@
         <v>1870</v>
       </c>
       <c r="J275" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17778,7 +17778,7 @@
         <v>1244</v>
       </c>
       <c r="J276" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17811,7 +17811,7 @@
         <v>1524</v>
       </c>
       <c r="J277" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
         <v>1308</v>
       </c>
       <c r="J278" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17877,7 +17877,7 @@
         <v>1590</v>
       </c>
       <c r="J279" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="K279" s="3"/>
@@ -17923,7 +17923,7 @@
         <v>2068</v>
       </c>
       <c r="J280" s="32" t="str">
-        <f t="shared" ref="J280:J343" si="10">VLOOKUP(B280,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J280:J343" si="13">VLOOKUP(B280,$L$5:$M$14,2)</f>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17956,7 +17956,7 @@
         <v>1530</v>
       </c>
       <c r="J281" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17989,7 +17989,7 @@
         <v>1512</v>
       </c>
       <c r="J282" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18022,7 +18022,7 @@
         <v>1637</v>
       </c>
       <c r="J283" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
         <v>1326</v>
       </c>
       <c r="J284" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18088,7 +18088,7 @@
         <v>1872</v>
       </c>
       <c r="J285" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18121,7 +18121,7 @@
         <v>1562</v>
       </c>
       <c r="J286" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18154,7 +18154,7 @@
         <v>898</v>
       </c>
       <c r="J287" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18187,7 +18187,7 @@
         <v>1081</v>
       </c>
       <c r="J288" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18220,7 +18220,7 @@
         <v>2260</v>
       </c>
       <c r="J289" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
         <v>1725</v>
       </c>
       <c r="J290" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18286,7 +18286,7 @@
         <v>1224</v>
       </c>
       <c r="J291" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18319,7 +18319,7 @@
         <v>2246</v>
       </c>
       <c r="J292" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18352,7 +18352,7 @@
         <v>2170</v>
       </c>
       <c r="J293" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
         <v>1017</v>
       </c>
       <c r="J294" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
         <v>1172</v>
       </c>
       <c r="J295" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18451,7 +18451,7 @@
         <v>2196</v>
       </c>
       <c r="J296" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18484,7 +18484,7 @@
         <v>1270</v>
       </c>
       <c r="J297" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18517,7 +18517,7 @@
         <v>2112</v>
       </c>
       <c r="J298" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18550,7 +18550,7 @@
         <v>1938</v>
       </c>
       <c r="J299" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18583,7 +18583,7 @@
         <v>1192</v>
       </c>
       <c r="J300" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18616,7 +18616,7 @@
         <v>1727</v>
       </c>
       <c r="J301" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18649,7 +18649,7 @@
         <v>2046</v>
       </c>
       <c r="J302" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18682,7 +18682,7 @@
         <v>2138</v>
       </c>
       <c r="J303" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18715,7 +18715,7 @@
         <v>1196</v>
       </c>
       <c r="J304" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18748,7 +18748,7 @@
         <v>2200</v>
       </c>
       <c r="J305" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18781,7 +18781,7 @@
         <v>1320</v>
       </c>
       <c r="J306" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18814,7 +18814,7 @@
         <v>1848</v>
       </c>
       <c r="J307" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K307" s="3"/>
@@ -18860,7 +18860,7 @@
         <v>2322</v>
       </c>
       <c r="J308" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18893,7 +18893,7 @@
         <v>1130</v>
       </c>
       <c r="J309" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18926,7 +18926,7 @@
         <v>1615</v>
       </c>
       <c r="J310" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18959,7 +18959,7 @@
         <v>1063</v>
       </c>
       <c r="J311" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18992,7 +18992,7 @@
         <v>1100</v>
       </c>
       <c r="J312" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K312" s="3"/>
@@ -19038,7 +19038,7 @@
         <v>1410</v>
       </c>
       <c r="J313" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19071,7 +19071,7 @@
         <v>1190</v>
       </c>
       <c r="J314" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -19104,7 +19104,7 @@
         <v>1994</v>
       </c>
       <c r="J315" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19137,7 +19137,7 @@
         <v>1898</v>
       </c>
       <c r="J316" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19170,7 +19170,7 @@
         <v>1468</v>
       </c>
       <c r="J317" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19203,7 +19203,7 @@
         <v>1743</v>
       </c>
       <c r="J318" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K318" s="3"/>
@@ -19249,7 +19249,7 @@
         <v>1633</v>
       </c>
       <c r="J319" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19282,7 +19282,7 @@
         <v>1699</v>
       </c>
       <c r="J320" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19315,7 +19315,7 @@
         <v>1001</v>
       </c>
       <c r="J321" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19348,7 +19348,7 @@
         <v>1912</v>
       </c>
       <c r="J322" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19381,7 +19381,7 @@
         <v>1424</v>
       </c>
       <c r="J323" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19414,7 +19414,7 @@
         <v>1882</v>
       </c>
       <c r="J324" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K324" s="3"/>
@@ -19460,7 +19460,7 @@
         <v>1978</v>
       </c>
       <c r="J325" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K325" s="3"/>
@@ -19506,7 +19506,7 @@
         <v>1514</v>
       </c>
       <c r="J326" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -19539,7 +19539,7 @@
         <v>1765</v>
       </c>
       <c r="J327" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19572,7 +19572,7 @@
         <v>1260</v>
       </c>
       <c r="J328" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -19605,7 +19605,7 @@
         <v>1434</v>
       </c>
       <c r="J329" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19638,7 +19638,7 @@
         <v>1350</v>
       </c>
       <c r="J330" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19671,7 +19671,7 @@
         <v>1248</v>
       </c>
       <c r="J331" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -19704,7 +19704,7 @@
         <v>1126</v>
       </c>
       <c r="J332" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19737,7 +19737,7 @@
         <v>2172</v>
       </c>
       <c r="J333" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19770,7 +19770,7 @@
         <v>1202</v>
       </c>
       <c r="J334" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -19803,7 +19803,7 @@
         <v>1232</v>
       </c>
       <c r="J335" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19836,7 +19836,7 @@
         <v>2102</v>
       </c>
       <c r="J336" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K336" s="3"/>
@@ -19882,7 +19882,7 @@
         <v>1342</v>
       </c>
       <c r="J337" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K337" s="3"/>
@@ -19928,7 +19928,7 @@
         <v>1697</v>
       </c>
       <c r="J338" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K338" s="3"/>
@@ -19974,7 +19974,7 @@
         <v>1316</v>
       </c>
       <c r="J339" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20007,7 +20007,7 @@
         <v>1061</v>
       </c>
       <c r="J340" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20040,7 +20040,7 @@
         <v>1069</v>
       </c>
       <c r="J341" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20073,7 +20073,7 @@
         <v>2052</v>
       </c>
       <c r="J342" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20106,7 +20106,7 @@
         <v>1504</v>
       </c>
       <c r="J343" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20139,7 +20139,7 @@
         <v>1657</v>
       </c>
       <c r="J344" s="32" t="str">
-        <f t="shared" ref="J344:J406" si="11">VLOOKUP(B344,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J344:J406" si="14">VLOOKUP(B344,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20172,7 +20172,7 @@
         <v>2202</v>
       </c>
       <c r="J345" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20205,7 +20205,7 @@
         <v>981</v>
       </c>
       <c r="J346" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20238,7 +20238,7 @@
         <v>1077</v>
       </c>
       <c r="J347" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20269,7 +20269,7 @@
         <v>2359</v>
       </c>
       <c r="J348" s="17" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -20302,7 +20302,7 @@
         <v>2048</v>
       </c>
       <c r="J349" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
         <v>2094</v>
       </c>
       <c r="J350" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20368,7 +20368,7 @@
         <v>1972</v>
       </c>
       <c r="J351" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20401,7 +20401,7 @@
         <v>1709</v>
       </c>
       <c r="J352" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20434,7 +20434,7 @@
         <v>1386</v>
       </c>
       <c r="J353" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20467,7 +20467,7 @@
         <v>1691</v>
       </c>
       <c r="J354" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20500,7 +20500,7 @@
         <v>1739</v>
       </c>
       <c r="J355" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20533,7 +20533,7 @@
         <v>953</v>
       </c>
       <c r="J356" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
         <v>1791</v>
       </c>
       <c r="J357" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
         <v>1178</v>
       </c>
       <c r="J358" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20632,7 +20632,7 @@
         <v>949</v>
       </c>
       <c r="J359" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20665,7 +20665,7 @@
         <v>2274</v>
       </c>
       <c r="J360" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20698,7 +20698,7 @@
         <v>2320</v>
       </c>
       <c r="J361" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20731,7 +20731,7 @@
         <v>1412</v>
       </c>
       <c r="J362" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20764,7 +20764,7 @@
         <v>1294</v>
       </c>
       <c r="J363" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -20797,7 +20797,7 @@
         <v>1494</v>
       </c>
       <c r="J364" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20830,7 +20830,7 @@
         <v>1484</v>
       </c>
       <c r="J365" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20863,7 +20863,7 @@
         <v>2343</v>
       </c>
       <c r="J366" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20896,7 +20896,7 @@
         <v>1206</v>
       </c>
       <c r="J367" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K367" s="3"/>
@@ -20942,7 +20942,7 @@
         <v>1458</v>
       </c>
       <c r="J368" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -20975,7 +20975,7 @@
         <v>2038</v>
       </c>
       <c r="J369" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21008,7 +21008,7 @@
         <v>1286</v>
       </c>
       <c r="J370" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
         <v>2142</v>
       </c>
       <c r="J371" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21074,7 +21074,7 @@
         <v>1564</v>
       </c>
       <c r="J372" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21107,7 +21107,7 @@
         <v>1874</v>
       </c>
       <c r="J373" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21140,7 +21140,7 @@
         <v>918</v>
       </c>
       <c r="J374" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
         <v>1753</v>
       </c>
       <c r="J375" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21206,7 +21206,7 @@
         <v>886</v>
       </c>
       <c r="J376" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -21239,7 +21239,7 @@
         <v>1328</v>
       </c>
       <c r="J377" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21272,7 +21272,7 @@
         <v>1968</v>
       </c>
       <c r="J378" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21303,7 +21303,7 @@
         <v>2363</v>
       </c>
       <c r="J379" s="17" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -21336,7 +21336,7 @@
         <v>1496</v>
       </c>
       <c r="J380" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21369,7 +21369,7 @@
         <v>1827</v>
       </c>
       <c r="J381" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21402,7 +21402,7 @@
         <v>1886</v>
       </c>
       <c r="J382" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21435,7 +21435,7 @@
         <v>955</v>
       </c>
       <c r="J383" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21468,7 +21468,7 @@
         <v>1404</v>
       </c>
       <c r="J384" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21501,7 +21501,7 @@
         <v>1436</v>
       </c>
       <c r="J385" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21534,7 +21534,7 @@
         <v>1216</v>
       </c>
       <c r="J386" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -21567,7 +21567,7 @@
         <v>1717</v>
       </c>
       <c r="J387" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -21600,7 +21600,7 @@
         <v>1552</v>
       </c>
       <c r="J388" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21633,7 +21633,7 @@
         <v>1506</v>
       </c>
       <c r="J389" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K389" s="3"/>
@@ -21679,7 +21679,7 @@
         <v>1920</v>
       </c>
       <c r="J390" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21712,7 +21712,7 @@
         <v>1041</v>
       </c>
       <c r="J391" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K391" s="3"/>
@@ -21758,7 +21758,7 @@
         <v>2020</v>
       </c>
       <c r="J392" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21791,7 +21791,7 @@
         <v>2078</v>
       </c>
       <c r="J393" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21824,7 +21824,7 @@
         <v>1454</v>
       </c>
       <c r="J394" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K394" s="3"/>
@@ -21870,7 +21870,7 @@
         <v>888</v>
       </c>
       <c r="J395" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K395" s="3"/>
@@ -21916,7 +21916,7 @@
         <v>1661</v>
       </c>
       <c r="J396" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K396" s="3"/>
@@ -21962,7 +21962,7 @@
         <v>2096</v>
       </c>
       <c r="J397" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
         <v>1140</v>
       </c>
       <c r="J398" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22028,7 +22028,7 @@
         <v>1528</v>
       </c>
       <c r="J399" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22061,7 +22061,7 @@
         <v>1098</v>
       </c>
       <c r="J400" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K400" s="3"/>
@@ -22107,7 +22107,7 @@
         <v>2076</v>
       </c>
       <c r="J401" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22140,7 +22140,7 @@
         <v>1138</v>
       </c>
       <c r="J402" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
         <v>1043</v>
       </c>
       <c r="J403" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -22206,7 +22206,7 @@
         <v>1749</v>
       </c>
       <c r="J404" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -22239,7 +22239,7 @@
         <v>1174</v>
       </c>
       <c r="J405" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22272,7 +22272,7 @@
         <v>1607</v>
       </c>
       <c r="J406" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22305,7 +22305,7 @@
         <v>2266</v>
       </c>
       <c r="J407" s="32" t="str">
-        <f t="shared" ref="J407:J469" si="12">VLOOKUP(B407,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J407:J469" si="15">VLOOKUP(B407,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22320,7 +22320,7 @@
       <c r="H408" s="31"/>
       <c r="I408" s="31"/>
       <c r="J408" s="32" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -22353,7 +22353,7 @@
         <v>2184</v>
       </c>
       <c r="J409" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
         <v>1075</v>
       </c>
       <c r="J410" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22419,7 +22419,7 @@
         <v>1596</v>
       </c>
       <c r="J411" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K411" s="3"/>
@@ -22465,7 +22465,7 @@
         <v>875</v>
       </c>
       <c r="J412" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
         <v>1264</v>
       </c>
       <c r="J413" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22531,7 +22531,7 @@
         <v>1940</v>
       </c>
       <c r="J414" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -22564,7 +22564,7 @@
         <v>2088</v>
       </c>
       <c r="J415" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22597,7 +22597,7 @@
         <v>979</v>
       </c>
       <c r="J416" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22630,7 +22630,7 @@
         <v>1954</v>
       </c>
       <c r="J417" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22663,7 +22663,7 @@
         <v>1759</v>
       </c>
       <c r="J418" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22696,7 +22696,7 @@
         <v>1793</v>
       </c>
       <c r="J419" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22729,7 +22729,7 @@
         <v>1318</v>
       </c>
       <c r="J420" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22762,7 +22762,7 @@
         <v>2042</v>
       </c>
       <c r="J421" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22795,7 +22795,7 @@
         <v>1045</v>
       </c>
       <c r="J422" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K422" s="3"/>
@@ -22841,7 +22841,7 @@
         <v>1580</v>
       </c>
       <c r="J423" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22874,7 +22874,7 @@
         <v>1027</v>
       </c>
       <c r="J424" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22907,7 +22907,7 @@
         <v>1852</v>
       </c>
       <c r="J425" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22940,7 +22940,7 @@
         <v>1384</v>
       </c>
       <c r="J426" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22973,7 +22973,7 @@
         <v>2194</v>
       </c>
       <c r="J427" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23006,7 +23006,7 @@
         <v>2324</v>
       </c>
       <c r="J428" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23039,7 +23039,7 @@
         <v>2292</v>
       </c>
       <c r="J429" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23072,7 +23072,7 @@
         <v>2124</v>
       </c>
       <c r="J430" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23105,7 +23105,7 @@
         <v>2236</v>
       </c>
       <c r="J431" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23138,7 +23138,7 @@
         <v>1114</v>
       </c>
       <c r="J432" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23171,7 +23171,7 @@
         <v>1150</v>
       </c>
       <c r="J433" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
         <v>1520</v>
       </c>
       <c r="J434" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23237,7 +23237,7 @@
         <v>2268</v>
       </c>
       <c r="J435" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23270,7 +23270,7 @@
         <v>1354</v>
       </c>
       <c r="J436" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23303,7 +23303,7 @@
         <v>1128</v>
       </c>
       <c r="J437" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23336,7 +23336,7 @@
         <v>1673</v>
       </c>
       <c r="J438" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23369,7 +23369,7 @@
         <v>1055</v>
       </c>
       <c r="J439" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23402,7 +23402,7 @@
         <v>1737</v>
       </c>
       <c r="J440" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23435,7 +23435,7 @@
         <v>1502</v>
       </c>
       <c r="J441" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23450,7 +23450,7 @@
       <c r="H442" s="31"/>
       <c r="I442" s="31"/>
       <c r="J442" s="32" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -23483,7 +23483,7 @@
         <v>1106</v>
       </c>
       <c r="J443" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23516,7 +23516,7 @@
         <v>1180</v>
       </c>
       <c r="J444" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23549,7 +23549,7 @@
         <v>983</v>
       </c>
       <c r="J445" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23582,7 +23582,7 @@
         <v>1278</v>
       </c>
       <c r="J446" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23615,7 +23615,7 @@
         <v>1057</v>
       </c>
       <c r="J447" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23648,7 +23648,7 @@
         <v>1152</v>
       </c>
       <c r="J448" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23681,7 +23681,7 @@
         <v>1560</v>
       </c>
       <c r="J449" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23690,7 +23690,7 @@
         <v>446</v>
       </c>
       <c r="B450" s="29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C450" s="30" t="s">
         <v>571</v>
@@ -23714,8 +23714,8 @@
         <v>904</v>
       </c>
       <c r="J450" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v>9/17(수)~9/18(목)</v>
+        <f t="shared" si="15"/>
+        <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
     <row r="451" spans="1:23" ht="15.6">
@@ -23747,7 +23747,7 @@
         <v>969</v>
       </c>
       <c r="J451" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23780,7 +23780,7 @@
         <v>977</v>
       </c>
       <c r="J452" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23813,7 +23813,7 @@
         <v>985</v>
       </c>
       <c r="J453" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23846,7 +23846,7 @@
         <v>1009</v>
       </c>
       <c r="J454" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23879,7 +23879,7 @@
         <v>1031</v>
       </c>
       <c r="J455" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23912,7 +23912,7 @@
         <v>1037</v>
       </c>
       <c r="J456" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23945,7 +23945,7 @@
         <v>1047</v>
       </c>
       <c r="J457" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23978,7 +23978,7 @@
         <v>1158</v>
       </c>
       <c r="J458" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24011,7 +24011,7 @@
         <v>1182</v>
       </c>
       <c r="J459" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
         <v>1212</v>
       </c>
       <c r="J460" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24077,7 +24077,7 @@
         <v>1214</v>
       </c>
       <c r="J461" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K461" s="3"/>
@@ -24123,7 +24123,7 @@
         <v>1234</v>
       </c>
       <c r="J462" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K462" s="3"/>
@@ -24169,7 +24169,7 @@
         <v>1262</v>
       </c>
       <c r="J463" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24202,7 +24202,7 @@
         <v>1284</v>
       </c>
       <c r="J464" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K464" s="3"/>
@@ -24248,7 +24248,7 @@
         <v>1300</v>
       </c>
       <c r="J465" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24281,7 +24281,7 @@
         <v>1332</v>
       </c>
       <c r="J466" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24314,7 +24314,7 @@
         <v>1360</v>
       </c>
       <c r="J467" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24347,7 +24347,7 @@
         <v>1376</v>
       </c>
       <c r="J468" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -24380,7 +24380,7 @@
         <v>1392</v>
       </c>
       <c r="J469" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24413,7 +24413,7 @@
         <v>1440</v>
       </c>
       <c r="J470" s="32" t="str">
-        <f t="shared" ref="J470:J533" si="13">VLOOKUP(B470,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J470:J533" si="16">VLOOKUP(B470,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24446,7 +24446,7 @@
         <v>1456</v>
       </c>
       <c r="J471" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24479,7 +24479,7 @@
         <v>1470</v>
       </c>
       <c r="J472" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24512,7 +24512,7 @@
         <v>1498</v>
       </c>
       <c r="J473" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K473" s="3"/>
@@ -24558,7 +24558,7 @@
         <v>1548</v>
       </c>
       <c r="J474" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24591,7 +24591,7 @@
         <v>1592</v>
       </c>
       <c r="J475" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K475" s="3"/>
@@ -24637,7 +24637,7 @@
         <v>1629</v>
       </c>
       <c r="J476" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24670,7 +24670,7 @@
         <v>1643</v>
       </c>
       <c r="J477" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24703,7 +24703,7 @@
         <v>1683</v>
       </c>
       <c r="J478" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
         <v>1695</v>
       </c>
       <c r="J479" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24751,7 +24751,7 @@
       <c r="H480" s="31"/>
       <c r="I480" s="31"/>
       <c r="J480" s="32" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -24784,7 +24784,7 @@
         <v>1723</v>
       </c>
       <c r="J481" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24817,7 +24817,7 @@
         <v>1733</v>
       </c>
       <c r="J482" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24850,7 +24850,7 @@
         <v>1761</v>
       </c>
       <c r="J483" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K483" s="3"/>
@@ -24896,7 +24896,7 @@
         <v>1785</v>
       </c>
       <c r="J484" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24929,7 +24929,7 @@
         <v>1789</v>
       </c>
       <c r="J485" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K485" s="3"/>
@@ -24975,7 +24975,7 @@
         <v>1821</v>
       </c>
       <c r="J486" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K486" s="3"/>
@@ -25021,7 +25021,7 @@
         <v>1850</v>
       </c>
       <c r="J487" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25054,7 +25054,7 @@
         <v>1892</v>
       </c>
       <c r="J488" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
         <v>1894</v>
       </c>
       <c r="J489" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25120,7 +25120,7 @@
         <v>1924</v>
       </c>
       <c r="J490" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25153,7 +25153,7 @@
         <v>1932</v>
       </c>
       <c r="J491" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25186,7 +25186,7 @@
         <v>1936</v>
       </c>
       <c r="J492" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25219,7 +25219,7 @@
         <v>1970</v>
       </c>
       <c r="J493" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25252,7 +25252,7 @@
         <v>1974</v>
       </c>
       <c r="J494" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25285,7 +25285,7 @@
         <v>2022</v>
       </c>
       <c r="J495" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25318,7 +25318,7 @@
         <v>2058</v>
       </c>
       <c r="J496" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25351,7 +25351,7 @@
         <v>2060</v>
       </c>
       <c r="J497" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25384,7 +25384,7 @@
         <v>2080</v>
       </c>
       <c r="J498" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25417,7 +25417,7 @@
         <v>2114</v>
       </c>
       <c r="J499" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25450,7 +25450,7 @@
         <v>2122</v>
       </c>
       <c r="J500" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25483,7 +25483,7 @@
         <v>2134</v>
       </c>
       <c r="J501" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25516,7 +25516,7 @@
         <v>2150</v>
       </c>
       <c r="J502" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25549,7 +25549,7 @@
         <v>2160</v>
       </c>
       <c r="J503" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25582,7 +25582,7 @@
         <v>2180</v>
       </c>
       <c r="J504" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25615,7 +25615,7 @@
         <v>2190</v>
       </c>
       <c r="J505" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25648,7 +25648,7 @@
         <v>2210</v>
       </c>
       <c r="J506" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25681,7 +25681,7 @@
         <v>2220</v>
       </c>
       <c r="J507" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25714,7 +25714,7 @@
         <v>2242</v>
       </c>
       <c r="J508" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25747,7 +25747,7 @@
         <v>2244</v>
       </c>
       <c r="J509" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25780,7 +25780,7 @@
         <v>2282</v>
       </c>
       <c r="J510" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25813,7 +25813,7 @@
         <v>2288</v>
       </c>
       <c r="J511" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
         <v>2304</v>
       </c>
       <c r="J512" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25879,7 +25879,7 @@
         <v>2308</v>
       </c>
       <c r="J513" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25912,7 +25912,7 @@
         <v>1039</v>
       </c>
       <c r="J514" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -25945,7 +25945,7 @@
         <v>1079</v>
       </c>
       <c r="J515" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25978,7 +25978,7 @@
         <v>1334</v>
       </c>
       <c r="J516" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -26011,7 +26011,7 @@
         <v>1298</v>
       </c>
       <c r="J517" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -26044,7 +26044,7 @@
         <v>1142</v>
       </c>
       <c r="J518" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26077,7 +26077,7 @@
         <v>1051</v>
       </c>
       <c r="J519" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26110,7 +26110,7 @@
         <v>1059</v>
       </c>
       <c r="J520" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26143,7 +26143,7 @@
         <v>1065</v>
       </c>
       <c r="J521" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26176,7 +26176,7 @@
         <v>900</v>
       </c>
       <c r="J522" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26209,7 +26209,7 @@
         <v>912</v>
       </c>
       <c r="J523" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26242,7 +26242,7 @@
         <v>927</v>
       </c>
       <c r="J524" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26275,7 +26275,7 @@
         <v>935</v>
       </c>
       <c r="J525" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26308,7 +26308,7 @@
         <v>961</v>
       </c>
       <c r="J526" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -26341,7 +26341,7 @@
         <v>1021</v>
       </c>
       <c r="J527" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26374,7 +26374,7 @@
         <v>1053</v>
       </c>
       <c r="J528" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26407,7 +26407,7 @@
         <v>1067</v>
       </c>
       <c r="J529" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26440,7 +26440,7 @@
         <v>1104</v>
       </c>
       <c r="J530" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26473,7 +26473,7 @@
         <v>1136</v>
       </c>
       <c r="J531" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26506,7 +26506,7 @@
         <v>1148</v>
       </c>
       <c r="J532" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K532" s="3"/>
@@ -26552,7 +26552,7 @@
         <v>1186</v>
       </c>
       <c r="J533" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26585,7 +26585,7 @@
         <v>1228</v>
       </c>
       <c r="J534" s="32" t="str">
-        <f t="shared" ref="J534:J597" si="14">VLOOKUP(B534,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J534:J597" si="17">VLOOKUP(B534,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K534" s="3"/>
@@ -26631,7 +26631,7 @@
         <v>1362</v>
       </c>
       <c r="J535" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26664,7 +26664,7 @@
         <v>1382</v>
       </c>
       <c r="J536" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K536" s="3"/>
@@ -26710,7 +26710,7 @@
         <v>1400</v>
       </c>
       <c r="J537" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K537" s="3"/>
@@ -26756,7 +26756,7 @@
         <v>1408</v>
       </c>
       <c r="J538" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K538" s="3"/>
@@ -26802,7 +26802,7 @@
         <v>1414</v>
       </c>
       <c r="J539" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26835,7 +26835,7 @@
         <v>1438</v>
       </c>
       <c r="J540" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26868,7 +26868,7 @@
         <v>1466</v>
       </c>
       <c r="J541" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26901,7 +26901,7 @@
         <v>1478</v>
       </c>
       <c r="J542" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26934,7 +26934,7 @@
         <v>1526</v>
       </c>
       <c r="J543" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K543" s="3"/>
@@ -26980,7 +26980,7 @@
         <v>1647</v>
       </c>
       <c r="J544" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -27013,7 +27013,7 @@
         <v>1572</v>
       </c>
       <c r="J545" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K545" s="3"/>
@@ -27059,7 +27059,7 @@
         <v>1621</v>
       </c>
       <c r="J546" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K546" s="3"/>
@@ -27105,7 +27105,7 @@
         <v>1635</v>
       </c>
       <c r="J547" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27138,7 +27138,7 @@
         <v>1653</v>
       </c>
       <c r="J548" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27171,7 +27171,7 @@
         <v>1663</v>
       </c>
       <c r="J549" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27204,7 +27204,7 @@
         <v>1675</v>
       </c>
       <c r="J550" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27237,7 +27237,7 @@
         <v>1685</v>
       </c>
       <c r="J551" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27270,7 +27270,7 @@
         <v>1687</v>
       </c>
       <c r="J552" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27303,7 +27303,7 @@
         <v>1713</v>
       </c>
       <c r="J553" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27336,7 +27336,7 @@
         <v>1751</v>
       </c>
       <c r="J554" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27369,7 +27369,7 @@
         <v>1757</v>
       </c>
       <c r="J555" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K555" s="3"/>
@@ -27415,7 +27415,7 @@
         <v>1801</v>
       </c>
       <c r="J556" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27448,7 +27448,7 @@
         <v>1809</v>
       </c>
       <c r="J557" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27481,7 +27481,7 @@
         <v>1811</v>
       </c>
       <c r="J558" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27514,7 +27514,7 @@
         <v>1835</v>
       </c>
       <c r="J559" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -27547,7 +27547,7 @@
         <v>1844</v>
       </c>
       <c r="J560" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27580,7 +27580,7 @@
         <v>1862</v>
       </c>
       <c r="J561" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27613,7 +27613,7 @@
         <v>1900</v>
       </c>
       <c r="J562" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27646,7 +27646,7 @@
         <v>1902</v>
       </c>
       <c r="J563" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27679,7 +27679,7 @@
         <v>1914</v>
       </c>
       <c r="J564" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27712,7 +27712,7 @@
         <v>1946</v>
       </c>
       <c r="J565" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27745,7 +27745,7 @@
         <v>1964</v>
       </c>
       <c r="J566" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27778,7 +27778,7 @@
         <v>1988</v>
       </c>
       <c r="J567" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27811,7 +27811,7 @@
         <v>2004</v>
       </c>
       <c r="J568" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27844,7 +27844,7 @@
         <v>2010</v>
       </c>
       <c r="J569" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27877,7 +27877,7 @@
         <v>2012</v>
       </c>
       <c r="J570" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27910,7 +27910,7 @@
         <v>2034</v>
       </c>
       <c r="J571" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27943,7 +27943,7 @@
         <v>2066</v>
       </c>
       <c r="J572" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27976,7 +27976,7 @@
         <v>2082</v>
       </c>
       <c r="J573" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28009,7 +28009,7 @@
         <v>2090</v>
       </c>
       <c r="J574" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28042,7 +28042,7 @@
         <v>2104</v>
       </c>
       <c r="J575" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28075,7 +28075,7 @@
         <v>2106</v>
       </c>
       <c r="J576" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28108,7 +28108,7 @@
         <v>2146</v>
       </c>
       <c r="J577" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28141,7 +28141,7 @@
         <v>2164</v>
       </c>
       <c r="J578" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28174,7 +28174,7 @@
         <v>2178</v>
       </c>
       <c r="J579" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28207,7 +28207,7 @@
         <v>2198</v>
       </c>
       <c r="J580" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
         <v>2206</v>
       </c>
       <c r="J581" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28273,7 +28273,7 @@
         <v>2216</v>
       </c>
       <c r="J582" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28306,7 +28306,7 @@
         <v>2240</v>
       </c>
       <c r="J583" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28339,7 +28339,7 @@
         <v>2248</v>
       </c>
       <c r="J584" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28372,7 +28372,7 @@
         <v>2270</v>
       </c>
       <c r="J585" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28405,7 +28405,7 @@
         <v>2276</v>
       </c>
       <c r="J586" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28438,7 +28438,7 @@
         <v>2306</v>
       </c>
       <c r="J587" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28471,7 +28471,7 @@
         <v>2328</v>
       </c>
       <c r="J588" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28504,7 +28504,7 @@
         <v>1188</v>
       </c>
       <c r="J589" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28537,7 +28537,7 @@
         <v>1276</v>
       </c>
       <c r="J590" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28570,7 +28570,7 @@
         <v>957</v>
       </c>
       <c r="J591" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28603,7 +28603,7 @@
         <v>1132</v>
       </c>
       <c r="J592" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28636,7 +28636,7 @@
         <v>993</v>
       </c>
       <c r="J593" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="L593" s="2"/>
@@ -28670,7 +28670,7 @@
         <v>1035</v>
       </c>
       <c r="J594" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28703,7 +28703,7 @@
         <v>1071</v>
       </c>
       <c r="J595" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28736,7 +28736,7 @@
         <v>2312</v>
       </c>
       <c r="J596" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28769,7 +28769,7 @@
         <v>877</v>
       </c>
       <c r="J597" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28802,7 +28802,7 @@
         <v>2290</v>
       </c>
       <c r="J598" s="32" t="str">
-        <f t="shared" ref="J598:J660" si="15">VLOOKUP(B598,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J598:J660" si="18">VLOOKUP(B598,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28835,7 +28835,7 @@
         <v>1120</v>
       </c>
       <c r="J599" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28868,7 +28868,7 @@
         <v>1118</v>
       </c>
       <c r="J600" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28901,7 +28901,7 @@
         <v>1518</v>
       </c>
       <c r="J601" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28934,7 +28934,7 @@
         <v>892</v>
       </c>
       <c r="J602" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28967,7 +28967,7 @@
         <v>910</v>
       </c>
       <c r="J603" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29000,7 +29000,7 @@
         <v>914</v>
       </c>
       <c r="J604" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29033,7 +29033,7 @@
         <v>939</v>
       </c>
       <c r="J605" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29066,7 +29066,7 @@
         <v>2234</v>
       </c>
       <c r="J606" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -29099,7 +29099,7 @@
         <v>995</v>
       </c>
       <c r="J607" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29132,7 +29132,7 @@
         <v>1005</v>
       </c>
       <c r="J608" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29165,7 +29165,7 @@
         <v>1023</v>
       </c>
       <c r="J609" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29198,7 +29198,7 @@
         <v>1324</v>
       </c>
       <c r="J610" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
         <v>1144</v>
       </c>
       <c r="J611" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K611" s="3"/>
@@ -29277,7 +29277,7 @@
         <v>1204</v>
       </c>
       <c r="J612" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -29310,7 +29310,7 @@
         <v>1829</v>
       </c>
       <c r="J613" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K613" s="3"/>
@@ -29356,7 +29356,7 @@
         <v>1336</v>
       </c>
       <c r="J614" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29389,7 +29389,7 @@
         <v>1370</v>
       </c>
       <c r="J615" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K615" s="3"/>
@@ -29435,7 +29435,7 @@
         <v>1394</v>
       </c>
       <c r="J616" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29468,7 +29468,7 @@
         <v>1420</v>
       </c>
       <c r="J617" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29501,7 +29501,7 @@
         <v>1422</v>
       </c>
       <c r="J618" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K618" s="3"/>
@@ -29547,7 +29547,7 @@
         <v>1446</v>
       </c>
       <c r="J619" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K619" s="3"/>
@@ -29593,7 +29593,7 @@
         <v>1464</v>
       </c>
       <c r="J620" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K620" s="3"/>
@@ -29639,7 +29639,7 @@
         <v>1490</v>
       </c>
       <c r="J621" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29672,7 +29672,7 @@
         <v>1536</v>
       </c>
       <c r="J622" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29705,7 +29705,7 @@
         <v>1544</v>
       </c>
       <c r="J623" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29738,7 +29738,7 @@
         <v>1546</v>
       </c>
       <c r="J624" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29771,7 +29771,7 @@
         <v>1578</v>
       </c>
       <c r="J625" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29804,7 +29804,7 @@
         <v>1582</v>
       </c>
       <c r="J626" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29837,7 +29837,7 @@
         <v>973</v>
       </c>
       <c r="J627" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -29870,7 +29870,7 @@
         <v>1600</v>
       </c>
       <c r="J628" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29903,7 +29903,7 @@
         <v>1627</v>
       </c>
       <c r="J629" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29936,7 +29936,7 @@
         <v>1651</v>
       </c>
       <c r="J630" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K630" s="3"/>
@@ -29982,7 +29982,7 @@
         <v>1679</v>
       </c>
       <c r="J631" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30015,7 +30015,7 @@
         <v>1681</v>
       </c>
       <c r="J632" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30048,7 +30048,7 @@
         <v>1707</v>
       </c>
       <c r="J633" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30081,7 +30081,7 @@
         <v>1711</v>
       </c>
       <c r="J634" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30114,7 +30114,7 @@
         <v>1715</v>
       </c>
       <c r="J635" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30147,7 +30147,7 @@
         <v>1729</v>
       </c>
       <c r="J636" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30180,7 +30180,7 @@
         <v>1745</v>
       </c>
       <c r="J637" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30213,7 +30213,7 @@
         <v>1755</v>
       </c>
       <c r="J638" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30246,7 +30246,7 @@
         <v>1795</v>
       </c>
       <c r="J639" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30279,7 +30279,7 @@
         <v>1833</v>
       </c>
       <c r="J640" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30312,7 +30312,7 @@
         <v>1860</v>
       </c>
       <c r="J641" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30345,7 +30345,7 @@
         <v>1884</v>
       </c>
       <c r="J642" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30378,7 +30378,7 @@
         <v>1906</v>
       </c>
       <c r="J643" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30411,7 +30411,7 @@
         <v>1908</v>
       </c>
       <c r="J644" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30444,7 +30444,7 @@
         <v>1928</v>
       </c>
       <c r="J645" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30477,7 +30477,7 @@
         <v>1952</v>
       </c>
       <c r="J646" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30510,7 +30510,7 @@
         <v>1976</v>
       </c>
       <c r="J647" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30543,7 +30543,7 @@
         <v>1984</v>
       </c>
       <c r="J648" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30576,7 +30576,7 @@
         <v>2008</v>
       </c>
       <c r="J649" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30609,7 +30609,7 @@
         <v>2018</v>
       </c>
       <c r="J650" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30642,7 +30642,7 @@
         <v>2026</v>
       </c>
       <c r="J651" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30675,7 +30675,7 @@
         <v>2062</v>
       </c>
       <c r="J652" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30708,7 +30708,7 @@
         <v>2086</v>
       </c>
       <c r="J653" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30741,7 +30741,7 @@
         <v>2108</v>
       </c>
       <c r="J654" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30774,7 +30774,7 @@
         <v>2120</v>
       </c>
       <c r="J655" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30807,7 +30807,7 @@
         <v>2136</v>
       </c>
       <c r="J656" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30840,7 +30840,7 @@
         <v>2148</v>
       </c>
       <c r="J657" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30873,7 +30873,7 @@
         <v>2166</v>
       </c>
       <c r="J658" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30906,7 +30906,7 @@
         <v>2174</v>
       </c>
       <c r="J659" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30939,7 +30939,7 @@
         <v>2204</v>
       </c>
       <c r="J660" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30972,7 +30972,7 @@
         <v>2208</v>
       </c>
       <c r="J661" s="32" t="str">
-        <f t="shared" ref="J661:J722" si="16">VLOOKUP(B661,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J661:J722" si="19">VLOOKUP(B661,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31005,7 +31005,7 @@
         <v>2214</v>
       </c>
       <c r="J662" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31038,7 +31038,7 @@
         <v>2238</v>
       </c>
       <c r="J663" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31071,7 +31071,7 @@
         <v>2272</v>
       </c>
       <c r="J664" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31104,7 +31104,7 @@
         <v>2298</v>
       </c>
       <c r="J665" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31137,7 +31137,7 @@
         <v>2326</v>
       </c>
       <c r="J666" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31170,7 +31170,7 @@
         <v>882</v>
       </c>
       <c r="J667" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31203,7 +31203,7 @@
         <v>997</v>
       </c>
       <c r="J668" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31236,7 +31236,7 @@
         <v>1013</v>
       </c>
       <c r="J669" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31269,7 +31269,7 @@
         <v>1087</v>
       </c>
       <c r="J670" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31302,7 +31302,7 @@
         <v>1092</v>
       </c>
       <c r="J671" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31335,7 +31335,7 @@
         <v>1330</v>
       </c>
       <c r="J672" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -31368,7 +31368,7 @@
         <v>959</v>
       </c>
       <c r="J673" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31401,7 +31401,7 @@
         <v>2337</v>
       </c>
       <c r="J674" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31434,7 +31434,7 @@
         <v>1368</v>
       </c>
       <c r="J675" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31467,7 +31467,7 @@
         <v>1550</v>
       </c>
       <c r="J676" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K676" s="3"/>
@@ -31513,7 +31513,7 @@
         <v>971</v>
       </c>
       <c r="J677" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31546,7 +31546,7 @@
         <v>1168</v>
       </c>
       <c r="J678" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31579,7 +31579,7 @@
         <v>925</v>
       </c>
       <c r="J679" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31612,7 +31612,7 @@
         <v>937</v>
       </c>
       <c r="J680" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K680" s="3"/>
@@ -31658,7 +31658,7 @@
         <v>947</v>
       </c>
       <c r="J681" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K681" s="3"/>
@@ -31704,7 +31704,7 @@
         <v>967</v>
       </c>
       <c r="J682" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31737,7 +31737,7 @@
         <v>991</v>
       </c>
       <c r="J683" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31770,7 +31770,7 @@
         <v>1085</v>
       </c>
       <c r="J684" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K684" s="3"/>
@@ -31816,7 +31816,7 @@
         <v>1108</v>
       </c>
       <c r="J685" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31849,7 +31849,7 @@
         <v>1116</v>
       </c>
       <c r="J686" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31882,7 +31882,7 @@
         <v>1156</v>
       </c>
       <c r="J687" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K687" s="3"/>
@@ -31928,7 +31928,7 @@
         <v>1166</v>
       </c>
       <c r="J688" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31961,7 +31961,7 @@
         <v>1184</v>
       </c>
       <c r="J689" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31994,7 +31994,7 @@
         <v>1240</v>
       </c>
       <c r="J690" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K690" s="3"/>
@@ -32040,7 +32040,7 @@
         <v>1246</v>
       </c>
       <c r="J691" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -32073,7 +32073,7 @@
         <v>1272</v>
       </c>
       <c r="J692" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -32106,7 +32106,7 @@
         <v>1352</v>
       </c>
       <c r="J693" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32139,7 +32139,7 @@
         <v>1364</v>
       </c>
       <c r="J694" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32172,7 +32172,7 @@
         <v>1372</v>
       </c>
       <c r="J695" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32205,7 +32205,7 @@
         <v>1378</v>
       </c>
       <c r="J696" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32238,7 +32238,7 @@
         <v>1390</v>
       </c>
       <c r="J697" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K697" s="3"/>
@@ -32284,7 +32284,7 @@
         <v>1402</v>
       </c>
       <c r="J698" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K698" s="3"/>
@@ -32330,7 +32330,7 @@
         <v>1406</v>
       </c>
       <c r="J699" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32363,7 +32363,7 @@
         <v>1418</v>
       </c>
       <c r="J700" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -32396,7 +32396,7 @@
         <v>1450</v>
       </c>
       <c r="J701" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32429,7 +32429,7 @@
         <v>1472</v>
       </c>
       <c r="J702" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32462,7 +32462,7 @@
         <v>1486</v>
       </c>
       <c r="J703" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32495,7 +32495,7 @@
         <v>1554</v>
       </c>
       <c r="J704" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -32528,7 +32528,7 @@
         <v>1558</v>
       </c>
       <c r="J705" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32561,7 +32561,7 @@
         <v>1574</v>
       </c>
       <c r="J706" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32594,7 +32594,7 @@
         <v>1584</v>
       </c>
       <c r="J707" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32627,7 +32627,7 @@
         <v>1605</v>
       </c>
       <c r="J708" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32660,7 +32660,7 @@
         <v>1613</v>
       </c>
       <c r="J709" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32693,7 +32693,7 @@
         <v>1623</v>
       </c>
       <c r="J710" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32726,7 +32726,7 @@
         <v>1655</v>
       </c>
       <c r="J711" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32759,7 +32759,7 @@
         <v>1703</v>
       </c>
       <c r="J712" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32792,7 +32792,7 @@
         <v>1705</v>
       </c>
       <c r="J713" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32825,7 +32825,7 @@
         <v>1773</v>
       </c>
       <c r="J714" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32858,7 +32858,7 @@
         <v>1779</v>
       </c>
       <c r="J715" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32891,7 +32891,7 @@
         <v>1797</v>
       </c>
       <c r="J716" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32924,7 +32924,7 @@
         <v>1803</v>
       </c>
       <c r="J717" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32957,7 +32957,7 @@
         <v>1805</v>
       </c>
       <c r="J718" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32990,7 +32990,7 @@
         <v>1825</v>
       </c>
       <c r="J719" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33023,7 +33023,7 @@
         <v>1839</v>
       </c>
       <c r="J720" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -33056,7 +33056,7 @@
         <v>1856</v>
       </c>
       <c r="J721" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33089,7 +33089,7 @@
         <v>1890</v>
       </c>
       <c r="J722" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33122,7 +33122,7 @@
         <v>1896</v>
       </c>
       <c r="J723" s="32" t="str">
-        <f t="shared" ref="J723:J747" si="17">VLOOKUP(B723,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J723:J747" si="20">VLOOKUP(B723,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33155,7 +33155,7 @@
         <v>1930</v>
       </c>
       <c r="J724" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33188,7 +33188,7 @@
         <v>1948</v>
       </c>
       <c r="J725" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33221,7 +33221,7 @@
         <v>1958</v>
       </c>
       <c r="J726" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33254,7 +33254,7 @@
         <v>2000</v>
       </c>
       <c r="J727" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33287,7 +33287,7 @@
         <v>2006</v>
       </c>
       <c r="J728" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33320,7 +33320,7 @@
         <v>2036</v>
       </c>
       <c r="J729" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -33353,7 +33353,7 @@
         <v>2040</v>
       </c>
       <c r="J730" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33386,7 +33386,7 @@
         <v>2074</v>
       </c>
       <c r="J731" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33419,7 +33419,7 @@
         <v>2092</v>
       </c>
       <c r="J732" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33452,7 +33452,7 @@
         <v>2098</v>
       </c>
       <c r="J733" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33485,7 +33485,7 @@
         <v>2116</v>
       </c>
       <c r="J734" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33518,7 +33518,7 @@
         <v>2152</v>
       </c>
       <c r="J735" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33551,7 +33551,7 @@
         <v>2156</v>
       </c>
       <c r="J736" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33584,7 +33584,7 @@
         <v>2176</v>
       </c>
       <c r="J737" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33617,7 +33617,7 @@
         <v>2300</v>
       </c>
       <c r="J738" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33650,7 +33650,7 @@
         <v>2310</v>
       </c>
       <c r="J739" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33683,7 +33683,7 @@
         <v>2318</v>
       </c>
       <c r="J740" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33716,7 +33716,7 @@
         <v>2182</v>
       </c>
       <c r="J741" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -33747,7 +33747,7 @@
         <v>2347</v>
       </c>
       <c r="J742" s="17" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33778,7 +33778,7 @@
         <v>2350</v>
       </c>
       <c r="J743" s="17" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33811,7 +33811,7 @@
         <v>902</v>
       </c>
       <c r="J744" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -33844,7 +33844,7 @@
         <v>1837</v>
       </c>
       <c r="J745" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -33877,7 +33877,7 @@
         <v>1904</v>
       </c>
       <c r="J746" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -33910,7 +33910,7 @@
         <v>2258</v>
       </c>
       <c r="J747" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -33941,7 +33941,7 @@
         <v>2366</v>
       </c>
       <c r="J748" s="17" t="e">
-        <f t="shared" ref="J748:J751" si="18">VLOOKUP(B748,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J748:J751" si="21">VLOOKUP(B748,$L$5:$M$14,2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33972,7 +33972,7 @@
         <v>2369</v>
       </c>
       <c r="J749" s="17" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -34003,7 +34003,7 @@
         <v>2372</v>
       </c>
       <c r="J750" s="17" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -34034,7 +34034,7 @@
         <v>2376</v>
       </c>
       <c r="J751" s="17" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>

--- a/data/participants.xlsx
+++ b/data/participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A08243-D892-47BE-A7F1-D5BA0600298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAFD7F6-A99D-4B88-80E8-ECA3E217AD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -7972,8 +7972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE38E0-2DDE-4FC7-BD88-207F74F88DC1}">
   <dimension ref="A1:W747"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M220" sqref="M220"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A610" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B623" sqref="B623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8130,15 +8130,15 @@
         <v>1</v>
       </c>
       <c r="Q5" s="12">
-        <f>COUNTIF(B:B,P5)</f>
+        <f t="shared" ref="Q5:Q14" si="0">COUNTIF(B:B,P5)</f>
         <v>69</v>
       </c>
       <c r="R5" s="12">
-        <f>COUNTIFS(B:B,P5,G:G,$R$4)</f>
+        <f t="shared" ref="R5:R14" si="1">COUNTIFS(B:B,P5,G:G,$R$4)</f>
         <v>22</v>
       </c>
       <c r="S5" s="12">
-        <f>COUNTIFS(B:B,P5,G:G,$S$4)</f>
+        <f t="shared" ref="S5:S14" si="2">COUNTIFS(B:B,P5,G:G,$S$4)</f>
         <v>47</v>
       </c>
       <c r="T5" s="12">
@@ -8187,7 +8187,7 @@
         <v>880</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:J10" si="0">VLOOKUP(B6,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J6:J10" si="3">VLOOKUP(B6,$L$5:$M$14,2)</f>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L6" s="12">
@@ -8200,31 +8200,31 @@
         <v>2</v>
       </c>
       <c r="Q6" s="12">
-        <f>COUNTIF(B:B,P6)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="R6" s="12">
-        <f>COUNTIFS(B:B,P6,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S6" s="12">
-        <f>COUNTIFS(B:B,P6,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="T6" s="12">
-        <f t="shared" ref="T6:U14" si="1">ROUNDUP(R6/2,0)</f>
+        <f t="shared" ref="T6:U14" si="4">ROUNDUP(R6/2,0)</f>
         <v>13</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="V6" s="12">
-        <f t="shared" ref="V6:V14" si="2">SUM(T6:U6)</f>
+        <f t="shared" ref="V6:V14" si="5">SUM(T6:U6)</f>
         <v>37</v>
       </c>
       <c r="W6" s="12">
-        <f t="shared" ref="W6:W14" si="3">V6+6</f>
+        <f t="shared" ref="W6:W14" si="6">V6+6</f>
         <v>43</v>
       </c>
     </row>
@@ -8257,7 +8257,7 @@
         <v>886</v>
       </c>
       <c r="J7" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L7" s="12">
@@ -8270,31 +8270,31 @@
         <v>3</v>
       </c>
       <c r="Q7" s="12">
-        <f>COUNTIF(B:B,P7)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="R7" s="12">
-        <f>COUNTIFS(B:B,P7,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="S7" s="12">
-        <f>COUNTIFS(B:B,P7,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="V7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="W7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
@@ -8327,7 +8327,7 @@
         <v>939</v>
       </c>
       <c r="J8" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L8" s="12">
@@ -8340,31 +8340,31 @@
         <v>4</v>
       </c>
       <c r="Q8" s="12">
-        <f>COUNTIF(B:B,P8)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="R8" s="12">
-        <f>COUNTIFS(B:B,P8,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="S8" s="12">
-        <f>COUNTIFS(B:B,P8,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
         <v>947</v>
       </c>
       <c r="J9" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L9" s="12">
@@ -8410,31 +8410,31 @@
         <v>5</v>
       </c>
       <c r="Q9" s="12">
-        <f>COUNTIF(B:B,P9)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="R9" s="12">
-        <f>COUNTIFS(B:B,P9,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="S9" s="12">
-        <f>COUNTIFS(B:B,P9,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="V9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="W9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
         <v>959</v>
       </c>
       <c r="J10" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L10" s="12">
@@ -8480,31 +8480,31 @@
         <v>6</v>
       </c>
       <c r="Q10" s="12">
-        <f>COUNTIF(B:B,P10)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="R10" s="12">
-        <f>COUNTIFS(B:B,P10,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="S10" s="12">
-        <f>COUNTIFS(B:B,P10,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="V10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
         <v>1003</v>
       </c>
       <c r="J11" s="13" t="str">
-        <f t="shared" ref="J11:J74" si="4">VLOOKUP(B11,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J11:J74" si="7">VLOOKUP(B11,$L$5:$M$14,2)</f>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="L11" s="12">
@@ -8550,31 +8550,31 @@
         <v>7</v>
       </c>
       <c r="Q11" s="12">
-        <f>COUNTIF(B:B,P11)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="R11" s="12">
-        <f>COUNTIFS(B:B,P11,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S11" s="12">
-        <f>COUNTIFS(B:B,P11,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="U11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="V11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="W11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
@@ -8607,7 +8607,7 @@
         <v>1019</v>
       </c>
       <c r="J12" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L12" s="12">
@@ -8620,31 +8620,31 @@
         <v>8</v>
       </c>
       <c r="Q12" s="12">
-        <f>COUNTIF(B:B,P12)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="R12" s="12">
-        <f>COUNTIFS(B:B,P12,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S12" s="12">
-        <f>COUNTIFS(B:B,P12,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
         <v>1075</v>
       </c>
       <c r="J13" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L13" s="12">
@@ -8690,23 +8690,23 @@
         <v>9</v>
       </c>
       <c r="Q13" s="12">
-        <f>COUNTIF(B:B,P13)</f>
-        <v>73</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="R13" s="12">
-        <f>COUNTIFS(B:B,P13,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="S13" s="12">
-        <f>COUNTIFS(B:B,P13,G:G,$S$4)</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="T13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="V13" s="12">
@@ -8714,7 +8714,7 @@
         <v>37</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
@@ -8747,7 +8747,7 @@
         <v>1092</v>
       </c>
       <c r="J14" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L14" s="12">
@@ -8760,32 +8760,32 @@
         <v>10</v>
       </c>
       <c r="Q14" s="12">
-        <f>COUNTIF(B:B,P14)</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="R14" s="12">
-        <f>COUNTIFS(B:B,P14,G:G,$R$4)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="S14" s="12">
-        <f>COUNTIFS(B:B,P14,G:G,$S$4)</f>
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="T14" s="12">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U14" s="12">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="W14" s="12">
+        <f t="shared" si="6"/>
         <v>42</v>
-      </c>
-      <c r="T14" s="12">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="U14" s="12">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="V14" s="12">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="W14" s="12">
-        <f t="shared" si="3"/>
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.6">
@@ -8817,7 +8817,7 @@
         <v>1166</v>
       </c>
       <c r="J15" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -8828,28 +8828,28 @@
         <v>725</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15:W15" si="5">SUM(R5:R14)</f>
+        <f t="shared" ref="R15:W15" si="8">SUM(R5:R14)</f>
         <v>244</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>124</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" si="5"/>
-        <v>242</v>
+        <f t="shared" si="8"/>
+        <v>243</v>
       </c>
       <c r="V15" s="12">
-        <f t="shared" si="5"/>
-        <v>366</v>
+        <f t="shared" si="8"/>
+        <v>367</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="5"/>
-        <v>426</v>
+        <f t="shared" si="8"/>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.6">
@@ -8881,7 +8881,7 @@
         <v>1228</v>
       </c>
       <c r="J16" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -8914,7 +8914,7 @@
         <v>1272</v>
       </c>
       <c r="J17" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -8947,7 +8947,7 @@
         <v>1282</v>
       </c>
       <c r="J18" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -8980,7 +8980,7 @@
         <v>1304</v>
       </c>
       <c r="J19" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="N19" s="25"/>
@@ -9014,7 +9014,7 @@
         <v>1346</v>
       </c>
       <c r="J20" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K20" s="3"/>
@@ -9060,7 +9060,7 @@
         <v>1356</v>
       </c>
       <c r="J21" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="N21" s="26"/>
@@ -9094,7 +9094,7 @@
         <v>1364</v>
       </c>
       <c r="J22" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="K22" s="3"/>
@@ -9140,7 +9140,7 @@
         <v>1386</v>
       </c>
       <c r="J23" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9173,7 +9173,7 @@
         <v>1388</v>
       </c>
       <c r="J24" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="K24" s="3"/>
@@ -9219,7 +9219,7 @@
         <v>1406</v>
       </c>
       <c r="J25" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
         <v>1416</v>
       </c>
       <c r="J26" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
         <v>1420</v>
       </c>
       <c r="J27" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
         <v>1438</v>
       </c>
       <c r="J28" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
         <v>1452</v>
       </c>
       <c r="J29" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9384,7 +9384,7 @@
         <v>1482</v>
       </c>
       <c r="J30" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
         <v>1564</v>
       </c>
       <c r="J31" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9450,7 +9450,7 @@
         <v>1582</v>
       </c>
       <c r="J32" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
         <v>1599</v>
       </c>
       <c r="J33" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
         <v>1605</v>
       </c>
       <c r="J34" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
         <v>1631</v>
       </c>
       <c r="J35" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
         <v>1657</v>
       </c>
       <c r="J36" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
         <v>1727</v>
       </c>
       <c r="J37" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
         <v>1733</v>
       </c>
       <c r="J38" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
         <v>1763</v>
       </c>
       <c r="J39" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9714,7 +9714,7 @@
         <v>1785</v>
       </c>
       <c r="J40" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
         <v>1793</v>
       </c>
       <c r="J41" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="K41" s="3"/>
@@ -9793,7 +9793,7 @@
         <v>1801</v>
       </c>
       <c r="J42" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9826,7 +9826,7 @@
         <v>1840</v>
       </c>
       <c r="J43" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="K43" s="3"/>
@@ -9872,7 +9872,7 @@
         <v>1852</v>
       </c>
       <c r="J44" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
         <v>1866</v>
       </c>
       <c r="J45" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
         <v>1904</v>
       </c>
       <c r="J46" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
         <v>1952</v>
       </c>
       <c r="J47" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10004,7 +10004,7 @@
         <v>1968</v>
       </c>
       <c r="J48" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
         <v>1976</v>
       </c>
       <c r="J49" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10070,7 +10070,7 @@
         <v>1982</v>
       </c>
       <c r="J50" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10103,7 +10103,7 @@
         <v>1984</v>
       </c>
       <c r="J51" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10136,7 +10136,7 @@
         <v>2000</v>
       </c>
       <c r="J52" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
         <v>2002</v>
       </c>
       <c r="J53" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10202,7 +10202,7 @@
         <v>2104</v>
       </c>
       <c r="J54" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10235,7 +10235,7 @@
         <v>2116</v>
       </c>
       <c r="J55" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
         <v>2118</v>
       </c>
       <c r="J56" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
         <v>2126</v>
       </c>
       <c r="J57" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10334,7 +10334,7 @@
         <v>2140</v>
       </c>
       <c r="J58" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10367,7 +10367,7 @@
         <v>2154</v>
       </c>
       <c r="J59" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -10400,7 +10400,7 @@
         <v>2198</v>
       </c>
       <c r="J60" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10433,7 +10433,7 @@
         <v>2208</v>
       </c>
       <c r="J61" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
         <v>2212</v>
       </c>
       <c r="J62" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L62" s="2"/>
@@ -10500,7 +10500,7 @@
         <v>2240</v>
       </c>
       <c r="J63" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
         <v>2248</v>
       </c>
       <c r="J64" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10566,7 +10566,7 @@
         <v>2266</v>
       </c>
       <c r="J65" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10599,7 +10599,7 @@
         <v>2288</v>
       </c>
       <c r="J66" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10632,7 +10632,7 @@
         <v>2302</v>
       </c>
       <c r="J67" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
         <v>2316</v>
       </c>
       <c r="J68" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
         <v>2210</v>
       </c>
       <c r="J69" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
         <v>1248</v>
       </c>
       <c r="J70" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10764,7 +10764,7 @@
         <v>1512</v>
       </c>
       <c r="J71" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10797,7 +10797,7 @@
         <v>1556</v>
       </c>
       <c r="J72" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10830,7 +10830,7 @@
         <v>2114</v>
       </c>
       <c r="J73" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10863,7 +10863,7 @@
         <v>1136</v>
       </c>
       <c r="J74" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
         <v>1522</v>
       </c>
       <c r="J75" s="32" t="str">
-        <f t="shared" ref="J75:J87" si="6">VLOOKUP(B75,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J75:J87" si="9">VLOOKUP(B75,$L$5:$M$14,2)</f>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -10929,7 +10929,7 @@
         <v>890</v>
       </c>
       <c r="J76" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
         <v>902</v>
       </c>
       <c r="J77" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -10995,7 +10995,7 @@
         <v>925</v>
       </c>
       <c r="J78" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
         <v>929</v>
       </c>
       <c r="J79" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
         <v>983</v>
       </c>
       <c r="J80" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11094,7 +11094,7 @@
         <v>1007</v>
       </c>
       <c r="J81" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
         <v>1027</v>
       </c>
       <c r="J82" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11160,7 +11160,7 @@
         <v>1079</v>
       </c>
       <c r="J83" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11193,7 +11193,7 @@
         <v>1086</v>
       </c>
       <c r="J84" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11226,7 +11226,7 @@
         <v>1150</v>
       </c>
       <c r="J85" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11259,7 +11259,7 @@
         <v>1154</v>
       </c>
       <c r="J86" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11292,7 +11292,7 @@
         <v>1212</v>
       </c>
       <c r="J87" s="32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K87" s="3"/>
@@ -11338,7 +11338,7 @@
         <v>1464</v>
       </c>
       <c r="J88" s="32" t="str">
-        <f t="shared" ref="J88:J151" si="7">VLOOKUP(B88,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J88:J151" si="10">VLOOKUP(B88,$L$5:$M$14,2)</f>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -11371,7 +11371,7 @@
         <v>1244</v>
       </c>
       <c r="J89" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11404,7 +11404,7 @@
         <v>1264</v>
       </c>
       <c r="J90" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
         <v>1330</v>
       </c>
       <c r="J91" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11470,7 +11470,7 @@
         <v>1334</v>
       </c>
       <c r="J92" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K92" s="3"/>
@@ -11516,7 +11516,7 @@
         <v>1378</v>
       </c>
       <c r="J93" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
         <v>1442</v>
       </c>
       <c r="J94" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K94" s="3"/>
@@ -11595,7 +11595,7 @@
         <v>1466</v>
       </c>
       <c r="J95" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11628,7 +11628,7 @@
         <v>1478</v>
       </c>
       <c r="J96" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K96" s="3"/>
@@ -11674,7 +11674,7 @@
         <v>1528</v>
       </c>
       <c r="J97" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
         <v>1554</v>
       </c>
       <c r="J98" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
         <v>1576</v>
       </c>
       <c r="J99" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11773,7 +11773,7 @@
         <v>1590</v>
       </c>
       <c r="J100" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11806,7 +11806,7 @@
         <v>1597</v>
       </c>
       <c r="J101" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K101" s="3"/>
@@ -11852,7 +11852,7 @@
         <v>1625</v>
       </c>
       <c r="J102" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K102" s="3"/>
@@ -11898,7 +11898,7 @@
         <v>1645</v>
       </c>
       <c r="J103" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
         <v>1653</v>
       </c>
       <c r="J104" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11964,7 +11964,7 @@
         <v>1663</v>
       </c>
       <c r="J105" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -11997,7 +11997,7 @@
         <v>1705</v>
       </c>
       <c r="J106" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K106" s="3"/>
@@ -12043,7 +12043,7 @@
         <v>1717</v>
       </c>
       <c r="J107" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12076,7 +12076,7 @@
         <v>1721</v>
       </c>
       <c r="J108" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
         <v>1749</v>
       </c>
       <c r="J109" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K109" s="3"/>
@@ -12155,7 +12155,7 @@
         <v>1753</v>
       </c>
       <c r="J110" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
         <v>2364</v>
       </c>
       <c r="J111" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
         <v>1799</v>
       </c>
       <c r="J112" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12254,7 +12254,7 @@
         <v>1850</v>
       </c>
       <c r="J113" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12287,7 +12287,7 @@
         <v>1854</v>
       </c>
       <c r="J114" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12320,7 +12320,7 @@
         <v>1862</v>
       </c>
       <c r="J115" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
         <v>1896</v>
       </c>
       <c r="J116" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12386,7 +12386,7 @@
         <v>1912</v>
       </c>
       <c r="J117" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K117" s="3"/>
@@ -12432,7 +12432,7 @@
         <v>1920</v>
       </c>
       <c r="J118" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K118" s="3"/>
@@ -12478,7 +12478,7 @@
         <v>1930</v>
       </c>
       <c r="J119" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12511,7 +12511,7 @@
         <v>1972</v>
       </c>
       <c r="J120" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
       <c r="K120" s="3"/>
@@ -12557,7 +12557,7 @@
         <v>1978</v>
       </c>
       <c r="J121" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12590,7 +12590,7 @@
         <v>2010</v>
       </c>
       <c r="J122" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12623,7 +12623,7 @@
         <v>2018</v>
       </c>
       <c r="J123" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12656,7 +12656,7 @@
         <v>2040</v>
       </c>
       <c r="J124" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
         <v>2050</v>
       </c>
       <c r="J125" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12722,7 +12722,7 @@
         <v>2056</v>
       </c>
       <c r="J126" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
         <v>2216</v>
       </c>
       <c r="J127" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12788,7 +12788,7 @@
         <v>2250</v>
       </c>
       <c r="J128" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12821,7 +12821,7 @@
         <v>2272</v>
       </c>
       <c r="J129" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12854,7 +12854,7 @@
         <v>2282</v>
       </c>
       <c r="J130" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12887,7 +12887,7 @@
         <v>941</v>
       </c>
       <c r="J131" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12920,7 +12920,7 @@
         <v>1144</v>
       </c>
       <c r="J132" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
         <v>1280</v>
       </c>
       <c r="J133" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
         <v>927</v>
       </c>
       <c r="J134" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13019,7 +13019,7 @@
         <v>995</v>
       </c>
       <c r="J135" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13052,7 +13052,7 @@
         <v>1190</v>
       </c>
       <c r="J136" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
         <v>1524</v>
       </c>
       <c r="J137" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
         <v>1530</v>
       </c>
       <c r="J138" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13151,7 +13151,7 @@
         <v>1188</v>
       </c>
       <c r="J139" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
         <v>1544</v>
       </c>
       <c r="J140" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
         <v>1296</v>
       </c>
       <c r="J141" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13250,7 +13250,7 @@
         <v>1558</v>
       </c>
       <c r="J142" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13283,7 +13283,7 @@
         <v>1278</v>
       </c>
       <c r="J143" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13316,7 +13316,7 @@
         <v>1302</v>
       </c>
       <c r="J144" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13349,7 +13349,7 @@
         <v>961</v>
       </c>
       <c r="J145" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
         <v>1294</v>
       </c>
       <c r="J146" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13415,7 +13415,7 @@
         <v>2238</v>
       </c>
       <c r="J147" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
         <v>1936</v>
       </c>
       <c r="J148" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13481,7 +13481,7 @@
         <v>1015</v>
       </c>
       <c r="J149" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
         <v>1832</v>
       </c>
       <c r="J150" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13547,7 +13547,7 @@
         <v>2204</v>
       </c>
       <c r="J151" s="32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13580,7 +13580,7 @@
         <v>1773</v>
       </c>
       <c r="J152" s="32" t="str">
-        <f t="shared" ref="J152:J215" si="8">VLOOKUP(B152,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J152:J215" si="11">VLOOKUP(B152,$L$5:$M$14,2)</f>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13613,7 +13613,7 @@
         <v>1256</v>
       </c>
       <c r="J153" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13646,7 +13646,7 @@
         <v>1258</v>
       </c>
       <c r="J154" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
         <v>2016</v>
       </c>
       <c r="J155" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K155" s="3"/>
@@ -13725,7 +13725,7 @@
         <v>1472</v>
       </c>
       <c r="J156" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13758,7 +13758,7 @@
         <v>1312</v>
       </c>
       <c r="J157" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
         <v>1124</v>
       </c>
       <c r="J158" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13824,7 +13824,7 @@
         <v>1232</v>
       </c>
       <c r="J159" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13857,7 +13857,7 @@
         <v>1184</v>
       </c>
       <c r="J160" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
         <v>1422</v>
       </c>
       <c r="J161" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
         <v>1152</v>
       </c>
       <c r="J162" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13956,7 +13956,7 @@
         <v>971</v>
       </c>
       <c r="J163" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -13989,7 +13989,7 @@
         <v>1506</v>
       </c>
       <c r="J164" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
         <v>1617</v>
       </c>
       <c r="J165" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
         <v>2339</v>
       </c>
       <c r="J166" s="17" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14086,7 +14086,7 @@
         <v>1613</v>
       </c>
       <c r="J167" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14119,7 +14119,7 @@
         <v>2096</v>
       </c>
       <c r="J168" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14152,7 +14152,7 @@
         <v>1805</v>
       </c>
       <c r="J169" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14185,7 +14185,7 @@
         <v>1348</v>
       </c>
       <c r="J170" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
         <v>1902</v>
       </c>
       <c r="J171" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14251,7 +14251,7 @@
         <v>2264</v>
       </c>
       <c r="J172" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14284,7 +14284,7 @@
         <v>1948</v>
       </c>
       <c r="J173" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14317,7 +14317,7 @@
         <v>2148</v>
       </c>
       <c r="J174" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14350,7 +14350,7 @@
         <v>1755</v>
       </c>
       <c r="J175" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14383,7 +14383,7 @@
         <v>1220</v>
       </c>
       <c r="J176" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14416,7 +14416,7 @@
         <v>1675</v>
       </c>
       <c r="J177" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14449,7 +14449,7 @@
         <v>2178</v>
       </c>
       <c r="J178" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K178" s="3"/>
@@ -14495,7 +14495,7 @@
         <v>1270</v>
       </c>
       <c r="J179" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14528,7 +14528,7 @@
         <v>999</v>
       </c>
       <c r="J180" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14561,7 +14561,7 @@
         <v>2242</v>
       </c>
       <c r="J181" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14594,7 +14594,7 @@
         <v>1490</v>
       </c>
       <c r="J182" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K182" s="3"/>
@@ -14640,7 +14640,7 @@
         <v>2014</v>
       </c>
       <c r="J183" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
         <v>1434</v>
       </c>
       <c r="J184" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K184" s="3"/>
@@ -14719,7 +14719,7 @@
         <v>1757</v>
       </c>
       <c r="J185" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14752,7 +14752,7 @@
         <v>2036</v>
       </c>
       <c r="J186" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14785,7 +14785,7 @@
         <v>1864</v>
       </c>
       <c r="J187" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
         <v>2174</v>
       </c>
       <c r="J188" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14851,7 +14851,7 @@
         <v>1208</v>
       </c>
       <c r="J189" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
         <v>937</v>
       </c>
       <c r="J190" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -14917,7 +14917,7 @@
         <v>1240</v>
       </c>
       <c r="J191" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K191" s="3"/>
@@ -14963,7 +14963,7 @@
         <v>1328</v>
       </c>
       <c r="J192" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="K192" s="3"/>
@@ -15009,7 +15009,7 @@
         <v>1292</v>
       </c>
       <c r="J193" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15042,7 +15042,7 @@
         <v>1874</v>
       </c>
       <c r="J194" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15075,7 +15075,7 @@
         <v>1635</v>
       </c>
       <c r="J195" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15108,7 +15108,7 @@
         <v>2086</v>
       </c>
       <c r="J196" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
         <v>1200</v>
       </c>
       <c r="J197" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15174,7 +15174,7 @@
         <v>1817</v>
       </c>
       <c r="J198" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15207,7 +15207,7 @@
         <v>1828</v>
       </c>
       <c r="J199" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
       <c r="J200" s="32" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15255,7 +15255,7 @@
         <v>1707</v>
       </c>
       <c r="J201" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15288,7 +15288,7 @@
         <v>912</v>
       </c>
       <c r="J202" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15321,7 +15321,7 @@
         <v>1011</v>
       </c>
       <c r="J203" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15354,7 +15354,7 @@
         <v>2112</v>
       </c>
       <c r="J204" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
         <v>2144</v>
       </c>
       <c r="J205" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15420,7 +15420,7 @@
         <v>2130</v>
       </c>
       <c r="J206" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15453,7 +15453,7 @@
         <v>1226</v>
       </c>
       <c r="J207" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15486,7 +15486,7 @@
         <v>985</v>
       </c>
       <c r="J208" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15519,7 +15519,7 @@
         <v>1210</v>
       </c>
       <c r="J209" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15552,7 +15552,7 @@
         <v>1286</v>
       </c>
       <c r="J210" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15585,7 +15585,7 @@
         <v>1679</v>
       </c>
       <c r="J211" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
       <c r="J212" s="32" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
         <v>1966</v>
       </c>
       <c r="J213" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15666,7 +15666,7 @@
         <v>919</v>
       </c>
       <c r="J214" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15699,7 +15699,7 @@
         <v>1532</v>
       </c>
       <c r="J215" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -15732,7 +15732,7 @@
         <v>875</v>
       </c>
       <c r="J216" s="32" t="str">
-        <f t="shared" ref="J216:J278" si="9">VLOOKUP(B216,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J216:J278" si="12">VLOOKUP(B216,$L$5:$M$14,2)</f>
         <v>8/25(월)~8/26(화)</v>
       </c>
       <c r="L216" s="24"/>
@@ -15766,7 +15766,7 @@
         <v>2236</v>
       </c>
       <c r="J217" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15799,7 +15799,7 @@
         <v>1370</v>
       </c>
       <c r="J218" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15832,7 +15832,7 @@
         <v>1023</v>
       </c>
       <c r="J219" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15865,7 +15865,7 @@
         <v>1432</v>
       </c>
       <c r="J220" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15898,7 +15898,7 @@
         <v>1300</v>
       </c>
       <c r="J221" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15931,7 +15931,7 @@
         <v>2218</v>
       </c>
       <c r="J222" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15964,7 +15964,7 @@
         <v>2042</v>
       </c>
       <c r="J223" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -15997,7 +15997,7 @@
         <v>1988</v>
       </c>
       <c r="J224" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16030,7 +16030,7 @@
         <v>1803</v>
       </c>
       <c r="J225" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16063,7 +16063,7 @@
         <v>1844</v>
       </c>
       <c r="J226" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16096,7 +16096,7 @@
         <v>1336</v>
       </c>
       <c r="J227" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16129,7 +16129,7 @@
         <v>1767</v>
       </c>
       <c r="J228" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
         <v>2070</v>
       </c>
       <c r="J229" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
         <v>1470</v>
       </c>
       <c r="J230" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16228,7 +16228,7 @@
         <v>1769</v>
       </c>
       <c r="J231" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16261,7 +16261,7 @@
         <v>1242</v>
       </c>
       <c r="J232" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16294,7 +16294,7 @@
         <v>2214</v>
       </c>
       <c r="J233" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16327,7 +16327,7 @@
         <v>1112</v>
       </c>
       <c r="J234" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="K234" s="3"/>
@@ -16373,7 +16373,7 @@
         <v>1586</v>
       </c>
       <c r="J235" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16406,7 +16406,7 @@
         <v>2058</v>
       </c>
       <c r="J236" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16439,7 +16439,7 @@
         <v>1809</v>
       </c>
       <c r="J237" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16472,7 +16472,7 @@
         <v>2300</v>
       </c>
       <c r="J238" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16505,7 +16505,7 @@
         <v>1100</v>
       </c>
       <c r="J239" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16538,7 +16538,7 @@
         <v>2280</v>
       </c>
       <c r="J240" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
         <v>1450</v>
       </c>
       <c r="J241" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16604,7 +16604,7 @@
         <v>1607</v>
       </c>
       <c r="J242" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
         <v>1160</v>
       </c>
       <c r="J243" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16670,7 +16670,7 @@
         <v>1651</v>
       </c>
       <c r="J244" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16703,7 +16703,7 @@
         <v>1498</v>
       </c>
       <c r="J245" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16736,7 +16736,7 @@
         <v>917</v>
       </c>
       <c r="J246" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16769,7 +16769,7 @@
         <v>1687</v>
       </c>
       <c r="J247" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
         <v>1908</v>
       </c>
       <c r="J248" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16835,7 +16835,7 @@
         <v>1627</v>
       </c>
       <c r="J249" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
         <v>1500</v>
       </c>
       <c r="J250" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16901,7 +16901,7 @@
         <v>2172</v>
       </c>
       <c r="J251" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -16934,7 +16934,7 @@
         <v>1574</v>
       </c>
       <c r="J252" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K252" s="3"/>
@@ -16980,7 +16980,7 @@
         <v>1655</v>
       </c>
       <c r="J253" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="K253" s="3"/>
@@ -17026,7 +17026,7 @@
         <v>2030</v>
       </c>
       <c r="J254" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17059,7 +17059,7 @@
         <v>1338</v>
       </c>
       <c r="J255" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17074,7 +17074,7 @@
       <c r="H256" s="31"/>
       <c r="I256" s="31"/>
       <c r="J256" s="32" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="K256" s="3"/>
@@ -17120,7 +17120,7 @@
         <v>1928</v>
       </c>
       <c r="J257" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17153,7 +17153,7 @@
         <v>1418</v>
       </c>
       <c r="J258" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17186,7 +17186,7 @@
         <v>1216</v>
       </c>
       <c r="J259" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
         <v>2342</v>
       </c>
       <c r="J260" s="17" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17250,7 +17250,7 @@
         <v>1198</v>
       </c>
       <c r="J261" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
         <v>1084</v>
       </c>
       <c r="J262" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -17316,7 +17316,7 @@
         <v>1946</v>
       </c>
       <c r="J263" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17349,7 +17349,7 @@
         <v>1102</v>
       </c>
       <c r="J264" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17382,7 +17382,7 @@
         <v>1942</v>
       </c>
       <c r="J265" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="K265" s="3"/>
@@ -17410,7 +17410,7 @@
       <c r="H266" s="31"/>
       <c r="I266" s="31"/>
       <c r="J266" s="32" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -17443,7 +17443,7 @@
         <v>1246</v>
       </c>
       <c r="J267" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17476,7 +17476,7 @@
         <v>904</v>
       </c>
       <c r="J268" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17509,7 +17509,7 @@
         <v>1114</v>
       </c>
       <c r="J269" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17542,7 +17542,7 @@
         <v>1065</v>
       </c>
       <c r="J270" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17575,7 +17575,7 @@
         <v>2270</v>
       </c>
       <c r="J271" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17608,7 +17608,7 @@
         <v>1761</v>
       </c>
       <c r="J272" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
         <v>892</v>
       </c>
       <c r="J273" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17674,7 +17674,7 @@
         <v>1856</v>
       </c>
       <c r="J274" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17707,7 +17707,7 @@
         <v>1234</v>
       </c>
       <c r="J275" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17740,7 +17740,7 @@
         <v>1514</v>
       </c>
       <c r="J276" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
         <v>1298</v>
       </c>
       <c r="J277" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17806,7 +17806,7 @@
         <v>1578</v>
       </c>
       <c r="J278" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="K278" s="3"/>
@@ -17852,7 +17852,7 @@
         <v>2054</v>
       </c>
       <c r="J279" s="32" t="str">
-        <f t="shared" ref="J279:J342" si="10">VLOOKUP(B279,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J279:J342" si="13">VLOOKUP(B279,$L$5:$M$14,2)</f>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17885,7 +17885,7 @@
         <v>1520</v>
       </c>
       <c r="J280" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17918,7 +17918,7 @@
         <v>1502</v>
       </c>
       <c r="J281" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17951,7 +17951,7 @@
         <v>1623</v>
       </c>
       <c r="J282" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -17984,7 +17984,7 @@
         <v>1316</v>
       </c>
       <c r="J283" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18017,7 +18017,7 @@
         <v>1858</v>
       </c>
       <c r="J284" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18050,7 +18050,7 @@
         <v>1550</v>
       </c>
       <c r="J285" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18083,7 +18083,7 @@
         <v>894</v>
       </c>
       <c r="J286" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18116,7 +18116,7 @@
         <v>1073</v>
       </c>
       <c r="J287" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18149,7 +18149,7 @@
         <v>2246</v>
       </c>
       <c r="J288" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18182,7 +18182,7 @@
         <v>1711</v>
       </c>
       <c r="J289" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
         <v>1214</v>
       </c>
       <c r="J290" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18248,7 +18248,7 @@
         <v>2232</v>
       </c>
       <c r="J291" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18281,7 +18281,7 @@
         <v>2156</v>
       </c>
       <c r="J292" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18314,7 +18314,7 @@
         <v>1013</v>
       </c>
       <c r="J293" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18347,7 +18347,7 @@
         <v>1162</v>
       </c>
       <c r="J294" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18380,7 +18380,7 @@
         <v>2182</v>
       </c>
       <c r="J295" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18413,7 +18413,7 @@
         <v>1260</v>
       </c>
       <c r="J296" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18446,7 +18446,7 @@
         <v>2098</v>
       </c>
       <c r="J297" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
         <v>1924</v>
       </c>
       <c r="J298" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18512,7 +18512,7 @@
         <v>1182</v>
       </c>
       <c r="J299" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18545,7 +18545,7 @@
         <v>1713</v>
       </c>
       <c r="J300" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18578,7 +18578,7 @@
         <v>2032</v>
       </c>
       <c r="J301" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18611,7 +18611,7 @@
         <v>2124</v>
       </c>
       <c r="J302" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18644,7 +18644,7 @@
         <v>1186</v>
       </c>
       <c r="J303" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18677,7 +18677,7 @@
         <v>2186</v>
       </c>
       <c r="J304" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
         <v>1310</v>
       </c>
       <c r="J305" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18743,7 +18743,7 @@
         <v>1834</v>
       </c>
       <c r="J306" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K306" s="3"/>
@@ -18789,7 +18789,7 @@
         <v>2308</v>
       </c>
       <c r="J307" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18822,7 +18822,7 @@
         <v>1120</v>
       </c>
       <c r="J308" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18855,7 +18855,7 @@
         <v>1603</v>
       </c>
       <c r="J309" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18888,7 +18888,7 @@
         <v>1055</v>
       </c>
       <c r="J310" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18921,7 +18921,7 @@
         <v>1090</v>
       </c>
       <c r="J311" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K311" s="3"/>
@@ -18967,7 +18967,7 @@
         <v>1400</v>
       </c>
       <c r="J312" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19000,7 +19000,7 @@
         <v>1180</v>
       </c>
       <c r="J313" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
         <v>1980</v>
       </c>
       <c r="J314" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19066,7 +19066,7 @@
         <v>1884</v>
       </c>
       <c r="J315" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19099,7 +19099,7 @@
         <v>1458</v>
       </c>
       <c r="J316" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19132,7 +19132,7 @@
         <v>1729</v>
       </c>
       <c r="J317" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K317" s="3"/>
@@ -19178,7 +19178,7 @@
         <v>1619</v>
       </c>
       <c r="J318" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19211,7 +19211,7 @@
         <v>1685</v>
       </c>
       <c r="J319" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19244,7 +19244,7 @@
         <v>997</v>
       </c>
       <c r="J320" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19277,7 +19277,7 @@
         <v>1898</v>
       </c>
       <c r="J321" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19310,7 +19310,7 @@
         <v>1414</v>
       </c>
       <c r="J322" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19343,7 +19343,7 @@
         <v>1868</v>
       </c>
       <c r="J323" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K323" s="3"/>
@@ -19389,7 +19389,7 @@
         <v>1964</v>
       </c>
       <c r="J324" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K324" s="3"/>
@@ -19435,7 +19435,7 @@
         <v>1504</v>
       </c>
       <c r="J325" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -19468,7 +19468,7 @@
         <v>1751</v>
       </c>
       <c r="J326" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19501,7 +19501,7 @@
         <v>1250</v>
       </c>
       <c r="J327" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -19534,7 +19534,7 @@
         <v>1424</v>
       </c>
       <c r="J328" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19567,7 +19567,7 @@
         <v>1340</v>
       </c>
       <c r="J329" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19600,7 +19600,7 @@
         <v>1238</v>
       </c>
       <c r="J330" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -19633,7 +19633,7 @@
         <v>1116</v>
       </c>
       <c r="J331" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19666,7 +19666,7 @@
         <v>2158</v>
       </c>
       <c r="J332" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19699,7 +19699,7 @@
         <v>1192</v>
       </c>
       <c r="J333" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -19732,7 +19732,7 @@
         <v>1222</v>
       </c>
       <c r="J334" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19765,7 +19765,7 @@
         <v>2088</v>
       </c>
       <c r="J335" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K335" s="3"/>
@@ -19811,7 +19811,7 @@
         <v>1332</v>
       </c>
       <c r="J336" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K336" s="3"/>
@@ -19857,7 +19857,7 @@
         <v>1683</v>
       </c>
       <c r="J337" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K337" s="3"/>
@@ -19903,7 +19903,7 @@
         <v>1306</v>
       </c>
       <c r="J338" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19936,7 +19936,7 @@
         <v>1053</v>
       </c>
       <c r="J339" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -19969,7 +19969,7 @@
         <v>1061</v>
       </c>
       <c r="J340" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20002,7 +20002,7 @@
         <v>2038</v>
       </c>
       <c r="J341" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
         <v>1494</v>
       </c>
       <c r="J342" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20068,7 +20068,7 @@
         <v>1643</v>
       </c>
       <c r="J343" s="32" t="str">
-        <f t="shared" ref="J343:J405" si="11">VLOOKUP(B343,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J343:J405" si="14">VLOOKUP(B343,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20101,7 +20101,7 @@
         <v>2188</v>
       </c>
       <c r="J344" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20134,7 +20134,7 @@
         <v>977</v>
       </c>
       <c r="J345" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20167,7 +20167,7 @@
         <v>1069</v>
       </c>
       <c r="J346" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20198,7 +20198,7 @@
         <v>2345</v>
       </c>
       <c r="J347" s="17" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -20231,7 +20231,7 @@
         <v>2034</v>
       </c>
       <c r="J348" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20264,7 +20264,7 @@
         <v>2080</v>
       </c>
       <c r="J349" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20297,7 +20297,7 @@
         <v>1958</v>
       </c>
       <c r="J350" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20330,7 +20330,7 @@
         <v>1695</v>
       </c>
       <c r="J351" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20363,7 +20363,7 @@
         <v>1376</v>
       </c>
       <c r="J352" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20396,7 +20396,7 @@
         <v>1677</v>
       </c>
       <c r="J353" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20429,7 +20429,7 @@
         <v>1725</v>
       </c>
       <c r="J354" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20462,7 +20462,7 @@
         <v>949</v>
       </c>
       <c r="J355" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20495,7 +20495,7 @@
         <v>1777</v>
       </c>
       <c r="J356" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20528,7 +20528,7 @@
         <v>1168</v>
       </c>
       <c r="J357" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20561,7 +20561,7 @@
         <v>945</v>
       </c>
       <c r="J358" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20594,7 +20594,7 @@
         <v>2260</v>
       </c>
       <c r="J359" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20627,7 +20627,7 @@
         <v>2306</v>
       </c>
       <c r="J360" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
         <v>1402</v>
       </c>
       <c r="J361" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20693,7 +20693,7 @@
         <v>1284</v>
       </c>
       <c r="J362" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -20726,7 +20726,7 @@
         <v>1484</v>
       </c>
       <c r="J363" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20759,7 +20759,7 @@
         <v>1474</v>
       </c>
       <c r="J364" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20792,7 +20792,7 @@
         <v>2329</v>
       </c>
       <c r="J365" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -20825,7 +20825,7 @@
         <v>1196</v>
       </c>
       <c r="J366" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K366" s="3"/>
@@ -20871,7 +20871,7 @@
         <v>1448</v>
       </c>
       <c r="J367" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -20904,7 +20904,7 @@
         <v>2024</v>
       </c>
       <c r="J368" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -20937,7 +20937,7 @@
         <v>1276</v>
       </c>
       <c r="J369" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -20970,7 +20970,7 @@
         <v>2128</v>
       </c>
       <c r="J370" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21003,7 +21003,7 @@
         <v>1552</v>
       </c>
       <c r="J371" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21036,7 +21036,7 @@
         <v>1860</v>
       </c>
       <c r="J372" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21069,7 +21069,7 @@
         <v>914</v>
       </c>
       <c r="J373" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
         <v>1739</v>
       </c>
       <c r="J374" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21135,7 +21135,7 @@
         <v>882</v>
       </c>
       <c r="J375" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -21168,7 +21168,7 @@
         <v>1318</v>
       </c>
       <c r="J376" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21201,7 +21201,7 @@
         <v>1954</v>
       </c>
       <c r="J377" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
         <v>2349</v>
       </c>
       <c r="J378" s="17" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -21265,7 +21265,7 @@
         <v>1486</v>
       </c>
       <c r="J379" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21298,7 +21298,7 @@
         <v>1813</v>
       </c>
       <c r="J380" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21331,7 +21331,7 @@
         <v>1872</v>
       </c>
       <c r="J381" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21364,7 +21364,7 @@
         <v>951</v>
       </c>
       <c r="J382" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21397,7 +21397,7 @@
         <v>1394</v>
       </c>
       <c r="J383" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21430,7 +21430,7 @@
         <v>1426</v>
       </c>
       <c r="J384" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21463,7 +21463,7 @@
         <v>1206</v>
       </c>
       <c r="J385" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -21496,7 +21496,7 @@
         <v>1703</v>
       </c>
       <c r="J386" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -21529,7 +21529,7 @@
         <v>1542</v>
       </c>
       <c r="J387" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21562,7 +21562,7 @@
         <v>1496</v>
       </c>
       <c r="J388" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K388" s="3"/>
@@ -21608,7 +21608,7 @@
         <v>1906</v>
       </c>
       <c r="J389" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21641,7 +21641,7 @@
         <v>1035</v>
       </c>
       <c r="J390" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K390" s="3"/>
@@ -21687,7 +21687,7 @@
         <v>2006</v>
       </c>
       <c r="J391" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21720,7 +21720,7 @@
         <v>2064</v>
       </c>
       <c r="J392" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
         <v>1444</v>
       </c>
       <c r="J393" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K393" s="3"/>
@@ -21799,7 +21799,7 @@
         <v>884</v>
       </c>
       <c r="J394" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K394" s="3"/>
@@ -21845,7 +21845,7 @@
         <v>1647</v>
       </c>
       <c r="J395" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K395" s="3"/>
@@ -21891,7 +21891,7 @@
         <v>2082</v>
       </c>
       <c r="J396" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21924,7 +21924,7 @@
         <v>1130</v>
       </c>
       <c r="J397" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21957,7 +21957,7 @@
         <v>1518</v>
       </c>
       <c r="J398" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -21990,7 +21990,7 @@
         <v>1088</v>
       </c>
       <c r="J399" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K399" s="3"/>
@@ -22036,7 +22036,7 @@
         <v>2062</v>
       </c>
       <c r="J400" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22069,7 +22069,7 @@
         <v>1128</v>
       </c>
       <c r="J401" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22102,7 +22102,7 @@
         <v>1037</v>
       </c>
       <c r="J402" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
         <v>1735</v>
       </c>
       <c r="J403" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -22168,7 +22168,7 @@
         <v>1164</v>
       </c>
       <c r="J404" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22201,7 +22201,7 @@
         <v>1595</v>
       </c>
       <c r="J405" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22234,7 +22234,7 @@
         <v>2252</v>
       </c>
       <c r="J406" s="32" t="str">
-        <f t="shared" ref="J406:J468" si="12">VLOOKUP(B406,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J406:J468" si="15">VLOOKUP(B406,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22249,7 +22249,7 @@
       <c r="H407" s="31"/>
       <c r="I407" s="31"/>
       <c r="J407" s="32" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -22282,7 +22282,7 @@
         <v>2170</v>
       </c>
       <c r="J408" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
         <v>1067</v>
       </c>
       <c r="J409" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22348,7 +22348,7 @@
         <v>1584</v>
       </c>
       <c r="J410" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K410" s="3"/>
@@ -22394,7 +22394,7 @@
         <v>871</v>
       </c>
       <c r="J411" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22427,7 +22427,7 @@
         <v>1254</v>
       </c>
       <c r="J412" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22460,7 +22460,7 @@
         <v>1926</v>
       </c>
       <c r="J413" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -22493,7 +22493,7 @@
         <v>2074</v>
       </c>
       <c r="J414" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22526,7 +22526,7 @@
         <v>975</v>
       </c>
       <c r="J415" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22559,7 +22559,7 @@
         <v>1940</v>
       </c>
       <c r="J416" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22592,7 +22592,7 @@
         <v>1745</v>
       </c>
       <c r="J417" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22625,7 +22625,7 @@
         <v>1779</v>
       </c>
       <c r="J418" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22658,7 +22658,7 @@
         <v>1308</v>
       </c>
       <c r="J419" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22691,7 +22691,7 @@
         <v>2028</v>
       </c>
       <c r="J420" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22724,7 +22724,7 @@
         <v>1039</v>
       </c>
       <c r="J421" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K421" s="3"/>
@@ -22770,7 +22770,7 @@
         <v>1568</v>
       </c>
       <c r="J422" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22803,7 +22803,7 @@
         <v>1021</v>
       </c>
       <c r="J423" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22836,7 +22836,7 @@
         <v>1838</v>
       </c>
       <c r="J424" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22869,7 +22869,7 @@
         <v>1374</v>
       </c>
       <c r="J425" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22902,7 +22902,7 @@
         <v>2180</v>
       </c>
       <c r="J426" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22935,7 +22935,7 @@
         <v>2310</v>
       </c>
       <c r="J427" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -22968,7 +22968,7 @@
         <v>2278</v>
       </c>
       <c r="J428" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
         <v>2110</v>
       </c>
       <c r="J429" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23034,7 +23034,7 @@
         <v>2222</v>
       </c>
       <c r="J430" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23067,7 +23067,7 @@
         <v>1104</v>
       </c>
       <c r="J431" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23100,7 +23100,7 @@
         <v>1140</v>
       </c>
       <c r="J432" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23133,7 +23133,7 @@
         <v>1510</v>
       </c>
       <c r="J433" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23166,7 +23166,7 @@
         <v>2254</v>
       </c>
       <c r="J434" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23199,7 +23199,7 @@
         <v>1344</v>
       </c>
       <c r="J435" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23232,7 +23232,7 @@
         <v>1118</v>
       </c>
       <c r="J436" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23265,7 +23265,7 @@
         <v>1659</v>
       </c>
       <c r="J437" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23298,7 +23298,7 @@
         <v>1047</v>
       </c>
       <c r="J438" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23331,7 +23331,7 @@
         <v>1723</v>
       </c>
       <c r="J439" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -23364,7 +23364,7 @@
         <v>1492</v>
       </c>
       <c r="J440" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23379,7 +23379,7 @@
       <c r="H441" s="31"/>
       <c r="I441" s="31"/>
       <c r="J441" s="32" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -23412,7 +23412,7 @@
         <v>1096</v>
       </c>
       <c r="J442" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23445,7 +23445,7 @@
         <v>1170</v>
       </c>
       <c r="J443" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23478,7 +23478,7 @@
         <v>979</v>
       </c>
       <c r="J444" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23511,7 +23511,7 @@
         <v>1268</v>
       </c>
       <c r="J445" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23544,7 +23544,7 @@
         <v>1049</v>
       </c>
       <c r="J446" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23577,7 +23577,7 @@
         <v>1142</v>
       </c>
       <c r="J447" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23610,7 +23610,7 @@
         <v>1548</v>
       </c>
       <c r="J448" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23643,7 +23643,7 @@
         <v>900</v>
       </c>
       <c r="J449" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -23676,7 +23676,7 @@
         <v>965</v>
       </c>
       <c r="J450" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23709,7 +23709,7 @@
         <v>973</v>
       </c>
       <c r="J451" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23742,7 +23742,7 @@
         <v>981</v>
       </c>
       <c r="J452" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23775,7 +23775,7 @@
         <v>1005</v>
       </c>
       <c r="J453" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23808,7 +23808,7 @@
         <v>1025</v>
       </c>
       <c r="J454" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23841,7 +23841,7 @@
         <v>1031</v>
       </c>
       <c r="J455" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23874,7 +23874,7 @@
         <v>1041</v>
       </c>
       <c r="J456" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23907,7 +23907,7 @@
         <v>1148</v>
       </c>
       <c r="J457" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23940,7 +23940,7 @@
         <v>1172</v>
       </c>
       <c r="J458" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23973,7 +23973,7 @@
         <v>1202</v>
       </c>
       <c r="J459" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24006,7 +24006,7 @@
         <v>1204</v>
       </c>
       <c r="J460" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K460" s="3"/>
@@ -24052,7 +24052,7 @@
         <v>1224</v>
       </c>
       <c r="J461" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K461" s="3"/>
@@ -24098,7 +24098,7 @@
         <v>1252</v>
       </c>
       <c r="J462" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24131,7 +24131,7 @@
         <v>1274</v>
       </c>
       <c r="J463" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K463" s="3"/>
@@ -24177,7 +24177,7 @@
         <v>1290</v>
       </c>
       <c r="J464" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24210,7 +24210,7 @@
         <v>1322</v>
       </c>
       <c r="J465" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24243,7 +24243,7 @@
         <v>1350</v>
       </c>
       <c r="J466" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24276,7 +24276,7 @@
         <v>1366</v>
       </c>
       <c r="J467" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -24309,7 +24309,7 @@
         <v>1382</v>
       </c>
       <c r="J468" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24342,7 +24342,7 @@
         <v>1430</v>
       </c>
       <c r="J469" s="32" t="str">
-        <f t="shared" ref="J469:J532" si="13">VLOOKUP(B469,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J469:J532" si="16">VLOOKUP(B469,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24375,7 +24375,7 @@
         <v>1446</v>
       </c>
       <c r="J470" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24408,7 +24408,7 @@
         <v>1460</v>
       </c>
       <c r="J471" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24441,7 +24441,7 @@
         <v>1488</v>
       </c>
       <c r="J472" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K472" s="3"/>
@@ -24487,7 +24487,7 @@
         <v>1538</v>
       </c>
       <c r="J473" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24520,7 +24520,7 @@
         <v>1580</v>
       </c>
       <c r="J474" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K474" s="3"/>
@@ -24566,7 +24566,7 @@
         <v>1615</v>
       </c>
       <c r="J475" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24599,7 +24599,7 @@
         <v>1629</v>
       </c>
       <c r="J476" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24632,7 +24632,7 @@
         <v>1669</v>
       </c>
       <c r="J477" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
         <v>1681</v>
       </c>
       <c r="J478" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24680,7 +24680,7 @@
       <c r="H479" s="31"/>
       <c r="I479" s="31"/>
       <c r="J479" s="32" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -24713,7 +24713,7 @@
         <v>1709</v>
       </c>
       <c r="J480" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24746,7 +24746,7 @@
         <v>1719</v>
       </c>
       <c r="J481" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24779,7 +24779,7 @@
         <v>1747</v>
       </c>
       <c r="J482" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K482" s="3"/>
@@ -24825,7 +24825,7 @@
         <v>1771</v>
       </c>
       <c r="J483" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24858,7 +24858,7 @@
         <v>1775</v>
       </c>
       <c r="J484" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K484" s="3"/>
@@ -24904,7 +24904,7 @@
         <v>1807</v>
       </c>
       <c r="J485" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K485" s="3"/>
@@ -24950,7 +24950,7 @@
         <v>1836</v>
       </c>
       <c r="J486" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24983,7 +24983,7 @@
         <v>1878</v>
       </c>
       <c r="J487" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
         <v>1880</v>
       </c>
       <c r="J488" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25049,7 +25049,7 @@
         <v>1910</v>
       </c>
       <c r="J489" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25082,7 +25082,7 @@
         <v>1918</v>
       </c>
       <c r="J490" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25115,7 +25115,7 @@
         <v>1922</v>
       </c>
       <c r="J491" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25148,7 +25148,7 @@
         <v>1956</v>
       </c>
       <c r="J492" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25181,7 +25181,7 @@
         <v>1960</v>
       </c>
       <c r="J493" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25214,7 +25214,7 @@
         <v>2008</v>
       </c>
       <c r="J494" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25247,7 +25247,7 @@
         <v>2044</v>
       </c>
       <c r="J495" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25280,7 +25280,7 @@
         <v>2046</v>
       </c>
       <c r="J496" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25313,7 +25313,7 @@
         <v>2066</v>
       </c>
       <c r="J497" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25346,7 +25346,7 @@
         <v>2100</v>
       </c>
       <c r="J498" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25379,7 +25379,7 @@
         <v>2108</v>
       </c>
       <c r="J499" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25412,7 +25412,7 @@
         <v>2120</v>
       </c>
       <c r="J500" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25445,7 +25445,7 @@
         <v>2136</v>
       </c>
       <c r="J501" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
         <v>2146</v>
       </c>
       <c r="J502" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25511,7 +25511,7 @@
         <v>2166</v>
       </c>
       <c r="J503" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25544,7 +25544,7 @@
         <v>2176</v>
       </c>
       <c r="J504" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25577,7 +25577,7 @@
         <v>2196</v>
       </c>
       <c r="J505" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25610,7 +25610,7 @@
         <v>2206</v>
       </c>
       <c r="J506" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
         <v>2228</v>
       </c>
       <c r="J507" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25676,7 +25676,7 @@
         <v>2230</v>
       </c>
       <c r="J508" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25709,7 +25709,7 @@
         <v>2268</v>
       </c>
       <c r="J509" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25742,7 +25742,7 @@
         <v>2274</v>
       </c>
       <c r="J510" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
         <v>2290</v>
       </c>
       <c r="J511" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25808,7 +25808,7 @@
         <v>2294</v>
       </c>
       <c r="J512" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25841,7 +25841,7 @@
         <v>1033</v>
       </c>
       <c r="J513" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -25874,7 +25874,7 @@
         <v>1071</v>
       </c>
       <c r="J514" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25907,7 +25907,7 @@
         <v>1324</v>
       </c>
       <c r="J515" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25940,7 +25940,7 @@
         <v>1288</v>
       </c>
       <c r="J516" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -25973,7 +25973,7 @@
         <v>1132</v>
       </c>
       <c r="J517" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26006,7 +26006,7 @@
         <v>1043</v>
       </c>
       <c r="J518" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26039,7 +26039,7 @@
         <v>1051</v>
       </c>
       <c r="J519" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26072,7 +26072,7 @@
         <v>1057</v>
       </c>
       <c r="J520" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26105,7 +26105,7 @@
         <v>896</v>
       </c>
       <c r="J521" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26138,7 +26138,7 @@
         <v>908</v>
       </c>
       <c r="J522" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26171,7 +26171,7 @@
         <v>923</v>
       </c>
       <c r="J523" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26204,7 +26204,7 @@
         <v>931</v>
       </c>
       <c r="J524" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26237,7 +26237,7 @@
         <v>957</v>
       </c>
       <c r="J525" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -26270,7 +26270,7 @@
         <v>1017</v>
       </c>
       <c r="J526" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26303,7 +26303,7 @@
         <v>1045</v>
       </c>
       <c r="J527" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26336,7 +26336,7 @@
         <v>1059</v>
       </c>
       <c r="J528" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26369,7 +26369,7 @@
         <v>1094</v>
       </c>
       <c r="J529" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26402,7 +26402,7 @@
         <v>1126</v>
       </c>
       <c r="J530" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26435,7 +26435,7 @@
         <v>1138</v>
       </c>
       <c r="J531" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K531" s="3"/>
@@ -26481,7 +26481,7 @@
         <v>1176</v>
       </c>
       <c r="J532" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26514,7 +26514,7 @@
         <v>1218</v>
       </c>
       <c r="J533" s="32" t="str">
-        <f t="shared" ref="J533:J596" si="14">VLOOKUP(B533,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J533:J596" si="17">VLOOKUP(B533,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K533" s="3"/>
@@ -26560,7 +26560,7 @@
         <v>1352</v>
       </c>
       <c r="J534" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26593,7 +26593,7 @@
         <v>1372</v>
       </c>
       <c r="J535" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K535" s="3"/>
@@ -26639,7 +26639,7 @@
         <v>1390</v>
       </c>
       <c r="J536" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K536" s="3"/>
@@ -26685,7 +26685,7 @@
         <v>1398</v>
       </c>
       <c r="J537" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K537" s="3"/>
@@ -26731,7 +26731,7 @@
         <v>1404</v>
       </c>
       <c r="J538" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26764,7 +26764,7 @@
         <v>1428</v>
       </c>
       <c r="J539" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26797,7 +26797,7 @@
         <v>1456</v>
       </c>
       <c r="J540" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26830,7 +26830,7 @@
         <v>1468</v>
       </c>
       <c r="J541" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26863,7 +26863,7 @@
         <v>1516</v>
       </c>
       <c r="J542" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K542" s="3"/>
@@ -26909,7 +26909,7 @@
         <v>1633</v>
       </c>
       <c r="J543" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -26942,7 +26942,7 @@
         <v>1560</v>
       </c>
       <c r="J544" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K544" s="3"/>
@@ -26988,7 +26988,7 @@
         <v>1609</v>
       </c>
       <c r="J545" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K545" s="3"/>
@@ -27034,7 +27034,7 @@
         <v>1621</v>
       </c>
       <c r="J546" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27067,7 +27067,7 @@
         <v>1639</v>
       </c>
       <c r="J547" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27100,7 +27100,7 @@
         <v>1649</v>
       </c>
       <c r="J548" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27133,7 +27133,7 @@
         <v>1661</v>
       </c>
       <c r="J549" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27166,7 +27166,7 @@
         <v>1671</v>
       </c>
       <c r="J550" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27199,7 +27199,7 @@
         <v>1673</v>
       </c>
       <c r="J551" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27232,7 +27232,7 @@
         <v>1699</v>
       </c>
       <c r="J552" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27265,7 +27265,7 @@
         <v>1737</v>
       </c>
       <c r="J553" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27298,7 +27298,7 @@
         <v>1743</v>
       </c>
       <c r="J554" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K554" s="3"/>
@@ -27344,7 +27344,7 @@
         <v>1787</v>
       </c>
       <c r="J555" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27377,7 +27377,7 @@
         <v>1795</v>
       </c>
       <c r="J556" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27410,7 +27410,7 @@
         <v>1797</v>
       </c>
       <c r="J557" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27443,7 +27443,7 @@
         <v>1821</v>
       </c>
       <c r="J558" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -27476,7 +27476,7 @@
         <v>1830</v>
       </c>
       <c r="J559" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27509,7 +27509,7 @@
         <v>1848</v>
       </c>
       <c r="J560" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27542,7 +27542,7 @@
         <v>1886</v>
       </c>
       <c r="J561" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
         <v>1888</v>
       </c>
       <c r="J562" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27608,7 +27608,7 @@
         <v>1900</v>
       </c>
       <c r="J563" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27641,7 +27641,7 @@
         <v>1932</v>
       </c>
       <c r="J564" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27674,7 +27674,7 @@
         <v>1950</v>
       </c>
       <c r="J565" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27707,7 +27707,7 @@
         <v>1974</v>
       </c>
       <c r="J566" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27740,7 +27740,7 @@
         <v>1990</v>
       </c>
       <c r="J567" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27773,7 +27773,7 @@
         <v>1996</v>
       </c>
       <c r="J568" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27806,7 +27806,7 @@
         <v>1998</v>
       </c>
       <c r="J569" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27839,7 +27839,7 @@
         <v>2020</v>
       </c>
       <c r="J570" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27872,7 +27872,7 @@
         <v>2052</v>
       </c>
       <c r="J571" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27905,7 +27905,7 @@
         <v>2068</v>
       </c>
       <c r="J572" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27938,7 +27938,7 @@
         <v>2076</v>
       </c>
       <c r="J573" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -27971,7 +27971,7 @@
         <v>2090</v>
       </c>
       <c r="J574" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28004,7 +28004,7 @@
         <v>2092</v>
       </c>
       <c r="J575" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28037,7 +28037,7 @@
         <v>2132</v>
       </c>
       <c r="J576" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
         <v>2150</v>
       </c>
       <c r="J577" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28103,7 +28103,7 @@
         <v>2164</v>
       </c>
       <c r="J578" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28136,7 +28136,7 @@
         <v>2184</v>
       </c>
       <c r="J579" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28169,7 +28169,7 @@
         <v>2192</v>
       </c>
       <c r="J580" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28202,7 +28202,7 @@
         <v>2202</v>
       </c>
       <c r="J581" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28235,7 +28235,7 @@
         <v>2226</v>
       </c>
       <c r="J582" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28268,7 +28268,7 @@
         <v>2234</v>
       </c>
       <c r="J583" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28301,7 +28301,7 @@
         <v>2256</v>
       </c>
       <c r="J584" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28334,7 +28334,7 @@
         <v>2262</v>
       </c>
       <c r="J585" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
         <v>2292</v>
       </c>
       <c r="J586" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28400,7 +28400,7 @@
         <v>2314</v>
       </c>
       <c r="J587" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28433,7 +28433,7 @@
         <v>1178</v>
       </c>
       <c r="J588" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28466,7 +28466,7 @@
         <v>1266</v>
       </c>
       <c r="J589" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28499,7 +28499,7 @@
         <v>953</v>
       </c>
       <c r="J590" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28532,7 +28532,7 @@
         <v>1122</v>
       </c>
       <c r="J591" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -28565,7 +28565,7 @@
         <v>989</v>
       </c>
       <c r="J592" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="L592" s="2"/>
@@ -28599,7 +28599,7 @@
         <v>1029</v>
       </c>
       <c r="J593" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28632,7 +28632,7 @@
         <v>1063</v>
       </c>
       <c r="J594" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28665,7 +28665,7 @@
         <v>2298</v>
       </c>
       <c r="J595" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28698,7 +28698,7 @@
         <v>873</v>
       </c>
       <c r="J596" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28731,7 +28731,7 @@
         <v>2276</v>
       </c>
       <c r="J597" s="32" t="str">
-        <f t="shared" ref="J597:J657" si="15">VLOOKUP(B597,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J597:J657" si="18">VLOOKUP(B597,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28764,7 +28764,7 @@
         <v>1110</v>
       </c>
       <c r="J598" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28797,7 +28797,7 @@
         <v>1108</v>
       </c>
       <c r="J599" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28830,7 +28830,7 @@
         <v>1508</v>
       </c>
       <c r="J600" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28863,7 +28863,7 @@
         <v>888</v>
       </c>
       <c r="J601" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28896,7 +28896,7 @@
         <v>906</v>
       </c>
       <c r="J602" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28929,7 +28929,7 @@
         <v>910</v>
       </c>
       <c r="J603" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28962,7 +28962,7 @@
         <v>935</v>
       </c>
       <c r="J604" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28995,7 +28995,7 @@
         <v>2220</v>
       </c>
       <c r="J605" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -29028,7 +29028,7 @@
         <v>991</v>
       </c>
       <c r="J606" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29061,7 +29061,7 @@
         <v>1001</v>
       </c>
       <c r="J607" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29094,7 +29094,7 @@
         <v>1314</v>
       </c>
       <c r="J608" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -29127,7 +29127,7 @@
         <v>1134</v>
       </c>
       <c r="J609" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K609" s="3"/>
@@ -29173,7 +29173,7 @@
         <v>1194</v>
       </c>
       <c r="J610" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -29206,7 +29206,7 @@
         <v>1815</v>
       </c>
       <c r="J611" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K611" s="3"/>
@@ -29252,7 +29252,7 @@
         <v>1326</v>
       </c>
       <c r="J612" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29285,7 +29285,7 @@
         <v>1360</v>
       </c>
       <c r="J613" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K613" s="3"/>
@@ -29331,7 +29331,7 @@
         <v>1384</v>
       </c>
       <c r="J614" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29364,7 +29364,7 @@
         <v>1410</v>
       </c>
       <c r="J615" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29397,7 +29397,7 @@
         <v>1412</v>
       </c>
       <c r="J616" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K616" s="3"/>
@@ -29443,7 +29443,7 @@
         <v>1436</v>
       </c>
       <c r="J617" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K617" s="3"/>
@@ -29489,7 +29489,7 @@
         <v>1454</v>
       </c>
       <c r="J618" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K618" s="3"/>
@@ -29535,7 +29535,7 @@
         <v>1480</v>
       </c>
       <c r="J619" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29568,7 +29568,7 @@
         <v>1526</v>
       </c>
       <c r="J620" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29601,7 +29601,7 @@
         <v>1534</v>
       </c>
       <c r="J621" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29610,7 +29610,7 @@
         <v>622</v>
       </c>
       <c r="B622" s="29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C622" s="30" t="s">
         <v>740</v>
@@ -29634,8 +29634,8 @@
         <v>1536</v>
       </c>
       <c r="J622" s="32" t="str">
-        <f t="shared" si="15"/>
-        <v>9/29(월)~9/30(화)</v>
+        <f t="shared" si="18"/>
+        <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
     <row r="623" spans="1:23" ht="31.2">
@@ -29667,7 +29667,7 @@
         <v>1566</v>
       </c>
       <c r="J623" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29700,7 +29700,7 @@
         <v>1570</v>
       </c>
       <c r="J624" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29733,7 +29733,7 @@
         <v>969</v>
       </c>
       <c r="J625" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -29766,7 +29766,7 @@
         <v>1588</v>
       </c>
       <c r="J626" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29799,7 +29799,7 @@
         <v>1637</v>
       </c>
       <c r="J627" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K627" s="3"/>
@@ -29845,7 +29845,7 @@
         <v>1665</v>
       </c>
       <c r="J628" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29878,7 +29878,7 @@
         <v>1667</v>
       </c>
       <c r="J629" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29911,7 +29911,7 @@
         <v>1693</v>
       </c>
       <c r="J630" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29944,7 +29944,7 @@
         <v>1697</v>
       </c>
       <c r="J631" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29977,7 +29977,7 @@
         <v>1701</v>
       </c>
       <c r="J632" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30010,7 +30010,7 @@
         <v>1715</v>
       </c>
       <c r="J633" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30043,7 +30043,7 @@
         <v>1731</v>
       </c>
       <c r="J634" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30076,7 +30076,7 @@
         <v>1741</v>
       </c>
       <c r="J635" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30109,7 +30109,7 @@
         <v>1781</v>
       </c>
       <c r="J636" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30142,7 +30142,7 @@
         <v>1819</v>
       </c>
       <c r="J637" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30175,7 +30175,7 @@
         <v>1846</v>
       </c>
       <c r="J638" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30208,7 +30208,7 @@
         <v>1870</v>
       </c>
       <c r="J639" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30241,7 +30241,7 @@
         <v>1892</v>
       </c>
       <c r="J640" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30274,7 +30274,7 @@
         <v>1894</v>
       </c>
       <c r="J641" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30307,7 +30307,7 @@
         <v>1914</v>
       </c>
       <c r="J642" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30340,7 +30340,7 @@
         <v>1938</v>
       </c>
       <c r="J643" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30373,7 +30373,7 @@
         <v>1962</v>
       </c>
       <c r="J644" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30406,7 +30406,7 @@
         <v>1970</v>
       </c>
       <c r="J645" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30439,7 +30439,7 @@
         <v>1994</v>
       </c>
       <c r="J646" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30472,7 +30472,7 @@
         <v>2004</v>
       </c>
       <c r="J647" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30505,7 +30505,7 @@
         <v>2012</v>
       </c>
       <c r="J648" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30538,7 +30538,7 @@
         <v>2048</v>
       </c>
       <c r="J649" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30571,7 +30571,7 @@
         <v>2072</v>
       </c>
       <c r="J650" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30604,7 +30604,7 @@
         <v>2094</v>
       </c>
       <c r="J651" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30637,7 +30637,7 @@
         <v>2106</v>
       </c>
       <c r="J652" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30670,7 +30670,7 @@
         <v>2122</v>
       </c>
       <c r="J653" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30703,7 +30703,7 @@
         <v>2134</v>
       </c>
       <c r="J654" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30736,7 +30736,7 @@
         <v>2152</v>
       </c>
       <c r="J655" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30769,7 +30769,7 @@
         <v>2160</v>
       </c>
       <c r="J656" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30802,7 +30802,7 @@
         <v>2190</v>
       </c>
       <c r="J657" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30835,7 +30835,7 @@
         <v>2194</v>
       </c>
       <c r="J658" s="32" t="str">
-        <f t="shared" ref="J658:J717" si="16">VLOOKUP(B658,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J658:J717" si="19">VLOOKUP(B658,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30868,7 +30868,7 @@
         <v>2200</v>
       </c>
       <c r="J659" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30901,7 +30901,7 @@
         <v>2224</v>
       </c>
       <c r="J660" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30934,7 +30934,7 @@
         <v>2258</v>
       </c>
       <c r="J661" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -30967,7 +30967,7 @@
         <v>2284</v>
       </c>
       <c r="J662" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31000,7 +31000,7 @@
         <v>2312</v>
       </c>
       <c r="J663" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31033,7 +31033,7 @@
         <v>878</v>
       </c>
       <c r="J664" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31066,7 +31066,7 @@
         <v>993</v>
       </c>
       <c r="J665" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31099,7 +31099,7 @@
         <v>1009</v>
       </c>
       <c r="J666" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31132,7 +31132,7 @@
         <v>1082</v>
       </c>
       <c r="J667" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31165,7 +31165,7 @@
         <v>1320</v>
       </c>
       <c r="J668" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -31198,7 +31198,7 @@
         <v>955</v>
       </c>
       <c r="J669" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31231,7 +31231,7 @@
         <v>2323</v>
       </c>
       <c r="J670" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31264,7 +31264,7 @@
         <v>1358</v>
       </c>
       <c r="J671" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31297,7 +31297,7 @@
         <v>1540</v>
       </c>
       <c r="J672" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K672" s="3"/>
@@ -31343,7 +31343,7 @@
         <v>967</v>
       </c>
       <c r="J673" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31376,7 +31376,7 @@
         <v>1158</v>
       </c>
       <c r="J674" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31409,7 +31409,7 @@
         <v>921</v>
       </c>
       <c r="J675" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31442,7 +31442,7 @@
         <v>933</v>
       </c>
       <c r="J676" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K676" s="3"/>
@@ -31488,7 +31488,7 @@
         <v>943</v>
       </c>
       <c r="J677" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K677" s="3"/>
@@ -31534,7 +31534,7 @@
         <v>963</v>
       </c>
       <c r="J678" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31567,7 +31567,7 @@
         <v>987</v>
       </c>
       <c r="J679" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31600,7 +31600,7 @@
         <v>1077</v>
       </c>
       <c r="J680" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K680" s="3"/>
@@ -31646,7 +31646,7 @@
         <v>1098</v>
       </c>
       <c r="J681" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31679,7 +31679,7 @@
         <v>1106</v>
       </c>
       <c r="J682" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31712,7 +31712,7 @@
         <v>1146</v>
       </c>
       <c r="J683" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K683" s="3"/>
@@ -31758,7 +31758,7 @@
         <v>1156</v>
       </c>
       <c r="J684" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31791,7 +31791,7 @@
         <v>1174</v>
       </c>
       <c r="J685" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31824,7 +31824,7 @@
         <v>1230</v>
       </c>
       <c r="J686" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K686" s="3"/>
@@ -31870,7 +31870,7 @@
         <v>1236</v>
       </c>
       <c r="J687" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -31903,7 +31903,7 @@
         <v>1262</v>
       </c>
       <c r="J688" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -31936,7 +31936,7 @@
         <v>1342</v>
       </c>
       <c r="J689" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31969,7 +31969,7 @@
         <v>1354</v>
       </c>
       <c r="J690" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32002,7 +32002,7 @@
         <v>1362</v>
       </c>
       <c r="J691" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32035,7 +32035,7 @@
         <v>1368</v>
       </c>
       <c r="J692" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32068,7 +32068,7 @@
         <v>1380</v>
       </c>
       <c r="J693" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K693" s="3"/>
@@ -32114,7 +32114,7 @@
         <v>1392</v>
       </c>
       <c r="J694" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K694" s="3"/>
@@ -32160,7 +32160,7 @@
         <v>1396</v>
       </c>
       <c r="J695" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32193,7 +32193,7 @@
         <v>1408</v>
       </c>
       <c r="J696" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -32226,7 +32226,7 @@
         <v>1440</v>
       </c>
       <c r="J697" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32259,7 +32259,7 @@
         <v>1462</v>
       </c>
       <c r="J698" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32292,7 +32292,7 @@
         <v>1476</v>
       </c>
       <c r="J699" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32325,7 +32325,7 @@
         <v>1546</v>
       </c>
       <c r="J700" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32358,7 +32358,7 @@
         <v>1562</v>
       </c>
       <c r="J701" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32391,7 +32391,7 @@
         <v>1572</v>
       </c>
       <c r="J702" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32424,7 +32424,7 @@
         <v>1593</v>
       </c>
       <c r="J703" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32457,7 +32457,7 @@
         <v>1601</v>
       </c>
       <c r="J704" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32490,7 +32490,7 @@
         <v>1611</v>
       </c>
       <c r="J705" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32523,7 +32523,7 @@
         <v>1641</v>
       </c>
       <c r="J706" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32556,7 +32556,7 @@
         <v>1689</v>
       </c>
       <c r="J707" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32589,7 +32589,7 @@
         <v>1691</v>
       </c>
       <c r="J708" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32622,7 +32622,7 @@
         <v>1759</v>
       </c>
       <c r="J709" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32655,7 +32655,7 @@
         <v>1765</v>
       </c>
       <c r="J710" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32688,7 +32688,7 @@
         <v>1783</v>
       </c>
       <c r="J711" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32721,7 +32721,7 @@
         <v>1789</v>
       </c>
       <c r="J712" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32754,7 +32754,7 @@
         <v>1791</v>
       </c>
       <c r="J713" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32787,7 +32787,7 @@
         <v>1811</v>
       </c>
       <c r="J714" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32820,7 +32820,7 @@
         <v>1825</v>
       </c>
       <c r="J715" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -32853,7 +32853,7 @@
         <v>1842</v>
       </c>
       <c r="J716" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32886,7 +32886,7 @@
         <v>1876</v>
       </c>
       <c r="J717" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32919,7 +32919,7 @@
         <v>1882</v>
       </c>
       <c r="J718" s="32" t="str">
-        <f t="shared" ref="J718:J742" si="17">VLOOKUP(B718,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J718:J742" si="20">VLOOKUP(B718,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32952,7 +32952,7 @@
         <v>1916</v>
       </c>
       <c r="J719" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -32985,7 +32985,7 @@
         <v>1934</v>
       </c>
       <c r="J720" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33018,7 +33018,7 @@
         <v>1944</v>
       </c>
       <c r="J721" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33051,7 +33051,7 @@
         <v>1986</v>
       </c>
       <c r="J722" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33084,7 +33084,7 @@
         <v>1992</v>
       </c>
       <c r="J723" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33117,7 +33117,7 @@
         <v>2022</v>
       </c>
       <c r="J724" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -33150,7 +33150,7 @@
         <v>2026</v>
       </c>
       <c r="J725" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33183,7 +33183,7 @@
         <v>2060</v>
       </c>
       <c r="J726" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33216,7 +33216,7 @@
         <v>2078</v>
       </c>
       <c r="J727" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33249,7 +33249,7 @@
         <v>2084</v>
       </c>
       <c r="J728" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33282,7 +33282,7 @@
         <v>2102</v>
       </c>
       <c r="J729" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33315,7 +33315,7 @@
         <v>2138</v>
       </c>
       <c r="J730" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33348,7 +33348,7 @@
         <v>2142</v>
       </c>
       <c r="J731" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33381,7 +33381,7 @@
         <v>2162</v>
       </c>
       <c r="J732" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33414,7 +33414,7 @@
         <v>2286</v>
       </c>
       <c r="J733" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -33447,7 +33447,7 @@
         <v>2296</v>
       </c>
       <c r="J734" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33480,7 +33480,7 @@
         <v>2304</v>
       </c>
       <c r="J735" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -33513,7 +33513,7 @@
         <v>2168</v>
       </c>
       <c r="J736" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -33544,7 +33544,7 @@
         <v>2333</v>
       </c>
       <c r="J737" s="17" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33575,7 +33575,7 @@
         <v>2336</v>
       </c>
       <c r="J738" s="17" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33608,7 +33608,7 @@
         <v>898</v>
       </c>
       <c r="J739" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -33641,7 +33641,7 @@
         <v>1823</v>
       </c>
       <c r="J740" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -33674,7 +33674,7 @@
         <v>1890</v>
       </c>
       <c r="J741" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -33707,7 +33707,7 @@
         <v>2244</v>
       </c>
       <c r="J742" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9/15(월)~9/16(화)</v>
       </c>
     </row>
@@ -33738,7 +33738,7 @@
         <v>2352</v>
       </c>
       <c r="J743" s="17" t="e">
-        <f t="shared" ref="J743:J746" si="18">VLOOKUP(B743,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J743:J746" si="21">VLOOKUP(B743,$L$5:$M$14,2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33769,7 +33769,7 @@
         <v>2355</v>
       </c>
       <c r="J744" s="17" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33800,7 +33800,7 @@
         <v>2358</v>
       </c>
       <c r="J745" s="17" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33831,7 +33831,7 @@
         <v>2362</v>
       </c>
       <c r="J746" s="17" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
